--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,12 @@
     <t>['69', '82']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -778,9 +784,6 @@
     <t>['4', '45+1']</t>
   </si>
   <si>
-    <t>['11']</t>
-  </si>
-  <si>
     <t>['62', '90+1']</t>
   </si>
   <si>
@@ -857,6 +860,12 @@
   </si>
   <si>
     <t>['32', '58']</t>
+  </si>
+  <si>
+    <t>['35', '54', '82']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1486,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1764,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1889,7 +1898,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2301,7 +2310,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2507,7 +2516,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3125,7 +3134,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4030,7 +4039,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4648,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4979,7 +4988,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5597,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5803,7 +5812,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5881,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -6009,7 +6018,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6087,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.83</v>
@@ -6421,7 +6430,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6499,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6833,7 +6842,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7117,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -8356,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.24</v>
@@ -8481,7 +8490,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8974,7 +8983,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.8</v>
@@ -9305,7 +9314,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9386,7 +9395,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.12</v>
@@ -10129,7 +10138,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10335,7 +10344,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10541,7 +10550,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10747,7 +10756,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10953,7 +10962,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11240,7 +11249,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -11571,7 +11580,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11855,7 +11864,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -12189,7 +12198,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12679,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.67</v>
@@ -13013,7 +13022,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13297,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13503,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13631,7 +13640,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -13712,7 +13721,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>0.96</v>
@@ -14867,7 +14876,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15360,7 +15369,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>2.02</v>
@@ -15566,7 +15575,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16103,7 +16112,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16593,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>0.14</v>
@@ -16927,7 +16936,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17133,7 +17142,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17545,7 +17554,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17751,7 +17760,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17829,7 +17838,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -17957,7 +17966,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18369,7 +18378,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18447,7 +18456,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -19065,7 +19074,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>0.33</v>
@@ -19193,7 +19202,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19399,7 +19408,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19605,7 +19614,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20017,7 +20026,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20098,7 +20107,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.86</v>
@@ -20510,7 +20519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.94</v>
@@ -20841,7 +20850,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21047,7 +21056,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21128,7 +21137,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR97">
         <v>1.54</v>
@@ -21871,7 +21880,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22158,7 +22167,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -23313,7 +23322,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23519,7 +23528,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23725,7 +23734,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23803,7 +23812,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110">
         <v>1.71</v>
@@ -24009,7 +24018,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>0.57</v>
@@ -24137,7 +24146,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24549,7 +24558,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24755,7 +24764,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24961,7 +24970,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25167,7 +25176,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25248,7 +25257,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR117">
         <v>1.81</v>
@@ -25579,7 +25588,7 @@
         <v>100</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25785,7 +25794,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26197,7 +26206,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26403,7 +26412,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26687,7 +26696,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
         <v>1.71</v>
@@ -27433,7 +27442,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28257,7 +28266,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28335,7 +28344,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>1.57</v>
@@ -28747,7 +28756,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ134">
         <v>1.38</v>
@@ -28875,7 +28884,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29368,7 +29377,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR137">
         <v>1.28</v>
@@ -29780,7 +29789,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ139">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR139">
         <v>1.9</v>
@@ -30935,7 +30944,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31141,7 +31150,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31219,7 +31228,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>0.5</v>
@@ -31347,7 +31356,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31428,7 +31437,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31553,7 +31562,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31759,7 +31768,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31840,7 +31849,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -31965,7 +31974,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32043,7 +32052,7 @@
         <v>0.8</v>
       </c>
       <c r="AP150">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32583,7 +32592,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32995,7 +33004,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33201,7 +33210,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34231,7 +34240,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34643,7 +34652,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34849,7 +34858,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35133,7 +35142,7 @@
         <v>0.2</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ165">
         <v>0.71</v>
@@ -35673,7 +35682,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36085,7 +36094,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36166,7 +36175,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.32</v>
@@ -36291,7 +36300,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36575,7 +36584,7 @@
         <v>0.67</v>
       </c>
       <c r="AP172">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ172">
         <v>0.57</v>
@@ -36703,7 +36712,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36784,7 +36793,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR173">
         <v>1.82</v>
@@ -36987,10 +36996,10 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR174">
         <v>1.83</v>
@@ -37115,7 +37124,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>3.25</v>
@@ -37811,7 +37820,7 @@
         <v>0.6</v>
       </c>
       <c r="AP178">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ178">
         <v>0.5</v>
@@ -38145,7 +38154,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38351,7 +38360,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38432,7 +38441,7 @@
         <v>2</v>
       </c>
       <c r="AQ181">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR181">
         <v>1.25</v>
@@ -38557,7 +38566,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39381,7 +39390,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39587,7 +39596,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39665,7 +39674,7 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -40205,7 +40214,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40411,7 +40420,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40617,7 +40626,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41235,7 +41244,7 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41598,6 +41607,830 @@
       </c>
       <c r="BP196">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7820523</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45765.70833333334</v>
+      </c>
+      <c r="F197">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>92</v>
+      </c>
+      <c r="H197" t="s">
+        <v>95</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>100</v>
+      </c>
+      <c r="P197" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q197">
+        <v>4.75</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>2.75</v>
+      </c>
+      <c r="T197">
+        <v>1.53</v>
+      </c>
+      <c r="U197">
+        <v>2.38</v>
+      </c>
+      <c r="V197">
+        <v>3.75</v>
+      </c>
+      <c r="W197">
+        <v>1.25</v>
+      </c>
+      <c r="X197">
+        <v>11</v>
+      </c>
+      <c r="Y197">
+        <v>1.05</v>
+      </c>
+      <c r="Z197">
+        <v>3.9</v>
+      </c>
+      <c r="AA197">
+        <v>3.3</v>
+      </c>
+      <c r="AB197">
+        <v>2</v>
+      </c>
+      <c r="AC197">
+        <v>1.08</v>
+      </c>
+      <c r="AD197">
+        <v>7.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.44</v>
+      </c>
+      <c r="AF197">
+        <v>2.7</v>
+      </c>
+      <c r="AG197">
+        <v>2.4</v>
+      </c>
+      <c r="AH197">
+        <v>1.53</v>
+      </c>
+      <c r="AI197">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.67</v>
+      </c>
+      <c r="AK197">
+        <v>1.71</v>
+      </c>
+      <c r="AL197">
+        <v>1.33</v>
+      </c>
+      <c r="AM197">
+        <v>1.27</v>
+      </c>
+      <c r="AN197">
+        <v>1.5</v>
+      </c>
+      <c r="AO197">
+        <v>1.33</v>
+      </c>
+      <c r="AP197">
+        <v>1.29</v>
+      </c>
+      <c r="AQ197">
+        <v>1.57</v>
+      </c>
+      <c r="AR197">
+        <v>1.54</v>
+      </c>
+      <c r="AS197">
+        <v>1.75</v>
+      </c>
+      <c r="AT197">
+        <v>3.29</v>
+      </c>
+      <c r="AU197">
+        <v>3</v>
+      </c>
+      <c r="AV197">
+        <v>6</v>
+      </c>
+      <c r="AW197">
+        <v>7</v>
+      </c>
+      <c r="AX197">
+        <v>6</v>
+      </c>
+      <c r="AY197">
+        <v>10</v>
+      </c>
+      <c r="AZ197">
+        <v>14</v>
+      </c>
+      <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>6</v>
+      </c>
+      <c r="BD197">
+        <v>2.4</v>
+      </c>
+      <c r="BE197">
+        <v>6.5</v>
+      </c>
+      <c r="BF197">
+        <v>1.7</v>
+      </c>
+      <c r="BG197">
+        <v>1.44</v>
+      </c>
+      <c r="BH197">
+        <v>2.55</v>
+      </c>
+      <c r="BI197">
+        <v>1.72</v>
+      </c>
+      <c r="BJ197">
+        <v>1.97</v>
+      </c>
+      <c r="BK197">
+        <v>2.17</v>
+      </c>
+      <c r="BL197">
+        <v>1.6</v>
+      </c>
+      <c r="BM197">
+        <v>2.8</v>
+      </c>
+      <c r="BN197">
+        <v>1.37</v>
+      </c>
+      <c r="BO197">
+        <v>3.7</v>
+      </c>
+      <c r="BP197">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7820511</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45765.80208333334</v>
+      </c>
+      <c r="F198">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>97</v>
+      </c>
+      <c r="H198" t="s">
+        <v>84</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>214</v>
+      </c>
+      <c r="P198" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q198">
+        <v>2.3</v>
+      </c>
+      <c r="R198">
+        <v>2.2</v>
+      </c>
+      <c r="S198">
+        <v>5.5</v>
+      </c>
+      <c r="T198">
+        <v>1.4</v>
+      </c>
+      <c r="U198">
+        <v>2.75</v>
+      </c>
+      <c r="V198">
+        <v>2.75</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>1.67</v>
+      </c>
+      <c r="AA198">
+        <v>3.6</v>
+      </c>
+      <c r="AB198">
+        <v>5.5</v>
+      </c>
+      <c r="AC198">
+        <v>1.05</v>
+      </c>
+      <c r="AD198">
+        <v>9</v>
+      </c>
+      <c r="AE198">
+        <v>1.3</v>
+      </c>
+      <c r="AF198">
+        <v>3.4</v>
+      </c>
+      <c r="AG198">
+        <v>1.95</v>
+      </c>
+      <c r="AH198">
+        <v>1.85</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.91</v>
+      </c>
+      <c r="AK198">
+        <v>1.22</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.9</v>
+      </c>
+      <c r="AN198">
+        <v>1.8</v>
+      </c>
+      <c r="AO198">
+        <v>0.8</v>
+      </c>
+      <c r="AP198">
+        <v>2</v>
+      </c>
+      <c r="AQ198">
+        <v>0.67</v>
+      </c>
+      <c r="AR198">
+        <v>1.67</v>
+      </c>
+      <c r="AS198">
+        <v>1.28</v>
+      </c>
+      <c r="AT198">
+        <v>2.95</v>
+      </c>
+      <c r="AU198">
+        <v>7</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>12</v>
+      </c>
+      <c r="AX198">
+        <v>7</v>
+      </c>
+      <c r="AY198">
+        <v>23</v>
+      </c>
+      <c r="AZ198">
+        <v>15</v>
+      </c>
+      <c r="BA198">
+        <v>9</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>12</v>
+      </c>
+      <c r="BD198">
+        <v>1.46</v>
+      </c>
+      <c r="BE198">
+        <v>7</v>
+      </c>
+      <c r="BF198">
+        <v>3.05</v>
+      </c>
+      <c r="BG198">
+        <v>1.38</v>
+      </c>
+      <c r="BH198">
+        <v>2.75</v>
+      </c>
+      <c r="BI198">
+        <v>1.63</v>
+      </c>
+      <c r="BJ198">
+        <v>2.1</v>
+      </c>
+      <c r="BK198">
+        <v>2</v>
+      </c>
+      <c r="BL198">
+        <v>1.71</v>
+      </c>
+      <c r="BM198">
+        <v>2.55</v>
+      </c>
+      <c r="BN198">
+        <v>1.43</v>
+      </c>
+      <c r="BO198">
+        <v>3.4</v>
+      </c>
+      <c r="BP198">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7820522</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45765.80208333334</v>
+      </c>
+      <c r="F199">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>91</v>
+      </c>
+      <c r="H199" t="s">
+        <v>90</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>100</v>
+      </c>
+      <c r="P199" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q199">
+        <v>3.1</v>
+      </c>
+      <c r="R199">
+        <v>1.91</v>
+      </c>
+      <c r="S199">
+        <v>4.33</v>
+      </c>
+      <c r="T199">
+        <v>1.62</v>
+      </c>
+      <c r="U199">
+        <v>2.2</v>
+      </c>
+      <c r="V199">
+        <v>4</v>
+      </c>
+      <c r="W199">
+        <v>1.22</v>
+      </c>
+      <c r="X199">
+        <v>13</v>
+      </c>
+      <c r="Y199">
+        <v>1.04</v>
+      </c>
+      <c r="Z199">
+        <v>2.25</v>
+      </c>
+      <c r="AA199">
+        <v>3.1</v>
+      </c>
+      <c r="AB199">
+        <v>3.4</v>
+      </c>
+      <c r="AC199">
+        <v>1.1</v>
+      </c>
+      <c r="AD199">
+        <v>6.5</v>
+      </c>
+      <c r="AE199">
+        <v>1.53</v>
+      </c>
+      <c r="AF199">
+        <v>2.45</v>
+      </c>
+      <c r="AG199">
+        <v>2.7</v>
+      </c>
+      <c r="AH199">
+        <v>1.44</v>
+      </c>
+      <c r="AI199">
+        <v>2.2</v>
+      </c>
+      <c r="AJ199">
+        <v>1.62</v>
+      </c>
+      <c r="AK199">
+        <v>1.3</v>
+      </c>
+      <c r="AL199">
+        <v>1.34</v>
+      </c>
+      <c r="AM199">
+        <v>1.63</v>
+      </c>
+      <c r="AN199">
+        <v>0.83</v>
+      </c>
+      <c r="AO199">
+        <v>0.67</v>
+      </c>
+      <c r="AP199">
+        <v>0.71</v>
+      </c>
+      <c r="AQ199">
+        <v>1</v>
+      </c>
+      <c r="AR199">
+        <v>2.14</v>
+      </c>
+      <c r="AS199">
+        <v>0.96</v>
+      </c>
+      <c r="AT199">
+        <v>3.1</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>14</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
+        <v>23</v>
+      </c>
+      <c r="AZ199">
+        <v>11</v>
+      </c>
+      <c r="BA199">
+        <v>5</v>
+      </c>
+      <c r="BB199">
+        <v>1</v>
+      </c>
+      <c r="BC199">
+        <v>6</v>
+      </c>
+      <c r="BD199">
+        <v>1.85</v>
+      </c>
+      <c r="BE199">
+        <v>6.4</v>
+      </c>
+      <c r="BF199">
+        <v>2.15</v>
+      </c>
+      <c r="BG199">
+        <v>1.47</v>
+      </c>
+      <c r="BH199">
+        <v>2.43</v>
+      </c>
+      <c r="BI199">
+        <v>1.81</v>
+      </c>
+      <c r="BJ199">
+        <v>1.88</v>
+      </c>
+      <c r="BK199">
+        <v>2.3</v>
+      </c>
+      <c r="BL199">
+        <v>1.54</v>
+      </c>
+      <c r="BM199">
+        <v>2.95</v>
+      </c>
+      <c r="BN199">
+        <v>1.33</v>
+      </c>
+      <c r="BO199">
+        <v>4</v>
+      </c>
+      <c r="BP199">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7820513</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45765.89583333334</v>
+      </c>
+      <c r="F200">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>94</v>
+      </c>
+      <c r="H200" t="s">
+        <v>72</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>215</v>
+      </c>
+      <c r="P200" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q200">
+        <v>2.88</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>4.33</v>
+      </c>
+      <c r="T200">
+        <v>1.53</v>
+      </c>
+      <c r="U200">
+        <v>2.38</v>
+      </c>
+      <c r="V200">
+        <v>3.5</v>
+      </c>
+      <c r="W200">
+        <v>1.29</v>
+      </c>
+      <c r="X200">
+        <v>11</v>
+      </c>
+      <c r="Y200">
+        <v>1.05</v>
+      </c>
+      <c r="Z200">
+        <v>2.1</v>
+      </c>
+      <c r="AA200">
+        <v>3.13</v>
+      </c>
+      <c r="AB200">
+        <v>3.59</v>
+      </c>
+      <c r="AC200">
+        <v>1.11</v>
+      </c>
+      <c r="AD200">
+        <v>6.25</v>
+      </c>
+      <c r="AE200">
+        <v>1.55</v>
+      </c>
+      <c r="AF200">
+        <v>2.4</v>
+      </c>
+      <c r="AG200">
+        <v>2.4</v>
+      </c>
+      <c r="AH200">
+        <v>1.53</v>
+      </c>
+      <c r="AI200">
+        <v>2</v>
+      </c>
+      <c r="AJ200">
+        <v>1.75</v>
+      </c>
+      <c r="AK200">
+        <v>1.36</v>
+      </c>
+      <c r="AL200">
+        <v>1.36</v>
+      </c>
+      <c r="AM200">
+        <v>1.53</v>
+      </c>
+      <c r="AN200">
+        <v>1.57</v>
+      </c>
+      <c r="AO200">
+        <v>1.17</v>
+      </c>
+      <c r="AP200">
+        <v>1.5</v>
+      </c>
+      <c r="AQ200">
+        <v>1.14</v>
+      </c>
+      <c r="AR200">
+        <v>1.77</v>
+      </c>
+      <c r="AS200">
+        <v>1.3</v>
+      </c>
+      <c r="AT200">
+        <v>3.07</v>
+      </c>
+      <c r="AU200">
+        <v>12</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>7</v>
+      </c>
+      <c r="AY200">
+        <v>19</v>
+      </c>
+      <c r="AZ200">
+        <v>13</v>
+      </c>
+      <c r="BA200">
+        <v>10</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>14</v>
+      </c>
+      <c r="BD200">
+        <v>1.73</v>
+      </c>
+      <c r="BE200">
+        <v>6.4</v>
+      </c>
+      <c r="BF200">
+        <v>2.35</v>
+      </c>
+      <c r="BG200">
+        <v>1.5</v>
+      </c>
+      <c r="BH200">
+        <v>2.38</v>
+      </c>
+      <c r="BI200">
+        <v>1.83</v>
+      </c>
+      <c r="BJ200">
+        <v>1.85</v>
+      </c>
+      <c r="BK200">
+        <v>2.33</v>
+      </c>
+      <c r="BL200">
+        <v>1.52</v>
+      </c>
+      <c r="BM200">
+        <v>3.05</v>
+      </c>
+      <c r="BN200">
+        <v>1.3</v>
+      </c>
+      <c r="BO200">
+        <v>4.1</v>
+      </c>
+      <c r="BP200">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,18 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['48', '63']</t>
+  </si>
+  <si>
+    <t>['8', '68', '90+4']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -866,6 +878,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1898,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2185,7 +2200,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2310,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2388,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.57</v>
@@ -2516,7 +2531,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3134,7 +3149,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3212,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>0.57</v>
@@ -4242,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4860,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -4988,7 +5003,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5272,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5606,7 +5621,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5687,7 +5702,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5812,7 +5827,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6018,7 +6033,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6099,7 +6114,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6302,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6430,7 +6445,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6717,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6842,7 +6857,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6923,7 +6938,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7747,7 +7762,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>1.19</v>
@@ -7950,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -8156,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
         <v>0.71</v>
@@ -8490,7 +8505,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8568,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ36">
         <v>1.71</v>
@@ -9314,7 +9329,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10013,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10138,7 +10153,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10344,7 +10359,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10550,7 +10565,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10756,7 +10771,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10834,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10962,7 +10977,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11452,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11580,7 +11595,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11661,7 +11676,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12073,7 +12088,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ53">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -12198,7 +12213,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12897,7 +12912,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR57">
         <v>0.73</v>
@@ -13022,7 +13037,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13100,10 +13115,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>0.9</v>
@@ -13309,7 +13324,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.06</v>
@@ -13640,7 +13655,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -13924,7 +13939,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -14133,7 +14148,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR63">
         <v>1.97</v>
@@ -14748,7 +14763,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -14876,7 +14891,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14957,7 +14972,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.78</v>
@@ -15778,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>0.57</v>
@@ -15987,7 +16002,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -16112,7 +16127,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16190,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>1.14</v>
@@ -16605,7 +16620,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR75">
         <v>1.66</v>
@@ -16936,7 +16951,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17142,7 +17157,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17223,7 +17238,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>2.48</v>
@@ -17554,7 +17569,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17760,7 +17775,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17966,7 +17981,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18378,7 +18393,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18662,7 +18677,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ85">
         <v>0.17</v>
@@ -18868,7 +18883,7 @@
         <v>3</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
         <v>1.57</v>
@@ -19202,7 +19217,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19408,7 +19423,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19489,7 +19504,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19614,7 +19629,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19695,7 +19710,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR90">
         <v>1.46</v>
@@ -19898,7 +19913,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>1.14</v>
@@ -20026,7 +20041,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20313,7 +20328,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20516,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20725,7 +20740,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ95">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20850,7 +20865,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -20928,7 +20943,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -21056,7 +21071,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21134,7 +21149,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97">
         <v>1.57</v>
@@ -21546,10 +21561,10 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ99">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21755,7 +21770,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ100">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR100">
         <v>1.73</v>
@@ -21880,7 +21895,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22579,7 +22594,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR104">
         <v>1.38</v>
@@ -22782,7 +22797,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ105">
         <v>1.38</v>
@@ -23194,7 +23209,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ107">
         <v>0.83</v>
@@ -23322,7 +23337,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23528,7 +23543,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23609,7 +23624,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23734,7 +23749,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24146,7 +24161,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24433,7 +24448,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR113">
         <v>1.81</v>
@@ -24558,7 +24573,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24764,7 +24779,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24845,7 +24860,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR115">
         <v>1.19</v>
@@ -24970,7 +24985,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25176,7 +25191,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25669,7 +25684,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ119">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25794,7 +25809,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26206,7 +26221,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26412,7 +26427,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27108,7 +27123,7 @@
         <v>1.67</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126">
         <v>1.17</v>
@@ -27317,7 +27332,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>1.66</v>
@@ -27442,7 +27457,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27935,7 +27950,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>1.36</v>
@@ -28266,7 +28281,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28884,7 +28899,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29171,7 +29186,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ136">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR136">
         <v>1.23</v>
@@ -29374,7 +29389,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
         <v>1.57</v>
@@ -29992,7 +30007,7 @@
         <v>1.33</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ140">
         <v>1.14</v>
@@ -30198,7 +30213,7 @@
         <v>1.75</v>
       </c>
       <c r="AP141">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30610,10 +30625,10 @@
         <v>2</v>
       </c>
       <c r="AP143">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ143">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR143">
         <v>1.56</v>
@@ -30816,10 +30831,10 @@
         <v>0.2</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR144">
         <v>1.91</v>
@@ -30944,7 +30959,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31150,7 +31165,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31231,7 +31246,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -31356,7 +31371,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31562,7 +31577,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31640,10 +31655,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ148">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -31768,7 +31783,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31974,7 +31989,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32592,7 +32607,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32673,7 +32688,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR153">
         <v>1.16</v>
@@ -33004,7 +33019,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33210,7 +33225,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34240,7 +34255,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34527,7 +34542,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR162">
         <v>1.78</v>
@@ -34652,7 +34667,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34858,7 +34873,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35682,7 +35697,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35760,10 +35775,10 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ168">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR168">
         <v>1.54</v>
@@ -36094,7 +36109,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36300,7 +36315,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36378,7 +36393,7 @@
         <v>0.6</v>
       </c>
       <c r="AP171">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36712,7 +36727,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36790,7 +36805,7 @@
         <v>1.4</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ173">
         <v>1.57</v>
@@ -37124,7 +37139,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q175">
         <v>3.25</v>
@@ -37202,7 +37217,7 @@
         <v>1.6</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ175">
         <v>1.5</v>
@@ -37408,7 +37423,7 @@
         <v>1.4</v>
       </c>
       <c r="AP176">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ176">
         <v>1.17</v>
@@ -37617,7 +37632,7 @@
         <v>2</v>
       </c>
       <c r="AQ177">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR177">
         <v>1.78</v>
@@ -37823,7 +37838,7 @@
         <v>2</v>
       </c>
       <c r="AQ178">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR178">
         <v>1.59</v>
@@ -38026,10 +38041,10 @@
         <v>1.4</v>
       </c>
       <c r="AP179">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38154,7 +38169,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38235,7 +38250,7 @@
         <v>1</v>
       </c>
       <c r="AQ180">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR180">
         <v>1.79</v>
@@ -38360,7 +38375,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38566,7 +38581,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39390,7 +39405,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39596,7 +39611,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39677,7 +39692,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR187">
         <v>1.57</v>
@@ -40214,7 +40229,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40420,7 +40435,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40626,7 +40641,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41244,7 +41259,7 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41656,7 +41671,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42068,7 +42083,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -42430,6 +42445,1448 @@
         <v>4.1</v>
       </c>
       <c r="BP200">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7820524</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45766.67708333334</v>
+      </c>
+      <c r="F201">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>74</v>
+      </c>
+      <c r="H201" t="s">
+        <v>85</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>216</v>
+      </c>
+      <c r="P201" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q201">
+        <v>2.4</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>6.5</v>
+      </c>
+      <c r="T201">
+        <v>1.57</v>
+      </c>
+      <c r="U201">
+        <v>2.25</v>
+      </c>
+      <c r="V201">
+        <v>3.75</v>
+      </c>
+      <c r="W201">
+        <v>1.25</v>
+      </c>
+      <c r="X201">
+        <v>13</v>
+      </c>
+      <c r="Y201">
+        <v>1.04</v>
+      </c>
+      <c r="Z201">
+        <v>1.75</v>
+      </c>
+      <c r="AA201">
+        <v>3.1</v>
+      </c>
+      <c r="AB201">
+        <v>6.25</v>
+      </c>
+      <c r="AC201">
+        <v>1.12</v>
+      </c>
+      <c r="AD201">
+        <v>5.75</v>
+      </c>
+      <c r="AE201">
+        <v>1.51</v>
+      </c>
+      <c r="AF201">
+        <v>2.37</v>
+      </c>
+      <c r="AG201">
+        <v>2.6</v>
+      </c>
+      <c r="AH201">
+        <v>1.48</v>
+      </c>
+      <c r="AI201">
+        <v>2.38</v>
+      </c>
+      <c r="AJ201">
+        <v>1.53</v>
+      </c>
+      <c r="AK201">
+        <v>1.17</v>
+      </c>
+      <c r="AL201">
+        <v>1.35</v>
+      </c>
+      <c r="AM201">
+        <v>1.9</v>
+      </c>
+      <c r="AN201">
+        <v>1.5</v>
+      </c>
+      <c r="AO201">
+        <v>0.5</v>
+      </c>
+      <c r="AP201">
+        <v>1.43</v>
+      </c>
+      <c r="AQ201">
+        <v>0.57</v>
+      </c>
+      <c r="AR201">
+        <v>1.88</v>
+      </c>
+      <c r="AS201">
+        <v>1.19</v>
+      </c>
+      <c r="AT201">
+        <v>3.07</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>2</v>
+      </c>
+      <c r="AW201">
+        <v>2</v>
+      </c>
+      <c r="AX201">
+        <v>5</v>
+      </c>
+      <c r="AY201">
+        <v>9</v>
+      </c>
+      <c r="AZ201">
+        <v>7</v>
+      </c>
+      <c r="BA201">
+        <v>2</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>7</v>
+      </c>
+      <c r="BD201">
+        <v>1.58</v>
+      </c>
+      <c r="BE201">
+        <v>6.75</v>
+      </c>
+      <c r="BF201">
+        <v>2.6</v>
+      </c>
+      <c r="BG201">
+        <v>1.48</v>
+      </c>
+      <c r="BH201">
+        <v>2.45</v>
+      </c>
+      <c r="BI201">
+        <v>1.79</v>
+      </c>
+      <c r="BJ201">
+        <v>1.9</v>
+      </c>
+      <c r="BK201">
+        <v>2.23</v>
+      </c>
+      <c r="BL201">
+        <v>1.56</v>
+      </c>
+      <c r="BM201">
+        <v>2.9</v>
+      </c>
+      <c r="BN201">
+        <v>1.34</v>
+      </c>
+      <c r="BO201">
+        <v>3.9</v>
+      </c>
+      <c r="BP201">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7820512</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45766.76041666666</v>
+      </c>
+      <c r="F202">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>93</v>
+      </c>
+      <c r="H202" t="s">
+        <v>73</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>217</v>
+      </c>
+      <c r="P202" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q202">
+        <v>2.63</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>5</v>
+      </c>
+      <c r="T202">
+        <v>1.53</v>
+      </c>
+      <c r="U202">
+        <v>2.38</v>
+      </c>
+      <c r="V202">
+        <v>3.5</v>
+      </c>
+      <c r="W202">
+        <v>1.29</v>
+      </c>
+      <c r="X202">
+        <v>11</v>
+      </c>
+      <c r="Y202">
+        <v>1.05</v>
+      </c>
+      <c r="Z202">
+        <v>1.91</v>
+      </c>
+      <c r="AA202">
+        <v>3.25</v>
+      </c>
+      <c r="AB202">
+        <v>4.33</v>
+      </c>
+      <c r="AC202">
+        <v>1.08</v>
+      </c>
+      <c r="AD202">
+        <v>7.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.42</v>
+      </c>
+      <c r="AF202">
+        <v>2.8</v>
+      </c>
+      <c r="AG202">
+        <v>2.4</v>
+      </c>
+      <c r="AH202">
+        <v>1.53</v>
+      </c>
+      <c r="AI202">
+        <v>2.1</v>
+      </c>
+      <c r="AJ202">
+        <v>1.67</v>
+      </c>
+      <c r="AK202">
+        <v>1.26</v>
+      </c>
+      <c r="AL202">
+        <v>1.31</v>
+      </c>
+      <c r="AM202">
+        <v>1.77</v>
+      </c>
+      <c r="AN202">
+        <v>2.33</v>
+      </c>
+      <c r="AO202">
+        <v>1.43</v>
+      </c>
+      <c r="AP202">
+        <v>2.14</v>
+      </c>
+      <c r="AQ202">
+        <v>1.38</v>
+      </c>
+      <c r="AR202">
+        <v>1.71</v>
+      </c>
+      <c r="AS202">
+        <v>1.32</v>
+      </c>
+      <c r="AT202">
+        <v>3.03</v>
+      </c>
+      <c r="AU202">
+        <v>9</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>5</v>
+      </c>
+      <c r="AY202">
+        <v>19</v>
+      </c>
+      <c r="AZ202">
+        <v>9</v>
+      </c>
+      <c r="BA202">
+        <v>3</v>
+      </c>
+      <c r="BB202">
+        <v>4</v>
+      </c>
+      <c r="BC202">
+        <v>7</v>
+      </c>
+      <c r="BD202">
+        <v>1.58</v>
+      </c>
+      <c r="BE202">
+        <v>6.75</v>
+      </c>
+      <c r="BF202">
+        <v>2.6</v>
+      </c>
+      <c r="BG202">
+        <v>1.41</v>
+      </c>
+      <c r="BH202">
+        <v>2.65</v>
+      </c>
+      <c r="BI202">
+        <v>1.68</v>
+      </c>
+      <c r="BJ202">
+        <v>2.02</v>
+      </c>
+      <c r="BK202">
+        <v>2.1</v>
+      </c>
+      <c r="BL202">
+        <v>1.64</v>
+      </c>
+      <c r="BM202">
+        <v>2.65</v>
+      </c>
+      <c r="BN202">
+        <v>1.4</v>
+      </c>
+      <c r="BO202">
+        <v>3.55</v>
+      </c>
+      <c r="BP202">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7820516</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F203">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>83</v>
+      </c>
+      <c r="H203" t="s">
+        <v>80</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>218</v>
+      </c>
+      <c r="P203" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q203">
+        <v>2.63</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>4.75</v>
+      </c>
+      <c r="T203">
+        <v>1.5</v>
+      </c>
+      <c r="U203">
+        <v>2.5</v>
+      </c>
+      <c r="V203">
+        <v>3.5</v>
+      </c>
+      <c r="W203">
+        <v>1.29</v>
+      </c>
+      <c r="X203">
+        <v>11</v>
+      </c>
+      <c r="Y203">
+        <v>1.05</v>
+      </c>
+      <c r="Z203">
+        <v>1.95</v>
+      </c>
+      <c r="AA203">
+        <v>3.2</v>
+      </c>
+      <c r="AB203">
+        <v>4.2</v>
+      </c>
+      <c r="AC203">
+        <v>1.08</v>
+      </c>
+      <c r="AD203">
+        <v>7.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.42</v>
+      </c>
+      <c r="AF203">
+        <v>2.8</v>
+      </c>
+      <c r="AG203">
+        <v>2.3</v>
+      </c>
+      <c r="AH203">
+        <v>1.6</v>
+      </c>
+      <c r="AI203">
+        <v>2</v>
+      </c>
+      <c r="AJ203">
+        <v>1.75</v>
+      </c>
+      <c r="AK203">
+        <v>1.24</v>
+      </c>
+      <c r="AL203">
+        <v>1.32</v>
+      </c>
+      <c r="AM203">
+        <v>1.8</v>
+      </c>
+      <c r="AN203">
+        <v>2.71</v>
+      </c>
+      <c r="AO203">
+        <v>1</v>
+      </c>
+      <c r="AP203">
+        <v>2.75</v>
+      </c>
+      <c r="AQ203">
+        <v>0.88</v>
+      </c>
+      <c r="AR203">
+        <v>1.59</v>
+      </c>
+      <c r="AS203">
+        <v>1.39</v>
+      </c>
+      <c r="AT203">
+        <v>2.98</v>
+      </c>
+      <c r="AU203">
+        <v>3</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>5</v>
+      </c>
+      <c r="AX203">
+        <v>8</v>
+      </c>
+      <c r="AY203">
+        <v>9</v>
+      </c>
+      <c r="AZ203">
+        <v>15</v>
+      </c>
+      <c r="BA203">
+        <v>2</v>
+      </c>
+      <c r="BB203">
+        <v>2</v>
+      </c>
+      <c r="BC203">
+        <v>4</v>
+      </c>
+      <c r="BD203">
+        <v>1.5</v>
+      </c>
+      <c r="BE203">
+        <v>6.75</v>
+      </c>
+      <c r="BF203">
+        <v>2.8</v>
+      </c>
+      <c r="BG203">
+        <v>1.38</v>
+      </c>
+      <c r="BH203">
+        <v>2.7</v>
+      </c>
+      <c r="BI203">
+        <v>1.65</v>
+      </c>
+      <c r="BJ203">
+        <v>2.08</v>
+      </c>
+      <c r="BK203">
+        <v>2.04</v>
+      </c>
+      <c r="BL203">
+        <v>1.68</v>
+      </c>
+      <c r="BM203">
+        <v>2.55</v>
+      </c>
+      <c r="BN203">
+        <v>1.43</v>
+      </c>
+      <c r="BO203">
+        <v>3.4</v>
+      </c>
+      <c r="BP203">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7820519</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45767.64583333334</v>
+      </c>
+      <c r="F204">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>86</v>
+      </c>
+      <c r="H204" t="s">
+        <v>79</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>100</v>
+      </c>
+      <c r="P204" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>3.75</v>
+      </c>
+      <c r="T204">
+        <v>1.73</v>
+      </c>
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>4.5</v>
+      </c>
+      <c r="W204">
+        <v>1.18</v>
+      </c>
+      <c r="X204">
+        <v>15</v>
+      </c>
+      <c r="Y204">
+        <v>1.03</v>
+      </c>
+      <c r="Z204">
+        <v>2.8</v>
+      </c>
+      <c r="AA204">
+        <v>3</v>
+      </c>
+      <c r="AB204">
+        <v>2.75</v>
+      </c>
+      <c r="AC204">
+        <v>1.14</v>
+      </c>
+      <c r="AD204">
+        <v>5.5</v>
+      </c>
+      <c r="AE204">
+        <v>1.66</v>
+      </c>
+      <c r="AF204">
+        <v>2.05</v>
+      </c>
+      <c r="AG204">
+        <v>3.1</v>
+      </c>
+      <c r="AH204">
+        <v>1.36</v>
+      </c>
+      <c r="AI204">
+        <v>2.5</v>
+      </c>
+      <c r="AJ204">
+        <v>1.5</v>
+      </c>
+      <c r="AK204">
+        <v>1.43</v>
+      </c>
+      <c r="AL204">
+        <v>1.42</v>
+      </c>
+      <c r="AM204">
+        <v>1.39</v>
+      </c>
+      <c r="AN204">
+        <v>1.33</v>
+      </c>
+      <c r="AO204">
+        <v>1.83</v>
+      </c>
+      <c r="AP204">
+        <v>1.29</v>
+      </c>
+      <c r="AQ204">
+        <v>1.71</v>
+      </c>
+      <c r="AR204">
+        <v>1.17</v>
+      </c>
+      <c r="AS204">
+        <v>1.01</v>
+      </c>
+      <c r="AT204">
+        <v>2.18</v>
+      </c>
+      <c r="AU204">
+        <v>2</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>3</v>
+      </c>
+      <c r="AX204">
+        <v>2</v>
+      </c>
+      <c r="AY204">
+        <v>6</v>
+      </c>
+      <c r="AZ204">
+        <v>6</v>
+      </c>
+      <c r="BA204">
+        <v>2</v>
+      </c>
+      <c r="BB204">
+        <v>6</v>
+      </c>
+      <c r="BC204">
+        <v>8</v>
+      </c>
+      <c r="BD204">
+        <v>1.97</v>
+      </c>
+      <c r="BE204">
+        <v>6.4</v>
+      </c>
+      <c r="BF204">
+        <v>2.02</v>
+      </c>
+      <c r="BG204">
+        <v>1.49</v>
+      </c>
+      <c r="BH204">
+        <v>2.4</v>
+      </c>
+      <c r="BI204">
+        <v>1.82</v>
+      </c>
+      <c r="BJ204">
+        <v>1.86</v>
+      </c>
+      <c r="BK204">
+        <v>2.32</v>
+      </c>
+      <c r="BL204">
+        <v>1.53</v>
+      </c>
+      <c r="BM204">
+        <v>3</v>
+      </c>
+      <c r="BN204">
+        <v>1.32</v>
+      </c>
+      <c r="BO204">
+        <v>3.95</v>
+      </c>
+      <c r="BP204">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7820517</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45767.6875</v>
+      </c>
+      <c r="F205">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s">
+        <v>70</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>211</v>
+      </c>
+      <c r="P205" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q205">
+        <v>3.2</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>4.75</v>
+      </c>
+      <c r="T205">
+        <v>1.67</v>
+      </c>
+      <c r="U205">
+        <v>2.1</v>
+      </c>
+      <c r="V205">
+        <v>4.5</v>
+      </c>
+      <c r="W205">
+        <v>1.18</v>
+      </c>
+      <c r="X205">
+        <v>15</v>
+      </c>
+      <c r="Y205">
+        <v>1.03</v>
+      </c>
+      <c r="Z205">
+        <v>2.3</v>
+      </c>
+      <c r="AA205">
+        <v>2.9</v>
+      </c>
+      <c r="AB205">
+        <v>3.7</v>
+      </c>
+      <c r="AC205">
+        <v>1.15</v>
+      </c>
+      <c r="AD205">
+        <v>5.25</v>
+      </c>
+      <c r="AE205">
+        <v>1.65</v>
+      </c>
+      <c r="AF205">
+        <v>2.1</v>
+      </c>
+      <c r="AG205">
+        <v>3.1</v>
+      </c>
+      <c r="AH205">
+        <v>1.36</v>
+      </c>
+      <c r="AI205">
+        <v>2.5</v>
+      </c>
+      <c r="AJ205">
+        <v>1.5</v>
+      </c>
+      <c r="AK205">
+        <v>1.28</v>
+      </c>
+      <c r="AL205">
+        <v>1.36</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>0.57</v>
+      </c>
+      <c r="AO205">
+        <v>1.33</v>
+      </c>
+      <c r="AP205">
+        <v>0.88</v>
+      </c>
+      <c r="AQ205">
+        <v>1.14</v>
+      </c>
+      <c r="AR205">
+        <v>1.53</v>
+      </c>
+      <c r="AS205">
+        <v>1.22</v>
+      </c>
+      <c r="AT205">
+        <v>2.75</v>
+      </c>
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>5</v>
+      </c>
+      <c r="AX205">
+        <v>3</v>
+      </c>
+      <c r="AY205">
+        <v>11</v>
+      </c>
+      <c r="AZ205">
+        <v>7</v>
+      </c>
+      <c r="BA205">
+        <v>4</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>9</v>
+      </c>
+      <c r="BD205">
+        <v>1.67</v>
+      </c>
+      <c r="BE205">
+        <v>8</v>
+      </c>
+      <c r="BF205">
+        <v>2.5</v>
+      </c>
+      <c r="BG205">
+        <v>1.38</v>
+      </c>
+      <c r="BH205">
+        <v>2.71</v>
+      </c>
+      <c r="BI205">
+        <v>1.73</v>
+      </c>
+      <c r="BJ205">
+        <v>2</v>
+      </c>
+      <c r="BK205">
+        <v>2.19</v>
+      </c>
+      <c r="BL205">
+        <v>1.57</v>
+      </c>
+      <c r="BM205">
+        <v>2.92</v>
+      </c>
+      <c r="BN205">
+        <v>1.31</v>
+      </c>
+      <c r="BO205">
+        <v>4.15</v>
+      </c>
+      <c r="BP205">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7820521</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45767.75</v>
+      </c>
+      <c r="F206">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>88</v>
+      </c>
+      <c r="H206" t="s">
+        <v>82</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>100</v>
+      </c>
+      <c r="P206" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q206">
+        <v>4.75</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>3.25</v>
+      </c>
+      <c r="T206">
+        <v>1.73</v>
+      </c>
+      <c r="U206">
+        <v>2</v>
+      </c>
+      <c r="V206">
+        <v>5</v>
+      </c>
+      <c r="W206">
+        <v>1.17</v>
+      </c>
+      <c r="X206">
+        <v>17</v>
+      </c>
+      <c r="Y206">
+        <v>1.03</v>
+      </c>
+      <c r="Z206">
+        <v>3.75</v>
+      </c>
+      <c r="AA206">
+        <v>2.8</v>
+      </c>
+      <c r="AB206">
+        <v>2.3</v>
+      </c>
+      <c r="AC206">
+        <v>1.17</v>
+      </c>
+      <c r="AD206">
+        <v>5</v>
+      </c>
+      <c r="AE206">
+        <v>1.77</v>
+      </c>
+      <c r="AF206">
+        <v>2</v>
+      </c>
+      <c r="AG206">
+        <v>3.4</v>
+      </c>
+      <c r="AH206">
+        <v>1.33</v>
+      </c>
+      <c r="AI206">
+        <v>2.5</v>
+      </c>
+      <c r="AJ206">
+        <v>1.5</v>
+      </c>
+      <c r="AK206">
+        <v>1.53</v>
+      </c>
+      <c r="AL206">
+        <v>1.38</v>
+      </c>
+      <c r="AM206">
+        <v>1.3</v>
+      </c>
+      <c r="AN206">
+        <v>1.33</v>
+      </c>
+      <c r="AO206">
+        <v>1.17</v>
+      </c>
+      <c r="AP206">
+        <v>1.14</v>
+      </c>
+      <c r="AQ206">
+        <v>1.43</v>
+      </c>
+      <c r="AR206">
+        <v>1.83</v>
+      </c>
+      <c r="AS206">
+        <v>1.14</v>
+      </c>
+      <c r="AT206">
+        <v>2.97</v>
+      </c>
+      <c r="AU206">
+        <v>3</v>
+      </c>
+      <c r="AV206">
+        <v>3</v>
+      </c>
+      <c r="AW206">
+        <v>9</v>
+      </c>
+      <c r="AX206">
+        <v>6</v>
+      </c>
+      <c r="AY206">
+        <v>17</v>
+      </c>
+      <c r="AZ206">
+        <v>12</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206">
+        <v>5</v>
+      </c>
+      <c r="BC206">
+        <v>12</v>
+      </c>
+      <c r="BD206">
+        <v>2.25</v>
+      </c>
+      <c r="BE206">
+        <v>8</v>
+      </c>
+      <c r="BF206">
+        <v>1.8</v>
+      </c>
+      <c r="BG206">
+        <v>1.49</v>
+      </c>
+      <c r="BH206">
+        <v>2.38</v>
+      </c>
+      <c r="BI206">
+        <v>1.91</v>
+      </c>
+      <c r="BJ206">
+        <v>1.8</v>
+      </c>
+      <c r="BK206">
+        <v>2.48</v>
+      </c>
+      <c r="BL206">
+        <v>1.45</v>
+      </c>
+      <c r="BM206">
+        <v>3.34</v>
+      </c>
+      <c r="BN206">
+        <v>1.24</v>
+      </c>
+      <c r="BO206">
+        <v>4.95</v>
+      </c>
+      <c r="BP206">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7820520</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45767.85416666666</v>
+      </c>
+      <c r="F207">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>87</v>
+      </c>
+      <c r="H207" t="s">
+        <v>81</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>219</v>
+      </c>
+      <c r="P207" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q207">
+        <v>2.75</v>
+      </c>
+      <c r="R207">
+        <v>1.91</v>
+      </c>
+      <c r="S207">
+        <v>5.5</v>
+      </c>
+      <c r="T207">
+        <v>1.62</v>
+      </c>
+      <c r="U207">
+        <v>2.2</v>
+      </c>
+      <c r="V207">
+        <v>4</v>
+      </c>
+      <c r="W207">
+        <v>1.22</v>
+      </c>
+      <c r="X207">
+        <v>13</v>
+      </c>
+      <c r="Y207">
+        <v>1.04</v>
+      </c>
+      <c r="Z207">
+        <v>1.95</v>
+      </c>
+      <c r="AA207">
+        <v>3.1</v>
+      </c>
+      <c r="AB207">
+        <v>4.33</v>
+      </c>
+      <c r="AC207">
+        <v>1.12</v>
+      </c>
+      <c r="AD207">
+        <v>5.75</v>
+      </c>
+      <c r="AE207">
+        <v>1.53</v>
+      </c>
+      <c r="AF207">
+        <v>2.37</v>
+      </c>
+      <c r="AG207">
+        <v>2.88</v>
+      </c>
+      <c r="AH207">
+        <v>1.4</v>
+      </c>
+      <c r="AI207">
+        <v>2.38</v>
+      </c>
+      <c r="AJ207">
+        <v>1.53</v>
+      </c>
+      <c r="AK207">
+        <v>1.2</v>
+      </c>
+      <c r="AL207">
+        <v>1.3</v>
+      </c>
+      <c r="AM207">
+        <v>1.77</v>
+      </c>
+      <c r="AN207">
+        <v>3</v>
+      </c>
+      <c r="AO207">
+        <v>0.14</v>
+      </c>
+      <c r="AP207">
+        <v>3</v>
+      </c>
+      <c r="AQ207">
+        <v>0.13</v>
+      </c>
+      <c r="AR207">
+        <v>1.36</v>
+      </c>
+      <c r="AS207">
+        <v>1.15</v>
+      </c>
+      <c r="AT207">
+        <v>2.51</v>
+      </c>
+      <c r="AU207">
+        <v>10</v>
+      </c>
+      <c r="AV207">
+        <v>0</v>
+      </c>
+      <c r="AW207">
+        <v>13</v>
+      </c>
+      <c r="AX207">
+        <v>14</v>
+      </c>
+      <c r="AY207">
+        <v>24</v>
+      </c>
+      <c r="AZ207">
+        <v>19</v>
+      </c>
+      <c r="BA207">
+        <v>2</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>6</v>
+      </c>
+      <c r="BD207">
+        <v>1.5</v>
+      </c>
+      <c r="BE207">
+        <v>9</v>
+      </c>
+      <c r="BF207">
+        <v>2.88</v>
+      </c>
+      <c r="BG207">
+        <v>1.33</v>
+      </c>
+      <c r="BH207">
+        <v>2.83</v>
+      </c>
+      <c r="BI207">
+        <v>1.7</v>
+      </c>
+      <c r="BJ207">
+        <v>2.05</v>
+      </c>
+      <c r="BK207">
+        <v>2.08</v>
+      </c>
+      <c r="BL207">
+        <v>1.67</v>
+      </c>
+      <c r="BM207">
+        <v>2.75</v>
+      </c>
+      <c r="BN207">
+        <v>1.37</v>
+      </c>
+      <c r="BO207">
+        <v>3.8</v>
+      </c>
+      <c r="BP207">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['8', '68', '90+4']</t>
   </si>
   <si>
+    <t>['31', '42', '47']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1504,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1913,7 +1916,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2325,7 +2328,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2531,7 +2534,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3149,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5003,7 +5006,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5496,7 +5499,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5621,7 +5624,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5827,7 +5830,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6033,7 +6036,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6445,7 +6448,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6857,7 +6860,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7144,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7347,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>1.71</v>
@@ -8505,7 +8508,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -9329,7 +9332,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9613,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
         <v>0.17</v>
@@ -10025,7 +10028,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>1.43</v>
@@ -10153,7 +10156,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10359,7 +10362,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10565,7 +10568,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10646,7 +10649,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.39</v>
@@ -10771,7 +10774,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10977,7 +10980,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11058,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.53</v>
@@ -11595,7 +11598,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12213,7 +12216,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -13037,7 +13040,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13655,7 +13658,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14351,7 +14354,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14891,7 +14894,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15175,7 +15178,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1.71</v>
@@ -16127,7 +16130,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16951,7 +16954,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17032,7 +17035,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.47</v>
@@ -17157,7 +17160,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17444,7 +17447,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17569,7 +17572,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17775,7 +17778,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17981,7 +17984,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18393,7 +18396,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -19217,7 +19220,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19423,7 +19426,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19629,7 +19632,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20041,7 +20044,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20865,7 +20868,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21071,7 +21074,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21895,7 +21898,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22385,7 +22388,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>1.29</v>
@@ -22591,7 +22594,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ104">
         <v>0.57</v>
@@ -23212,7 +23215,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR107">
         <v>1.43</v>
@@ -23337,7 +23340,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23543,7 +23546,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23749,7 +23752,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24161,7 +24164,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24445,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113">
         <v>0.13</v>
@@ -24573,7 +24576,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24779,7 +24782,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24985,7 +24988,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25191,7 +25194,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25809,7 +25812,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26221,7 +26224,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26427,7 +26430,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27126,7 +27129,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>2.03</v>
@@ -27457,7 +27460,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28156,7 +28159,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ131">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28281,7 +28284,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28899,7 +28902,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -28977,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ135">
         <v>0.67</v>
@@ -30959,7 +30962,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31040,7 +31043,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.68</v>
@@ -31165,7 +31168,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31371,7 +31374,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31449,7 +31452,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ147">
         <v>0.67</v>
@@ -31577,7 +31580,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31783,7 +31786,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31989,7 +31992,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32607,7 +32610,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33019,7 +33022,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33225,7 +33228,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34255,7 +34258,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34667,7 +34670,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34873,7 +34876,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35572,7 +35575,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ167">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR167">
         <v>1.93</v>
@@ -35697,7 +35700,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36109,7 +36112,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36315,7 +36318,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36727,7 +36730,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37139,7 +37142,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q175">
         <v>3.25</v>
@@ -37426,7 +37429,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ176">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -37629,7 +37632,7 @@
         <v>1.67</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ177">
         <v>1.38</v>
@@ -38169,7 +38172,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38375,7 +38378,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38453,7 +38456,7 @@
         <v>0.8</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181">
         <v>1.14</v>
@@ -38581,7 +38584,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39405,7 +39408,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39611,7 +39614,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40229,7 +40232,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40435,7 +40438,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40641,7 +40644,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41259,7 +41262,7 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41671,7 +41674,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42083,7 +42086,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -42495,7 +42498,7 @@
         <v>216</v>
       </c>
       <c r="P201" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -43525,7 +43528,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q206">
         <v>4.75</v>
@@ -43888,6 +43891,418 @@
       </c>
       <c r="BP207">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7820515</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45769.79166666666</v>
+      </c>
+      <c r="F208">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>71</v>
+      </c>
+      <c r="H208" t="s">
+        <v>77</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>100</v>
+      </c>
+      <c r="P208" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q208">
+        <v>2.88</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>4.33</v>
+      </c>
+      <c r="T208">
+        <v>1.5</v>
+      </c>
+      <c r="U208">
+        <v>2.5</v>
+      </c>
+      <c r="V208">
+        <v>3.5</v>
+      </c>
+      <c r="W208">
+        <v>1.29</v>
+      </c>
+      <c r="X208">
+        <v>11</v>
+      </c>
+      <c r="Y208">
+        <v>1.05</v>
+      </c>
+      <c r="Z208">
+        <v>2.1</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>3.4</v>
+      </c>
+      <c r="AC208">
+        <v>1.08</v>
+      </c>
+      <c r="AD208">
+        <v>7.5</v>
+      </c>
+      <c r="AE208">
+        <v>1.44</v>
+      </c>
+      <c r="AF208">
+        <v>2.75</v>
+      </c>
+      <c r="AG208">
+        <v>2.35</v>
+      </c>
+      <c r="AH208">
+        <v>1.57</v>
+      </c>
+      <c r="AI208">
+        <v>2.05</v>
+      </c>
+      <c r="AJ208">
+        <v>1.7</v>
+      </c>
+      <c r="AK208">
+        <v>1.3</v>
+      </c>
+      <c r="AL208">
+        <v>1.28</v>
+      </c>
+      <c r="AM208">
+        <v>1.67</v>
+      </c>
+      <c r="AN208">
+        <v>2</v>
+      </c>
+      <c r="AO208">
+        <v>0.83</v>
+      </c>
+      <c r="AP208">
+        <v>1.86</v>
+      </c>
+      <c r="AQ208">
+        <v>0.86</v>
+      </c>
+      <c r="AR208">
+        <v>1.47</v>
+      </c>
+      <c r="AS208">
+        <v>1.32</v>
+      </c>
+      <c r="AT208">
+        <v>2.79</v>
+      </c>
+      <c r="AU208">
+        <v>4</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+      <c r="AY208">
+        <v>10</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>2</v>
+      </c>
+      <c r="BB208">
+        <v>3</v>
+      </c>
+      <c r="BC208">
+        <v>5</v>
+      </c>
+      <c r="BD208">
+        <v>1.62</v>
+      </c>
+      <c r="BE208">
+        <v>8.5</v>
+      </c>
+      <c r="BF208">
+        <v>2.6</v>
+      </c>
+      <c r="BG208">
+        <v>1.26</v>
+      </c>
+      <c r="BH208">
+        <v>3.22</v>
+      </c>
+      <c r="BI208">
+        <v>1.7</v>
+      </c>
+      <c r="BJ208">
+        <v>2.05</v>
+      </c>
+      <c r="BK208">
+        <v>1.85</v>
+      </c>
+      <c r="BL208">
+        <v>1.85</v>
+      </c>
+      <c r="BM208">
+        <v>2.45</v>
+      </c>
+      <c r="BN208">
+        <v>1.46</v>
+      </c>
+      <c r="BO208">
+        <v>3.28</v>
+      </c>
+      <c r="BP208">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7820514</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45769.79166666666</v>
+      </c>
+      <c r="F209">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>98</v>
+      </c>
+      <c r="H209" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>220</v>
+      </c>
+      <c r="P209" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q209">
+        <v>2.1</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>7.5</v>
+      </c>
+      <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
+        <v>2.63</v>
+      </c>
+      <c r="V209">
+        <v>3.4</v>
+      </c>
+      <c r="W209">
+        <v>1.3</v>
+      </c>
+      <c r="X209">
+        <v>10</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>1.5</v>
+      </c>
+      <c r="AA209">
+        <v>3.75</v>
+      </c>
+      <c r="AB209">
+        <v>8</v>
+      </c>
+      <c r="AC209">
+        <v>1.06</v>
+      </c>
+      <c r="AD209">
+        <v>8.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.38</v>
+      </c>
+      <c r="AF209">
+        <v>3</v>
+      </c>
+      <c r="AG209">
+        <v>2.15</v>
+      </c>
+      <c r="AH209">
+        <v>1.67</v>
+      </c>
+      <c r="AI209">
+        <v>2.25</v>
+      </c>
+      <c r="AJ209">
+        <v>1.57</v>
+      </c>
+      <c r="AK209">
+        <v>1.09</v>
+      </c>
+      <c r="AL209">
+        <v>1.18</v>
+      </c>
+      <c r="AM209">
+        <v>2.6</v>
+      </c>
+      <c r="AN209">
+        <v>2</v>
+      </c>
+      <c r="AO209">
+        <v>1.17</v>
+      </c>
+      <c r="AP209">
+        <v>2.13</v>
+      </c>
+      <c r="AQ209">
+        <v>1</v>
+      </c>
+      <c r="AR209">
+        <v>1.77</v>
+      </c>
+      <c r="AS209">
+        <v>1.4</v>
+      </c>
+      <c r="AT209">
+        <v>3.17</v>
+      </c>
+      <c r="AU209">
+        <v>7</v>
+      </c>
+      <c r="AV209">
+        <v>0</v>
+      </c>
+      <c r="AW209">
+        <v>4</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>12</v>
+      </c>
+      <c r="AZ209">
+        <v>4</v>
+      </c>
+      <c r="BA209">
+        <v>2</v>
+      </c>
+      <c r="BB209">
+        <v>2</v>
+      </c>
+      <c r="BC209">
+        <v>4</v>
+      </c>
+      <c r="BD209">
+        <v>1.12</v>
+      </c>
+      <c r="BE209">
+        <v>15</v>
+      </c>
+      <c r="BF209">
+        <v>5.8</v>
+      </c>
+      <c r="BG209">
+        <v>1.26</v>
+      </c>
+      <c r="BH209">
+        <v>3.22</v>
+      </c>
+      <c r="BI209">
+        <v>1.7</v>
+      </c>
+      <c r="BJ209">
+        <v>2.05</v>
+      </c>
+      <c r="BK209">
+        <v>1.85</v>
+      </c>
+      <c r="BL209">
+        <v>1.85</v>
+      </c>
+      <c r="BM209">
+        <v>2.42</v>
+      </c>
+      <c r="BN209">
+        <v>1.47</v>
+      </c>
+      <c r="BO209">
+        <v>3.2</v>
+      </c>
+      <c r="BP209">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['31', '42', '47']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -710,9 +713,6 @@
   </si>
   <si>
     <t>['4', '25', '49', '68', '84']</t>
-  </si>
-  <si>
-    <t>['30']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -1245,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1504,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1916,7 +1916,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2328,7 +2328,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2534,7 +2534,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3152,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4469,7 +4469,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5624,7 +5624,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5830,7 +5830,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6036,7 +6036,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6448,7 +6448,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6860,7 +6860,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -8508,7 +8508,7 @@
         <v>120</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8795,7 +8795,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
         <v>0.88</v>
@@ -14563,7 +14563,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR65">
         <v>1.99</v>
@@ -14894,7 +14894,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -20949,7 +20949,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -21898,7 +21898,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -24242,7 +24242,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -28568,7 +28568,7 @@
         <v>0</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133">
         <v>0.17</v>
@@ -28983,7 +28983,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR135">
         <v>1.84</v>
@@ -32894,7 +32894,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -36112,7 +36112,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36399,7 +36399,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR171">
         <v>1.62</v>
@@ -36730,7 +36730,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -38584,7 +38584,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39614,7 +39614,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -44303,6 +44303,212 @@
       </c>
       <c r="BP209">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7820510</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45769.88541666666</v>
+      </c>
+      <c r="F210">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>89</v>
+      </c>
+      <c r="H210" t="s">
+        <v>96</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>221</v>
+      </c>
+      <c r="P210" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q210">
+        <v>2.63</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>5</v>
+      </c>
+      <c r="T210">
+        <v>1.53</v>
+      </c>
+      <c r="U210">
+        <v>2.38</v>
+      </c>
+      <c r="V210">
+        <v>3.75</v>
+      </c>
+      <c r="W210">
+        <v>1.25</v>
+      </c>
+      <c r="X210">
+        <v>11</v>
+      </c>
+      <c r="Y210">
+        <v>1.05</v>
+      </c>
+      <c r="Z210">
+        <v>1.91</v>
+      </c>
+      <c r="AA210">
+        <v>3.25</v>
+      </c>
+      <c r="AB210">
+        <v>4.5</v>
+      </c>
+      <c r="AC210">
+        <v>1.09</v>
+      </c>
+      <c r="AD210">
+        <v>7</v>
+      </c>
+      <c r="AE210">
+        <v>1.48</v>
+      </c>
+      <c r="AF210">
+        <v>2.62</v>
+      </c>
+      <c r="AG210">
+        <v>2.4</v>
+      </c>
+      <c r="AH210">
+        <v>1.53</v>
+      </c>
+      <c r="AI210">
+        <v>2.1</v>
+      </c>
+      <c r="AJ210">
+        <v>1.67</v>
+      </c>
+      <c r="AK210">
+        <v>1.22</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.85</v>
+      </c>
+      <c r="AN210">
+        <v>1.5</v>
+      </c>
+      <c r="AO210">
+        <v>0.67</v>
+      </c>
+      <c r="AP210">
+        <v>1.71</v>
+      </c>
+      <c r="AQ210">
+        <v>0.57</v>
+      </c>
+      <c r="AR210">
+        <v>1.63</v>
+      </c>
+      <c r="AS210">
+        <v>1.43</v>
+      </c>
+      <c r="AT210">
+        <v>3.06</v>
+      </c>
+      <c r="AU210">
+        <v>3</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>6</v>
+      </c>
+      <c r="AX210">
+        <v>16</v>
+      </c>
+      <c r="AY210">
+        <v>11</v>
+      </c>
+      <c r="AZ210">
+        <v>27</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>3</v>
+      </c>
+      <c r="BC210">
+        <v>6</v>
+      </c>
+      <c r="BD210">
+        <v>1.7</v>
+      </c>
+      <c r="BE210">
+        <v>8</v>
+      </c>
+      <c r="BF210">
+        <v>2.45</v>
+      </c>
+      <c r="BG210">
+        <v>1.34</v>
+      </c>
+      <c r="BH210">
+        <v>2.88</v>
+      </c>
+      <c r="BI210">
+        <v>1.7</v>
+      </c>
+      <c r="BJ210">
+        <v>2.05</v>
+      </c>
+      <c r="BK210">
+        <v>2.05</v>
+      </c>
+      <c r="BL210">
+        <v>1.7</v>
+      </c>
+      <c r="BM210">
+        <v>2.7</v>
+      </c>
+      <c r="BN210">
+        <v>1.36</v>
+      </c>
+      <c r="BO210">
+        <v>3.82</v>
+      </c>
+      <c r="BP210">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -41014,7 +41014,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7820508</v>
+        <v>7820503</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41029,10 +41029,10 @@
         <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H194" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -41047,25 +41047,25 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" t="s">
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="Q194">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R194">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T194">
         <v>1.57</v>
@@ -41080,139 +41080,139 @@
         <v>1.25</v>
       </c>
       <c r="X194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y194">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z194">
+        <v>1.7</v>
+      </c>
+      <c r="AA194">
         <v>3.4</v>
       </c>
-      <c r="AA194">
-        <v>3.1</v>
-      </c>
       <c r="AB194">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC194">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD194">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE194">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AF194">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AG194">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH194">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI194">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ194">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK194">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AL194">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AM194">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN194">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP194">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR194">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AS194">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT194">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW194">
         <v>10</v>
       </c>
       <c r="AX194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY194">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA194">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD194">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="BE194">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF194">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="BG194">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH194">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI194">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ194">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK194">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="BL194">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BM194">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BN194">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BO194">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BP194">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41220,7 +41220,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7820503</v>
+        <v>7820508</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41235,10 +41235,10 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H195" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41253,25 +41253,25 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" t="s">
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="Q195">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S195">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T195">
         <v>1.57</v>
@@ -41286,139 +41286,139 @@
         <v>1.25</v>
       </c>
       <c r="X195">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y195">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z195">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA195">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB195">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="AC195">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD195">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE195">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF195">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AG195">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH195">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI195">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ195">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK195">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AL195">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM195">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AN195">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO195">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AQ195">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR195">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AS195">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT195">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
         <v>4</v>
-      </c>
-      <c r="AV195">
-        <v>2</v>
       </c>
       <c r="AW195">
         <v>10</v>
       </c>
       <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>18</v>
+      </c>
+      <c r="AZ195">
+        <v>11</v>
+      </c>
+      <c r="BA195">
         <v>3</v>
       </c>
-      <c r="AY195">
-        <v>17</v>
-      </c>
-      <c r="AZ195">
+      <c r="BB195">
         <v>5</v>
       </c>
-      <c r="BA195">
-        <v>12</v>
-      </c>
-      <c r="BB195">
-        <v>1</v>
-      </c>
       <c r="BC195">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD195">
+        <v>1.94</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>2.05</v>
+      </c>
+      <c r="BG195">
+        <v>1.33</v>
+      </c>
+      <c r="BH195">
+        <v>2.95</v>
+      </c>
+      <c r="BI195">
+        <v>1.56</v>
+      </c>
+      <c r="BJ195">
+        <v>2.23</v>
+      </c>
+      <c r="BK195">
+        <v>1.91</v>
+      </c>
+      <c r="BL195">
+        <v>1.77</v>
+      </c>
+      <c r="BM195">
+        <v>2.4</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
+        <v>3.05</v>
+      </c>
+      <c r="BP195">
         <v>1.3</v>
-      </c>
-      <c r="BE195">
-        <v>7.5</v>
-      </c>
-      <c r="BF195">
-        <v>3.9</v>
-      </c>
-      <c r="BG195">
-        <v>1.38</v>
-      </c>
-      <c r="BH195">
-        <v>2.7</v>
-      </c>
-      <c r="BI195">
-        <v>1.65</v>
-      </c>
-      <c r="BJ195">
-        <v>2.08</v>
-      </c>
-      <c r="BK195">
-        <v>2.02</v>
-      </c>
-      <c r="BL195">
-        <v>1.68</v>
-      </c>
-      <c r="BM195">
-        <v>2.55</v>
-      </c>
-      <c r="BN195">
-        <v>1.44</v>
-      </c>
-      <c r="BO195">
-        <v>3.3</v>
-      </c>
-      <c r="BP195">
-        <v>1.27</v>
       </c>
     </row>
     <row r="196" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['39', '67']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -884,6 +887,12 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1585,7 +1594,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1916,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2203,7 +2212,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2328,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2534,7 +2543,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1.71</v>
@@ -3152,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3436,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1.14</v>
@@ -4263,7 +4272,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5006,7 +5015,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5624,7 +5633,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5830,7 +5839,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6036,7 +6045,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6448,7 +6457,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6860,7 +6869,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6938,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7765,7 +7774,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.19</v>
@@ -7971,7 +7980,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.45</v>
@@ -8380,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -9332,7 +9341,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10156,7 +10165,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10234,7 +10243,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10362,7 +10371,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10568,7 +10577,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10646,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10774,7 +10783,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10980,7 +10989,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11598,7 +11607,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11885,7 +11894,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR52">
         <v>1.64</v>
@@ -12216,7 +12225,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -13040,7 +13049,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13658,7 +13667,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14151,7 +14160,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR63">
         <v>1.97</v>
@@ -14560,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>0.57</v>
@@ -14769,7 +14778,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR66">
         <v>1.2</v>
@@ -14894,7 +14903,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16002,7 +16011,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>1.43</v>
@@ -16130,7 +16139,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16954,7 +16963,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17160,7 +17169,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17238,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17572,7 +17581,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17778,7 +17787,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17859,7 +17868,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17984,7 +17993,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18065,7 +18074,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.71</v>
@@ -18396,7 +18405,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -19220,7 +19229,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19426,7 +19435,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19632,7 +19641,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20044,7 +20053,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20868,7 +20877,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21074,7 +21083,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21770,7 +21779,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100">
         <v>1.38</v>
@@ -21898,7 +21907,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22597,7 +22606,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.38</v>
@@ -22803,7 +22812,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -23340,7 +23349,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23418,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23546,7 +23555,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23752,7 +23761,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24164,7 +24173,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24576,7 +24585,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24782,7 +24791,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24988,7 +24997,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25066,7 +25075,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
@@ -25194,7 +25203,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25812,7 +25821,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25893,7 +25902,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR120">
         <v>1.31</v>
@@ -26224,7 +26233,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26430,7 +26439,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26508,7 +26517,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>1.5</v>
@@ -27460,7 +27469,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27538,7 +27547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
         <v>1.71</v>
@@ -28284,7 +28293,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28777,7 +28786,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR134">
         <v>2.28</v>
@@ -28902,7 +28911,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -30962,7 +30971,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31040,7 +31049,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31168,7 +31177,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31249,7 +31258,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -31374,7 +31383,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31580,7 +31589,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31786,7 +31795,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31992,7 +32001,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32482,7 +32491,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>0.17</v>
@@ -32610,7 +32619,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33022,7 +33031,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33228,7 +33237,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33306,7 +33315,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -34258,7 +34267,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34339,7 +34348,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR161">
         <v>2</v>
@@ -34670,7 +34679,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34751,7 +34760,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR163">
         <v>1.96</v>
@@ -34876,7 +34885,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -34954,7 +34963,7 @@
         <v>1.2</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ164">
         <v>1.14</v>
@@ -35700,7 +35709,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36112,7 +36121,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36318,7 +36327,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -37142,7 +37151,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>3.25</v>
@@ -37841,7 +37850,7 @@
         <v>2</v>
       </c>
       <c r="AQ178">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR178">
         <v>1.59</v>
@@ -38172,7 +38181,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38378,7 +38387,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38584,7 +38593,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38871,7 +38880,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR183">
         <v>1.69</v>
@@ -39074,7 +39083,7 @@
         <v>0.67</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ184">
         <v>0.57</v>
@@ -39408,7 +39417,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39486,7 +39495,7 @@
         <v>1.4</v>
       </c>
       <c r="AP186">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186">
         <v>1.67</v>
@@ -39614,7 +39623,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40232,7 +40241,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40438,7 +40447,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40516,7 +40525,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -40644,7 +40653,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41056,7 +41065,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41549,7 +41558,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ196">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR196">
         <v>1.23</v>
@@ -41674,7 +41683,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42086,7 +42095,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -42498,7 +42507,7 @@
         <v>216</v>
       </c>
       <c r="P201" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42579,7 +42588,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ201">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR201">
         <v>1.88</v>
@@ -43528,7 +43537,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q206">
         <v>4.75</v>
@@ -44509,6 +44518,624 @@
       </c>
       <c r="BP210">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7820531</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45773.625</v>
+      </c>
+      <c r="F211">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>96</v>
+      </c>
+      <c r="H211" t="s">
+        <v>85</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>222</v>
+      </c>
+      <c r="P211" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q211">
+        <v>3.25</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>1.57</v>
+      </c>
+      <c r="U211">
+        <v>2.25</v>
+      </c>
+      <c r="V211">
+        <v>3.75</v>
+      </c>
+      <c r="W211">
+        <v>1.25</v>
+      </c>
+      <c r="X211">
+        <v>11</v>
+      </c>
+      <c r="Y211">
+        <v>1.05</v>
+      </c>
+      <c r="Z211">
+        <v>2.38</v>
+      </c>
+      <c r="AA211">
+        <v>3.1</v>
+      </c>
+      <c r="AB211">
+        <v>3.1</v>
+      </c>
+      <c r="AC211">
+        <v>0</v>
+      </c>
+      <c r="AD211">
+        <v>0</v>
+      </c>
+      <c r="AE211">
+        <v>1.49</v>
+      </c>
+      <c r="AF211">
+        <v>2.55</v>
+      </c>
+      <c r="AG211">
+        <v>2.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.5</v>
+      </c>
+      <c r="AI211">
+        <v>2.05</v>
+      </c>
+      <c r="AJ211">
+        <v>1.7</v>
+      </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
+      <c r="AM211">
+        <v>0</v>
+      </c>
+      <c r="AN211">
+        <v>0.71</v>
+      </c>
+      <c r="AO211">
+        <v>0.57</v>
+      </c>
+      <c r="AP211">
+        <v>1</v>
+      </c>
+      <c r="AQ211">
+        <v>0.5</v>
+      </c>
+      <c r="AR211">
+        <v>1.99</v>
+      </c>
+      <c r="AS211">
+        <v>1.15</v>
+      </c>
+      <c r="AT211">
+        <v>3.14</v>
+      </c>
+      <c r="AU211">
+        <v>5</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>8</v>
+      </c>
+      <c r="AX211">
+        <v>10</v>
+      </c>
+      <c r="AY211">
+        <v>15</v>
+      </c>
+      <c r="AZ211">
+        <v>15</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>7</v>
+      </c>
+      <c r="BC211">
+        <v>9</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>0</v>
+      </c>
+      <c r="BF211">
+        <v>0</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211">
+        <v>0</v>
+      </c>
+      <c r="BI211">
+        <v>0</v>
+      </c>
+      <c r="BJ211">
+        <v>0</v>
+      </c>
+      <c r="BK211">
+        <v>0</v>
+      </c>
+      <c r="BL211">
+        <v>0</v>
+      </c>
+      <c r="BM211">
+        <v>0</v>
+      </c>
+      <c r="BN211">
+        <v>0</v>
+      </c>
+      <c r="BO211">
+        <v>0</v>
+      </c>
+      <c r="BP211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7820535</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45773.70833333334</v>
+      </c>
+      <c r="F212">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
+        <v>79</v>
+      </c>
+      <c r="H212" t="s">
+        <v>87</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>100</v>
+      </c>
+      <c r="P212" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q212">
+        <v>3.1</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>1.67</v>
+      </c>
+      <c r="U212">
+        <v>2.1</v>
+      </c>
+      <c r="V212">
+        <v>4.5</v>
+      </c>
+      <c r="W212">
+        <v>1.18</v>
+      </c>
+      <c r="X212">
+        <v>15</v>
+      </c>
+      <c r="Y212">
+        <v>1.03</v>
+      </c>
+      <c r="Z212">
+        <v>2.15</v>
+      </c>
+      <c r="AA212">
+        <v>3.1</v>
+      </c>
+      <c r="AB212">
+        <v>3.75</v>
+      </c>
+      <c r="AC212">
+        <v>3.15</v>
+      </c>
+      <c r="AD212">
+        <v>1.36</v>
+      </c>
+      <c r="AE212">
+        <v>1.65</v>
+      </c>
+      <c r="AF212">
+        <v>2.15</v>
+      </c>
+      <c r="AG212">
+        <v>3.1</v>
+      </c>
+      <c r="AH212">
+        <v>1.36</v>
+      </c>
+      <c r="AI212">
+        <v>2.5</v>
+      </c>
+      <c r="AJ212">
+        <v>1.5</v>
+      </c>
+      <c r="AK212">
+        <v>0</v>
+      </c>
+      <c r="AL212">
+        <v>0</v>
+      </c>
+      <c r="AM212">
+        <v>0</v>
+      </c>
+      <c r="AN212">
+        <v>2</v>
+      </c>
+      <c r="AO212">
+        <v>1.38</v>
+      </c>
+      <c r="AP212">
+        <v>1.75</v>
+      </c>
+      <c r="AQ212">
+        <v>1.56</v>
+      </c>
+      <c r="AR212">
+        <v>1.57</v>
+      </c>
+      <c r="AS212">
+        <v>1.21</v>
+      </c>
+      <c r="AT212">
+        <v>2.78</v>
+      </c>
+      <c r="AU212">
+        <v>3</v>
+      </c>
+      <c r="AV212">
+        <v>4</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>7</v>
+      </c>
+      <c r="AZ212">
+        <v>5</v>
+      </c>
+      <c r="BA212">
+        <v>6</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>10</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>0</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>0</v>
+      </c>
+      <c r="BI212">
+        <v>0</v>
+      </c>
+      <c r="BJ212">
+        <v>0</v>
+      </c>
+      <c r="BK212">
+        <v>0</v>
+      </c>
+      <c r="BL212">
+        <v>0</v>
+      </c>
+      <c r="BM212">
+        <v>0</v>
+      </c>
+      <c r="BN212">
+        <v>0</v>
+      </c>
+      <c r="BO212">
+        <v>0</v>
+      </c>
+      <c r="BP212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7820526</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45773.79166666666</v>
+      </c>
+      <c r="F213">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+      <c r="H213" t="s">
+        <v>98</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>102</v>
+      </c>
+      <c r="P213" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q213">
+        <v>3.75</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>3.25</v>
+      </c>
+      <c r="T213">
+        <v>1.53</v>
+      </c>
+      <c r="U213">
+        <v>2.38</v>
+      </c>
+      <c r="V213">
+        <v>3.75</v>
+      </c>
+      <c r="W213">
+        <v>1.25</v>
+      </c>
+      <c r="X213">
+        <v>11</v>
+      </c>
+      <c r="Y213">
+        <v>1.05</v>
+      </c>
+      <c r="Z213">
+        <v>3</v>
+      </c>
+      <c r="AA213">
+        <v>3.1</v>
+      </c>
+      <c r="AB213">
+        <v>2.5</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>0</v>
+      </c>
+      <c r="AE213">
+        <v>1.5</v>
+      </c>
+      <c r="AF213">
+        <v>2.4</v>
+      </c>
+      <c r="AG213">
+        <v>2.4</v>
+      </c>
+      <c r="AH213">
+        <v>1.53</v>
+      </c>
+      <c r="AI213">
+        <v>2.05</v>
+      </c>
+      <c r="AJ213">
+        <v>1.7</v>
+      </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
+      <c r="AN213">
+        <v>1.29</v>
+      </c>
+      <c r="AO213">
+        <v>2</v>
+      </c>
+      <c r="AP213">
+        <v>1.25</v>
+      </c>
+      <c r="AQ213">
+        <v>1.86</v>
+      </c>
+      <c r="AR213">
+        <v>1.6</v>
+      </c>
+      <c r="AS213">
+        <v>1.57</v>
+      </c>
+      <c r="AT213">
+        <v>3.17</v>
+      </c>
+      <c r="AU213">
+        <v>4</v>
+      </c>
+      <c r="AV213">
+        <v>4</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>8</v>
+      </c>
+      <c r="AY213">
+        <v>10</v>
+      </c>
+      <c r="AZ213">
+        <v>14</v>
+      </c>
+      <c r="BA213">
+        <v>2</v>
+      </c>
+      <c r="BB213">
+        <v>7</v>
+      </c>
+      <c r="BC213">
+        <v>9</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>0</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>0</v>
+      </c>
+      <c r="BI213">
+        <v>0</v>
+      </c>
+      <c r="BJ213">
+        <v>0</v>
+      </c>
+      <c r="BK213">
+        <v>0</v>
+      </c>
+      <c r="BL213">
+        <v>0</v>
+      </c>
+      <c r="BM213">
+        <v>0</v>
+      </c>
+      <c r="BN213">
+        <v>0</v>
+      </c>
+      <c r="BO213">
+        <v>0</v>
+      </c>
+      <c r="BP213">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,21 @@
     <t>['39', '67']</t>
   </si>
   <si>
+    <t>['25', '44']</t>
+  </si>
+  <si>
+    <t>['43', '86']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -763,9 +778,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['18', '28']</t>
   </si>
   <si>
@@ -818,9 +830,6 @@
   </si>
   <si>
     <t>['10', '89']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['80', '90+1']</t>
@@ -886,13 +895,16 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['72', '87']</t>
+  </si>
+  <si>
+    <t>['76', '81']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1591,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>1.56</v>
@@ -1925,7 +1937,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2006,7 +2018,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2209,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2337,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2415,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2543,7 +2555,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2621,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2827,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3161,7 +3173,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3242,7 +3254,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3651,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3857,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4475,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>0.57</v>
@@ -4890,7 +4902,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5015,7 +5027,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5633,7 +5645,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5711,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5839,7 +5851,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6045,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6457,7 +6469,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6538,7 +6550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6741,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
         <v>0.13</v>
@@ -6869,7 +6881,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7362,7 +7374,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7565,10 +7577,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7771,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -8183,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -9007,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9213,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.95</v>
@@ -9341,7 +9353,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9419,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9628,7 +9640,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -9831,10 +9843,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>2.46</v>
@@ -10165,7 +10177,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10246,7 +10258,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.93</v>
@@ -10371,7 +10383,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10452,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>0</v>
@@ -10577,7 +10589,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10783,7 +10795,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10864,7 +10876,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -10989,7 +11001,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11273,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.14</v>
@@ -11482,7 +11494,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR50">
         <v>2.5</v>
@@ -11607,7 +11619,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12097,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>1.71</v>
@@ -12225,7 +12237,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12306,7 +12318,7 @@
         <v>3</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.05</v>
@@ -12509,7 +12521,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12718,7 +12730,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -13049,7 +13061,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13667,7 +13679,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -13745,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.67</v>
@@ -13954,7 +13966,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.19</v>
@@ -14157,7 +14169,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.5</v>
@@ -14366,7 +14378,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.42</v>
@@ -14903,7 +14915,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15393,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15599,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1.57</v>
@@ -15805,10 +15817,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -16139,7 +16151,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16426,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16838,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -16963,7 +16975,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17041,7 +17053,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17169,7 +17181,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17453,7 +17465,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17581,7 +17593,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17662,7 +17674,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.76</v>
@@ -17787,7 +17799,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17993,7 +18005,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18277,7 +18289,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18405,7 +18417,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18486,7 +18498,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>2.29</v>
@@ -18692,7 +18704,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ85">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18898,7 +18910,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.79</v>
@@ -19104,7 +19116,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR87">
         <v>1.31</v>
@@ -19229,7 +19241,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19435,7 +19447,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19513,7 +19525,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ89">
         <v>1.14</v>
@@ -19641,7 +19653,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19719,7 +19731,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.71</v>
@@ -20053,7 +20065,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20131,7 +20143,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20337,7 +20349,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>1.43</v>
@@ -20543,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20749,7 +20761,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95">
         <v>0.13</v>
@@ -20877,7 +20889,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21083,7 +21095,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21370,7 +21382,7 @@
         <v>3</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.32</v>
@@ -21907,7 +21919,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -21988,7 +22000,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.82</v>
@@ -22191,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>1.14</v>
@@ -22400,7 +22412,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.55</v>
@@ -23015,10 +23027,10 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>2.07</v>
@@ -23349,7 +23361,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23430,7 +23442,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>2.14</v>
@@ -23555,7 +23567,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23633,7 +23645,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23761,7 +23773,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23842,7 +23854,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR110">
         <v>2.19</v>
@@ -24048,7 +24060,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.45</v>
@@ -24173,7 +24185,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24585,7 +24597,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24663,7 +24675,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
         <v>1.71</v>
@@ -24791,7 +24803,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24869,7 +24881,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.14</v>
@@ -24997,7 +25009,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25078,7 +25090,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR116">
         <v>1.45</v>
@@ -25203,7 +25215,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25821,7 +25833,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26105,10 +26117,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ121">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26233,7 +26245,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26311,10 +26323,10 @@
         <v>1.33</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR122">
         <v>2.07</v>
@@ -26439,7 +26451,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27341,7 +27353,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ127">
         <v>0.88</v>
@@ -27469,7 +27481,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27550,7 +27562,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR128">
         <v>2.27</v>
@@ -27753,10 +27765,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ129">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR129">
         <v>1.71</v>
@@ -27959,7 +27971,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1.14</v>
@@ -28293,7 +28305,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28374,7 +28386,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR132">
         <v>1.22</v>
@@ -28580,7 +28592,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR133">
         <v>1.65</v>
@@ -28911,7 +28923,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29195,7 +29207,7 @@
         <v>1.75</v>
       </c>
       <c r="AP136">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ136">
         <v>1.71</v>
@@ -29610,7 +29622,7 @@
         <v>3</v>
       </c>
       <c r="AQ138">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
         <v>1.28</v>
@@ -29813,7 +29825,7 @@
         <v>0.75</v>
       </c>
       <c r="AP139">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>1.14</v>
@@ -30228,7 +30240,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.7</v>
@@ -30431,10 +30443,10 @@
         <v>0.75</v>
       </c>
       <c r="AP142">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.88</v>
@@ -30843,7 +30855,7 @@
         <v>0.2</v>
       </c>
       <c r="AP144">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>0.13</v>
@@ -30971,7 +30983,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31177,7 +31189,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31383,7 +31395,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31589,7 +31601,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31795,7 +31807,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32001,7 +32013,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32082,7 +32094,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR150">
         <v>1.62</v>
@@ -32285,7 +32297,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
         <v>1.14</v>
@@ -32494,7 +32506,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR152">
         <v>2.19</v>
@@ -32619,7 +32631,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32697,7 +32709,7 @@
         <v>1.2</v>
       </c>
       <c r="AP153">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>0.88</v>
@@ -32906,7 +32918,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33031,7 +33043,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33109,10 +33121,10 @@
         <v>1.8</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ155">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR155">
         <v>1.88</v>
@@ -33237,7 +33249,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33727,10 +33739,10 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ158">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33936,7 +33948,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ159">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR159">
         <v>1.13</v>
@@ -34139,10 +34151,10 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR160">
         <v>1.59</v>
@@ -34267,7 +34279,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34345,7 +34357,7 @@
         <v>2.5</v>
       </c>
       <c r="AP161">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ161">
         <v>1.86</v>
@@ -34551,7 +34563,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ162">
         <v>1.14</v>
@@ -34679,7 +34691,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34757,7 +34769,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34885,7 +34897,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35172,7 +35184,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ165">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR165">
         <v>1.38</v>
@@ -35378,7 +35390,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ166">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR166">
         <v>1.8</v>
@@ -35581,7 +35593,7 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
         <v>0.86</v>
@@ -35709,7 +35721,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35993,10 +36005,10 @@
         <v>1.4</v>
       </c>
       <c r="AP169">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36121,7 +36133,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36327,7 +36339,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36614,7 +36626,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ172">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
         <v>2.19</v>
@@ -37151,7 +37163,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q175">
         <v>3.25</v>
@@ -37229,7 +37241,7 @@
         <v>1.6</v>
       </c>
       <c r="AP175">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ175">
         <v>1.5</v>
@@ -38181,7 +38193,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38387,7 +38399,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38593,7 +38605,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38674,7 +38686,7 @@
         <v>1</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39086,7 +39098,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ184">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR184">
         <v>1.64</v>
@@ -39289,10 +39301,10 @@
         <v>2</v>
       </c>
       <c r="AP185">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ185">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR185">
         <v>1.27</v>
@@ -39417,7 +39429,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39498,7 +39510,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR186">
         <v>1.6</v>
@@ -39623,7 +39635,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39907,10 +39919,10 @@
         <v>1.83</v>
       </c>
       <c r="AP188">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ188">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.62</v>
@@ -40113,10 +40125,10 @@
         <v>0.4</v>
       </c>
       <c r="AP189">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ189">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR189">
         <v>1.76</v>
@@ -40241,7 +40253,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40319,7 +40331,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ190">
         <v>1.14</v>
@@ -40447,7 +40459,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40528,7 +40540,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR191">
         <v>2.16</v>
@@ -40653,7 +40665,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -40731,7 +40743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ192">
         <v>1.71</v>
@@ -40937,10 +40949,10 @@
         <v>0</v>
       </c>
       <c r="AP193">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ193">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR193">
         <v>1.75</v>
@@ -41065,7 +41077,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41143,10 +41155,10 @@
         <v>0.33</v>
       </c>
       <c r="AP194">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ194">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR194">
         <v>1.42</v>
@@ -41349,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -41683,7 +41695,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42095,7 +42107,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -42507,7 +42519,7 @@
         <v>216</v>
       </c>
       <c r="P201" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q201">
         <v>2.4</v>
@@ -42585,7 +42597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP201">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ201">
         <v>0.5</v>
@@ -43537,7 +43549,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="Q206">
         <v>4.75</v>
@@ -44567,7 +44579,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44773,7 +44785,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -44979,7 +44991,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45135,6 +45147,2066 @@
         <v>0</v>
       </c>
       <c r="BP213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7820539</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45774.64583333334</v>
+      </c>
+      <c r="F214">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
+        <v>95</v>
+      </c>
+      <c r="H214" t="s">
+        <v>83</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>223</v>
+      </c>
+      <c r="P214" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q214">
+        <v>2.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>4.75</v>
+      </c>
+      <c r="T214">
+        <v>1.53</v>
+      </c>
+      <c r="U214">
+        <v>2.38</v>
+      </c>
+      <c r="V214">
+        <v>3.5</v>
+      </c>
+      <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>11</v>
+      </c>
+      <c r="Y214">
+        <v>1.05</v>
+      </c>
+      <c r="Z214">
+        <v>1.95</v>
+      </c>
+      <c r="AA214">
+        <v>3.1</v>
+      </c>
+      <c r="AB214">
+        <v>4.5</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>1.53</v>
+      </c>
+      <c r="AF214">
+        <v>2.37</v>
+      </c>
+      <c r="AG214">
+        <v>2.35</v>
+      </c>
+      <c r="AH214">
+        <v>1.57</v>
+      </c>
+      <c r="AI214">
+        <v>2.05</v>
+      </c>
+      <c r="AJ214">
+        <v>1.7</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>2</v>
+      </c>
+      <c r="AO214">
+        <v>1.67</v>
+      </c>
+      <c r="AP214">
+        <v>2.13</v>
+      </c>
+      <c r="AQ214">
+        <v>1.43</v>
+      </c>
+      <c r="AR214">
+        <v>2.02</v>
+      </c>
+      <c r="AS214">
+        <v>1.47</v>
+      </c>
+      <c r="AT214">
+        <v>3.49</v>
+      </c>
+      <c r="AU214">
+        <v>10</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>6</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>18</v>
+      </c>
+      <c r="AZ214">
+        <v>12</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>9</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>0</v>
+      </c>
+      <c r="BI214">
+        <v>0</v>
+      </c>
+      <c r="BJ214">
+        <v>0</v>
+      </c>
+      <c r="BK214">
+        <v>0</v>
+      </c>
+      <c r="BL214">
+        <v>0</v>
+      </c>
+      <c r="BM214">
+        <v>0</v>
+      </c>
+      <c r="BN214">
+        <v>0</v>
+      </c>
+      <c r="BO214">
+        <v>0</v>
+      </c>
+      <c r="BP214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7820538</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45774.79166666666</v>
+      </c>
+      <c r="F215">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>78</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>166</v>
+      </c>
+      <c r="P215" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q215">
+        <v>2.25</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>1.53</v>
+      </c>
+      <c r="U215">
+        <v>2.38</v>
+      </c>
+      <c r="V215">
+        <v>3.75</v>
+      </c>
+      <c r="W215">
+        <v>1.25</v>
+      </c>
+      <c r="X215">
+        <v>11</v>
+      </c>
+      <c r="Y215">
+        <v>1.05</v>
+      </c>
+      <c r="Z215">
+        <v>1.6</v>
+      </c>
+      <c r="AA215">
+        <v>3.5</v>
+      </c>
+      <c r="AB215">
+        <v>7</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>1.5</v>
+      </c>
+      <c r="AF215">
+        <v>2.4</v>
+      </c>
+      <c r="AG215">
+        <v>2.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.5</v>
+      </c>
+      <c r="AI215">
+        <v>2.5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.5</v>
+      </c>
+      <c r="AK215">
+        <v>0</v>
+      </c>
+      <c r="AL215">
+        <v>0</v>
+      </c>
+      <c r="AM215">
+        <v>0</v>
+      </c>
+      <c r="AN215">
+        <v>1.43</v>
+      </c>
+      <c r="AO215">
+        <v>0.33</v>
+      </c>
+      <c r="AP215">
+        <v>1.63</v>
+      </c>
+      <c r="AQ215">
+        <v>0.29</v>
+      </c>
+      <c r="AR215">
+        <v>1.78</v>
+      </c>
+      <c r="AS215">
+        <v>1.24</v>
+      </c>
+      <c r="AT215">
+        <v>3.02</v>
+      </c>
+      <c r="AU215">
+        <v>4</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>9</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>18</v>
+      </c>
+      <c r="AZ215">
+        <v>9</v>
+      </c>
+      <c r="BA215">
+        <v>5</v>
+      </c>
+      <c r="BB215">
+        <v>6</v>
+      </c>
+      <c r="BC215">
+        <v>11</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>0</v>
+      </c>
+      <c r="BF215">
+        <v>0</v>
+      </c>
+      <c r="BG215">
+        <v>0</v>
+      </c>
+      <c r="BH215">
+        <v>0</v>
+      </c>
+      <c r="BI215">
+        <v>0</v>
+      </c>
+      <c r="BJ215">
+        <v>0</v>
+      </c>
+      <c r="BK215">
+        <v>0</v>
+      </c>
+      <c r="BL215">
+        <v>0</v>
+      </c>
+      <c r="BM215">
+        <v>0</v>
+      </c>
+      <c r="BN215">
+        <v>0</v>
+      </c>
+      <c r="BO215">
+        <v>0</v>
+      </c>
+      <c r="BP215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7820534</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45774.79166666666</v>
+      </c>
+      <c r="F216">
+        <v>15</v>
+      </c>
+      <c r="G216" t="s">
+        <v>81</v>
+      </c>
+      <c r="H216" t="s">
+        <v>88</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>159</v>
+      </c>
+      <c r="P216" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q216">
+        <v>2.6</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>5.5</v>
+      </c>
+      <c r="T216">
+        <v>1.57</v>
+      </c>
+      <c r="U216">
+        <v>2.25</v>
+      </c>
+      <c r="V216">
+        <v>3.75</v>
+      </c>
+      <c r="W216">
+        <v>1.25</v>
+      </c>
+      <c r="X216">
+        <v>11</v>
+      </c>
+      <c r="Y216">
+        <v>1.05</v>
+      </c>
+      <c r="Z216">
+        <v>1.83</v>
+      </c>
+      <c r="AA216">
+        <v>3.4</v>
+      </c>
+      <c r="AB216">
+        <v>4.75</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>0</v>
+      </c>
+      <c r="AE216">
+        <v>1.5</v>
+      </c>
+      <c r="AF216">
+        <v>2.4</v>
+      </c>
+      <c r="AG216">
+        <v>2.5</v>
+      </c>
+      <c r="AH216">
+        <v>1.5</v>
+      </c>
+      <c r="AI216">
+        <v>2.25</v>
+      </c>
+      <c r="AJ216">
+        <v>1.57</v>
+      </c>
+      <c r="AK216">
+        <v>0</v>
+      </c>
+      <c r="AL216">
+        <v>0</v>
+      </c>
+      <c r="AM216">
+        <v>0</v>
+      </c>
+      <c r="AN216">
+        <v>2.17</v>
+      </c>
+      <c r="AO216">
+        <v>0.71</v>
+      </c>
+      <c r="AP216">
+        <v>2</v>
+      </c>
+      <c r="AQ216">
+        <v>0.75</v>
+      </c>
+      <c r="AR216">
+        <v>1.67</v>
+      </c>
+      <c r="AS216">
+        <v>1.13</v>
+      </c>
+      <c r="AT216">
+        <v>2.8</v>
+      </c>
+      <c r="AU216">
+        <v>7</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
+        <v>3</v>
+      </c>
+      <c r="AY216">
+        <v>17</v>
+      </c>
+      <c r="AZ216">
+        <v>8</v>
+      </c>
+      <c r="BA216">
+        <v>13</v>
+      </c>
+      <c r="BB216">
+        <v>3</v>
+      </c>
+      <c r="BC216">
+        <v>16</v>
+      </c>
+      <c r="BD216">
+        <v>0</v>
+      </c>
+      <c r="BE216">
+        <v>0</v>
+      </c>
+      <c r="BF216">
+        <v>0</v>
+      </c>
+      <c r="BG216">
+        <v>0</v>
+      </c>
+      <c r="BH216">
+        <v>0</v>
+      </c>
+      <c r="BI216">
+        <v>0</v>
+      </c>
+      <c r="BJ216">
+        <v>0</v>
+      </c>
+      <c r="BK216">
+        <v>0</v>
+      </c>
+      <c r="BL216">
+        <v>0</v>
+      </c>
+      <c r="BM216">
+        <v>0</v>
+      </c>
+      <c r="BN216">
+        <v>0</v>
+      </c>
+      <c r="BO216">
+        <v>0</v>
+      </c>
+      <c r="BP216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7820536</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45774.88541666666</v>
+      </c>
+      <c r="F217">
+        <v>15</v>
+      </c>
+      <c r="G217" t="s">
+        <v>76</v>
+      </c>
+      <c r="H217" t="s">
+        <v>86</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217" t="s">
+        <v>100</v>
+      </c>
+      <c r="P217" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q217">
+        <v>2.3</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>7</v>
+      </c>
+      <c r="T217">
+        <v>1.53</v>
+      </c>
+      <c r="U217">
+        <v>2.38</v>
+      </c>
+      <c r="V217">
+        <v>3.75</v>
+      </c>
+      <c r="W217">
+        <v>1.25</v>
+      </c>
+      <c r="X217">
+        <v>11</v>
+      </c>
+      <c r="Y217">
+        <v>1.05</v>
+      </c>
+      <c r="Z217">
+        <v>1.56</v>
+      </c>
+      <c r="AA217">
+        <v>3.57</v>
+      </c>
+      <c r="AB217">
+        <v>6.37</v>
+      </c>
+      <c r="AC217">
+        <v>2.13</v>
+      </c>
+      <c r="AD217">
+        <v>1.71</v>
+      </c>
+      <c r="AE217">
+        <v>1.5</v>
+      </c>
+      <c r="AF217">
+        <v>2.4</v>
+      </c>
+      <c r="AG217">
+        <v>2.5</v>
+      </c>
+      <c r="AH217">
+        <v>1.5</v>
+      </c>
+      <c r="AI217">
+        <v>2.5</v>
+      </c>
+      <c r="AJ217">
+        <v>1.5</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>2.71</v>
+      </c>
+      <c r="AO217">
+        <v>1.57</v>
+      </c>
+      <c r="AP217">
+        <v>2.5</v>
+      </c>
+      <c r="AQ217">
+        <v>1.5</v>
+      </c>
+      <c r="AR217">
+        <v>1.77</v>
+      </c>
+      <c r="AS217">
+        <v>1.02</v>
+      </c>
+      <c r="AT217">
+        <v>2.79</v>
+      </c>
+      <c r="AU217">
+        <v>0</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>15</v>
+      </c>
+      <c r="AX217">
+        <v>7</v>
+      </c>
+      <c r="AY217">
+        <v>23</v>
+      </c>
+      <c r="AZ217">
+        <v>12</v>
+      </c>
+      <c r="BA217">
+        <v>9</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>13</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>0</v>
+      </c>
+      <c r="BG217">
+        <v>0</v>
+      </c>
+      <c r="BH217">
+        <v>0</v>
+      </c>
+      <c r="BI217">
+        <v>0</v>
+      </c>
+      <c r="BJ217">
+        <v>0</v>
+      </c>
+      <c r="BK217">
+        <v>0</v>
+      </c>
+      <c r="BL217">
+        <v>0</v>
+      </c>
+      <c r="BM217">
+        <v>0</v>
+      </c>
+      <c r="BN217">
+        <v>0</v>
+      </c>
+      <c r="BO217">
+        <v>0</v>
+      </c>
+      <c r="BP217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7820527</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F218">
+        <v>15</v>
+      </c>
+      <c r="G218" t="s">
+        <v>75</v>
+      </c>
+      <c r="H218" t="s">
+        <v>94</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218" t="s">
+        <v>224</v>
+      </c>
+      <c r="P218" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q218">
+        <v>3.75</v>
+      </c>
+      <c r="R218">
+        <v>1.91</v>
+      </c>
+      <c r="S218">
+        <v>3.5</v>
+      </c>
+      <c r="T218">
+        <v>1.62</v>
+      </c>
+      <c r="U218">
+        <v>2.2</v>
+      </c>
+      <c r="V218">
+        <v>4</v>
+      </c>
+      <c r="W218">
+        <v>1.22</v>
+      </c>
+      <c r="X218">
+        <v>13</v>
+      </c>
+      <c r="Y218">
+        <v>1.04</v>
+      </c>
+      <c r="Z218">
+        <v>2.88</v>
+      </c>
+      <c r="AA218">
+        <v>3.1</v>
+      </c>
+      <c r="AB218">
+        <v>2.63</v>
+      </c>
+      <c r="AC218">
+        <v>0</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>1.53</v>
+      </c>
+      <c r="AF218">
+        <v>2.3</v>
+      </c>
+      <c r="AG218">
+        <v>2.7</v>
+      </c>
+      <c r="AH218">
+        <v>1.44</v>
+      </c>
+      <c r="AI218">
+        <v>2.2</v>
+      </c>
+      <c r="AJ218">
+        <v>1.62</v>
+      </c>
+      <c r="AK218">
+        <v>0</v>
+      </c>
+      <c r="AL218">
+        <v>0</v>
+      </c>
+      <c r="AM218">
+        <v>0</v>
+      </c>
+      <c r="AN218">
+        <v>1.86</v>
+      </c>
+      <c r="AO218">
+        <v>0.17</v>
+      </c>
+      <c r="AP218">
+        <v>2</v>
+      </c>
+      <c r="AQ218">
+        <v>0.14</v>
+      </c>
+      <c r="AR218">
+        <v>1.19</v>
+      </c>
+      <c r="AS218">
+        <v>1.59</v>
+      </c>
+      <c r="AT218">
+        <v>2.78</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>5</v>
+      </c>
+      <c r="AW218">
+        <v>13</v>
+      </c>
+      <c r="AX218">
+        <v>3</v>
+      </c>
+      <c r="AY218">
+        <v>23</v>
+      </c>
+      <c r="AZ218">
+        <v>9</v>
+      </c>
+      <c r="BA218">
+        <v>5</v>
+      </c>
+      <c r="BB218">
+        <v>1</v>
+      </c>
+      <c r="BC218">
+        <v>6</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>0</v>
+      </c>
+      <c r="BG218">
+        <v>0</v>
+      </c>
+      <c r="BH218">
+        <v>0</v>
+      </c>
+      <c r="BI218">
+        <v>0</v>
+      </c>
+      <c r="BJ218">
+        <v>0</v>
+      </c>
+      <c r="BK218">
+        <v>0</v>
+      </c>
+      <c r="BL218">
+        <v>0</v>
+      </c>
+      <c r="BM218">
+        <v>0</v>
+      </c>
+      <c r="BN218">
+        <v>0</v>
+      </c>
+      <c r="BO218">
+        <v>0</v>
+      </c>
+      <c r="BP218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7820537</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45775.71875</v>
+      </c>
+      <c r="F219">
+        <v>15</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+      <c r="H219" t="s">
+        <v>99</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>225</v>
+      </c>
+      <c r="P219" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q219">
+        <v>3.5</v>
+      </c>
+      <c r="R219">
+        <v>1.91</v>
+      </c>
+      <c r="S219">
+        <v>3.6</v>
+      </c>
+      <c r="T219">
+        <v>1.57</v>
+      </c>
+      <c r="U219">
+        <v>2.25</v>
+      </c>
+      <c r="V219">
+        <v>3.75</v>
+      </c>
+      <c r="W219">
+        <v>1.25</v>
+      </c>
+      <c r="X219">
+        <v>11</v>
+      </c>
+      <c r="Y219">
+        <v>1.05</v>
+      </c>
+      <c r="Z219">
+        <v>2.7</v>
+      </c>
+      <c r="AA219">
+        <v>3.25</v>
+      </c>
+      <c r="AB219">
+        <v>2.7</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>1.5</v>
+      </c>
+      <c r="AF219">
+        <v>2.4</v>
+      </c>
+      <c r="AG219">
+        <v>2.5</v>
+      </c>
+      <c r="AH219">
+        <v>1.5</v>
+      </c>
+      <c r="AI219">
+        <v>2.05</v>
+      </c>
+      <c r="AJ219">
+        <v>1.7</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>0.86</v>
+      </c>
+      <c r="AO219">
+        <v>0.57</v>
+      </c>
+      <c r="AP219">
+        <v>1.13</v>
+      </c>
+      <c r="AQ219">
+        <v>0.5</v>
+      </c>
+      <c r="AR219">
+        <v>1.13</v>
+      </c>
+      <c r="AS219">
+        <v>1.32</v>
+      </c>
+      <c r="AT219">
+        <v>2.45</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>8</v>
+      </c>
+      <c r="AX219">
+        <v>2</v>
+      </c>
+      <c r="AY219">
+        <v>14</v>
+      </c>
+      <c r="AZ219">
+        <v>5</v>
+      </c>
+      <c r="BA219">
+        <v>7</v>
+      </c>
+      <c r="BB219">
+        <v>0</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
+        <v>0</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>0</v>
+      </c>
+      <c r="BG219">
+        <v>0</v>
+      </c>
+      <c r="BH219">
+        <v>0</v>
+      </c>
+      <c r="BI219">
+        <v>0</v>
+      </c>
+      <c r="BJ219">
+        <v>0</v>
+      </c>
+      <c r="BK219">
+        <v>0</v>
+      </c>
+      <c r="BL219">
+        <v>0</v>
+      </c>
+      <c r="BM219">
+        <v>0</v>
+      </c>
+      <c r="BN219">
+        <v>0</v>
+      </c>
+      <c r="BO219">
+        <v>0</v>
+      </c>
+      <c r="BP219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7820529</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45775.8125</v>
+      </c>
+      <c r="F220">
+        <v>15</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>97</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>226</v>
+      </c>
+      <c r="P220" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q220">
+        <v>3.6</v>
+      </c>
+      <c r="R220">
+        <v>2.1</v>
+      </c>
+      <c r="S220">
+        <v>3.1</v>
+      </c>
+      <c r="T220">
+        <v>1.44</v>
+      </c>
+      <c r="U220">
+        <v>2.63</v>
+      </c>
+      <c r="V220">
+        <v>3</v>
+      </c>
+      <c r="W220">
+        <v>1.36</v>
+      </c>
+      <c r="X220">
+        <v>9</v>
+      </c>
+      <c r="Y220">
+        <v>1.07</v>
+      </c>
+      <c r="Z220">
+        <v>2.9</v>
+      </c>
+      <c r="AA220">
+        <v>3.5</v>
+      </c>
+      <c r="AB220">
+        <v>2.3</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>1.93</v>
+      </c>
+      <c r="AF220">
+        <v>1.89</v>
+      </c>
+      <c r="AG220">
+        <v>2</v>
+      </c>
+      <c r="AH220">
+        <v>1.8</v>
+      </c>
+      <c r="AI220">
+        <v>1.8</v>
+      </c>
+      <c r="AJ220">
+        <v>1.95</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>1.33</v>
+      </c>
+      <c r="AO220">
+        <v>1.25</v>
+      </c>
+      <c r="AP220">
+        <v>1.14</v>
+      </c>
+      <c r="AQ220">
+        <v>1.44</v>
+      </c>
+      <c r="AR220">
+        <v>1.73</v>
+      </c>
+      <c r="AS220">
+        <v>1.5</v>
+      </c>
+      <c r="AT220">
+        <v>3.23</v>
+      </c>
+      <c r="AU220">
+        <v>8</v>
+      </c>
+      <c r="AV220">
+        <v>6</v>
+      </c>
+      <c r="AW220">
+        <v>10</v>
+      </c>
+      <c r="AX220">
+        <v>4</v>
+      </c>
+      <c r="AY220">
+        <v>21</v>
+      </c>
+      <c r="AZ220">
+        <v>12</v>
+      </c>
+      <c r="BA220">
+        <v>5</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>8</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>0</v>
+      </c>
+      <c r="BJ220">
+        <v>0</v>
+      </c>
+      <c r="BK220">
+        <v>0</v>
+      </c>
+      <c r="BL220">
+        <v>0</v>
+      </c>
+      <c r="BM220">
+        <v>0</v>
+      </c>
+      <c r="BN220">
+        <v>0</v>
+      </c>
+      <c r="BO220">
+        <v>0</v>
+      </c>
+      <c r="BP220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7820525</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45775.8125</v>
+      </c>
+      <c r="F221">
+        <v>15</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>71</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>100</v>
+      </c>
+      <c r="P221" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q221">
+        <v>2.63</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>4.75</v>
+      </c>
+      <c r="T221">
+        <v>1.5</v>
+      </c>
+      <c r="U221">
+        <v>2.5</v>
+      </c>
+      <c r="V221">
+        <v>3.5</v>
+      </c>
+      <c r="W221">
+        <v>1.29</v>
+      </c>
+      <c r="X221">
+        <v>11</v>
+      </c>
+      <c r="Y221">
+        <v>1.05</v>
+      </c>
+      <c r="Z221">
+        <v>1.95</v>
+      </c>
+      <c r="AA221">
+        <v>3.4</v>
+      </c>
+      <c r="AB221">
+        <v>4.2</v>
+      </c>
+      <c r="AC221">
+        <v>3.59</v>
+      </c>
+      <c r="AD221">
+        <v>1.28</v>
+      </c>
+      <c r="AE221">
+        <v>1.5</v>
+      </c>
+      <c r="AF221">
+        <v>2.37</v>
+      </c>
+      <c r="AG221">
+        <v>2.3</v>
+      </c>
+      <c r="AH221">
+        <v>1.6</v>
+      </c>
+      <c r="AI221">
+        <v>2.05</v>
+      </c>
+      <c r="AJ221">
+        <v>1.7</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>2.17</v>
+      </c>
+      <c r="AO221">
+        <v>1.71</v>
+      </c>
+      <c r="AP221">
+        <v>2</v>
+      </c>
+      <c r="AQ221">
+        <v>1.63</v>
+      </c>
+      <c r="AR221">
+        <v>1.96</v>
+      </c>
+      <c r="AS221">
+        <v>1.52</v>
+      </c>
+      <c r="AT221">
+        <v>3.48</v>
+      </c>
+      <c r="AU221">
+        <v>5</v>
+      </c>
+      <c r="AV221">
+        <v>2</v>
+      </c>
+      <c r="AW221">
+        <v>13</v>
+      </c>
+      <c r="AX221">
+        <v>8</v>
+      </c>
+      <c r="AY221">
+        <v>26</v>
+      </c>
+      <c r="AZ221">
+        <v>15</v>
+      </c>
+      <c r="BA221">
+        <v>6</v>
+      </c>
+      <c r="BB221">
+        <v>5</v>
+      </c>
+      <c r="BC221">
+        <v>11</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>0</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>0</v>
+      </c>
+      <c r="BI221">
+        <v>0</v>
+      </c>
+      <c r="BJ221">
+        <v>0</v>
+      </c>
+      <c r="BK221">
+        <v>0</v>
+      </c>
+      <c r="BL221">
+        <v>0</v>
+      </c>
+      <c r="BM221">
+        <v>0</v>
+      </c>
+      <c r="BN221">
+        <v>0</v>
+      </c>
+      <c r="BO221">
+        <v>0</v>
+      </c>
+      <c r="BP221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7820532</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45775.90625</v>
+      </c>
+      <c r="F222">
+        <v>15</v>
+      </c>
+      <c r="G222" t="s">
+        <v>90</v>
+      </c>
+      <c r="H222" t="s">
+        <v>92</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>227</v>
+      </c>
+      <c r="P222" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q222">
+        <v>2.63</v>
+      </c>
+      <c r="R222">
+        <v>1.95</v>
+      </c>
+      <c r="S222">
+        <v>5.5</v>
+      </c>
+      <c r="T222">
+        <v>1.57</v>
+      </c>
+      <c r="U222">
+        <v>2.25</v>
+      </c>
+      <c r="V222">
+        <v>3.75</v>
+      </c>
+      <c r="W222">
+        <v>1.25</v>
+      </c>
+      <c r="X222">
+        <v>13</v>
+      </c>
+      <c r="Y222">
+        <v>1.04</v>
+      </c>
+      <c r="Z222">
+        <v>1.91</v>
+      </c>
+      <c r="AA222">
+        <v>3.1</v>
+      </c>
+      <c r="AB222">
+        <v>4.33</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>1.52</v>
+      </c>
+      <c r="AF222">
+        <v>2.35</v>
+      </c>
+      <c r="AG222">
+        <v>2.7</v>
+      </c>
+      <c r="AH222">
+        <v>1.44</v>
+      </c>
+      <c r="AI222">
+        <v>2.25</v>
+      </c>
+      <c r="AJ222">
+        <v>1.57</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0.57</v>
+      </c>
+      <c r="AO222">
+        <v>0.57</v>
+      </c>
+      <c r="AP222">
+        <v>0.88</v>
+      </c>
+      <c r="AQ222">
+        <v>0.5</v>
+      </c>
+      <c r="AR222">
+        <v>1.47</v>
+      </c>
+      <c r="AS222">
+        <v>1.25</v>
+      </c>
+      <c r="AT222">
+        <v>2.72</v>
+      </c>
+      <c r="AU222">
+        <v>2</v>
+      </c>
+      <c r="AV222">
+        <v>3</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>7</v>
+      </c>
+      <c r="AY222">
+        <v>7</v>
+      </c>
+      <c r="AZ222">
+        <v>11</v>
+      </c>
+      <c r="BA222">
+        <v>1</v>
+      </c>
+      <c r="BB222">
+        <v>3</v>
+      </c>
+      <c r="BC222">
+        <v>4</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>0</v>
+      </c>
+      <c r="BJ222">
+        <v>0</v>
+      </c>
+      <c r="BK222">
+        <v>0</v>
+      </c>
+      <c r="BL222">
+        <v>0</v>
+      </c>
+      <c r="BM222">
+        <v>0</v>
+      </c>
+      <c r="BN222">
+        <v>0</v>
+      </c>
+      <c r="BO222">
+        <v>0</v>
+      </c>
+      <c r="BP222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7820530</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45775.90625</v>
+      </c>
+      <c r="F223">
+        <v>15</v>
+      </c>
+      <c r="G223" t="s">
+        <v>84</v>
+      </c>
+      <c r="H223" t="s">
+        <v>89</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>188</v>
+      </c>
+      <c r="P223" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>1.95</v>
+      </c>
+      <c r="S223">
+        <v>4.33</v>
+      </c>
+      <c r="T223">
+        <v>1.53</v>
+      </c>
+      <c r="U223">
+        <v>2.38</v>
+      </c>
+      <c r="V223">
+        <v>3.75</v>
+      </c>
+      <c r="W223">
+        <v>1.25</v>
+      </c>
+      <c r="X223">
+        <v>11</v>
+      </c>
+      <c r="Y223">
+        <v>1.05</v>
+      </c>
+      <c r="Z223">
+        <v>2.15</v>
+      </c>
+      <c r="AA223">
+        <v>3.25</v>
+      </c>
+      <c r="AB223">
+        <v>3.5</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>1.55</v>
+      </c>
+      <c r="AF223">
+        <v>2.25</v>
+      </c>
+      <c r="AG223">
+        <v>2.4</v>
+      </c>
+      <c r="AH223">
+        <v>1.53</v>
+      </c>
+      <c r="AI223">
+        <v>2.05</v>
+      </c>
+      <c r="AJ223">
+        <v>1.7</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>1.75</v>
+      </c>
+      <c r="AO223">
+        <v>1.29</v>
+      </c>
+      <c r="AP223">
+        <v>1.56</v>
+      </c>
+      <c r="AQ223">
+        <v>1.5</v>
+      </c>
+      <c r="AR223">
+        <v>1.77</v>
+      </c>
+      <c r="AS223">
+        <v>1.21</v>
+      </c>
+      <c r="AT223">
+        <v>2.98</v>
+      </c>
+      <c r="AU223">
+        <v>3</v>
+      </c>
+      <c r="AV223">
+        <v>4</v>
+      </c>
+      <c r="AW223">
+        <v>11</v>
+      </c>
+      <c r="AX223">
+        <v>3</v>
+      </c>
+      <c r="AY223">
+        <v>16</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>5</v>
+      </c>
+      <c r="BD223">
+        <v>0</v>
+      </c>
+      <c r="BE223">
+        <v>0</v>
+      </c>
+      <c r="BF223">
+        <v>0</v>
+      </c>
+      <c r="BG223">
+        <v>0</v>
+      </c>
+      <c r="BH223">
+        <v>0</v>
+      </c>
+      <c r="BI223">
+        <v>0</v>
+      </c>
+      <c r="BJ223">
+        <v>0</v>
+      </c>
+      <c r="BK223">
+        <v>0</v>
+      </c>
+      <c r="BL223">
+        <v>0</v>
+      </c>
+      <c r="BM223">
+        <v>0</v>
+      </c>
+      <c r="BN223">
+        <v>0</v>
+      </c>
+      <c r="BO223">
+        <v>0</v>
+      </c>
+      <c r="BP223">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['51', '53']</t>
   </si>
   <si>
+    <t>['24', '87']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1534,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1943,7 +1946,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2355,7 +2358,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2561,7 +2564,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3179,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5033,7 +5036,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5651,7 +5654,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5857,7 +5860,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5938,7 +5941,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6063,7 +6066,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6475,7 +6478,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6887,7 +6890,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9359,7 +9362,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10183,7 +10186,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10389,7 +10392,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10467,7 +10470,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10595,7 +10598,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10801,7 +10804,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11007,7 +11010,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11625,7 +11628,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12243,7 +12246,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12530,7 +12533,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12861,7 +12864,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13685,7 +13688,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14921,7 +14924,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16157,7 +16160,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16441,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16981,7 +16984,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17187,7 +17190,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17599,7 +17602,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17805,7 +17808,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18011,7 +18014,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18629,7 +18632,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19328,7 +19331,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.23</v>
@@ -19453,7 +19456,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19659,7 +19662,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20071,7 +20074,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20895,7 +20898,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21101,7 +21104,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21925,7 +21928,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22003,7 +22006,7 @@
         <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -23367,7 +23370,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23573,7 +23576,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23779,7 +23782,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24397,7 +24400,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24603,7 +24606,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24809,7 +24812,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25015,7 +25018,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25221,7 +25224,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25299,7 +25302,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1.14</v>
@@ -25508,7 +25511,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR118">
         <v>1.5</v>
@@ -25839,7 +25842,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26251,7 +26254,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26457,7 +26460,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26538,7 +26541,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.76</v>
@@ -27487,7 +27490,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28311,7 +28314,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28929,7 +28932,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -31195,7 +31198,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31401,7 +31404,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31607,7 +31610,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31813,7 +31816,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31891,7 +31894,7 @@
         <v>0.25</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32019,7 +32022,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32637,7 +32640,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33049,7 +33052,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33255,7 +33258,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34285,7 +34288,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34697,7 +34700,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34903,7 +34906,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35727,7 +35730,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35933,7 +35936,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36551,7 +36554,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36963,7 +36966,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37044,7 +37047,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR174">
         <v>2.03</v>
@@ -38199,7 +38202,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q180">
         <v>2.75</v>
@@ -38405,7 +38408,7 @@
         <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q181">
         <v>3.4</v>
@@ -38483,7 +38486,7 @@
         <v>0.17</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
         <v>0.13</v>
@@ -38611,7 +38614,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39435,7 +39438,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39641,7 +39644,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40259,7 +40262,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40465,7 +40468,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40671,7 +40674,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41083,7 +41086,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41701,7 +41704,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -41907,7 +41910,7 @@
         <v>100</v>
       </c>
       <c r="P198" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q198">
         <v>3.1</v>
@@ -44585,7 +44588,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44791,7 +44794,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -44997,7 +45000,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -46645,7 +46648,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q221">
         <v>3.6</v>
@@ -47057,7 +47060,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47626,6 +47629,212 @@
       </c>
       <c r="BP225">
         <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7820518</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45777.875</v>
+      </c>
+      <c r="F226">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>99</v>
+      </c>
+      <c r="H226" t="s">
+        <v>76</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>230</v>
+      </c>
+      <c r="P226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q226">
+        <v>4</v>
+      </c>
+      <c r="R226">
+        <v>1.95</v>
+      </c>
+      <c r="S226">
+        <v>3.1</v>
+      </c>
+      <c r="T226">
+        <v>1.53</v>
+      </c>
+      <c r="U226">
+        <v>2.38</v>
+      </c>
+      <c r="V226">
+        <v>3.5</v>
+      </c>
+      <c r="W226">
+        <v>1.29</v>
+      </c>
+      <c r="X226">
+        <v>11</v>
+      </c>
+      <c r="Y226">
+        <v>1.05</v>
+      </c>
+      <c r="Z226">
+        <v>3.07</v>
+      </c>
+      <c r="AA226">
+        <v>3.16</v>
+      </c>
+      <c r="AB226">
+        <v>2.32</v>
+      </c>
+      <c r="AC226">
+        <v>1.08</v>
+      </c>
+      <c r="AD226">
+        <v>7.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.42</v>
+      </c>
+      <c r="AF226">
+        <v>2.8</v>
+      </c>
+      <c r="AG226">
+        <v>2.35</v>
+      </c>
+      <c r="AH226">
+        <v>1.57</v>
+      </c>
+      <c r="AI226">
+        <v>2.05</v>
+      </c>
+      <c r="AJ226">
+        <v>1.7</v>
+      </c>
+      <c r="AK226">
+        <v>1.58</v>
+      </c>
+      <c r="AL226">
+        <v>1.33</v>
+      </c>
+      <c r="AM226">
+        <v>1.35</v>
+      </c>
+      <c r="AN226">
+        <v>1</v>
+      </c>
+      <c r="AO226">
+        <v>1.5</v>
+      </c>
+      <c r="AP226">
+        <v>1.29</v>
+      </c>
+      <c r="AQ226">
+        <v>1.29</v>
+      </c>
+      <c r="AR226">
+        <v>1.76</v>
+      </c>
+      <c r="AS226">
+        <v>1.13</v>
+      </c>
+      <c r="AT226">
+        <v>2.89</v>
+      </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
+      <c r="AV226">
+        <v>3</v>
+      </c>
+      <c r="AW226">
+        <v>3</v>
+      </c>
+      <c r="AX226">
+        <v>6</v>
+      </c>
+      <c r="AY226">
+        <v>8</v>
+      </c>
+      <c r="AZ226">
+        <v>11</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>3</v>
+      </c>
+      <c r="BC226">
+        <v>6</v>
+      </c>
+      <c r="BD226">
+        <v>2.07</v>
+      </c>
+      <c r="BE226">
+        <v>6.5</v>
+      </c>
+      <c r="BF226">
+        <v>1.92</v>
+      </c>
+      <c r="BG226">
+        <v>1.32</v>
+      </c>
+      <c r="BH226">
+        <v>3.05</v>
+      </c>
+      <c r="BI226">
+        <v>1.55</v>
+      </c>
+      <c r="BJ226">
+        <v>2.25</v>
+      </c>
+      <c r="BK226">
+        <v>1.91</v>
+      </c>
+      <c r="BL226">
+        <v>1.78</v>
+      </c>
+      <c r="BM226">
+        <v>2.4</v>
+      </c>
+      <c r="BN226">
+        <v>1.49</v>
+      </c>
+      <c r="BO226">
+        <v>3.15</v>
+      </c>
+      <c r="BP226">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,18 @@
     <t>['24', '87']</t>
   </si>
   <si>
+    <t>['26', '27', '60', '65']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['1', '35', '63']</t>
+  </si>
+  <si>
+    <t>['18', '71', '82']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -904,9 +916,6 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['90+1']</t>
   </si>
   <si>
@@ -914,6 +923,12 @@
   </si>
   <si>
     <t>['76', '81']</t>
+  </si>
+  <si>
+    <t>['35', '44']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1946,7 +1961,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2358,7 +2373,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2564,7 +2579,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3182,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4702,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5036,7 +5051,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5526,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5654,7 +5669,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5860,7 +5875,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6066,7 +6081,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6353,7 +6368,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6478,7 +6493,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6556,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>1.43</v>
@@ -6890,7 +6905,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6971,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7174,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7380,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ30">
         <v>1.63</v>
@@ -9362,7 +9377,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9443,7 +9458,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
         <v>1.12</v>
@@ -10058,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ43">
         <v>1.43</v>
@@ -10186,7 +10201,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10392,7 +10407,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10598,7 +10613,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10804,7 +10819,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11010,7 +11025,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11088,10 +11103,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.53</v>
@@ -11297,7 +11312,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -11628,7 +11643,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11706,10 +11721,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11912,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>1.86</v>
@@ -12246,7 +12261,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12736,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12864,7 +12879,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12945,7 +12960,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>0.9</v>
@@ -13688,7 +13703,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -13769,7 +13784,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>0.96</v>
@@ -14924,7 +14939,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15005,7 +15020,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.78</v>
@@ -15208,7 +15223,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -16160,7 +16175,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16650,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>0.13</v>
@@ -16856,7 +16871,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>1.43</v>
@@ -16984,7 +16999,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17190,7 +17205,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17271,7 +17286,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>2.48</v>
@@ -17477,7 +17492,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17602,7 +17617,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17680,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -17808,7 +17823,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17886,7 +17901,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ81">
         <v>1.86</v>
@@ -18014,7 +18029,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18632,7 +18647,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19456,7 +19471,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19662,7 +19677,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20074,7 +20089,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20155,7 +20170,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
         <v>1.86</v>
@@ -20898,7 +20913,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21104,7 +21119,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21803,7 +21818,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.73</v>
@@ -21928,7 +21943,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22215,7 +22230,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22418,7 +22433,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ103">
         <v>1.5</v>
@@ -23039,7 +23054,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23370,7 +23385,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23576,7 +23591,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23657,7 +23672,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23782,7 +23797,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24066,7 +24081,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24272,7 +24287,7 @@
         <v>0.25</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ112">
         <v>0.13</v>
@@ -24400,7 +24415,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24478,7 +24493,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24606,7 +24621,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24812,7 +24827,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25018,7 +25033,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25224,7 +25239,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25305,7 +25320,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.81</v>
@@ -25508,7 +25523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>1.29</v>
@@ -25717,7 +25732,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25842,7 +25857,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -25920,7 +25935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>1.86</v>
@@ -26254,7 +26269,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26460,7 +26475,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26744,7 +26759,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -27365,7 +27380,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR127">
         <v>1.66</v>
@@ -27490,7 +27505,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27983,7 +27998,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ130">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.81</v>
@@ -28314,7 +28329,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28598,7 +28613,7 @@
         <v>0</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ133">
         <v>0.14</v>
@@ -28932,7 +28947,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29010,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ135">
         <v>0.57</v>
@@ -29631,7 +29646,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.9</v>
@@ -30661,7 +30676,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR143">
         <v>1.56</v>
@@ -31198,7 +31213,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31276,7 +31291,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ146">
         <v>0.5</v>
@@ -31404,7 +31419,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31485,7 +31500,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31610,7 +31625,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31816,7 +31831,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32022,7 +32037,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32100,7 +32115,7 @@
         <v>0.8</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ150">
         <v>1.44</v>
@@ -32640,7 +32655,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32721,7 +32736,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.16</v>
@@ -32924,7 +32939,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
         <v>1.44</v>
@@ -33052,7 +33067,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33258,7 +33273,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33542,7 +33557,7 @@
         <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -34288,7 +34303,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34700,7 +34715,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34906,7 +34921,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35605,7 +35620,7 @@
         <v>2</v>
       </c>
       <c r="AQ167">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR167">
         <v>1.93</v>
@@ -35730,7 +35745,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35936,7 +35951,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36554,7 +36569,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36966,7 +36981,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37250,10 +37265,10 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ175">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR175">
         <v>1.83</v>
@@ -37662,10 +37677,10 @@
         <v>1.67</v>
       </c>
       <c r="AP177">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ177">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
         <v>1.78</v>
@@ -37868,7 +37883,7 @@
         <v>0.6</v>
       </c>
       <c r="AP178">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ178">
         <v>0.5</v>
@@ -38202,7 +38217,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q180">
         <v>2.75</v>
@@ -38283,7 +38298,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ180">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.25</v>
@@ -38408,7 +38423,7 @@
         <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q181">
         <v>3.4</v>
@@ -38614,7 +38629,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38692,7 +38707,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ182">
         <v>1.5</v>
@@ -39438,7 +39453,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39644,7 +39659,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39725,7 +39740,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ187">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR187">
         <v>1.57</v>
@@ -40262,7 +40277,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40468,7 +40483,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40674,7 +40689,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41086,7 +41101,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41704,7 +41719,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -41910,7 +41925,7 @@
         <v>100</v>
       </c>
       <c r="P198" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q198">
         <v>3.1</v>
@@ -42194,10 +42209,10 @@
         <v>0.8</v>
       </c>
       <c r="AP199">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ199">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR199">
         <v>1.67</v>
@@ -42400,10 +42415,10 @@
         <v>1.17</v>
       </c>
       <c r="AP200">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.77</v>
@@ -42815,7 +42830,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ202">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR202">
         <v>1.71</v>
@@ -43021,7 +43036,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ203">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR203">
         <v>1.59</v>
@@ -44048,7 +44063,7 @@
         <v>1.17</v>
       </c>
       <c r="AP208">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44257,7 +44272,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ209">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR209">
         <v>1.47</v>
@@ -44460,7 +44475,7 @@
         <v>0.67</v>
       </c>
       <c r="AP210">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ210">
         <v>0.57</v>
@@ -44588,7 +44603,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44794,7 +44809,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45000,7 +45015,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -46648,7 +46663,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q221">
         <v>3.6</v>
@@ -47060,7 +47075,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47835,6 +47850,1036 @@
       </c>
       <c r="BP226">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7820545</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F227">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
+        <v>98</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>231</v>
+      </c>
+      <c r="P227" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q227">
+        <v>3.1</v>
+      </c>
+      <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
+        <v>4</v>
+      </c>
+      <c r="T227">
+        <v>1.53</v>
+      </c>
+      <c r="U227">
+        <v>2.38</v>
+      </c>
+      <c r="V227">
+        <v>3.5</v>
+      </c>
+      <c r="W227">
+        <v>1.29</v>
+      </c>
+      <c r="X227">
+        <v>11</v>
+      </c>
+      <c r="Y227">
+        <v>1.05</v>
+      </c>
+      <c r="Z227">
+        <v>2.25</v>
+      </c>
+      <c r="AA227">
+        <v>3.25</v>
+      </c>
+      <c r="AB227">
+        <v>3.2</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1.53</v>
+      </c>
+      <c r="AF227">
+        <v>2.37</v>
+      </c>
+      <c r="AG227">
+        <v>2.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.5</v>
+      </c>
+      <c r="AI227">
+        <v>2.1</v>
+      </c>
+      <c r="AJ227">
+        <v>1.67</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>2.13</v>
+      </c>
+      <c r="AO227">
+        <v>0.88</v>
+      </c>
+      <c r="AP227">
+        <v>2.22</v>
+      </c>
+      <c r="AQ227">
+        <v>0.78</v>
+      </c>
+      <c r="AR227">
+        <v>1.76</v>
+      </c>
+      <c r="AS227">
+        <v>1.4</v>
+      </c>
+      <c r="AT227">
+        <v>3.16</v>
+      </c>
+      <c r="AU227">
+        <v>7</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>8</v>
+      </c>
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>18</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
+        <v>5</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>9</v>
+      </c>
+      <c r="BD227">
+        <v>0</v>
+      </c>
+      <c r="BE227">
+        <v>0</v>
+      </c>
+      <c r="BF227">
+        <v>0</v>
+      </c>
+      <c r="BG227">
+        <v>0</v>
+      </c>
+      <c r="BH227">
+        <v>0</v>
+      </c>
+      <c r="BI227">
+        <v>0</v>
+      </c>
+      <c r="BJ227">
+        <v>0</v>
+      </c>
+      <c r="BK227">
+        <v>0</v>
+      </c>
+      <c r="BL227">
+        <v>0</v>
+      </c>
+      <c r="BM227">
+        <v>0</v>
+      </c>
+      <c r="BN227">
+        <v>0</v>
+      </c>
+      <c r="BO227">
+        <v>0</v>
+      </c>
+      <c r="BP227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7820542</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F228">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>97</v>
+      </c>
+      <c r="H228" t="s">
+        <v>72</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>232</v>
+      </c>
+      <c r="P228" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q228">
+        <v>3.5</v>
+      </c>
+      <c r="R228">
+        <v>1.95</v>
+      </c>
+      <c r="S228">
+        <v>3.5</v>
+      </c>
+      <c r="T228">
+        <v>1.53</v>
+      </c>
+      <c r="U228">
+        <v>2.38</v>
+      </c>
+      <c r="V228">
+        <v>3.5</v>
+      </c>
+      <c r="W228">
+        <v>1.29</v>
+      </c>
+      <c r="X228">
+        <v>11</v>
+      </c>
+      <c r="Y228">
+        <v>1.05</v>
+      </c>
+      <c r="Z228">
+        <v>2.7</v>
+      </c>
+      <c r="AA228">
+        <v>3.1</v>
+      </c>
+      <c r="AB228">
+        <v>2.63</v>
+      </c>
+      <c r="AC228">
+        <v>3.19</v>
+      </c>
+      <c r="AD228">
+        <v>1.34</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>2.4</v>
+      </c>
+      <c r="AH228">
+        <v>1.53</v>
+      </c>
+      <c r="AI228">
+        <v>2.05</v>
+      </c>
+      <c r="AJ228">
+        <v>1.7</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>2</v>
+      </c>
+      <c r="AO228">
+        <v>1.14</v>
+      </c>
+      <c r="AP228">
+        <v>2.14</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>1.79</v>
+      </c>
+      <c r="AS228">
+        <v>1.3</v>
+      </c>
+      <c r="AT228">
+        <v>3.09</v>
+      </c>
+      <c r="AU228">
+        <v>5</v>
+      </c>
+      <c r="AV228">
+        <v>4</v>
+      </c>
+      <c r="AW228">
+        <v>4</v>
+      </c>
+      <c r="AX228">
+        <v>8</v>
+      </c>
+      <c r="AY228">
+        <v>9</v>
+      </c>
+      <c r="AZ228">
+        <v>13</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>10</v>
+      </c>
+      <c r="BD228">
+        <v>0</v>
+      </c>
+      <c r="BE228">
+        <v>0</v>
+      </c>
+      <c r="BF228">
+        <v>0</v>
+      </c>
+      <c r="BG228">
+        <v>0</v>
+      </c>
+      <c r="BH228">
+        <v>0</v>
+      </c>
+      <c r="BI228">
+        <v>0</v>
+      </c>
+      <c r="BJ228">
+        <v>0</v>
+      </c>
+      <c r="BK228">
+        <v>0</v>
+      </c>
+      <c r="BL228">
+        <v>0</v>
+      </c>
+      <c r="BM228">
+        <v>0</v>
+      </c>
+      <c r="BN228">
+        <v>0</v>
+      </c>
+      <c r="BO228">
+        <v>0</v>
+      </c>
+      <c r="BP228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7820540</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F229">
+        <v>16</v>
+      </c>
+      <c r="G229" t="s">
+        <v>85</v>
+      </c>
+      <c r="H229" t="s">
+        <v>84</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>233</v>
+      </c>
+      <c r="P229" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q229">
+        <v>2.5</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>5.5</v>
+      </c>
+      <c r="T229">
+        <v>1.53</v>
+      </c>
+      <c r="U229">
+        <v>2.38</v>
+      </c>
+      <c r="V229">
+        <v>3.5</v>
+      </c>
+      <c r="W229">
+        <v>1.29</v>
+      </c>
+      <c r="X229">
+        <v>11</v>
+      </c>
+      <c r="Y229">
+        <v>1.05</v>
+      </c>
+      <c r="Z229">
+        <v>1.75</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>5</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>1.49</v>
+      </c>
+      <c r="AF229">
+        <v>2.55</v>
+      </c>
+      <c r="AG229">
+        <v>2.4</v>
+      </c>
+      <c r="AH229">
+        <v>1.53</v>
+      </c>
+      <c r="AI229">
+        <v>2.25</v>
+      </c>
+      <c r="AJ229">
+        <v>1.57</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>1</v>
+      </c>
+      <c r="AO229">
+        <v>0.67</v>
+      </c>
+      <c r="AP229">
+        <v>1.25</v>
+      </c>
+      <c r="AQ229">
+        <v>0.57</v>
+      </c>
+      <c r="AR229">
+        <v>1.33</v>
+      </c>
+      <c r="AS229">
+        <v>1.3</v>
+      </c>
+      <c r="AT229">
+        <v>2.63</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>6</v>
+      </c>
+      <c r="AW229">
+        <v>5</v>
+      </c>
+      <c r="AX229">
+        <v>9</v>
+      </c>
+      <c r="AY229">
+        <v>11</v>
+      </c>
+      <c r="AZ229">
+        <v>18</v>
+      </c>
+      <c r="BA229">
+        <v>1</v>
+      </c>
+      <c r="BB229">
+        <v>6</v>
+      </c>
+      <c r="BC229">
+        <v>7</v>
+      </c>
+      <c r="BD229">
+        <v>0</v>
+      </c>
+      <c r="BE229">
+        <v>0</v>
+      </c>
+      <c r="BF229">
+        <v>0</v>
+      </c>
+      <c r="BG229">
+        <v>0</v>
+      </c>
+      <c r="BH229">
+        <v>0</v>
+      </c>
+      <c r="BI229">
+        <v>0</v>
+      </c>
+      <c r="BJ229">
+        <v>0</v>
+      </c>
+      <c r="BK229">
+        <v>0</v>
+      </c>
+      <c r="BL229">
+        <v>0</v>
+      </c>
+      <c r="BM229">
+        <v>0</v>
+      </c>
+      <c r="BN229">
+        <v>0</v>
+      </c>
+      <c r="BO229">
+        <v>0</v>
+      </c>
+      <c r="BP229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7820541</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45779.64583333334</v>
+      </c>
+      <c r="F230">
+        <v>16</v>
+      </c>
+      <c r="G230" t="s">
+        <v>89</v>
+      </c>
+      <c r="H230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230" t="s">
+        <v>234</v>
+      </c>
+      <c r="P230" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q230">
+        <v>4.33</v>
+      </c>
+      <c r="R230">
+        <v>1.95</v>
+      </c>
+      <c r="S230">
+        <v>3</v>
+      </c>
+      <c r="T230">
+        <v>1.53</v>
+      </c>
+      <c r="U230">
+        <v>2.38</v>
+      </c>
+      <c r="V230">
+        <v>3.5</v>
+      </c>
+      <c r="W230">
+        <v>1.29</v>
+      </c>
+      <c r="X230">
+        <v>11</v>
+      </c>
+      <c r="Y230">
+        <v>1.05</v>
+      </c>
+      <c r="Z230">
+        <v>3.3</v>
+      </c>
+      <c r="AA230">
+        <v>3.3</v>
+      </c>
+      <c r="AB230">
+        <v>2.15</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>2.4</v>
+      </c>
+      <c r="AH230">
+        <v>1.53</v>
+      </c>
+      <c r="AI230">
+        <v>2.1</v>
+      </c>
+      <c r="AJ230">
+        <v>1.67</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>1.71</v>
+      </c>
+      <c r="AO230">
+        <v>1.38</v>
+      </c>
+      <c r="AP230">
+        <v>1.88</v>
+      </c>
+      <c r="AQ230">
+        <v>1.22</v>
+      </c>
+      <c r="AR230">
+        <v>1.57</v>
+      </c>
+      <c r="AS230">
+        <v>1.31</v>
+      </c>
+      <c r="AT230">
+        <v>2.88</v>
+      </c>
+      <c r="AU230">
+        <v>7</v>
+      </c>
+      <c r="AV230">
+        <v>7</v>
+      </c>
+      <c r="AW230">
+        <v>4</v>
+      </c>
+      <c r="AX230">
+        <v>12</v>
+      </c>
+      <c r="AY230">
+        <v>13</v>
+      </c>
+      <c r="AZ230">
+        <v>23</v>
+      </c>
+      <c r="BA230">
+        <v>5</v>
+      </c>
+      <c r="BB230">
+        <v>5</v>
+      </c>
+      <c r="BC230">
+        <v>10</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>0</v>
+      </c>
+      <c r="BG230">
+        <v>0</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>0</v>
+      </c>
+      <c r="BJ230">
+        <v>0</v>
+      </c>
+      <c r="BK230">
+        <v>0</v>
+      </c>
+      <c r="BL230">
+        <v>0</v>
+      </c>
+      <c r="BM230">
+        <v>0</v>
+      </c>
+      <c r="BN230">
+        <v>0</v>
+      </c>
+      <c r="BO230">
+        <v>0</v>
+      </c>
+      <c r="BP230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7820544</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45779.75</v>
+      </c>
+      <c r="F231">
+        <v>16</v>
+      </c>
+      <c r="G231" t="s">
+        <v>94</v>
+      </c>
+      <c r="H231" t="s">
+        <v>77</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>155</v>
+      </c>
+      <c r="P231" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q231">
+        <v>3.75</v>
+      </c>
+      <c r="R231">
+        <v>1.91</v>
+      </c>
+      <c r="S231">
+        <v>3.4</v>
+      </c>
+      <c r="T231">
+        <v>1.57</v>
+      </c>
+      <c r="U231">
+        <v>2.25</v>
+      </c>
+      <c r="V231">
+        <v>3.75</v>
+      </c>
+      <c r="W231">
+        <v>1.25</v>
+      </c>
+      <c r="X231">
+        <v>11</v>
+      </c>
+      <c r="Y231">
+        <v>1.05</v>
+      </c>
+      <c r="Z231">
+        <v>2.8</v>
+      </c>
+      <c r="AA231">
+        <v>3.2</v>
+      </c>
+      <c r="AB231">
+        <v>2.5</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>1.53</v>
+      </c>
+      <c r="AF231">
+        <v>2.37</v>
+      </c>
+      <c r="AG231">
+        <v>2.6</v>
+      </c>
+      <c r="AH231">
+        <v>1.48</v>
+      </c>
+      <c r="AI231">
+        <v>2.2</v>
+      </c>
+      <c r="AJ231">
+        <v>1.62</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>1.5</v>
+      </c>
+      <c r="AO231">
+        <v>0.86</v>
+      </c>
+      <c r="AP231">
+        <v>1.44</v>
+      </c>
+      <c r="AQ231">
+        <v>0.88</v>
+      </c>
+      <c r="AR231">
+        <v>1.87</v>
+      </c>
+      <c r="AS231">
+        <v>1.3</v>
+      </c>
+      <c r="AT231">
+        <v>3.17</v>
+      </c>
+      <c r="AU231">
+        <v>2</v>
+      </c>
+      <c r="AV231">
+        <v>2</v>
+      </c>
+      <c r="AW231">
+        <v>13</v>
+      </c>
+      <c r="AX231">
+        <v>4</v>
+      </c>
+      <c r="AY231">
+        <v>16</v>
+      </c>
+      <c r="AZ231">
+        <v>6</v>
+      </c>
+      <c r="BA231">
+        <v>3</v>
+      </c>
+      <c r="BB231">
+        <v>5</v>
+      </c>
+      <c r="BC231">
+        <v>8</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>0</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>0</v>
+      </c>
+      <c r="BI231">
+        <v>0</v>
+      </c>
+      <c r="BJ231">
+        <v>0</v>
+      </c>
+      <c r="BK231">
+        <v>0</v>
+      </c>
+      <c r="BL231">
+        <v>0</v>
+      </c>
+      <c r="BM231">
+        <v>0</v>
+      </c>
+      <c r="BN231">
+        <v>0</v>
+      </c>
+      <c r="BO231">
+        <v>0</v>
+      </c>
+      <c r="BP231">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,12 @@
     <t>['18', '71', '82']</t>
   </si>
   <si>
+    <t>['36', '62', '83']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -929,6 +935,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['43', '80']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1961,7 +1970,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2373,7 +2382,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2579,7 +2588,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3197,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4923,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.29</v>
@@ -5051,7 +5060,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5132,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5335,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5544,7 +5553,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5669,7 +5678,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5875,7 +5884,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5953,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6081,7 +6090,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6162,7 +6171,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6365,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>0.78</v>
@@ -6493,7 +6502,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6780,7 +6789,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6905,7 +6914,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9377,7 +9386,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10201,7 +10210,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10407,7 +10416,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10485,7 +10494,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10613,7 +10622,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10694,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>2.39</v>
@@ -10819,7 +10828,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -10897,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>0.29</v>
@@ -11025,7 +11034,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11515,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>1.63</v>
@@ -11643,7 +11652,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12136,7 +12145,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -12261,7 +12270,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12548,7 +12557,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12879,7 +12888,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12957,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13166,7 +13175,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR58">
         <v>0.73</v>
@@ -13372,7 +13381,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.06</v>
@@ -13575,10 +13584,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>2.21</v>
@@ -13703,7 +13712,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14811,7 +14820,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.56</v>
@@ -14939,7 +14948,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16175,7 +16184,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16459,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16668,7 +16677,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR75">
         <v>1.66</v>
@@ -16999,7 +17008,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17080,7 +17089,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.47</v>
@@ -17205,7 +17214,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17617,7 +17626,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17823,7 +17832,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18029,7 +18038,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18316,7 +18325,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -18519,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>0.14</v>
@@ -18647,7 +18656,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -18725,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -19137,7 +19146,7 @@
         <v>3</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19346,7 +19355,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.23</v>
@@ -19471,7 +19480,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19552,7 +19561,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ89">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19677,7 +19686,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19758,7 +19767,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR90">
         <v>1.46</v>
@@ -19961,7 +19970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20089,7 +20098,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20788,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20913,7 +20922,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21119,7 +21128,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21609,10 +21618,10 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ99">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -21943,7 +21952,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22021,7 +22030,7 @@
         <v>0.33</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -23385,7 +23394,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23591,7 +23600,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23797,7 +23806,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23875,7 +23884,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ110">
         <v>1.63</v>
@@ -24290,7 +24299,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ112">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.81</v>
@@ -24415,7 +24424,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24496,7 +24505,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>1.94</v>
@@ -24621,7 +24630,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24827,7 +24836,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -24908,7 +24917,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.19</v>
@@ -25033,7 +25042,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25239,7 +25248,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25317,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25526,7 +25535,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
         <v>1.5</v>
@@ -25857,7 +25866,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26269,7 +26278,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26475,7 +26484,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26556,7 +26565,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR123">
         <v>1.76</v>
@@ -26965,10 +26974,10 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27174,7 +27183,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.05</v>
@@ -27505,7 +27514,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28204,7 +28213,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28329,7 +28338,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28819,7 +28828,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ134">
         <v>1.56</v>
@@ -28947,7 +28956,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29234,7 +29243,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR136">
         <v>1.23</v>
@@ -29437,7 +29446,7 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.57</v>
@@ -30055,7 +30064,7 @@
         <v>1.33</v>
       </c>
       <c r="AP140">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30261,7 +30270,7 @@
         <v>1.75</v>
       </c>
       <c r="AP141">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ141">
         <v>1.5</v>
@@ -30882,7 +30891,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31088,7 +31097,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR145">
         <v>1.91</v>
@@ -31213,7 +31222,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31419,7 +31428,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31625,7 +31634,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31831,7 +31840,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31909,7 +31918,7 @@
         <v>0.25</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32037,7 +32046,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32655,7 +32664,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33067,7 +33076,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33273,7 +33282,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33354,7 +33363,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -34303,7 +34312,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34590,7 +34599,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ162">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.78</v>
@@ -34715,7 +34724,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34921,7 +34930,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35745,7 +35754,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35826,7 +35835,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ168">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR168">
         <v>1.54</v>
@@ -35951,7 +35960,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36441,7 +36450,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -36569,7 +36578,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36647,7 +36656,7 @@
         <v>0.6</v>
       </c>
       <c r="AP172">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ172">
         <v>0.57</v>
@@ -36853,7 +36862,7 @@
         <v>1.4</v>
       </c>
       <c r="AP173">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ173">
         <v>1.57</v>
@@ -36981,7 +36990,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37062,7 +37071,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR174">
         <v>2.03</v>
@@ -37474,7 +37483,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -38089,7 +38098,7 @@
         <v>1.4</v>
       </c>
       <c r="AP179">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
         <v>1.43</v>
@@ -38217,7 +38226,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q180">
         <v>2.75</v>
@@ -38423,7 +38432,7 @@
         <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q181">
         <v>3.4</v>
@@ -38501,10 +38510,10 @@
         <v>0.17</v>
       </c>
       <c r="AP181">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR181">
         <v>1.79</v>
@@ -38629,7 +38638,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39453,7 +39462,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39659,7 +39668,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40277,7 +40286,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40483,7 +40492,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40689,7 +40698,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41101,7 +41110,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41388,7 +41397,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
         <v>1.04</v>
@@ -41719,7 +41728,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -41925,7 +41934,7 @@
         <v>100</v>
       </c>
       <c r="P198" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q198">
         <v>3.1</v>
@@ -42003,7 +42012,7 @@
         <v>0.67</v>
       </c>
       <c r="AP198">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ198">
         <v>1</v>
@@ -42827,7 +42836,7 @@
         <v>1.43</v>
       </c>
       <c r="AP202">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ202">
         <v>1.22</v>
@@ -43239,10 +43248,10 @@
         <v>1.83</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ204">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR204">
         <v>1.17</v>
@@ -43448,7 +43457,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ205">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.53</v>
@@ -43651,7 +43660,7 @@
         <v>1.17</v>
       </c>
       <c r="AP206">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ206">
         <v>1.43</v>
@@ -43860,7 +43869,7 @@
         <v>3</v>
       </c>
       <c r="AQ207">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR207">
         <v>1.36</v>
@@ -44066,7 +44075,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR208">
         <v>1.77</v>
@@ -44809,7 +44818,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45015,7 +45024,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -46663,7 +46672,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q221">
         <v>3.6</v>
@@ -47075,7 +47084,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47771,10 +47780,10 @@
         <v>1.5</v>
       </c>
       <c r="AP226">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ226">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR226">
         <v>1.76</v>
@@ -48517,7 +48526,7 @@
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q230">
         <v>4.33</v>
@@ -48723,7 +48732,7 @@
         <v>155</v>
       </c>
       <c r="P231" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48879,6 +48888,1242 @@
         <v>0</v>
       </c>
       <c r="BP231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7820550</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F232">
+        <v>16</v>
+      </c>
+      <c r="G232" t="s">
+        <v>88</v>
+      </c>
+      <c r="H232" t="s">
+        <v>79</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>225</v>
+      </c>
+      <c r="P232" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q232">
+        <v>4.33</v>
+      </c>
+      <c r="R232">
+        <v>1.83</v>
+      </c>
+      <c r="S232">
+        <v>3.4</v>
+      </c>
+      <c r="T232">
+        <v>1.67</v>
+      </c>
+      <c r="U232">
+        <v>2.1</v>
+      </c>
+      <c r="V232">
+        <v>4.33</v>
+      </c>
+      <c r="W232">
+        <v>1.2</v>
+      </c>
+      <c r="X232">
+        <v>15</v>
+      </c>
+      <c r="Y232">
+        <v>1.03</v>
+      </c>
+      <c r="Z232">
+        <v>3.1</v>
+      </c>
+      <c r="AA232">
+        <v>2.63</v>
+      </c>
+      <c r="AB232">
+        <v>2.7</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1.65</v>
+      </c>
+      <c r="AF232">
+        <v>2.1</v>
+      </c>
+      <c r="AG232">
+        <v>3.1</v>
+      </c>
+      <c r="AH232">
+        <v>1.36</v>
+      </c>
+      <c r="AI232">
+        <v>2.25</v>
+      </c>
+      <c r="AJ232">
+        <v>1.57</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>1.14</v>
+      </c>
+      <c r="AO232">
+        <v>1.71</v>
+      </c>
+      <c r="AP232">
+        <v>1.13</v>
+      </c>
+      <c r="AQ232">
+        <v>1.63</v>
+      </c>
+      <c r="AR232">
+        <v>1.8</v>
+      </c>
+      <c r="AS232">
+        <v>1.04</v>
+      </c>
+      <c r="AT232">
+        <v>2.84</v>
+      </c>
+      <c r="AU232">
+        <v>2</v>
+      </c>
+      <c r="AV232">
+        <v>6</v>
+      </c>
+      <c r="AW232">
+        <v>4</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>7</v>
+      </c>
+      <c r="AZ232">
+        <v>13</v>
+      </c>
+      <c r="BA232">
+        <v>5</v>
+      </c>
+      <c r="BB232">
+        <v>6</v>
+      </c>
+      <c r="BC232">
+        <v>11</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7820548</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F233">
+        <v>16</v>
+      </c>
+      <c r="G233" t="s">
+        <v>86</v>
+      </c>
+      <c r="H233" t="s">
+        <v>70</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>3</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233" t="s">
+        <v>235</v>
+      </c>
+      <c r="P233" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q233">
+        <v>3.75</v>
+      </c>
+      <c r="R233">
+        <v>1.83</v>
+      </c>
+      <c r="S233">
+        <v>3.75</v>
+      </c>
+      <c r="T233">
+        <v>1.67</v>
+      </c>
+      <c r="U233">
+        <v>2.1</v>
+      </c>
+      <c r="V233">
+        <v>4.33</v>
+      </c>
+      <c r="W233">
+        <v>1.2</v>
+      </c>
+      <c r="X233">
+        <v>15</v>
+      </c>
+      <c r="Y233">
+        <v>1.03</v>
+      </c>
+      <c r="Z233">
+        <v>2.9</v>
+      </c>
+      <c r="AA233">
+        <v>2.63</v>
+      </c>
+      <c r="AB233">
+        <v>2.9</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>1.65</v>
+      </c>
+      <c r="AF233">
+        <v>2.15</v>
+      </c>
+      <c r="AG233">
+        <v>3.1</v>
+      </c>
+      <c r="AH233">
+        <v>1.36</v>
+      </c>
+      <c r="AI233">
+        <v>2.25</v>
+      </c>
+      <c r="AJ233">
+        <v>1.57</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>1.29</v>
+      </c>
+      <c r="AO233">
+        <v>1.14</v>
+      </c>
+      <c r="AP233">
+        <v>1.5</v>
+      </c>
+      <c r="AQ233">
+        <v>1</v>
+      </c>
+      <c r="AR233">
+        <v>1.13</v>
+      </c>
+      <c r="AS233">
+        <v>1.21</v>
+      </c>
+      <c r="AT233">
+        <v>2.34</v>
+      </c>
+      <c r="AU233">
+        <v>6</v>
+      </c>
+      <c r="AV233">
+        <v>7</v>
+      </c>
+      <c r="AW233">
+        <v>3</v>
+      </c>
+      <c r="AX233">
+        <v>7</v>
+      </c>
+      <c r="AY233">
+        <v>10</v>
+      </c>
+      <c r="AZ233">
+        <v>15</v>
+      </c>
+      <c r="BA233">
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <v>3</v>
+      </c>
+      <c r="BC233">
+        <v>3</v>
+      </c>
+      <c r="BD233">
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <v>0</v>
+      </c>
+      <c r="BF233">
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <v>0</v>
+      </c>
+      <c r="BH233">
+        <v>0</v>
+      </c>
+      <c r="BI233">
+        <v>0</v>
+      </c>
+      <c r="BJ233">
+        <v>0</v>
+      </c>
+      <c r="BK233">
+        <v>0</v>
+      </c>
+      <c r="BL233">
+        <v>0</v>
+      </c>
+      <c r="BM233">
+        <v>0</v>
+      </c>
+      <c r="BN233">
+        <v>0</v>
+      </c>
+      <c r="BO233">
+        <v>0</v>
+      </c>
+      <c r="BP233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7820551</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F234">
+        <v>16</v>
+      </c>
+      <c r="G234" t="s">
+        <v>91</v>
+      </c>
+      <c r="H234" t="s">
+        <v>81</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>236</v>
+      </c>
+      <c r="P234" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q234">
+        <v>2.75</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>4.75</v>
+      </c>
+      <c r="T234">
+        <v>1.53</v>
+      </c>
+      <c r="U234">
+        <v>2.38</v>
+      </c>
+      <c r="V234">
+        <v>3.5</v>
+      </c>
+      <c r="W234">
+        <v>1.29</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>1.95</v>
+      </c>
+      <c r="AA234">
+        <v>3.1</v>
+      </c>
+      <c r="AB234">
+        <v>4.33</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>1.5</v>
+      </c>
+      <c r="AF234">
+        <v>2.4</v>
+      </c>
+      <c r="AG234">
+        <v>2.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.5</v>
+      </c>
+      <c r="AI234">
+        <v>2.1</v>
+      </c>
+      <c r="AJ234">
+        <v>1.67</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>0.71</v>
+      </c>
+      <c r="AO234">
+        <v>0.13</v>
+      </c>
+      <c r="AP234">
+        <v>0.63</v>
+      </c>
+      <c r="AQ234">
+        <v>0.44</v>
+      </c>
+      <c r="AR234">
+        <v>2.12</v>
+      </c>
+      <c r="AS234">
+        <v>1.18</v>
+      </c>
+      <c r="AT234">
+        <v>3.3</v>
+      </c>
+      <c r="AU234">
+        <v>5</v>
+      </c>
+      <c r="AV234">
+        <v>8</v>
+      </c>
+      <c r="AW234">
+        <v>8</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>14</v>
+      </c>
+      <c r="AZ234">
+        <v>13</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
+        <v>2</v>
+      </c>
+      <c r="BC234">
+        <v>6</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>0</v>
+      </c>
+      <c r="BF234">
+        <v>0</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>0</v>
+      </c>
+      <c r="BI234">
+        <v>0</v>
+      </c>
+      <c r="BJ234">
+        <v>0</v>
+      </c>
+      <c r="BK234">
+        <v>0</v>
+      </c>
+      <c r="BL234">
+        <v>0</v>
+      </c>
+      <c r="BM234">
+        <v>0</v>
+      </c>
+      <c r="BN234">
+        <v>0</v>
+      </c>
+      <c r="BO234">
+        <v>0</v>
+      </c>
+      <c r="BP234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7820549</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="F235">
+        <v>16</v>
+      </c>
+      <c r="G235" t="s">
+        <v>87</v>
+      </c>
+      <c r="H235" t="s">
+        <v>76</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" t="s">
+        <v>116</v>
+      </c>
+      <c r="P235" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q235">
+        <v>3.2</v>
+      </c>
+      <c r="R235">
+        <v>1.91</v>
+      </c>
+      <c r="S235">
+        <v>4</v>
+      </c>
+      <c r="T235">
+        <v>1.57</v>
+      </c>
+      <c r="U235">
+        <v>2.25</v>
+      </c>
+      <c r="V235">
+        <v>3.75</v>
+      </c>
+      <c r="W235">
+        <v>1.25</v>
+      </c>
+      <c r="X235">
+        <v>13</v>
+      </c>
+      <c r="Y235">
+        <v>1.04</v>
+      </c>
+      <c r="Z235">
+        <v>2.4</v>
+      </c>
+      <c r="AA235">
+        <v>2.88</v>
+      </c>
+      <c r="AB235">
+        <v>3.5</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>1.53</v>
+      </c>
+      <c r="AF235">
+        <v>2.3</v>
+      </c>
+      <c r="AG235">
+        <v>2.7</v>
+      </c>
+      <c r="AH235">
+        <v>1.44</v>
+      </c>
+      <c r="AI235">
+        <v>2.1</v>
+      </c>
+      <c r="AJ235">
+        <v>1.67</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AN235">
+        <v>3</v>
+      </c>
+      <c r="AO235">
+        <v>1.29</v>
+      </c>
+      <c r="AP235">
+        <v>3</v>
+      </c>
+      <c r="AQ235">
+        <v>1.13</v>
+      </c>
+      <c r="AR235">
+        <v>1.57</v>
+      </c>
+      <c r="AS235">
+        <v>1.13</v>
+      </c>
+      <c r="AT235">
+        <v>2.7</v>
+      </c>
+      <c r="AU235">
+        <v>8</v>
+      </c>
+      <c r="AV235">
+        <v>2</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
+        <v>7</v>
+      </c>
+      <c r="AY235">
+        <v>15</v>
+      </c>
+      <c r="AZ235">
+        <v>11</v>
+      </c>
+      <c r="BA235">
+        <v>1</v>
+      </c>
+      <c r="BB235">
+        <v>5</v>
+      </c>
+      <c r="BC235">
+        <v>6</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>0</v>
+      </c>
+      <c r="BF235">
+        <v>0</v>
+      </c>
+      <c r="BG235">
+        <v>0</v>
+      </c>
+      <c r="BH235">
+        <v>0</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>0</v>
+      </c>
+      <c r="BK235">
+        <v>0</v>
+      </c>
+      <c r="BL235">
+        <v>0</v>
+      </c>
+      <c r="BM235">
+        <v>0</v>
+      </c>
+      <c r="BN235">
+        <v>0</v>
+      </c>
+      <c r="BO235">
+        <v>0</v>
+      </c>
+      <c r="BP235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7820543</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45780.875</v>
+      </c>
+      <c r="F236">
+        <v>16</v>
+      </c>
+      <c r="G236" t="s">
+        <v>93</v>
+      </c>
+      <c r="H236" t="s">
+        <v>75</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>100</v>
+      </c>
+      <c r="P236" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q236">
+        <v>2.25</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>1.53</v>
+      </c>
+      <c r="U236">
+        <v>2.38</v>
+      </c>
+      <c r="V236">
+        <v>3.75</v>
+      </c>
+      <c r="W236">
+        <v>1.25</v>
+      </c>
+      <c r="X236">
+        <v>11</v>
+      </c>
+      <c r="Y236">
+        <v>1.05</v>
+      </c>
+      <c r="Z236">
+        <v>1.62</v>
+      </c>
+      <c r="AA236">
+        <v>3.6</v>
+      </c>
+      <c r="AB236">
+        <v>6</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>1.49</v>
+      </c>
+      <c r="AF236">
+        <v>2.45</v>
+      </c>
+      <c r="AG236">
+        <v>2.5</v>
+      </c>
+      <c r="AH236">
+        <v>1.5</v>
+      </c>
+      <c r="AI236">
+        <v>2.5</v>
+      </c>
+      <c r="AJ236">
+        <v>1.5</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>2.14</v>
+      </c>
+      <c r="AO236">
+        <v>1</v>
+      </c>
+      <c r="AP236">
+        <v>1.88</v>
+      </c>
+      <c r="AQ236">
+        <v>1.25</v>
+      </c>
+      <c r="AR236">
+        <v>1.81</v>
+      </c>
+      <c r="AS236">
+        <v>1.27</v>
+      </c>
+      <c r="AT236">
+        <v>3.08</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
+        <v>7</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>13</v>
+      </c>
+      <c r="BA236">
+        <v>7</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>9</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>0</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>0</v>
+      </c>
+      <c r="BI236">
+        <v>0</v>
+      </c>
+      <c r="BJ236">
+        <v>0</v>
+      </c>
+      <c r="BK236">
+        <v>0</v>
+      </c>
+      <c r="BL236">
+        <v>0</v>
+      </c>
+      <c r="BM236">
+        <v>0</v>
+      </c>
+      <c r="BN236">
+        <v>0</v>
+      </c>
+      <c r="BO236">
+        <v>0</v>
+      </c>
+      <c r="BP236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7820547</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45780.875</v>
+      </c>
+      <c r="F237">
+        <v>16</v>
+      </c>
+      <c r="G237" t="s">
+        <v>99</v>
+      </c>
+      <c r="H237" t="s">
+        <v>74</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>113</v>
+      </c>
+      <c r="P237" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q237">
+        <v>2.25</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>7</v>
+      </c>
+      <c r="T237">
+        <v>1.53</v>
+      </c>
+      <c r="U237">
+        <v>2.38</v>
+      </c>
+      <c r="V237">
+        <v>3.75</v>
+      </c>
+      <c r="W237">
+        <v>1.25</v>
+      </c>
+      <c r="X237">
+        <v>11</v>
+      </c>
+      <c r="Y237">
+        <v>1.05</v>
+      </c>
+      <c r="Z237">
+        <v>1.6</v>
+      </c>
+      <c r="AA237">
+        <v>3.8</v>
+      </c>
+      <c r="AB237">
+        <v>5.5</v>
+      </c>
+      <c r="AC237">
+        <v>2.94</v>
+      </c>
+      <c r="AD237">
+        <v>1.4</v>
+      </c>
+      <c r="AE237">
+        <v>1.5</v>
+      </c>
+      <c r="AF237">
+        <v>2.4</v>
+      </c>
+      <c r="AG237">
+        <v>2.5</v>
+      </c>
+      <c r="AH237">
+        <v>1.5</v>
+      </c>
+      <c r="AI237">
+        <v>2.63</v>
+      </c>
+      <c r="AJ237">
+        <v>1.44</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AN237">
+        <v>1.29</v>
+      </c>
+      <c r="AO237">
+        <v>1</v>
+      </c>
+      <c r="AP237">
+        <v>1.5</v>
+      </c>
+      <c r="AQ237">
+        <v>0.88</v>
+      </c>
+      <c r="AR237">
+        <v>1.68</v>
+      </c>
+      <c r="AS237">
+        <v>1.42</v>
+      </c>
+      <c r="AT237">
+        <v>3.1</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>3</v>
+      </c>
+      <c r="AW237">
+        <v>8</v>
+      </c>
+      <c r="AX237">
+        <v>7</v>
+      </c>
+      <c r="AY237">
+        <v>17</v>
+      </c>
+      <c r="AZ237">
+        <v>12</v>
+      </c>
+      <c r="BA237">
+        <v>5</v>
+      </c>
+      <c r="BB237">
+        <v>5</v>
+      </c>
+      <c r="BC237">
+        <v>10</v>
+      </c>
+      <c r="BD237">
+        <v>0</v>
+      </c>
+      <c r="BE237">
+        <v>0</v>
+      </c>
+      <c r="BF237">
+        <v>0</v>
+      </c>
+      <c r="BG237">
+        <v>0</v>
+      </c>
+      <c r="BH237">
+        <v>0</v>
+      </c>
+      <c r="BI237">
+        <v>0</v>
+      </c>
+      <c r="BJ237">
+        <v>0</v>
+      </c>
+      <c r="BK237">
+        <v>0</v>
+      </c>
+      <c r="BL237">
+        <v>0</v>
+      </c>
+      <c r="BM237">
+        <v>0</v>
+      </c>
+      <c r="BN237">
+        <v>0</v>
+      </c>
+      <c r="BO237">
+        <v>0</v>
+      </c>
+      <c r="BP237">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,12 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['14', '28', '33', '90+10']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -938,6 +944,9 @@
   </si>
   <si>
     <t>['43', '80']</t>
+  </si>
+  <si>
+    <t>['38', '90+6', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP237"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1842,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1970,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2382,7 +2391,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2588,7 +2597,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3206,7 +3215,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -4523,7 +4532,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5060,7 +5069,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5678,7 +5687,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5759,7 +5768,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5884,7 +5893,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6090,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6168,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6502,7 +6511,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6583,7 +6592,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6786,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ27">
         <v>0.44</v>
@@ -6914,7 +6923,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -8022,7 +8031,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
         <v>1.56</v>
@@ -8849,7 +8858,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -9055,7 +9064,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.8</v>
@@ -9386,7 +9395,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9670,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>0.14</v>
@@ -10085,7 +10094,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10210,7 +10219,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10416,7 +10425,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10622,7 +10631,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10828,7 +10837,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11034,7 +11043,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11652,7 +11661,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12270,7 +12279,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12554,7 +12563,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12763,7 +12772,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -12888,7 +12897,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13378,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13712,7 +13721,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14408,7 +14417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -14617,7 +14626,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
         <v>1.99</v>
@@ -14948,7 +14957,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15441,7 +15450,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>2.02</v>
@@ -16059,7 +16068,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -16184,7 +16193,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16262,7 +16271,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16883,7 +16892,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -17008,7 +17017,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17214,7 +17223,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17626,7 +17635,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17832,7 +17841,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18038,7 +18047,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18322,7 +18331,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18656,7 +18665,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -18940,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>0.29</v>
@@ -19480,7 +19489,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19686,7 +19695,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20098,7 +20107,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20385,7 +20394,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20591,7 +20600,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.94</v>
@@ -20922,7 +20931,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21003,7 +21012,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ96">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -21128,7 +21137,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21206,7 +21215,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ97">
         <v>1.57</v>
@@ -21952,7 +21961,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22648,7 +22657,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -23060,7 +23069,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23394,7 +23403,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23600,7 +23609,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23678,7 +23687,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ109">
         <v>0.78</v>
@@ -23806,7 +23815,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24424,7 +24433,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24630,7 +24639,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24836,7 +24845,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25042,7 +25051,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25248,7 +25257,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25866,7 +25875,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26278,7 +26287,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26359,7 +26368,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR122">
         <v>2.07</v>
@@ -26484,7 +26493,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27514,7 +27523,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27798,7 +27807,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -28338,7 +28347,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28416,7 +28425,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28956,7 +28965,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29037,7 +29046,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ135">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.84</v>
@@ -31222,7 +31231,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31428,7 +31437,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31506,7 +31515,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ147">
         <v>0.57</v>
@@ -31634,7 +31643,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31712,10 +31721,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ148">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -31840,7 +31849,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31921,7 +31930,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32046,7 +32055,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32664,7 +32673,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33076,7 +33085,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33282,7 +33291,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34312,7 +34321,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34724,7 +34733,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34802,7 +34811,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34930,7 +34939,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35214,7 +35223,7 @@
         <v>0.2</v>
       </c>
       <c r="AP165">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>0.75</v>
@@ -35423,7 +35432,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ166">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR166">
         <v>1.8</v>
@@ -35754,7 +35763,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35832,7 +35841,7 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ168">
         <v>1.63</v>
@@ -35960,7 +35969,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q169">
         <v>2.75</v>
@@ -36041,7 +36050,7 @@
         <v>3</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36578,7 +36587,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>2.38</v>
@@ -36659,7 +36668,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ172">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
         <v>1.62</v>
@@ -36990,7 +36999,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -38101,7 +38110,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38226,7 +38235,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>2.75</v>
@@ -38304,7 +38313,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38432,7 +38441,7 @@
         <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q181">
         <v>3.4</v>
@@ -38638,7 +38647,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39462,7 +39471,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39543,7 +39552,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR186">
         <v>1.6</v>
@@ -39668,7 +39677,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39746,7 +39755,7 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>0.78</v>
@@ -40286,7 +40295,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40364,7 +40373,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40492,7 +40501,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40698,7 +40707,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41110,7 +41119,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41728,7 +41737,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -41806,7 +41815,7 @@
         <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
         <v>1.57</v>
@@ -41934,7 +41943,7 @@
         <v>100</v>
       </c>
       <c r="P198" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q198">
         <v>3.1</v>
@@ -42015,7 +42024,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR198">
         <v>2.14</v>
@@ -43454,7 +43463,7 @@
         <v>1.33</v>
       </c>
       <c r="AP205">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43663,7 +43672,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR206">
         <v>1.83</v>
@@ -44278,7 +44287,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ209">
         <v>0.88</v>
@@ -44487,7 +44496,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ210">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR210">
         <v>1.63</v>
@@ -44818,7 +44827,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45024,7 +45033,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45308,10 +45317,10 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ214">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR214">
         <v>2.02</v>
@@ -46672,7 +46681,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q221">
         <v>3.6</v>
@@ -47084,7 +47093,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -48526,7 +48535,7 @@
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q230">
         <v>4.33</v>
@@ -48732,7 +48741,7 @@
         <v>155</v>
       </c>
       <c r="P231" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -49350,7 +49359,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49762,7 +49771,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -50124,6 +50133,830 @@
         <v>0</v>
       </c>
       <c r="BP237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7820552</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45781.64583333334</v>
+      </c>
+      <c r="F238">
+        <v>16</v>
+      </c>
+      <c r="G238" t="s">
+        <v>92</v>
+      </c>
+      <c r="H238" t="s">
+        <v>82</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>113</v>
+      </c>
+      <c r="P238" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q238">
+        <v>3.4</v>
+      </c>
+      <c r="R238">
+        <v>1.83</v>
+      </c>
+      <c r="S238">
+        <v>4.33</v>
+      </c>
+      <c r="T238">
+        <v>1.67</v>
+      </c>
+      <c r="U238">
+        <v>2.1</v>
+      </c>
+      <c r="V238">
+        <v>4.33</v>
+      </c>
+      <c r="W238">
+        <v>1.2</v>
+      </c>
+      <c r="X238">
+        <v>15</v>
+      </c>
+      <c r="Y238">
+        <v>1.03</v>
+      </c>
+      <c r="Z238">
+        <v>2.4</v>
+      </c>
+      <c r="AA238">
+        <v>3</v>
+      </c>
+      <c r="AB238">
+        <v>3.2</v>
+      </c>
+      <c r="AC238">
+        <v>3.36</v>
+      </c>
+      <c r="AD238">
+        <v>1.33</v>
+      </c>
+      <c r="AE238">
+        <v>1.67</v>
+      </c>
+      <c r="AF238">
+        <v>2.05</v>
+      </c>
+      <c r="AG238">
+        <v>3.1</v>
+      </c>
+      <c r="AH238">
+        <v>1.36</v>
+      </c>
+      <c r="AI238">
+        <v>2.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.5</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>1.29</v>
+      </c>
+      <c r="AO238">
+        <v>1.43</v>
+      </c>
+      <c r="AP238">
+        <v>1.5</v>
+      </c>
+      <c r="AQ238">
+        <v>1.25</v>
+      </c>
+      <c r="AR238">
+        <v>1.5</v>
+      </c>
+      <c r="AS238">
+        <v>1.16</v>
+      </c>
+      <c r="AT238">
+        <v>2.66</v>
+      </c>
+      <c r="AU238">
+        <v>6</v>
+      </c>
+      <c r="AV238">
+        <v>6</v>
+      </c>
+      <c r="AW238">
+        <v>8</v>
+      </c>
+      <c r="AX238">
+        <v>3</v>
+      </c>
+      <c r="AY238">
+        <v>18</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
+        <v>13</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>16</v>
+      </c>
+      <c r="BD238">
+        <v>0</v>
+      </c>
+      <c r="BE238">
+        <v>0</v>
+      </c>
+      <c r="BF238">
+        <v>0</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>0</v>
+      </c>
+      <c r="BI238">
+        <v>0</v>
+      </c>
+      <c r="BJ238">
+        <v>0</v>
+      </c>
+      <c r="BK238">
+        <v>0</v>
+      </c>
+      <c r="BL238">
+        <v>0</v>
+      </c>
+      <c r="BM238">
+        <v>0</v>
+      </c>
+      <c r="BN238">
+        <v>0</v>
+      </c>
+      <c r="BO238">
+        <v>0</v>
+      </c>
+      <c r="BP238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7820554</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45781.64583333334</v>
+      </c>
+      <c r="F239">
+        <v>16</v>
+      </c>
+      <c r="G239" t="s">
+        <v>78</v>
+      </c>
+      <c r="H239" t="s">
+        <v>96</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>100</v>
+      </c>
+      <c r="P239" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q239">
+        <v>3.6</v>
+      </c>
+      <c r="R239">
+        <v>1.91</v>
+      </c>
+      <c r="S239">
+        <v>3.6</v>
+      </c>
+      <c r="T239">
+        <v>1.57</v>
+      </c>
+      <c r="U239">
+        <v>2.25</v>
+      </c>
+      <c r="V239">
+        <v>3.75</v>
+      </c>
+      <c r="W239">
+        <v>1.25</v>
+      </c>
+      <c r="X239">
+        <v>13</v>
+      </c>
+      <c r="Y239">
+        <v>1.04</v>
+      </c>
+      <c r="Z239">
+        <v>2.7</v>
+      </c>
+      <c r="AA239">
+        <v>2.88</v>
+      </c>
+      <c r="AB239">
+        <v>2.8</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>1.55</v>
+      </c>
+      <c r="AF239">
+        <v>2.3</v>
+      </c>
+      <c r="AG239">
+        <v>2.7</v>
+      </c>
+      <c r="AH239">
+        <v>1.44</v>
+      </c>
+      <c r="AI239">
+        <v>2.2</v>
+      </c>
+      <c r="AJ239">
+        <v>1.62</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>0.88</v>
+      </c>
+      <c r="AO239">
+        <v>0.57</v>
+      </c>
+      <c r="AP239">
+        <v>0.78</v>
+      </c>
+      <c r="AQ239">
+        <v>0.88</v>
+      </c>
+      <c r="AR239">
+        <v>1.49</v>
+      </c>
+      <c r="AS239">
+        <v>1.54</v>
+      </c>
+      <c r="AT239">
+        <v>3.03</v>
+      </c>
+      <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>8</v>
+      </c>
+      <c r="AW239">
+        <v>6</v>
+      </c>
+      <c r="AX239">
+        <v>8</v>
+      </c>
+      <c r="AY239">
+        <v>12</v>
+      </c>
+      <c r="AZ239">
+        <v>19</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>2</v>
+      </c>
+      <c r="BC239">
+        <v>6</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239">
+        <v>0</v>
+      </c>
+      <c r="BI239">
+        <v>0</v>
+      </c>
+      <c r="BJ239">
+        <v>0</v>
+      </c>
+      <c r="BK239">
+        <v>0</v>
+      </c>
+      <c r="BL239">
+        <v>0</v>
+      </c>
+      <c r="BM239">
+        <v>0</v>
+      </c>
+      <c r="BN239">
+        <v>0</v>
+      </c>
+      <c r="BO239">
+        <v>0</v>
+      </c>
+      <c r="BP239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7820546</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45781.75</v>
+      </c>
+      <c r="F240">
+        <v>16</v>
+      </c>
+      <c r="G240" t="s">
+        <v>71</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" t="s">
+        <v>237</v>
+      </c>
+      <c r="P240" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q240">
+        <v>4.33</v>
+      </c>
+      <c r="R240">
+        <v>1.95</v>
+      </c>
+      <c r="S240">
+        <v>3</v>
+      </c>
+      <c r="T240">
+        <v>1.57</v>
+      </c>
+      <c r="U240">
+        <v>2.25</v>
+      </c>
+      <c r="V240">
+        <v>3.75</v>
+      </c>
+      <c r="W240">
+        <v>1.25</v>
+      </c>
+      <c r="X240">
+        <v>11</v>
+      </c>
+      <c r="Y240">
+        <v>1.05</v>
+      </c>
+      <c r="Z240">
+        <v>3.5</v>
+      </c>
+      <c r="AA240">
+        <v>3</v>
+      </c>
+      <c r="AB240">
+        <v>2.2</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>1.51</v>
+      </c>
+      <c r="AF240">
+        <v>2.37</v>
+      </c>
+      <c r="AG240">
+        <v>2.6</v>
+      </c>
+      <c r="AH240">
+        <v>1.48</v>
+      </c>
+      <c r="AI240">
+        <v>2.1</v>
+      </c>
+      <c r="AJ240">
+        <v>1.67</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AN240">
+        <v>1.86</v>
+      </c>
+      <c r="AO240">
+        <v>1.43</v>
+      </c>
+      <c r="AP240">
+        <v>1.75</v>
+      </c>
+      <c r="AQ240">
+        <v>1.38</v>
+      </c>
+      <c r="AR240">
+        <v>1.43</v>
+      </c>
+      <c r="AS240">
+        <v>1.47</v>
+      </c>
+      <c r="AT240">
+        <v>2.9</v>
+      </c>
+      <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>7</v>
+      </c>
+      <c r="AW240">
+        <v>7</v>
+      </c>
+      <c r="AX240">
+        <v>5</v>
+      </c>
+      <c r="AY240">
+        <v>13</v>
+      </c>
+      <c r="AZ240">
+        <v>15</v>
+      </c>
+      <c r="BA240">
+        <v>4</v>
+      </c>
+      <c r="BB240">
+        <v>5</v>
+      </c>
+      <c r="BC240">
+        <v>9</v>
+      </c>
+      <c r="BD240">
+        <v>0</v>
+      </c>
+      <c r="BE240">
+        <v>0</v>
+      </c>
+      <c r="BF240">
+        <v>0</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240">
+        <v>0</v>
+      </c>
+      <c r="BI240">
+        <v>0</v>
+      </c>
+      <c r="BJ240">
+        <v>0</v>
+      </c>
+      <c r="BK240">
+        <v>0</v>
+      </c>
+      <c r="BL240">
+        <v>0</v>
+      </c>
+      <c r="BM240">
+        <v>0</v>
+      </c>
+      <c r="BN240">
+        <v>0</v>
+      </c>
+      <c r="BO240">
+        <v>0</v>
+      </c>
+      <c r="BP240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7820553</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45781.85416666666</v>
+      </c>
+      <c r="F241">
+        <v>16</v>
+      </c>
+      <c r="G241" t="s">
+        <v>95</v>
+      </c>
+      <c r="H241" t="s">
+        <v>90</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>4</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>5</v>
+      </c>
+      <c r="O241" t="s">
+        <v>238</v>
+      </c>
+      <c r="P241" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q241">
+        <v>1.91</v>
+      </c>
+      <c r="R241">
+        <v>2.2</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>1.44</v>
+      </c>
+      <c r="U241">
+        <v>2.63</v>
+      </c>
+      <c r="V241">
+        <v>3.4</v>
+      </c>
+      <c r="W241">
+        <v>1.3</v>
+      </c>
+      <c r="X241">
+        <v>10</v>
+      </c>
+      <c r="Y241">
+        <v>1.06</v>
+      </c>
+      <c r="Z241">
+        <v>1.36</v>
+      </c>
+      <c r="AA241">
+        <v>4.33</v>
+      </c>
+      <c r="AB241">
+        <v>7.5</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>2.25</v>
+      </c>
+      <c r="AH241">
+        <v>1.62</v>
+      </c>
+      <c r="AI241">
+        <v>2.75</v>
+      </c>
+      <c r="AJ241">
+        <v>1.4</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>2.13</v>
+      </c>
+      <c r="AO241">
+        <v>1</v>
+      </c>
+      <c r="AP241">
+        <v>2.22</v>
+      </c>
+      <c r="AQ241">
+        <v>0.88</v>
+      </c>
+      <c r="AR241">
+        <v>2.04</v>
+      </c>
+      <c r="AS241">
+        <v>1.03</v>
+      </c>
+      <c r="AT241">
+        <v>3.07</v>
+      </c>
+      <c r="AU241">
+        <v>7</v>
+      </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>7</v>
+      </c>
+      <c r="AY241">
+        <v>12</v>
+      </c>
+      <c r="AZ241">
+        <v>11</v>
+      </c>
+      <c r="BA241">
+        <v>6</v>
+      </c>
+      <c r="BB241">
+        <v>2</v>
+      </c>
+      <c r="BC241">
+        <v>8</v>
+      </c>
+      <c r="BD241">
+        <v>0</v>
+      </c>
+      <c r="BE241">
+        <v>0</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>0</v>
+      </c>
+      <c r="BI241">
+        <v>0</v>
+      </c>
+      <c r="BJ241">
+        <v>0</v>
+      </c>
+      <c r="BK241">
+        <v>0</v>
+      </c>
+      <c r="BL241">
+        <v>0</v>
+      </c>
+      <c r="BM241">
+        <v>0</v>
+      </c>
+      <c r="BN241">
+        <v>0</v>
+      </c>
+      <c r="BO241">
+        <v>0</v>
+      </c>
+      <c r="BP241">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['14', '28', '33', '90+10']</t>
   </si>
   <si>
+    <t>['4', '89']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -1308,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1570,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1979,7 +1982,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2391,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2597,7 +2600,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3215,7 +3218,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3499,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -5069,7 +5072,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5687,7 +5690,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5893,7 +5896,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6099,7 +6102,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6511,7 +6514,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6923,7 +6926,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7416,7 +7419,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -8443,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -9395,7 +9398,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10013,7 +10016,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10425,7 +10428,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10631,7 +10634,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10837,7 +10840,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11043,7 +11046,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11536,7 +11539,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>2.5</v>
@@ -11661,7 +11664,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12279,7 +12282,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -13103,7 +13106,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13721,7 +13724,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14957,7 +14960,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16065,7 +16068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16193,7 +16196,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17017,7 +17020,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17223,7 +17226,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17635,7 +17638,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17716,7 +17719,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.76</v>
@@ -17841,7 +17844,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18047,7 +18050,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18665,7 +18668,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19489,7 +19492,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19695,7 +19698,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20107,7 +20110,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20931,7 +20934,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21137,7 +21140,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21961,7 +21964,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23403,7 +23406,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23609,7 +23612,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24021,7 +24024,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24102,7 +24105,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ111">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR111">
         <v>2.19</v>
@@ -24433,7 +24436,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24639,7 +24642,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24845,7 +24848,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25051,7 +25054,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25129,7 +25132,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116">
         <v>1.44</v>
@@ -25257,7 +25260,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25875,7 +25878,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26287,7 +26290,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26493,7 +26496,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26571,7 +26574,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ123">
         <v>1.13</v>
@@ -27523,7 +27526,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27604,7 +27607,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR128">
         <v>2.27</v>
@@ -28347,7 +28350,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28965,7 +28968,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -31231,7 +31234,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31437,7 +31440,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31643,7 +31646,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31849,7 +31852,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32055,7 +32058,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32673,7 +32676,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33085,7 +33088,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33166,7 +33169,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ155">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR155">
         <v>1.88</v>
@@ -33291,7 +33294,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33369,7 +33372,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ156">
         <v>0.88</v>
@@ -34321,7 +34324,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34733,7 +34736,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34939,7 +34942,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35763,7 +35766,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36175,7 +36178,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36381,7 +36384,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36999,7 +37002,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -38235,7 +38238,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38441,7 +38444,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38647,7 +38650,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39137,7 +39140,7 @@
         <v>0.67</v>
       </c>
       <c r="AP184">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -39346,7 +39349,7 @@
         <v>2</v>
       </c>
       <c r="AQ185">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR185">
         <v>1.27</v>
@@ -39471,7 +39474,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39677,7 +39680,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40295,7 +40298,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40501,7 +40504,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40707,7 +40710,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41119,7 +41122,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41737,7 +41740,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42149,7 +42152,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -44827,7 +44830,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -44905,7 +44908,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ212">
         <v>1.56</v>
@@ -45033,7 +45036,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -46475,7 +46478,7 @@
         <v>226</v>
       </c>
       <c r="P220" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46762,7 +46765,7 @@
         <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR221">
         <v>1.96</v>
@@ -47093,7 +47096,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -48123,7 +48126,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48741,7 +48744,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48947,7 +48950,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49771,7 +49774,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -50389,7 +50392,7 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q239">
         <v>3.6</v>
@@ -50958,6 +50961,212 @@
       </c>
       <c r="BP241">
         <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7893355</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>79</v>
+      </c>
+      <c r="H242" t="s">
+        <v>71</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>239</v>
+      </c>
+      <c r="P242" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q242">
+        <v>2.95</v>
+      </c>
+      <c r="R242">
+        <v>1.83</v>
+      </c>
+      <c r="S242">
+        <v>4.2</v>
+      </c>
+      <c r="T242">
+        <v>1.62</v>
+      </c>
+      <c r="U242">
+        <v>2.15</v>
+      </c>
+      <c r="V242">
+        <v>4</v>
+      </c>
+      <c r="W242">
+        <v>1.2</v>
+      </c>
+      <c r="X242">
+        <v>10</v>
+      </c>
+      <c r="Y242">
+        <v>1.03</v>
+      </c>
+      <c r="Z242">
+        <v>2.22</v>
+      </c>
+      <c r="AA242">
+        <v>3</v>
+      </c>
+      <c r="AB242">
+        <v>3.5</v>
+      </c>
+      <c r="AC242">
+        <v>1.12</v>
+      </c>
+      <c r="AD242">
+        <v>6</v>
+      </c>
+      <c r="AE242">
+        <v>1.62</v>
+      </c>
+      <c r="AF242">
+        <v>2.25</v>
+      </c>
+      <c r="AG242">
+        <v>2.95</v>
+      </c>
+      <c r="AH242">
+        <v>1.38</v>
+      </c>
+      <c r="AI242">
+        <v>2.35</v>
+      </c>
+      <c r="AJ242">
+        <v>1.53</v>
+      </c>
+      <c r="AK242">
+        <v>1.28</v>
+      </c>
+      <c r="AL242">
+        <v>1.3</v>
+      </c>
+      <c r="AM242">
+        <v>1.62</v>
+      </c>
+      <c r="AN242">
+        <v>1.69</v>
+      </c>
+      <c r="AO242">
+        <v>1.69</v>
+      </c>
+      <c r="AP242">
+        <v>1.76</v>
+      </c>
+      <c r="AQ242">
+        <v>1.59</v>
+      </c>
+      <c r="AR242">
+        <v>1.31</v>
+      </c>
+      <c r="AS242">
+        <v>1.45</v>
+      </c>
+      <c r="AT242">
+        <v>2.76</v>
+      </c>
+      <c r="AU242">
+        <v>4</v>
+      </c>
+      <c r="AV242">
+        <v>5</v>
+      </c>
+      <c r="AW242">
+        <v>2</v>
+      </c>
+      <c r="AX242">
+        <v>8</v>
+      </c>
+      <c r="AY242">
+        <v>6</v>
+      </c>
+      <c r="AZ242">
+        <v>14</v>
+      </c>
+      <c r="BA242">
+        <v>3</v>
+      </c>
+      <c r="BB242">
+        <v>2</v>
+      </c>
+      <c r="BC242">
+        <v>5</v>
+      </c>
+      <c r="BD242">
+        <v>1.63</v>
+      </c>
+      <c r="BE242">
+        <v>6.4</v>
+      </c>
+      <c r="BF242">
+        <v>2.55</v>
+      </c>
+      <c r="BG242">
+        <v>1.5</v>
+      </c>
+      <c r="BH242">
+        <v>2.38</v>
+      </c>
+      <c r="BI242">
+        <v>1.92</v>
+      </c>
+      <c r="BJ242">
+        <v>1.88</v>
+      </c>
+      <c r="BK242">
+        <v>2.33</v>
+      </c>
+      <c r="BL242">
+        <v>1.5</v>
+      </c>
+      <c r="BM242">
+        <v>3.05</v>
+      </c>
+      <c r="BN242">
+        <v>1.3</v>
+      </c>
+      <c r="BO242">
+        <v>4.1</v>
+      </c>
+      <c r="BP242">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['4', '89']</t>
   </si>
   <si>
+    <t>['88', '90+6']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -1311,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1573,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1982,7 +1985,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2394,7 +2397,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2600,7 +2603,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3218,7 +3221,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5072,7 +5075,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5690,7 +5693,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5771,7 +5774,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5896,7 +5899,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6102,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6389,7 +6392,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6514,7 +6517,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6926,7 +6929,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7210,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -9398,7 +9401,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10016,7 +10019,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10303,7 +10306,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10428,7 +10431,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10634,7 +10637,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10840,7 +10843,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11046,7 +11049,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11664,7 +11667,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11745,7 +11748,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12282,7 +12285,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12772,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -13106,7 +13109,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13724,7 +13727,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14960,7 +14963,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16071,7 +16074,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -16196,7 +16199,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17020,7 +17023,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17101,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR77">
         <v>2.48</v>
@@ -17226,7 +17229,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17638,7 +17641,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17844,7 +17847,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -17922,7 +17925,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1.86</v>
@@ -18050,7 +18053,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18668,7 +18671,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19492,7 +19495,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19698,7 +19701,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20110,7 +20113,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20397,7 +20400,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20934,7 +20937,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21140,7 +21143,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21964,7 +21967,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23406,7 +23409,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23612,7 +23615,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23693,7 +23696,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -24024,7 +24027,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24436,7 +24439,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24642,7 +24645,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24848,7 +24851,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25054,7 +25057,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25260,7 +25263,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25878,7 +25881,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26290,7 +26293,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26496,7 +26499,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26780,7 +26783,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -27401,7 +27404,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ127">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR127">
         <v>1.66</v>
@@ -27526,7 +27529,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28350,7 +28353,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28968,7 +28971,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -31234,7 +31237,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31440,7 +31443,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31646,7 +31649,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31852,7 +31855,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -31933,7 +31936,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32058,7 +32061,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32676,7 +32679,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32757,7 +32760,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR153">
         <v>1.16</v>
@@ -33088,7 +33091,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33294,7 +33297,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34324,7 +34327,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34736,7 +34739,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34942,7 +34945,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35766,7 +35769,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36178,7 +36181,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36384,7 +36387,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -37002,7 +37005,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37904,7 +37907,7 @@
         <v>0.6</v>
       </c>
       <c r="AP178">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ178">
         <v>0.5</v>
@@ -38113,7 +38116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38238,7 +38241,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38444,7 +38447,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38650,7 +38653,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39474,7 +39477,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39680,7 +39683,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39761,7 +39764,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR187">
         <v>1.57</v>
@@ -40298,7 +40301,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40504,7 +40507,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40710,7 +40713,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41122,7 +41125,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41740,7 +41743,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42024,7 +42027,7 @@
         <v>0.8</v>
       </c>
       <c r="AP198">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198">
         <v>0.57</v>
@@ -42152,7 +42155,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -43057,7 +43060,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ203">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR203">
         <v>1.59</v>
@@ -43675,7 +43678,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR206">
         <v>1.83</v>
@@ -44830,7 +44833,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45036,7 +45039,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -46478,7 +46481,7 @@
         <v>226</v>
       </c>
       <c r="P220" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47096,7 +47099,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -48126,7 +48129,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48410,7 +48413,7 @@
         <v>1.14</v>
       </c>
       <c r="AP229">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ229">
         <v>1</v>
@@ -48619,7 +48622,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ230">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR230">
         <v>1.76</v>
@@ -48744,7 +48747,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48950,7 +48953,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49774,7 +49777,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -50267,7 +50270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -50392,7 +50395,7 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q239">
         <v>3.6</v>
@@ -51010,7 +51013,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51167,6 +51170,418 @@
       </c>
       <c r="BP242">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7893356</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45787.6875</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>87</v>
+      </c>
+      <c r="H243" t="s">
+        <v>80</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>240</v>
+      </c>
+      <c r="P243" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q243">
+        <v>2.95</v>
+      </c>
+      <c r="R243">
+        <v>1.83</v>
+      </c>
+      <c r="S243">
+        <v>4.1</v>
+      </c>
+      <c r="T243">
+        <v>1.6</v>
+      </c>
+      <c r="U243">
+        <v>2.15</v>
+      </c>
+      <c r="V243">
+        <v>3.9</v>
+      </c>
+      <c r="W243">
+        <v>1.22</v>
+      </c>
+      <c r="X243">
+        <v>12</v>
+      </c>
+      <c r="Y243">
+        <v>1.03</v>
+      </c>
+      <c r="Z243">
+        <v>2.22</v>
+      </c>
+      <c r="AA243">
+        <v>3</v>
+      </c>
+      <c r="AB243">
+        <v>3.5</v>
+      </c>
+      <c r="AC243">
+        <v>1.11</v>
+      </c>
+      <c r="AD243">
+        <v>6.25</v>
+      </c>
+      <c r="AE243">
+        <v>1.6</v>
+      </c>
+      <c r="AF243">
+        <v>2.3</v>
+      </c>
+      <c r="AG243">
+        <v>2.8</v>
+      </c>
+      <c r="AH243">
+        <v>1.42</v>
+      </c>
+      <c r="AI243">
+        <v>2.3</v>
+      </c>
+      <c r="AJ243">
+        <v>1.53</v>
+      </c>
+      <c r="AK243">
+        <v>1.29</v>
+      </c>
+      <c r="AL243">
+        <v>1.37</v>
+      </c>
+      <c r="AM243">
+        <v>1.62</v>
+      </c>
+      <c r="AN243">
+        <v>2.19</v>
+      </c>
+      <c r="AO243">
+        <v>1.31</v>
+      </c>
+      <c r="AP243">
+        <v>2.24</v>
+      </c>
+      <c r="AQ243">
+        <v>1.24</v>
+      </c>
+      <c r="AR243">
+        <v>1.37</v>
+      </c>
+      <c r="AS243">
+        <v>1.63</v>
+      </c>
+      <c r="AT243">
+        <v>3</v>
+      </c>
+      <c r="AU243">
+        <v>8</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
+        <v>9</v>
+      </c>
+      <c r="AX243">
+        <v>7</v>
+      </c>
+      <c r="AY243">
+        <v>17</v>
+      </c>
+      <c r="AZ243">
+        <v>11</v>
+      </c>
+      <c r="BA243">
+        <v>2</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>5</v>
+      </c>
+      <c r="BD243">
+        <v>1.61</v>
+      </c>
+      <c r="BE243">
+        <v>6.75</v>
+      </c>
+      <c r="BF243">
+        <v>2.55</v>
+      </c>
+      <c r="BG243">
+        <v>1.41</v>
+      </c>
+      <c r="BH243">
+        <v>2.65</v>
+      </c>
+      <c r="BI243">
+        <v>1.68</v>
+      </c>
+      <c r="BJ243">
+        <v>2.02</v>
+      </c>
+      <c r="BK243">
+        <v>2.08</v>
+      </c>
+      <c r="BL243">
+        <v>1.65</v>
+      </c>
+      <c r="BM243">
+        <v>2.65</v>
+      </c>
+      <c r="BN243">
+        <v>1.41</v>
+      </c>
+      <c r="BO243">
+        <v>3.55</v>
+      </c>
+      <c r="BP243">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7893357</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45787.78125</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>97</v>
+      </c>
+      <c r="H244" t="s">
+        <v>82</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
+        <v>100</v>
+      </c>
+      <c r="P244" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q244">
+        <v>2.4</v>
+      </c>
+      <c r="R244">
+        <v>1.95</v>
+      </c>
+      <c r="S244">
+        <v>5</v>
+      </c>
+      <c r="T244">
+        <v>1.5</v>
+      </c>
+      <c r="U244">
+        <v>2.37</v>
+      </c>
+      <c r="V244">
+        <v>3.3</v>
+      </c>
+      <c r="W244">
+        <v>1.28</v>
+      </c>
+      <c r="X244">
+        <v>9.5</v>
+      </c>
+      <c r="Y244">
+        <v>1.05</v>
+      </c>
+      <c r="Z244">
+        <v>1.8</v>
+      </c>
+      <c r="AA244">
+        <v>3.45</v>
+      </c>
+      <c r="AB244">
+        <v>4.5</v>
+      </c>
+      <c r="AC244">
+        <v>1.08</v>
+      </c>
+      <c r="AD244">
+        <v>7.5</v>
+      </c>
+      <c r="AE244">
+        <v>1.45</v>
+      </c>
+      <c r="AF244">
+        <v>2.7</v>
+      </c>
+      <c r="AG244">
+        <v>2.4</v>
+      </c>
+      <c r="AH244">
+        <v>1.55</v>
+      </c>
+      <c r="AI244">
+        <v>2.2</v>
+      </c>
+      <c r="AJ244">
+        <v>1.58</v>
+      </c>
+      <c r="AK244">
+        <v>1.18</v>
+      </c>
+      <c r="AL244">
+        <v>1.31</v>
+      </c>
+      <c r="AM244">
+        <v>1.98</v>
+      </c>
+      <c r="AN244">
+        <v>1.75</v>
+      </c>
+      <c r="AO244">
+        <v>1.44</v>
+      </c>
+      <c r="AP244">
+        <v>1.65</v>
+      </c>
+      <c r="AQ244">
+        <v>1.53</v>
+      </c>
+      <c r="AR244">
+        <v>1.6</v>
+      </c>
+      <c r="AS244">
+        <v>1.23</v>
+      </c>
+      <c r="AT244">
+        <v>2.83</v>
+      </c>
+      <c r="AU244">
+        <v>5</v>
+      </c>
+      <c r="AV244">
+        <v>6</v>
+      </c>
+      <c r="AW244">
+        <v>3</v>
+      </c>
+      <c r="AX244">
+        <v>8</v>
+      </c>
+      <c r="AY244">
+        <v>8</v>
+      </c>
+      <c r="AZ244">
+        <v>15</v>
+      </c>
+      <c r="BA244">
+        <v>9</v>
+      </c>
+      <c r="BB244">
+        <v>4</v>
+      </c>
+      <c r="BC244">
+        <v>13</v>
+      </c>
+      <c r="BD244">
+        <v>1.32</v>
+      </c>
+      <c r="BE244">
+        <v>7</v>
+      </c>
+      <c r="BF244">
+        <v>3.7</v>
+      </c>
+      <c r="BG244">
+        <v>1.37</v>
+      </c>
+      <c r="BH244">
+        <v>2.8</v>
+      </c>
+      <c r="BI244">
+        <v>1.8</v>
+      </c>
+      <c r="BJ244">
+        <v>2</v>
+      </c>
+      <c r="BK244">
+        <v>2.02</v>
+      </c>
+      <c r="BL244">
+        <v>1.7</v>
+      </c>
+      <c r="BM244">
+        <v>2.55</v>
+      </c>
+      <c r="BN244">
+        <v>1.44</v>
+      </c>
+      <c r="BO244">
+        <v>3.4</v>
+      </c>
+      <c r="BP244">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1314,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -5156,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -13602,7 +13602,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>2.21</v>
@@ -14217,7 +14217,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -18340,7 +18340,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -21015,7 +21015,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -22869,7 +22869,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -24520,7 +24520,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.94</v>
@@ -26992,7 +26992,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
         <v>1.05</v>
@@ -30697,7 +30697,7 @@
         <v>2</v>
       </c>
       <c r="AP143">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ143">
         <v>1.22</v>
@@ -33378,7 +33378,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ156">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -37495,7 +37495,7 @@
         <v>1.4</v>
       </c>
       <c r="AP176">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ176">
         <v>1.25</v>
@@ -41412,7 +41412,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR195">
         <v>1.04</v>
@@ -43057,7 +43057,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ203">
         <v>0.7</v>
@@ -50064,7 +50064,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR237">
         <v>1.68</v>
@@ -51582,6 +51582,212 @@
       </c>
       <c r="BP244">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7893358</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45787.875</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s">
+        <v>74</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>100</v>
+      </c>
+      <c r="P245" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q245">
+        <v>2.37</v>
+      </c>
+      <c r="R245">
+        <v>1.98</v>
+      </c>
+      <c r="S245">
+        <v>5</v>
+      </c>
+      <c r="T245">
+        <v>1.51</v>
+      </c>
+      <c r="U245">
+        <v>2.35</v>
+      </c>
+      <c r="V245">
+        <v>3.5</v>
+      </c>
+      <c r="W245">
+        <v>1.26</v>
+      </c>
+      <c r="X245">
+        <v>10</v>
+      </c>
+      <c r="Y245">
+        <v>1.04</v>
+      </c>
+      <c r="Z245">
+        <v>1.73</v>
+      </c>
+      <c r="AA245">
+        <v>3.5</v>
+      </c>
+      <c r="AB245">
+        <v>4.8</v>
+      </c>
+      <c r="AC245">
+        <v>1.08</v>
+      </c>
+      <c r="AD245">
+        <v>7.5</v>
+      </c>
+      <c r="AE245">
+        <v>1.48</v>
+      </c>
+      <c r="AF245">
+        <v>2.65</v>
+      </c>
+      <c r="AG245">
+        <v>2.4</v>
+      </c>
+      <c r="AH245">
+        <v>1.49</v>
+      </c>
+      <c r="AI245">
+        <v>2.3</v>
+      </c>
+      <c r="AJ245">
+        <v>1.53</v>
+      </c>
+      <c r="AK245">
+        <v>1.17</v>
+      </c>
+      <c r="AL245">
+        <v>1.29</v>
+      </c>
+      <c r="AM245">
+        <v>2.05</v>
+      </c>
+      <c r="AN245">
+        <v>2.06</v>
+      </c>
+      <c r="AO245">
+        <v>1.25</v>
+      </c>
+      <c r="AP245">
+        <v>2</v>
+      </c>
+      <c r="AQ245">
+        <v>1.24</v>
+      </c>
+      <c r="AR245">
+        <v>1.51</v>
+      </c>
+      <c r="AS245">
+        <v>1.57</v>
+      </c>
+      <c r="AT245">
+        <v>3.08</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>5</v>
+      </c>
+      <c r="AW245">
+        <v>14</v>
+      </c>
+      <c r="AX245">
+        <v>14</v>
+      </c>
+      <c r="AY245">
+        <v>22</v>
+      </c>
+      <c r="AZ245">
+        <v>24</v>
+      </c>
+      <c r="BA245">
+        <v>4</v>
+      </c>
+      <c r="BB245">
+        <v>1</v>
+      </c>
+      <c r="BC245">
+        <v>5</v>
+      </c>
+      <c r="BD245">
+        <v>1.45</v>
+      </c>
+      <c r="BE245">
+        <v>7</v>
+      </c>
+      <c r="BF245">
+        <v>3.05</v>
+      </c>
+      <c r="BG245">
+        <v>1.3</v>
+      </c>
+      <c r="BH245">
+        <v>3.05</v>
+      </c>
+      <c r="BI245">
+        <v>1.53</v>
+      </c>
+      <c r="BJ245">
+        <v>2.32</v>
+      </c>
+      <c r="BK245">
+        <v>1.85</v>
+      </c>
+      <c r="BL245">
+        <v>1.83</v>
+      </c>
+      <c r="BM245">
+        <v>2.3</v>
+      </c>
+      <c r="BN245">
+        <v>1.53</v>
+      </c>
+      <c r="BO245">
+        <v>3</v>
+      </c>
+      <c r="BP245">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,7 +736,7 @@
     <t>['4', '89']</t>
   </si>
   <si>
-    <t>['88', '90+6']</t>
+    <t>['88', '90+5']</t>
   </si>
   <si>
     <t>['18', '26', '48']</t>
@@ -1314,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2066,7 +2066,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -10100,7 +10100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.93</v>
@@ -14220,7 +14220,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.19</v>
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -20809,7 +20809,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ95">
         <v>0.44</v>
@@ -22460,7 +22460,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.55</v>
@@ -30082,7 +30082,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.7</v>
@@ -30491,7 +30491,7 @@
         <v>0.75</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -34611,7 +34611,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -36056,7 +36056,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -38734,7 +38734,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -40173,7 +40173,7 @@
         <v>0.4</v>
       </c>
       <c r="AP189">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ189">
         <v>0.29</v>
@@ -45941,7 +45941,7 @@
         <v>1.57</v>
       </c>
       <c r="AP217">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ217">
         <v>1.5</v>
@@ -47180,7 +47180,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ223">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR223">
         <v>1.77</v>
@@ -51788,6 +51788,212 @@
       </c>
       <c r="BP245">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7893359</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45788.64583333334</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>76</v>
+      </c>
+      <c r="H246" t="s">
+        <v>89</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>208</v>
+      </c>
+      <c r="P246" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q246">
+        <v>2.3</v>
+      </c>
+      <c r="R246">
+        <v>2.05</v>
+      </c>
+      <c r="S246">
+        <v>6.5</v>
+      </c>
+      <c r="T246">
+        <v>1.53</v>
+      </c>
+      <c r="U246">
+        <v>2.38</v>
+      </c>
+      <c r="V246">
+        <v>3.5</v>
+      </c>
+      <c r="W246">
+        <v>1.29</v>
+      </c>
+      <c r="X246">
+        <v>11</v>
+      </c>
+      <c r="Y246">
+        <v>1.05</v>
+      </c>
+      <c r="Z246">
+        <v>1.7</v>
+      </c>
+      <c r="AA246">
+        <v>3.4</v>
+      </c>
+      <c r="AB246">
+        <v>5.5</v>
+      </c>
+      <c r="AC246">
+        <v>1.09</v>
+      </c>
+      <c r="AD246">
+        <v>6.75</v>
+      </c>
+      <c r="AE246">
+        <v>1.44</v>
+      </c>
+      <c r="AF246">
+        <v>2.55</v>
+      </c>
+      <c r="AG246">
+        <v>2.37</v>
+      </c>
+      <c r="AH246">
+        <v>1.53</v>
+      </c>
+      <c r="AI246">
+        <v>2.25</v>
+      </c>
+      <c r="AJ246">
+        <v>1.57</v>
+      </c>
+      <c r="AK246">
+        <v>1.15</v>
+      </c>
+      <c r="AL246">
+        <v>1.3</v>
+      </c>
+      <c r="AM246">
+        <v>2.1</v>
+      </c>
+      <c r="AN246">
+        <v>1.81</v>
+      </c>
+      <c r="AO246">
+        <v>1.69</v>
+      </c>
+      <c r="AP246">
+        <v>1.88</v>
+      </c>
+      <c r="AQ246">
+        <v>1.59</v>
+      </c>
+      <c r="AR246">
+        <v>1.46</v>
+      </c>
+      <c r="AS246">
+        <v>1.38</v>
+      </c>
+      <c r="AT246">
+        <v>2.84</v>
+      </c>
+      <c r="AU246">
+        <v>8</v>
+      </c>
+      <c r="AV246">
+        <v>2</v>
+      </c>
+      <c r="AW246">
+        <v>9</v>
+      </c>
+      <c r="AX246">
+        <v>7</v>
+      </c>
+      <c r="AY246">
+        <v>20</v>
+      </c>
+      <c r="AZ246">
+        <v>10</v>
+      </c>
+      <c r="BA246">
+        <v>7</v>
+      </c>
+      <c r="BB246">
+        <v>5</v>
+      </c>
+      <c r="BC246">
+        <v>12</v>
+      </c>
+      <c r="BD246">
+        <v>1.38</v>
+      </c>
+      <c r="BE246">
+        <v>7.5</v>
+      </c>
+      <c r="BF246">
+        <v>3.3</v>
+      </c>
+      <c r="BG246">
+        <v>1.4</v>
+      </c>
+      <c r="BH246">
+        <v>2.7</v>
+      </c>
+      <c r="BI246">
+        <v>1.67</v>
+      </c>
+      <c r="BJ246">
+        <v>2.04</v>
+      </c>
+      <c r="BK246">
+        <v>2.06</v>
+      </c>
+      <c r="BL246">
+        <v>1.66</v>
+      </c>
+      <c r="BM246">
+        <v>2.65</v>
+      </c>
+      <c r="BN246">
+        <v>1.41</v>
+      </c>
+      <c r="BO246">
+        <v>3.55</v>
+      </c>
+      <c r="BP246">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,12 @@
     <t>['88', '90+5']</t>
   </si>
   <si>
+    <t>['61', '64', '89']</t>
+  </si>
+  <si>
+    <t>['45+2', '69', '78']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -953,6 +959,9 @@
   </si>
   <si>
     <t>['38', '90+6', '90+9']</t>
+  </si>
+  <si>
+    <t>['59', '82']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP246"/>
+  <dimension ref="A1:BP248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1985,7 +1994,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2397,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2478,7 +2487,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2603,7 +2612,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3221,7 +3230,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5075,7 +5084,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5693,7 +5702,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5899,7 +5908,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6105,7 +6114,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6389,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.7</v>
@@ -6517,7 +6526,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6804,7 +6813,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6929,7 +6938,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -7419,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -9401,7 +9410,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10019,7 +10028,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10303,7 +10312,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ44">
         <v>1.44</v>
@@ -10431,7 +10440,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10512,7 +10521,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>0</v>
@@ -10637,7 +10646,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10843,7 +10852,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11049,7 +11058,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11539,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.44</v>
@@ -11667,7 +11676,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12285,7 +12294,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12984,7 +12993,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR57">
         <v>0.73</v>
@@ -13109,7 +13118,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13727,7 +13736,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14963,7 +14972,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15247,7 +15256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -16199,7 +16208,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -16692,7 +16701,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR75">
         <v>1.66</v>
@@ -17023,7 +17032,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17229,7 +17238,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17641,7 +17650,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17847,7 +17856,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18053,7 +18062,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18543,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0.14</v>
@@ -18671,7 +18680,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -18958,7 +18967,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.79</v>
@@ -19495,7 +19504,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19701,7 +19710,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20113,7 +20122,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20812,7 +20821,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ95">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20937,7 +20946,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21143,7 +21152,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21633,7 +21642,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.63</v>
@@ -21967,7 +21976,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22457,7 +22466,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -23078,7 +23087,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>2.07</v>
@@ -23409,7 +23418,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23615,7 +23624,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24027,7 +24036,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24311,10 +24320,10 @@
         <v>0.25</v>
       </c>
       <c r="AP112">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ112">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR112">
         <v>1.81</v>
@@ -24439,7 +24448,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24645,7 +24654,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24851,7 +24860,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25057,7 +25066,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25263,7 +25272,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25881,7 +25890,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26293,7 +26302,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26499,7 +26508,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27529,7 +27538,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -28353,7 +28362,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28434,7 +28443,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR132">
         <v>1.22</v>
@@ -28971,7 +28980,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29049,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -30079,7 +30088,7 @@
         <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -31112,7 +31121,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR145">
         <v>1.91</v>
@@ -31237,7 +31246,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31443,7 +31452,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31649,7 +31658,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31855,7 +31864,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32061,7 +32070,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32679,7 +32688,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33091,7 +33100,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33297,7 +33306,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -33790,7 +33799,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ158">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34327,7 +34336,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34739,7 +34748,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34945,7 +34954,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35769,7 +35778,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36181,7 +36190,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36387,7 +36396,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36465,7 +36474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>0.88</v>
@@ -37005,7 +37014,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37701,7 +37710,7 @@
         <v>1.67</v>
       </c>
       <c r="AP177">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ177">
         <v>1.22</v>
@@ -38241,7 +38250,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38322,7 +38331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR180">
         <v>1.79</v>
@@ -38447,7 +38456,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38653,7 +38662,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39477,7 +39486,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39683,7 +39692,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -39970,7 +39979,7 @@
         <v>2</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
         <v>1.62</v>
@@ -40301,7 +40310,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40507,7 +40516,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40713,7 +40722,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41125,7 +41134,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41743,7 +41752,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42155,7 +42164,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -42851,7 +42860,7 @@
         <v>1.43</v>
       </c>
       <c r="AP202">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
         <v>1.22</v>
@@ -43884,7 +43893,7 @@
         <v>3</v>
       </c>
       <c r="AQ207">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR207">
         <v>1.36</v>
@@ -44293,7 +44302,7 @@
         <v>1.17</v>
       </c>
       <c r="AP209">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ209">
         <v>1.25</v>
@@ -44833,7 +44842,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45039,7 +45048,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45944,7 +45953,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR217">
         <v>1.77</v>
@@ -46481,7 +46490,7 @@
         <v>226</v>
       </c>
       <c r="P220" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47099,7 +47108,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -48129,7 +48138,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48619,7 +48628,7 @@
         <v>0.88</v>
       </c>
       <c r="AP230">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ230">
         <v>0.7</v>
@@ -48747,7 +48756,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48953,7 +48962,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49034,7 +49043,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ232">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR232">
         <v>2.12</v>
@@ -49777,7 +49786,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -49855,7 +49864,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ236">
         <v>1.25</v>
@@ -50395,7 +50404,7 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q239">
         <v>3.6</v>
@@ -51013,7 +51022,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51425,7 +51434,7 @@
         <v>100</v>
       </c>
       <c r="P244" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q244">
         <v>2.4</v>
@@ -51994,6 +52003,418 @@
       </c>
       <c r="BP246">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7893360</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45788.75</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>98</v>
+      </c>
+      <c r="H247" t="s">
+        <v>81</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>241</v>
+      </c>
+      <c r="P247" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q247">
+        <v>2.2</v>
+      </c>
+      <c r="R247">
+        <v>2.1</v>
+      </c>
+      <c r="S247">
+        <v>7</v>
+      </c>
+      <c r="T247">
+        <v>1.5</v>
+      </c>
+      <c r="U247">
+        <v>2.5</v>
+      </c>
+      <c r="V247">
+        <v>3.4</v>
+      </c>
+      <c r="W247">
+        <v>1.3</v>
+      </c>
+      <c r="X247">
+        <v>10</v>
+      </c>
+      <c r="Y247">
+        <v>1.06</v>
+      </c>
+      <c r="Z247">
+        <v>1.6</v>
+      </c>
+      <c r="AA247">
+        <v>3.6</v>
+      </c>
+      <c r="AB247">
+        <v>6</v>
+      </c>
+      <c r="AC247">
+        <v>1.08</v>
+      </c>
+      <c r="AD247">
+        <v>7</v>
+      </c>
+      <c r="AE247">
+        <v>1.44</v>
+      </c>
+      <c r="AF247">
+        <v>2.6</v>
+      </c>
+      <c r="AG247">
+        <v>2.4</v>
+      </c>
+      <c r="AH247">
+        <v>1.53</v>
+      </c>
+      <c r="AI247">
+        <v>2.25</v>
+      </c>
+      <c r="AJ247">
+        <v>1.57</v>
+      </c>
+      <c r="AK247">
+        <v>1.14</v>
+      </c>
+      <c r="AL247">
+        <v>1.27</v>
+      </c>
+      <c r="AM247">
+        <v>2.2</v>
+      </c>
+      <c r="AN247">
+        <v>2.06</v>
+      </c>
+      <c r="AO247">
+        <v>1.13</v>
+      </c>
+      <c r="AP247">
+        <v>2.12</v>
+      </c>
+      <c r="AQ247">
+        <v>1.06</v>
+      </c>
+      <c r="AR247">
+        <v>1.69</v>
+      </c>
+      <c r="AS247">
+        <v>1.45</v>
+      </c>
+      <c r="AT247">
+        <v>3.14</v>
+      </c>
+      <c r="AU247">
+        <v>4</v>
+      </c>
+      <c r="AV247">
+        <v>4</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>5</v>
+      </c>
+      <c r="AY247">
+        <v>11</v>
+      </c>
+      <c r="AZ247">
+        <v>12</v>
+      </c>
+      <c r="BA247">
+        <v>4</v>
+      </c>
+      <c r="BB247">
+        <v>1</v>
+      </c>
+      <c r="BC247">
+        <v>5</v>
+      </c>
+      <c r="BD247">
+        <v>1.35</v>
+      </c>
+      <c r="BE247">
+        <v>7</v>
+      </c>
+      <c r="BF247">
+        <v>3.55</v>
+      </c>
+      <c r="BG247">
+        <v>1.41</v>
+      </c>
+      <c r="BH247">
+        <v>2.65</v>
+      </c>
+      <c r="BI247">
+        <v>1.67</v>
+      </c>
+      <c r="BJ247">
+        <v>2.05</v>
+      </c>
+      <c r="BK247">
+        <v>2.08</v>
+      </c>
+      <c r="BL247">
+        <v>1.65</v>
+      </c>
+      <c r="BM247">
+        <v>2.65</v>
+      </c>
+      <c r="BN247">
+        <v>1.41</v>
+      </c>
+      <c r="BO247">
+        <v>3.45</v>
+      </c>
+      <c r="BP247">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7893361</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45788.85416666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>93</v>
+      </c>
+      <c r="H248" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248">
+        <v>5</v>
+      </c>
+      <c r="O248" t="s">
+        <v>242</v>
+      </c>
+      <c r="P248" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q248">
+        <v>2.63</v>
+      </c>
+      <c r="R248">
+        <v>1.91</v>
+      </c>
+      <c r="S248">
+        <v>5.5</v>
+      </c>
+      <c r="T248">
+        <v>1.57</v>
+      </c>
+      <c r="U248">
+        <v>2.25</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.22</v>
+      </c>
+      <c r="X248">
+        <v>13</v>
+      </c>
+      <c r="Y248">
+        <v>1.04</v>
+      </c>
+      <c r="Z248">
+        <v>1.95</v>
+      </c>
+      <c r="AA248">
+        <v>3.1</v>
+      </c>
+      <c r="AB248">
+        <v>4.2</v>
+      </c>
+      <c r="AC248">
+        <v>1.12</v>
+      </c>
+      <c r="AD248">
+        <v>5.75</v>
+      </c>
+      <c r="AE248">
+        <v>1.53</v>
+      </c>
+      <c r="AF248">
+        <v>2.3</v>
+      </c>
+      <c r="AG248">
+        <v>2.88</v>
+      </c>
+      <c r="AH248">
+        <v>1.4</v>
+      </c>
+      <c r="AI248">
+        <v>2.38</v>
+      </c>
+      <c r="AJ248">
+        <v>1.53</v>
+      </c>
+      <c r="AK248">
+        <v>1.21</v>
+      </c>
+      <c r="AL248">
+        <v>1.35</v>
+      </c>
+      <c r="AM248">
+        <v>1.8</v>
+      </c>
+      <c r="AN248">
+        <v>1.69</v>
+      </c>
+      <c r="AO248">
+        <v>1.5</v>
+      </c>
+      <c r="AP248">
+        <v>1.76</v>
+      </c>
+      <c r="AQ248">
+        <v>1.41</v>
+      </c>
+      <c r="AR248">
+        <v>1.5</v>
+      </c>
+      <c r="AS248">
+        <v>1.1</v>
+      </c>
+      <c r="AT248">
+        <v>2.6</v>
+      </c>
+      <c r="AU248">
+        <v>4</v>
+      </c>
+      <c r="AV248">
+        <v>4</v>
+      </c>
+      <c r="AW248">
+        <v>9</v>
+      </c>
+      <c r="AX248">
+        <v>5</v>
+      </c>
+      <c r="AY248">
+        <v>15</v>
+      </c>
+      <c r="AZ248">
+        <v>9</v>
+      </c>
+      <c r="BA248">
+        <v>6</v>
+      </c>
+      <c r="BB248">
+        <v>1</v>
+      </c>
+      <c r="BC248">
+        <v>7</v>
+      </c>
+      <c r="BD248">
+        <v>1.45</v>
+      </c>
+      <c r="BE248">
+        <v>6.75</v>
+      </c>
+      <c r="BF248">
+        <v>3.15</v>
+      </c>
+      <c r="BG248">
+        <v>1.47</v>
+      </c>
+      <c r="BH248">
+        <v>2.43</v>
+      </c>
+      <c r="BI248">
+        <v>1.8</v>
+      </c>
+      <c r="BJ248">
+        <v>1.89</v>
+      </c>
+      <c r="BK248">
+        <v>2.3</v>
+      </c>
+      <c r="BL248">
+        <v>1.54</v>
+      </c>
+      <c r="BM248">
+        <v>2.95</v>
+      </c>
+      <c r="BN248">
+        <v>1.33</v>
+      </c>
+      <c r="BO248">
+        <v>3.95</v>
+      </c>
+      <c r="BP248">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['45+2', '69', '78']</t>
   </si>
   <si>
+    <t>['12', '43', '88']</t>
+  </si>
+  <si>
     <t>['18', '26', '48']</t>
   </si>
   <si>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP248"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1585,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1994,7 +1997,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2406,7 +2409,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2612,7 +2615,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3230,7 +3233,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5084,7 +5087,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5577,7 +5580,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5702,7 +5705,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5908,7 +5911,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6114,7 +6117,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6526,7 +6529,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6810,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6938,7 +6941,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9410,7 +9413,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10028,7 +10031,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10440,7 +10443,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10646,7 +10649,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10727,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR46">
         <v>2.39</v>
@@ -10852,7 +10855,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11058,7 +11061,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11676,7 +11679,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12294,7 +12297,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12578,7 +12581,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -13118,7 +13121,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13736,7 +13739,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14972,7 +14975,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16208,7 +16211,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17032,7 +17035,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17238,7 +17241,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17319,7 +17322,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17650,7 +17653,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17856,7 +17859,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18062,7 +18065,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18346,7 +18349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ83">
         <v>0.89</v>
@@ -18680,7 +18683,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19504,7 +19507,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19710,7 +19713,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20122,7 +20125,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20946,7 +20949,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21152,7 +21155,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21976,7 +21979,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23418,7 +23421,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23624,7 +23627,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23702,7 +23705,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ109">
         <v>0.7</v>
@@ -24036,7 +24039,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24448,7 +24451,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24654,7 +24657,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24860,7 +24863,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25066,7 +25069,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25272,7 +25275,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25890,7 +25893,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26302,7 +26305,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26508,7 +26511,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27207,7 +27210,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>2.03</v>
@@ -27538,7 +27541,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27822,7 +27825,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -28362,7 +28365,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28980,7 +28983,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -30915,7 +30918,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31246,7 +31249,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31452,7 +31455,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31658,7 +31661,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31864,7 +31867,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32070,7 +32073,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32688,7 +32691,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33100,7 +33103,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33306,7 +33309,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34336,7 +34339,7 @@
         <v>175</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34748,7 +34751,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34826,7 +34829,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34954,7 +34957,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35778,7 +35781,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36190,7 +36193,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36396,7 +36399,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -37014,7 +37017,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37507,7 +37510,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -38250,7 +38253,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38456,7 +38459,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38662,7 +38665,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39486,7 +39489,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39692,7 +39695,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40310,7 +40313,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40388,7 +40391,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40516,7 +40519,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40722,7 +40725,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41134,7 +41137,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41752,7 +41755,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42164,7 +42167,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -44305,7 +44308,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ209">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR209">
         <v>1.77</v>
@@ -44842,7 +44845,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45048,7 +45051,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45332,7 +45335,7 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -46490,7 +46493,7 @@
         <v>226</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47108,7 +47111,7 @@
         <v>188</v>
       </c>
       <c r="P223" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -48138,7 +48141,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q228">
         <v>4.33</v>
@@ -48756,7 +48759,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48962,7 +48965,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49786,7 +49789,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -49867,7 +49870,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR236">
         <v>1.81</v>
@@ -50404,7 +50407,7 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q239">
         <v>3.6</v>
@@ -50894,7 +50897,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ241">
         <v>0.88</v>
@@ -51022,7 +51025,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51434,7 +51437,7 @@
         <v>100</v>
       </c>
       <c r="P244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q244">
         <v>2.4</v>
@@ -52052,7 +52055,7 @@
         <v>241</v>
       </c>
       <c r="P247" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q247">
         <v>2.2</v>
@@ -52258,7 +52261,7 @@
         <v>242</v>
       </c>
       <c r="P248" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q248">
         <v>2.63</v>
@@ -52415,6 +52418,212 @@
       </c>
       <c r="BP248">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7893362</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45789.85416666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>95</v>
+      </c>
+      <c r="H249" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>243</v>
+      </c>
+      <c r="P249" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q249">
+        <v>1.83</v>
+      </c>
+      <c r="R249">
+        <v>2.25</v>
+      </c>
+      <c r="S249">
+        <v>10</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.63</v>
+      </c>
+      <c r="V249">
+        <v>3</v>
+      </c>
+      <c r="W249">
+        <v>1.36</v>
+      </c>
+      <c r="X249">
+        <v>9</v>
+      </c>
+      <c r="Y249">
+        <v>1.07</v>
+      </c>
+      <c r="Z249">
+        <v>1.29</v>
+      </c>
+      <c r="AA249">
+        <v>4.31</v>
+      </c>
+      <c r="AB249">
+        <v>8.4</v>
+      </c>
+      <c r="AC249">
+        <v>1.07</v>
+      </c>
+      <c r="AD249">
+        <v>8</v>
+      </c>
+      <c r="AE249">
+        <v>1.36</v>
+      </c>
+      <c r="AF249">
+        <v>2.9</v>
+      </c>
+      <c r="AG249">
+        <v>2.1</v>
+      </c>
+      <c r="AH249">
+        <v>1.7</v>
+      </c>
+      <c r="AI249">
+        <v>2.63</v>
+      </c>
+      <c r="AJ249">
+        <v>1.44</v>
+      </c>
+      <c r="AK249">
+        <v>1.06</v>
+      </c>
+      <c r="AL249">
+        <v>1.2</v>
+      </c>
+      <c r="AM249">
+        <v>3</v>
+      </c>
+      <c r="AN249">
+        <v>1.94</v>
+      </c>
+      <c r="AO249">
+        <v>1.63</v>
+      </c>
+      <c r="AP249">
+        <v>2</v>
+      </c>
+      <c r="AQ249">
+        <v>1.53</v>
+      </c>
+      <c r="AR249">
+        <v>1.88</v>
+      </c>
+      <c r="AS249">
+        <v>1.29</v>
+      </c>
+      <c r="AT249">
+        <v>3.17</v>
+      </c>
+      <c r="AU249">
+        <v>-1</v>
+      </c>
+      <c r="AV249">
+        <v>-1</v>
+      </c>
+      <c r="AW249">
+        <v>-1</v>
+      </c>
+      <c r="AX249">
+        <v>-1</v>
+      </c>
+      <c r="AY249">
+        <v>-1</v>
+      </c>
+      <c r="AZ249">
+        <v>-1</v>
+      </c>
+      <c r="BA249">
+        <v>-1</v>
+      </c>
+      <c r="BB249">
+        <v>-1</v>
+      </c>
+      <c r="BC249">
+        <v>-1</v>
+      </c>
+      <c r="BD249">
+        <v>1.17</v>
+      </c>
+      <c r="BE249">
+        <v>9</v>
+      </c>
+      <c r="BF249">
+        <v>5.4</v>
+      </c>
+      <c r="BG249">
+        <v>1.37</v>
+      </c>
+      <c r="BH249">
+        <v>2.8</v>
+      </c>
+      <c r="BI249">
+        <v>1.62</v>
+      </c>
+      <c r="BJ249">
+        <v>2.14</v>
+      </c>
+      <c r="BK249">
+        <v>1.96</v>
+      </c>
+      <c r="BL249">
+        <v>1.73</v>
+      </c>
+      <c r="BM249">
+        <v>2.48</v>
+      </c>
+      <c r="BN249">
+        <v>1.47</v>
+      </c>
+      <c r="BO249">
+        <v>3.15</v>
+      </c>
+      <c r="BP249">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -52560,31 +52560,31 @@
         <v>3.17</v>
       </c>
       <c r="AU249">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV249">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW249">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX249">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY249">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ249">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA249">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB249">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC249">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD249">
         <v>1.17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,10 +538,10 @@
     <t>['41']</t>
   </si>
   <si>
-    <t>['7']</t>
+    <t>['80']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['7']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -700,31 +700,31 @@
     <t>['76']</t>
   </si>
   <si>
-    <t>['51', '53']</t>
+    <t>['43', '81']</t>
   </si>
   <si>
-    <t>['43', '81']</t>
+    <t>['51', '53']</t>
   </si>
   <si>
     <t>['24', '87']</t>
   </si>
   <si>
-    <t>['1', '35', '63']</t>
+    <t>['26', '27', '60', '65']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['18', '71', '82']</t>
   </si>
   <si>
-    <t>['88']</t>
+    <t>['1', '35', '63']</t>
   </si>
   <si>
-    <t>['26', '27', '60', '65']</t>
+    <t>['36', '62', '83']</t>
   </si>
   <si>
     <t>['13']</t>
-  </si>
-  <si>
-    <t>['36', '62', '83']</t>
   </si>
   <si>
     <t>['45+3']</t>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>['45+2', '69', '78']</t>
-  </si>
-  <si>
-    <t>['12', '43', '88']</t>
   </si>
   <si>
     <t>['18', '26', '48']</t>
@@ -1326,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1997,7 +1994,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2409,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2615,7 +2612,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3233,7 +3230,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3645,7 +3642,7 @@
         <v>106</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -5087,7 +5084,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5580,7 +5577,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5705,7 +5702,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5911,7 +5908,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6117,7 +6114,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6529,7 +6526,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6813,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6941,7 +6938,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9413,7 +9410,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10031,7 +10028,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10443,7 +10440,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10649,7 +10646,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10730,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>2.39</v>
@@ -10855,7 +10852,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11061,7 +11058,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11679,7 +11676,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12297,7 +12294,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12581,7 +12578,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -13121,7 +13118,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13739,7 +13736,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14975,7 +14972,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16211,7 +16208,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17035,7 +17032,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17241,7 +17238,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17322,7 +17319,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17653,7 +17650,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17859,7 +17856,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18065,7 +18062,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18349,7 +18346,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ83">
         <v>0.89</v>
@@ -18683,7 +18680,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19507,7 +19504,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19713,7 +19710,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20125,7 +20122,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20949,7 +20946,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21155,7 +21152,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21979,7 +21976,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23421,7 +23418,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23627,7 +23624,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23705,7 +23702,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ109">
         <v>0.7</v>
@@ -24039,7 +24036,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24451,7 +24448,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24657,7 +24654,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24863,7 +24860,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25069,7 +25066,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25275,7 +25272,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25851,7 +25848,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7820435</v>
+        <v>7820436</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25866,43 +25863,43 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H120" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O120" t="s">
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="Q120">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R120">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S120">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="T120">
         <v>1.62</v>
@@ -25917,109 +25914,109 @@
         <v>1.22</v>
       </c>
       <c r="X120">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y120">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z120">
-        <v>3.57</v>
+        <v>1.7</v>
       </c>
       <c r="AA120">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="AB120">
-        <v>2.28</v>
+        <v>5.5</v>
       </c>
       <c r="AC120">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AD120">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AE120">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AF120">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AG120">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AH120">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AI120">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AJ120">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AK120">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AL120">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AM120">
-        <v>1.31</v>
+        <v>1.93</v>
       </c>
       <c r="AN120">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AO120">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120">
-        <v>1.86</v>
+        <v>0.29</v>
       </c>
       <c r="AR120">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AT120">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="AU120">
         <v>7</v>
       </c>
       <c r="AV120">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY120">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ120">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC120">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD120">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="BE120">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF120">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="BG120">
         <v>1.49</v>
@@ -26028,22 +26025,22 @@
         <v>2.4</v>
       </c>
       <c r="BI120">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="BJ120">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="BK120">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="BL120">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BM120">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="BN120">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BO120">
         <v>3.95</v>
@@ -26057,7 +26054,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7820436</v>
+        <v>7820435</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -26072,43 +26069,43 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O121" t="s">
         <v>175</v>
       </c>
       <c r="P121" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="Q121">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="R121">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S121">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="T121">
         <v>1.62</v>
@@ -26123,109 +26120,109 @@
         <v>1.22</v>
       </c>
       <c r="X121">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y121">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z121">
-        <v>1.7</v>
+        <v>3.57</v>
       </c>
       <c r="AA121">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="AB121">
-        <v>5.5</v>
+        <v>2.28</v>
       </c>
       <c r="AC121">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AD121">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AE121">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AF121">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AG121">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AH121">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI121">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AJ121">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AK121">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AL121">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AM121">
-        <v>1.93</v>
+        <v>1.31</v>
       </c>
       <c r="AN121">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AO121">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP121">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>0.29</v>
+        <v>1.86</v>
       </c>
       <c r="AR121">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AT121">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="AU121">
         <v>7</v>
       </c>
       <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
         <v>4</v>
       </c>
-      <c r="AW121">
-        <v>9</v>
-      </c>
       <c r="AX121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY121">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ121">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
         <v>5</v>
       </c>
-      <c r="BB121">
-        <v>6</v>
-      </c>
-      <c r="BC121">
-        <v>11</v>
-      </c>
       <c r="BD121">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE121">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF121">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="BG121">
         <v>1.49</v>
@@ -26234,22 +26231,22 @@
         <v>2.4</v>
       </c>
       <c r="BI121">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="BJ121">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="BK121">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="BL121">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BM121">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BN121">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BO121">
         <v>3.95</v>
@@ -26305,7 +26302,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26511,7 +26508,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -27210,7 +27207,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>2.03</v>
@@ -27541,7 +27538,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27825,7 +27822,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -28365,7 +28362,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28983,7 +28980,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -30918,7 +30915,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31249,7 +31246,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31455,7 +31452,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31661,7 +31658,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31867,7 +31864,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32073,7 +32070,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32691,7 +32688,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33103,7 +33100,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33309,7 +33306,7 @@
         <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>3.4</v>
@@ -34336,10 +34333,10 @@
         <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34751,7 +34748,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34829,7 +34826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34957,7 +34954,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35781,7 +35778,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36193,7 +36190,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36399,7 +36396,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -37017,7 +37014,7 @@
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37510,7 +37507,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ176">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -38253,7 +38250,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>3.4</v>
@@ -38459,7 +38456,7 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38665,7 +38662,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39489,7 +39486,7 @@
         <v>203</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39695,7 +39692,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40313,7 +40310,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40391,7 +40388,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40519,7 +40516,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40725,7 +40722,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41137,7 +41134,7 @@
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q194">
         <v>2.4</v>
@@ -41755,7 +41752,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42167,7 +42164,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -43979,7 +43976,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7820515</v>
+        <v>7820514</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -43994,160 +43991,160 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H208" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
       <c r="N208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O208" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="P208" t="s">
         <v>100</v>
       </c>
       <c r="Q208">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="T208">
+        <v>1.44</v>
+      </c>
+      <c r="U208">
+        <v>2.63</v>
+      </c>
+      <c r="V208">
+        <v>3.4</v>
+      </c>
+      <c r="W208">
+        <v>1.3</v>
+      </c>
+      <c r="X208">
+        <v>10</v>
+      </c>
+      <c r="Y208">
+        <v>1.06</v>
+      </c>
+      <c r="Z208">
         <v>1.5</v>
       </c>
-      <c r="U208">
-        <v>2.5</v>
-      </c>
-      <c r="V208">
-        <v>3.5</v>
-      </c>
-      <c r="W208">
-        <v>1.29</v>
-      </c>
-      <c r="X208">
-        <v>11</v>
-      </c>
-      <c r="Y208">
-        <v>1.05</v>
-      </c>
-      <c r="Z208">
-        <v>2.1</v>
-      </c>
       <c r="AA208">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB208">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AC208">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD208">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE208">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AF208">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG208">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AH208">
+        <v>1.67</v>
+      </c>
+      <c r="AI208">
+        <v>2.25</v>
+      </c>
+      <c r="AJ208">
         <v>1.57</v>
       </c>
-      <c r="AI208">
-        <v>2.05</v>
-      </c>
-      <c r="AJ208">
-        <v>1.7</v>
-      </c>
       <c r="AK208">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AL208">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM208">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AN208">
         <v>2</v>
       </c>
       <c r="AO208">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP208">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="AQ208">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AR208">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AS208">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT208">
-        <v>2.79</v>
+        <v>3.17</v>
       </c>
       <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
+      <c r="AW208">
         <v>4</v>
       </c>
-      <c r="AV208">
-        <v>5</v>
-      </c>
-      <c r="AW208">
-        <v>5</v>
-      </c>
       <c r="AX208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY208">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ208">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA208">
         <v>2</v>
       </c>
       <c r="BB208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD208">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="BE208">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="BF208">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG208">
         <v>1.26</v>
@@ -44168,16 +44165,16 @@
         <v>1.85</v>
       </c>
       <c r="BM208">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="BN208">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BO208">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="BP208">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44185,7 +44182,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7820514</v>
+        <v>7820515</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44200,160 +44197,160 @@
         <v>14</v>
       </c>
       <c r="G209" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="H209" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O209" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="P209" t="s">
         <v>100</v>
       </c>
       <c r="Q209">
+        <v>2.88</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>4.33</v>
+      </c>
+      <c r="T209">
+        <v>1.5</v>
+      </c>
+      <c r="U209">
+        <v>2.5</v>
+      </c>
+      <c r="V209">
+        <v>3.5</v>
+      </c>
+      <c r="W209">
+        <v>1.29</v>
+      </c>
+      <c r="X209">
+        <v>11</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
         <v>2.1</v>
       </c>
-      <c r="R209">
-        <v>2.1</v>
-      </c>
-      <c r="S209">
+      <c r="AA209">
+        <v>3.4</v>
+      </c>
+      <c r="AB209">
+        <v>3.4</v>
+      </c>
+      <c r="AC209">
+        <v>1.08</v>
+      </c>
+      <c r="AD209">
         <v>7.5</v>
       </c>
-      <c r="T209">
+      <c r="AE209">
         <v>1.44</v>
       </c>
-      <c r="U209">
-        <v>2.63</v>
-      </c>
-      <c r="V209">
-        <v>3.4</v>
-      </c>
-      <c r="W209">
+      <c r="AF209">
+        <v>2.75</v>
+      </c>
+      <c r="AG209">
+        <v>2.35</v>
+      </c>
+      <c r="AH209">
+        <v>1.57</v>
+      </c>
+      <c r="AI209">
+        <v>2.05</v>
+      </c>
+      <c r="AJ209">
+        <v>1.7</v>
+      </c>
+      <c r="AK209">
         <v>1.3</v>
       </c>
-      <c r="X209">
+      <c r="AL209">
+        <v>1.28</v>
+      </c>
+      <c r="AM209">
+        <v>1.67</v>
+      </c>
+      <c r="AN209">
+        <v>2</v>
+      </c>
+      <c r="AO209">
+        <v>0.83</v>
+      </c>
+      <c r="AP209">
+        <v>1.75</v>
+      </c>
+      <c r="AQ209">
+        <v>0.88</v>
+      </c>
+      <c r="AR209">
+        <v>1.47</v>
+      </c>
+      <c r="AS209">
+        <v>1.32</v>
+      </c>
+      <c r="AT209">
+        <v>2.79</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>5</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
         <v>10</v>
       </c>
-      <c r="Y209">
-        <v>1.06</v>
-      </c>
-      <c r="Z209">
-        <v>1.5</v>
-      </c>
-      <c r="AA209">
-        <v>3.75</v>
-      </c>
-      <c r="AB209">
-        <v>8</v>
-      </c>
-      <c r="AC209">
-        <v>1.06</v>
-      </c>
-      <c r="AD209">
+      <c r="AZ209">
+        <v>7</v>
+      </c>
+      <c r="BA209">
+        <v>2</v>
+      </c>
+      <c r="BB209">
+        <v>3</v>
+      </c>
+      <c r="BC209">
+        <v>5</v>
+      </c>
+      <c r="BD209">
+        <v>1.62</v>
+      </c>
+      <c r="BE209">
         <v>8.5</v>
       </c>
-      <c r="AE209">
-        <v>1.38</v>
-      </c>
-      <c r="AF209">
-        <v>3</v>
-      </c>
-      <c r="AG209">
-        <v>2.15</v>
-      </c>
-      <c r="AH209">
-        <v>1.67</v>
-      </c>
-      <c r="AI209">
-        <v>2.25</v>
-      </c>
-      <c r="AJ209">
-        <v>1.57</v>
-      </c>
-      <c r="AK209">
-        <v>1.09</v>
-      </c>
-      <c r="AL209">
-        <v>1.18</v>
-      </c>
-      <c r="AM209">
+      <c r="BF209">
         <v>2.6</v>
-      </c>
-      <c r="AN209">
-        <v>2</v>
-      </c>
-      <c r="AO209">
-        <v>1.17</v>
-      </c>
-      <c r="AP209">
-        <v>2.3</v>
-      </c>
-      <c r="AQ209">
-        <v>1.11</v>
-      </c>
-      <c r="AR209">
-        <v>1.77</v>
-      </c>
-      <c r="AS209">
-        <v>1.4</v>
-      </c>
-      <c r="AT209">
-        <v>3.17</v>
-      </c>
-      <c r="AU209">
-        <v>7</v>
-      </c>
-      <c r="AV209">
-        <v>0</v>
-      </c>
-      <c r="AW209">
-        <v>4</v>
-      </c>
-      <c r="AX209">
-        <v>4</v>
-      </c>
-      <c r="AY209">
-        <v>12</v>
-      </c>
-      <c r="AZ209">
-        <v>4</v>
-      </c>
-      <c r="BA209">
-        <v>2</v>
-      </c>
-      <c r="BB209">
-        <v>2</v>
-      </c>
-      <c r="BC209">
-        <v>4</v>
-      </c>
-      <c r="BD209">
-        <v>1.12</v>
-      </c>
-      <c r="BE209">
-        <v>15</v>
-      </c>
-      <c r="BF209">
-        <v>5.8</v>
       </c>
       <c r="BG209">
         <v>1.26</v>
@@ -44374,16 +44371,16 @@
         <v>1.85</v>
       </c>
       <c r="BM209">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="BN209">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BO209">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="BP209">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44639,7 +44636,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44845,7 +44842,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45051,7 +45048,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45335,7 +45332,7 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -45421,7 +45418,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7820534</v>
+        <v>7820538</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45436,10 +45433,10 @@
         <v>15</v>
       </c>
       <c r="G215" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H215" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -45454,31 +45451,31 @@
         <v>1</v>
       </c>
       <c r="M215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O215" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P215" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="Q215">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T215">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U215">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V215">
         <v>3.75</v>
@@ -45493,13 +45490,13 @@
         <v>1.05</v>
       </c>
       <c r="Z215">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AA215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB215">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -45520,10 +45517,10 @@
         <v>1.5</v>
       </c>
       <c r="AI215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AJ215">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -45535,52 +45532,52 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AO215">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AQ215">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="AR215">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS215">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT215">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU215">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY215">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA215">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BB215">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC215">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BD215">
         <v>0</v>
@@ -45627,7 +45624,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7820538</v>
+        <v>7820534</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45642,10 +45639,10 @@
         <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -45660,31 +45657,31 @@
         <v>1</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O216" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P216" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="Q216">
+        <v>2.6</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>5.5</v>
+      </c>
+      <c r="T216">
+        <v>1.57</v>
+      </c>
+      <c r="U216">
         <v>2.25</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>7</v>
-      </c>
-      <c r="T216">
-        <v>1.53</v>
-      </c>
-      <c r="U216">
-        <v>2.38</v>
       </c>
       <c r="V216">
         <v>3.75</v>
@@ -45699,13 +45696,13 @@
         <v>1.05</v>
       </c>
       <c r="Z216">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA216">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB216">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -45726,10 +45723,10 @@
         <v>1.5</v>
       </c>
       <c r="AI216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AJ216">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -45741,52 +45738,52 @@
         <v>0</v>
       </c>
       <c r="AN216">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AO216">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP216">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ216">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="AR216">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS216">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AT216">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU216">
+        <v>7</v>
+      </c>
+      <c r="AV216">
         <v>4</v>
       </c>
-      <c r="AV216">
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
         <v>3</v>
       </c>
-      <c r="AW216">
-        <v>9</v>
-      </c>
-      <c r="AX216">
-        <v>5</v>
-      </c>
       <c r="AY216">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA216">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC216">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD216">
         <v>0</v>
@@ -46451,7 +46448,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7820529</v>
+        <v>7820525</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46466,10 +46463,10 @@
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H220" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -46481,79 +46478,79 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O220" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="P220" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="Q220">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T220">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U220">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V220">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W220">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X220">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y220">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z220">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="AA220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB220">
+        <v>4.2</v>
+      </c>
+      <c r="AC220">
+        <v>3.59</v>
+      </c>
+      <c r="AD220">
+        <v>1.28</v>
+      </c>
+      <c r="AE220">
+        <v>1.5</v>
+      </c>
+      <c r="AF220">
+        <v>2.37</v>
+      </c>
+      <c r="AG220">
         <v>2.3</v>
       </c>
-      <c r="AC220">
-        <v>0</v>
-      </c>
-      <c r="AD220">
-        <v>0</v>
-      </c>
-      <c r="AE220">
-        <v>1.93</v>
-      </c>
-      <c r="AF220">
-        <v>1.89</v>
-      </c>
-      <c r="AG220">
-        <v>2</v>
-      </c>
       <c r="AH220">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AI220">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AJ220">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -46565,52 +46562,52 @@
         <v>0</v>
       </c>
       <c r="AN220">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO220">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AP220">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ220">
         <v>1.44</v>
       </c>
       <c r="AR220">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AS220">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT220">
-        <v>3.23</v>
+        <v>3.48</v>
       </c>
       <c r="AU220">
+        <v>5</v>
+      </c>
+      <c r="AV220">
+        <v>2</v>
+      </c>
+      <c r="AW220">
+        <v>13</v>
+      </c>
+      <c r="AX220">
         <v>8</v>
       </c>
-      <c r="AV220">
+      <c r="AY220">
+        <v>26</v>
+      </c>
+      <c r="AZ220">
+        <v>15</v>
+      </c>
+      <c r="BA220">
         <v>6</v>
       </c>
-      <c r="AW220">
-        <v>10</v>
-      </c>
-      <c r="AX220">
-        <v>4</v>
-      </c>
-      <c r="AY220">
-        <v>21</v>
-      </c>
-      <c r="AZ220">
-        <v>12</v>
-      </c>
-      <c r="BA220">
+      <c r="BB220">
         <v>5</v>
       </c>
-      <c r="BB220">
-        <v>3</v>
-      </c>
       <c r="BC220">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD220">
         <v>0</v>
@@ -46657,7 +46654,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7820525</v>
+        <v>7820529</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46672,10 +46669,10 @@
         <v>15</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H221" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -46687,80 +46684,80 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O221" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="Q221">
+        <v>3.6</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>3.1</v>
+      </c>
+      <c r="T221">
+        <v>1.44</v>
+      </c>
+      <c r="U221">
         <v>2.63</v>
       </c>
-      <c r="R221">
-        <v>2</v>
-      </c>
-      <c r="S221">
-        <v>4.75</v>
-      </c>
-      <c r="T221">
-        <v>1.5</v>
-      </c>
-      <c r="U221">
-        <v>2.5</v>
-      </c>
       <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>9</v>
+      </c>
+      <c r="Y221">
+        <v>1.07</v>
+      </c>
+      <c r="Z221">
+        <v>2.9</v>
+      </c>
+      <c r="AA221">
         <v>3.5</v>
       </c>
-      <c r="W221">
-        <v>1.29</v>
-      </c>
-      <c r="X221">
-        <v>11</v>
-      </c>
-      <c r="Y221">
-        <v>1.05</v>
-      </c>
-      <c r="Z221">
+      <c r="AB221">
+        <v>2.3</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>1.93</v>
+      </c>
+      <c r="AF221">
+        <v>1.89</v>
+      </c>
+      <c r="AG221">
+        <v>2</v>
+      </c>
+      <c r="AH221">
+        <v>1.8</v>
+      </c>
+      <c r="AI221">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221">
         <v>1.95</v>
       </c>
-      <c r="AA221">
-        <v>3.4</v>
-      </c>
-      <c r="AB221">
-        <v>4.2</v>
-      </c>
-      <c r="AC221">
-        <v>3.59</v>
-      </c>
-      <c r="AD221">
-        <v>1.28</v>
-      </c>
-      <c r="AE221">
-        <v>1.5</v>
-      </c>
-      <c r="AF221">
-        <v>2.37</v>
-      </c>
-      <c r="AG221">
-        <v>2.3</v>
-      </c>
-      <c r="AH221">
-        <v>1.6</v>
-      </c>
-      <c r="AI221">
-        <v>2.05</v>
-      </c>
-      <c r="AJ221">
-        <v>1.7</v>
-      </c>
       <c r="AK221">
         <v>0</v>
       </c>
@@ -46771,52 +46768,52 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO221">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AQ221">
         <v>1.44</v>
       </c>
       <c r="AR221">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="AS221">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="AU221">
+        <v>8</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>10</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>21</v>
+      </c>
+      <c r="AZ221">
+        <v>12</v>
+      </c>
+      <c r="BA221">
         <v>5</v>
       </c>
-      <c r="AV221">
-        <v>2</v>
-      </c>
-      <c r="AW221">
-        <v>13</v>
-      </c>
-      <c r="AX221">
+      <c r="BB221">
+        <v>3</v>
+      </c>
+      <c r="BC221">
         <v>8</v>
-      </c>
-      <c r="AY221">
-        <v>26</v>
-      </c>
-      <c r="AZ221">
-        <v>15</v>
-      </c>
-      <c r="BA221">
-        <v>6</v>
-      </c>
-      <c r="BB221">
-        <v>5</v>
-      </c>
-      <c r="BC221">
-        <v>11</v>
       </c>
       <c r="BD221">
         <v>0</v>
@@ -46863,7 +46860,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7820532</v>
+        <v>7820530</v>
       </c>
       <c r="C222" t="s">
         <v>68</v>
@@ -46878,10 +46875,10 @@
         <v>15</v>
       </c>
       <c r="G222" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H222" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -46896,31 +46893,31 @@
         <v>1</v>
       </c>
       <c r="M222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O222" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="P222" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="Q222">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R222">
         <v>1.95</v>
       </c>
       <c r="S222">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T222">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U222">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V222">
         <v>3.75</v>
@@ -46929,19 +46926,19 @@
         <v>1.25</v>
       </c>
       <c r="X222">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y222">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z222">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AA222">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB222">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AC222">
         <v>0</v>
@@ -46950,22 +46947,22 @@
         <v>0</v>
       </c>
       <c r="AE222">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AF222">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AG222">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AH222">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AI222">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AJ222">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AK222">
         <v>0</v>
@@ -46977,52 +46974,52 @@
         <v>0</v>
       </c>
       <c r="AN222">
-        <v>0.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO222">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AP222">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR222">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AS222">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT222">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AU222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>11</v>
+      </c>
+      <c r="AX222">
         <v>3</v>
       </c>
-      <c r="AW222">
-        <v>4</v>
-      </c>
-      <c r="AX222">
+      <c r="AY222">
+        <v>16</v>
+      </c>
+      <c r="AZ222">
         <v>7</v>
       </c>
-      <c r="AY222">
-        <v>7</v>
-      </c>
-      <c r="AZ222">
-        <v>11</v>
-      </c>
       <c r="BA222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD222">
         <v>0</v>
@@ -47069,7 +47066,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7820530</v>
+        <v>7820532</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47084,10 +47081,10 @@
         <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H223" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -47102,31 +47099,31 @@
         <v>1</v>
       </c>
       <c r="M223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="Q223">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R223">
         <v>1.95</v>
       </c>
       <c r="S223">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T223">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U223">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V223">
         <v>3.75</v>
@@ -47135,100 +47132,100 @@
         <v>1.25</v>
       </c>
       <c r="X223">
+        <v>13</v>
+      </c>
+      <c r="Y223">
+        <v>1.04</v>
+      </c>
+      <c r="Z223">
+        <v>1.91</v>
+      </c>
+      <c r="AA223">
+        <v>3.1</v>
+      </c>
+      <c r="AB223">
+        <v>4.33</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>1.52</v>
+      </c>
+      <c r="AF223">
+        <v>2.35</v>
+      </c>
+      <c r="AG223">
+        <v>2.7</v>
+      </c>
+      <c r="AH223">
+        <v>1.44</v>
+      </c>
+      <c r="AI223">
+        <v>2.25</v>
+      </c>
+      <c r="AJ223">
+        <v>1.57</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0.57</v>
+      </c>
+      <c r="AO223">
+        <v>0.57</v>
+      </c>
+      <c r="AP223">
+        <v>0.88</v>
+      </c>
+      <c r="AQ223">
+        <v>0.5</v>
+      </c>
+      <c r="AR223">
+        <v>1.47</v>
+      </c>
+      <c r="AS223">
+        <v>1.25</v>
+      </c>
+      <c r="AT223">
+        <v>2.72</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>7</v>
+      </c>
+      <c r="AY223">
+        <v>7</v>
+      </c>
+      <c r="AZ223">
         <v>11</v>
       </c>
-      <c r="Y223">
-        <v>1.05</v>
-      </c>
-      <c r="Z223">
-        <v>2.15</v>
-      </c>
-      <c r="AA223">
-        <v>3.25</v>
-      </c>
-      <c r="AB223">
-        <v>3.5</v>
-      </c>
-      <c r="AC223">
-        <v>0</v>
-      </c>
-      <c r="AD223">
-        <v>0</v>
-      </c>
-      <c r="AE223">
-        <v>1.55</v>
-      </c>
-      <c r="AF223">
-        <v>2.25</v>
-      </c>
-      <c r="AG223">
-        <v>2.4</v>
-      </c>
-      <c r="AH223">
-        <v>1.53</v>
-      </c>
-      <c r="AI223">
-        <v>2.05</v>
-      </c>
-      <c r="AJ223">
-        <v>1.7</v>
-      </c>
-      <c r="AK223">
-        <v>0</v>
-      </c>
-      <c r="AL223">
-        <v>0</v>
-      </c>
-      <c r="AM223">
-        <v>0</v>
-      </c>
-      <c r="AN223">
-        <v>1.75</v>
-      </c>
-      <c r="AO223">
-        <v>1.29</v>
-      </c>
-      <c r="AP223">
-        <v>1.56</v>
-      </c>
-      <c r="AQ223">
-        <v>1.33</v>
-      </c>
-      <c r="AR223">
-        <v>1.77</v>
-      </c>
-      <c r="AS223">
-        <v>1.21</v>
-      </c>
-      <c r="AT223">
-        <v>2.98</v>
-      </c>
-      <c r="AU223">
+      <c r="BA223">
+        <v>1</v>
+      </c>
+      <c r="BB223">
         <v>3</v>
       </c>
-      <c r="AV223">
+      <c r="BC223">
         <v>4</v>
-      </c>
-      <c r="AW223">
-        <v>11</v>
-      </c>
-      <c r="AX223">
-        <v>3</v>
-      </c>
-      <c r="AY223">
-        <v>16</v>
-      </c>
-      <c r="AZ223">
-        <v>7</v>
-      </c>
-      <c r="BA223">
-        <v>3</v>
-      </c>
-      <c r="BB223">
-        <v>2</v>
-      </c>
-      <c r="BC223">
-        <v>5</v>
       </c>
       <c r="BD223">
         <v>0</v>
@@ -47275,7 +47272,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>7820533</v>
+        <v>7820528</v>
       </c>
       <c r="C224" t="s">
         <v>68</v>
@@ -47290,16 +47287,16 @@
         <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H224" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -47308,133 +47305,133 @@
         <v>2</v>
       </c>
       <c r="M224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O224" t="s">
         <v>228</v>
       </c>
       <c r="P224" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
       </c>
       <c r="R224">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S224">
+        <v>3.75</v>
+      </c>
+      <c r="T224">
+        <v>1.62</v>
+      </c>
+      <c r="U224">
+        <v>2.2</v>
+      </c>
+      <c r="V224">
         <v>4</v>
       </c>
-      <c r="T224">
-        <v>1.67</v>
-      </c>
-      <c r="U224">
-        <v>2.1</v>
-      </c>
-      <c r="V224">
-        <v>4.33</v>
-      </c>
       <c r="W224">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X224">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y224">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z224">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AA224">
+        <v>2.72</v>
+      </c>
+      <c r="AB224">
+        <v>3.02</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>1.57</v>
+      </c>
+      <c r="AF224">
+        <v>2.3</v>
+      </c>
+      <c r="AG224">
+        <v>2.88</v>
+      </c>
+      <c r="AH224">
+        <v>1.4</v>
+      </c>
+      <c r="AI224">
+        <v>2.25</v>
+      </c>
+      <c r="AJ224">
+        <v>1.57</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>1.14</v>
+      </c>
+      <c r="AO224">
+        <v>1.71</v>
+      </c>
+      <c r="AP224">
+        <v>1.38</v>
+      </c>
+      <c r="AQ224">
+        <v>1.5</v>
+      </c>
+      <c r="AR224">
+        <v>1.68</v>
+      </c>
+      <c r="AS224">
+        <v>1.28</v>
+      </c>
+      <c r="AT224">
+        <v>2.96</v>
+      </c>
+      <c r="AU224">
+        <v>4</v>
+      </c>
+      <c r="AV224">
+        <v>0</v>
+      </c>
+      <c r="AW224">
+        <v>2</v>
+      </c>
+      <c r="AX224">
         <v>3</v>
       </c>
-      <c r="AB224">
-        <v>3.1</v>
-      </c>
-      <c r="AC224">
-        <v>0</v>
-      </c>
-      <c r="AD224">
-        <v>0</v>
-      </c>
-      <c r="AE224">
-        <v>1.61</v>
-      </c>
-      <c r="AF224">
-        <v>2.15</v>
-      </c>
-      <c r="AG224">
-        <v>3.1</v>
-      </c>
-      <c r="AH224">
-        <v>1.36</v>
-      </c>
-      <c r="AI224">
-        <v>2.38</v>
-      </c>
-      <c r="AJ224">
-        <v>1.53</v>
-      </c>
-      <c r="AK224">
-        <v>0</v>
-      </c>
-      <c r="AL224">
-        <v>0</v>
-      </c>
-      <c r="AM224">
-        <v>0</v>
-      </c>
-      <c r="AN224">
-        <v>1.43</v>
-      </c>
-      <c r="AO224">
-        <v>1.14</v>
-      </c>
-      <c r="AP224">
-        <v>1.63</v>
-      </c>
-      <c r="AQ224">
-        <v>1</v>
-      </c>
-      <c r="AR224">
-        <v>1.26</v>
-      </c>
-      <c r="AS224">
-        <v>1.61</v>
-      </c>
-      <c r="AT224">
-        <v>2.87</v>
-      </c>
-      <c r="AU224">
-        <v>5</v>
-      </c>
-      <c r="AV224">
-        <v>6</v>
-      </c>
-      <c r="AW224">
-        <v>5</v>
-      </c>
-      <c r="AX224">
-        <v>9</v>
-      </c>
       <c r="AY224">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ224">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BA224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC224">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD224">
         <v>0</v>
@@ -47481,7 +47478,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>7820528</v>
+        <v>7820533</v>
       </c>
       <c r="C225" t="s">
         <v>68</v>
@@ -47496,16 +47493,16 @@
         <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225">
         <v>1</v>
@@ -47514,52 +47511,52 @@
         <v>2</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O225" t="s">
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="Q225">
         <v>3.5</v>
       </c>
       <c r="R225">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S225">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T225">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U225">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V225">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W225">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X225">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y225">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z225">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AA225">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AB225">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AC225">
         <v>0</v>
@@ -47568,22 +47565,22 @@
         <v>0</v>
       </c>
       <c r="AE225">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AF225">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AG225">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AH225">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI225">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ225">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AK225">
         <v>0</v>
@@ -47595,52 +47592,52 @@
         <v>0</v>
       </c>
       <c r="AN225">
+        <v>1.43</v>
+      </c>
+      <c r="AO225">
         <v>1.14</v>
       </c>
-      <c r="AO225">
-        <v>1.71</v>
-      </c>
       <c r="AP225">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AQ225">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR225">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="AT225">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="AU225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV225">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX225">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY225">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ225">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="BA225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC225">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD225">
         <v>0</v>
@@ -47893,7 +47890,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7820540</v>
+        <v>7820545</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47908,10 +47905,10 @@
         <v>16</v>
       </c>
       <c r="G227" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H227" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I227">
         <v>2</v>
@@ -47923,10 +47920,10 @@
         <v>2</v>
       </c>
       <c r="L227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <v>4</v>
@@ -47935,16 +47932,16 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="Q227">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T227">
         <v>1.53</v>
@@ -47965,94 +47962,94 @@
         <v>1.05</v>
       </c>
       <c r="Z227">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA227">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB227">
+        <v>3.2</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1.53</v>
+      </c>
+      <c r="AF227">
+        <v>2.37</v>
+      </c>
+      <c r="AG227">
+        <v>2.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.5</v>
+      </c>
+      <c r="AI227">
+        <v>2.1</v>
+      </c>
+      <c r="AJ227">
+        <v>1.67</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>2.13</v>
+      </c>
+      <c r="AO227">
+        <v>0.88</v>
+      </c>
+      <c r="AP227">
+        <v>2.3</v>
+      </c>
+      <c r="AQ227">
+        <v>0.7</v>
+      </c>
+      <c r="AR227">
+        <v>1.76</v>
+      </c>
+      <c r="AS227">
+        <v>1.4</v>
+      </c>
+      <c r="AT227">
+        <v>3.16</v>
+      </c>
+      <c r="AU227">
+        <v>7</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>8</v>
+      </c>
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>18</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
         <v>5</v>
       </c>
-      <c r="AC227">
-        <v>0</v>
-      </c>
-      <c r="AD227">
-        <v>0</v>
-      </c>
-      <c r="AE227">
-        <v>1.49</v>
-      </c>
-      <c r="AF227">
-        <v>2.55</v>
-      </c>
-      <c r="AG227">
-        <v>2.4</v>
-      </c>
-      <c r="AH227">
-        <v>1.53</v>
-      </c>
-      <c r="AI227">
-        <v>2.25</v>
-      </c>
-      <c r="AJ227">
-        <v>1.57</v>
-      </c>
-      <c r="AK227">
-        <v>0</v>
-      </c>
-      <c r="AL227">
-        <v>0</v>
-      </c>
-      <c r="AM227">
-        <v>0</v>
-      </c>
-      <c r="AN227">
-        <v>1</v>
-      </c>
-      <c r="AO227">
-        <v>0.67</v>
-      </c>
-      <c r="AP227">
-        <v>1.25</v>
-      </c>
-      <c r="AQ227">
-        <v>0.57</v>
-      </c>
-      <c r="AR227">
-        <v>1.33</v>
-      </c>
-      <c r="AS227">
-        <v>1.3</v>
-      </c>
-      <c r="AT227">
-        <v>2.63</v>
-      </c>
-      <c r="AU227">
+      <c r="BB227">
         <v>4</v>
       </c>
-      <c r="AV227">
-        <v>6</v>
-      </c>
-      <c r="AW227">
-        <v>5</v>
-      </c>
-      <c r="AX227">
+      <c r="BC227">
         <v>9</v>
-      </c>
-      <c r="AY227">
-        <v>11</v>
-      </c>
-      <c r="AZ227">
-        <v>18</v>
-      </c>
-      <c r="BA227">
-        <v>1</v>
-      </c>
-      <c r="BB227">
-        <v>6</v>
-      </c>
-      <c r="BC227">
-        <v>7</v>
       </c>
       <c r="BD227">
         <v>0</v>
@@ -48099,7 +48096,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7820541</v>
+        <v>7820542</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48114,43 +48111,43 @@
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H228" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O228" t="s">
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q228">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="R228">
         <v>1.95</v>
       </c>
       <c r="S228">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T228">
         <v>1.53</v>
@@ -48171,19 +48168,19 @@
         <v>1.05</v>
       </c>
       <c r="Z228">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AA228">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB228">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AC228">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AD228">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE228">
         <v>0</v>
@@ -48198,10 +48195,10 @@
         <v>1.53</v>
       </c>
       <c r="AI228">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ228">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -48213,43 +48210,43 @@
         <v>0</v>
       </c>
       <c r="AN228">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
         <v>1.88</v>
       </c>
       <c r="AQ228">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AR228">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AS228">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT228">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="AU228">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW228">
         <v>4</v>
       </c>
       <c r="AX228">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY228">
+        <v>9</v>
+      </c>
+      <c r="AZ228">
         <v>13</v>
-      </c>
-      <c r="AZ228">
-        <v>23</v>
       </c>
       <c r="BA228">
         <v>5</v>
@@ -48305,7 +48302,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7820542</v>
+        <v>7820541</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48320,43 +48317,43 @@
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H229" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O229" t="s">
         <v>233</v>
       </c>
       <c r="P229" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="Q229">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="R229">
         <v>1.95</v>
       </c>
       <c r="S229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T229">
         <v>1.53</v>
@@ -48377,19 +48374,19 @@
         <v>1.05</v>
       </c>
       <c r="Z229">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AA229">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB229">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AC229">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AD229">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE229">
         <v>0</v>
@@ -48404,10 +48401,10 @@
         <v>1.53</v>
       </c>
       <c r="AI229">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ229">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -48419,43 +48416,43 @@
         <v>0</v>
       </c>
       <c r="AN229">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO229">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AP229">
         <v>1.88</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR229">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AS229">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="AU229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV229">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW229">
         <v>4</v>
       </c>
       <c r="AX229">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AY229">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ229">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BA229">
         <v>5</v>
@@ -48511,7 +48508,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7820545</v>
+        <v>7820540</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48526,10 +48523,10 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H230" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -48541,10 +48538,10 @@
         <v>2</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230">
         <v>4</v>
@@ -48553,16 +48550,16 @@
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q230">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T230">
         <v>1.53</v>
@@ -48583,37 +48580,37 @@
         <v>1.05</v>
       </c>
       <c r="Z230">
+        <v>1.75</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>5</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>1.49</v>
+      </c>
+      <c r="AF230">
+        <v>2.55</v>
+      </c>
+      <c r="AG230">
+        <v>2.4</v>
+      </c>
+      <c r="AH230">
+        <v>1.53</v>
+      </c>
+      <c r="AI230">
         <v>2.25</v>
       </c>
-      <c r="AA230">
-        <v>3.25</v>
-      </c>
-      <c r="AB230">
-        <v>3.2</v>
-      </c>
-      <c r="AC230">
-        <v>0</v>
-      </c>
-      <c r="AD230">
-        <v>0</v>
-      </c>
-      <c r="AE230">
-        <v>1.53</v>
-      </c>
-      <c r="AF230">
-        <v>2.37</v>
-      </c>
-      <c r="AG230">
-        <v>2.5</v>
-      </c>
-      <c r="AH230">
-        <v>1.5</v>
-      </c>
-      <c r="AI230">
-        <v>2.1</v>
-      </c>
       <c r="AJ230">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -48625,52 +48622,52 @@
         <v>0</v>
       </c>
       <c r="AN230">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AO230">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP230">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ230">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AR230">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT230">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>6</v>
+      </c>
+      <c r="AW230">
+        <v>5</v>
+      </c>
+      <c r="AX230">
+        <v>9</v>
+      </c>
+      <c r="AY230">
+        <v>11</v>
+      </c>
+      <c r="AZ230">
+        <v>18</v>
+      </c>
+      <c r="BA230">
+        <v>1</v>
+      </c>
+      <c r="BB230">
+        <v>6</v>
+      </c>
+      <c r="BC230">
         <v>7</v>
-      </c>
-      <c r="AV230">
-        <v>3</v>
-      </c>
-      <c r="AW230">
-        <v>8</v>
-      </c>
-      <c r="AX230">
-        <v>4</v>
-      </c>
-      <c r="AY230">
-        <v>18</v>
-      </c>
-      <c r="AZ230">
-        <v>7</v>
-      </c>
-      <c r="BA230">
-        <v>5</v>
-      </c>
-      <c r="BB230">
-        <v>4</v>
-      </c>
-      <c r="BC230">
-        <v>9</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48759,7 +48756,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48923,7 +48920,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7820551</v>
+        <v>7820548</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48938,25 +48935,25 @@
         <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H232" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N232">
         <v>3</v>
@@ -48965,124 +48962,124 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="Q232">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S232">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T232">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U232">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V232">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W232">
+        <v>1.2</v>
+      </c>
+      <c r="X232">
+        <v>15</v>
+      </c>
+      <c r="Y232">
+        <v>1.03</v>
+      </c>
+      <c r="Z232">
+        <v>2.9</v>
+      </c>
+      <c r="AA232">
+        <v>2.63</v>
+      </c>
+      <c r="AB232">
+        <v>2.9</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1.65</v>
+      </c>
+      <c r="AF232">
+        <v>2.15</v>
+      </c>
+      <c r="AG232">
+        <v>3.1</v>
+      </c>
+      <c r="AH232">
+        <v>1.36</v>
+      </c>
+      <c r="AI232">
+        <v>2.25</v>
+      </c>
+      <c r="AJ232">
+        <v>1.57</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
         <v>1.29</v>
       </c>
-      <c r="X232">
-        <v>11</v>
-      </c>
-      <c r="Y232">
-        <v>1.05</v>
-      </c>
-      <c r="Z232">
-        <v>1.95</v>
-      </c>
-      <c r="AA232">
-        <v>3.1</v>
-      </c>
-      <c r="AB232">
-        <v>4.33</v>
-      </c>
-      <c r="AC232">
-        <v>0</v>
-      </c>
-      <c r="AD232">
-        <v>0</v>
-      </c>
-      <c r="AE232">
+      <c r="AO232">
+        <v>1.14</v>
+      </c>
+      <c r="AP232">
         <v>1.5</v>
       </c>
-      <c r="AF232">
-        <v>2.4</v>
-      </c>
-      <c r="AG232">
-        <v>2.5</v>
-      </c>
-      <c r="AH232">
-        <v>1.5</v>
-      </c>
-      <c r="AI232">
-        <v>2.1</v>
-      </c>
-      <c r="AJ232">
-        <v>1.67</v>
-      </c>
-      <c r="AK232">
-        <v>0</v>
-      </c>
-      <c r="AL232">
-        <v>0</v>
-      </c>
-      <c r="AM232">
-        <v>0</v>
-      </c>
-      <c r="AN232">
-        <v>0.71</v>
-      </c>
-      <c r="AO232">
-        <v>0.13</v>
-      </c>
-      <c r="AP232">
-        <v>0.63</v>
-      </c>
       <c r="AQ232">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR232">
-        <v>2.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS232">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AT232">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="AU232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV232">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW232">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX232">
+        <v>7</v>
+      </c>
+      <c r="AY232">
+        <v>10</v>
+      </c>
+      <c r="AZ232">
+        <v>15</v>
+      </c>
+      <c r="BA232">
+        <v>0</v>
+      </c>
+      <c r="BB232">
         <v>3</v>
       </c>
-      <c r="AY232">
-        <v>14</v>
-      </c>
-      <c r="AZ232">
-        <v>13</v>
-      </c>
-      <c r="BA232">
-        <v>4</v>
-      </c>
-      <c r="BB232">
-        <v>2</v>
-      </c>
       <c r="BC232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49335,7 +49332,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7820548</v>
+        <v>7820551</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49350,25 +49347,25 @@
         <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H234" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N234">
         <v>3</v>
@@ -49377,68 +49374,68 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="Q234">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R234">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T234">
+        <v>1.53</v>
+      </c>
+      <c r="U234">
+        <v>2.38</v>
+      </c>
+      <c r="V234">
+        <v>3.5</v>
+      </c>
+      <c r="W234">
+        <v>1.29</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>1.95</v>
+      </c>
+      <c r="AA234">
+        <v>3.1</v>
+      </c>
+      <c r="AB234">
+        <v>4.33</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>1.5</v>
+      </c>
+      <c r="AF234">
+        <v>2.4</v>
+      </c>
+      <c r="AG234">
+        <v>2.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.5</v>
+      </c>
+      <c r="AI234">
+        <v>2.1</v>
+      </c>
+      <c r="AJ234">
         <v>1.67</v>
       </c>
-      <c r="U234">
-        <v>2.1</v>
-      </c>
-      <c r="V234">
-        <v>4.33</v>
-      </c>
-      <c r="W234">
-        <v>1.2</v>
-      </c>
-      <c r="X234">
-        <v>15</v>
-      </c>
-      <c r="Y234">
-        <v>1.03</v>
-      </c>
-      <c r="Z234">
-        <v>2.9</v>
-      </c>
-      <c r="AA234">
-        <v>2.63</v>
-      </c>
-      <c r="AB234">
-        <v>2.9</v>
-      </c>
-      <c r="AC234">
-        <v>0</v>
-      </c>
-      <c r="AD234">
-        <v>0</v>
-      </c>
-      <c r="AE234">
-        <v>1.65</v>
-      </c>
-      <c r="AF234">
-        <v>2.15</v>
-      </c>
-      <c r="AG234">
-        <v>3.1</v>
-      </c>
-      <c r="AH234">
-        <v>1.36</v>
-      </c>
-      <c r="AI234">
-        <v>2.25</v>
-      </c>
-      <c r="AJ234">
-        <v>1.57</v>
-      </c>
       <c r="AK234">
         <v>0</v>
       </c>
@@ -49449,52 +49446,52 @@
         <v>0</v>
       </c>
       <c r="AN234">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO234">
-        <v>1.14</v>
+        <v>0.13</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ234">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR234">
-        <v>1.13</v>
+        <v>2.12</v>
       </c>
       <c r="AS234">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AT234">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
+        <v>5</v>
+      </c>
+      <c r="AV234">
+        <v>8</v>
+      </c>
+      <c r="AW234">
+        <v>8</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>14</v>
+      </c>
+      <c r="AZ234">
+        <v>13</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
+        <v>2</v>
+      </c>
+      <c r="BC234">
         <v>6</v>
-      </c>
-      <c r="AV234">
-        <v>7</v>
-      </c>
-      <c r="AW234">
-        <v>3</v>
-      </c>
-      <c r="AX234">
-        <v>7</v>
-      </c>
-      <c r="AY234">
-        <v>10</v>
-      </c>
-      <c r="AZ234">
-        <v>15</v>
-      </c>
-      <c r="BA234">
-        <v>0</v>
-      </c>
-      <c r="BB234">
-        <v>3</v>
-      </c>
-      <c r="BC234">
-        <v>3</v>
       </c>
       <c r="BD234">
         <v>0</v>
@@ -49789,7 +49786,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -49870,7 +49867,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR236">
         <v>1.81</v>
@@ -50159,7 +50156,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7820552</v>
+        <v>7820554</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50174,94 +50171,94 @@
         <v>16</v>
       </c>
       <c r="G238" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H238" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O238" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P238" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="Q238">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R238">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S238">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T238">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U238">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V238">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W238">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X238">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y238">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z238">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AA238">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AB238">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC238">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="AD238">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AE238">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AF238">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AG238">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH238">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI238">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ238">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AK238">
         <v>0</v>
@@ -50273,52 +50270,52 @@
         <v>0</v>
       </c>
       <c r="AN238">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="AO238">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="AP238">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ238">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AR238">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS238">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AT238">
-        <v>2.66</v>
+        <v>3.03</v>
       </c>
       <c r="AU238">
+        <v>5</v>
+      </c>
+      <c r="AV238">
+        <v>8</v>
+      </c>
+      <c r="AW238">
         <v>6</v>
       </c>
-      <c r="AV238">
+      <c r="AX238">
+        <v>8</v>
+      </c>
+      <c r="AY238">
+        <v>12</v>
+      </c>
+      <c r="AZ238">
+        <v>19</v>
+      </c>
+      <c r="BA238">
+        <v>4</v>
+      </c>
+      <c r="BB238">
+        <v>2</v>
+      </c>
+      <c r="BC238">
         <v>6</v>
-      </c>
-      <c r="AW238">
-        <v>8</v>
-      </c>
-      <c r="AX238">
-        <v>3</v>
-      </c>
-      <c r="AY238">
-        <v>18</v>
-      </c>
-      <c r="AZ238">
-        <v>9</v>
-      </c>
-      <c r="BA238">
-        <v>13</v>
-      </c>
-      <c r="BB238">
-        <v>3</v>
-      </c>
-      <c r="BC238">
-        <v>16</v>
       </c>
       <c r="BD238">
         <v>0</v>
@@ -50365,7 +50362,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7820554</v>
+        <v>7820552</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50380,151 +50377,151 @@
         <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H239" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>113</v>
+      </c>
+      <c r="P239" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q239">
+        <v>3.4</v>
+      </c>
+      <c r="R239">
+        <v>1.83</v>
+      </c>
+      <c r="S239">
+        <v>4.33</v>
+      </c>
+      <c r="T239">
+        <v>1.67</v>
+      </c>
+      <c r="U239">
+        <v>2.1</v>
+      </c>
+      <c r="V239">
+        <v>4.33</v>
+      </c>
+      <c r="W239">
+        <v>1.2</v>
+      </c>
+      <c r="X239">
+        <v>15</v>
+      </c>
+      <c r="Y239">
+        <v>1.03</v>
+      </c>
+      <c r="Z239">
+        <v>2.4</v>
+      </c>
+      <c r="AA239">
         <v>3</v>
       </c>
-      <c r="N239">
+      <c r="AB239">
+        <v>3.2</v>
+      </c>
+      <c r="AC239">
+        <v>3.36</v>
+      </c>
+      <c r="AD239">
+        <v>1.33</v>
+      </c>
+      <c r="AE239">
+        <v>1.67</v>
+      </c>
+      <c r="AF239">
+        <v>2.05</v>
+      </c>
+      <c r="AG239">
+        <v>3.1</v>
+      </c>
+      <c r="AH239">
+        <v>1.36</v>
+      </c>
+      <c r="AI239">
+        <v>2.5</v>
+      </c>
+      <c r="AJ239">
+        <v>1.5</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>1.29</v>
+      </c>
+      <c r="AO239">
+        <v>1.43</v>
+      </c>
+      <c r="AP239">
+        <v>1.5</v>
+      </c>
+      <c r="AQ239">
+        <v>1.44</v>
+      </c>
+      <c r="AR239">
+        <v>1.5</v>
+      </c>
+      <c r="AS239">
+        <v>1.16</v>
+      </c>
+      <c r="AT239">
+        <v>2.66</v>
+      </c>
+      <c r="AU239">
+        <v>6</v>
+      </c>
+      <c r="AV239">
+        <v>6</v>
+      </c>
+      <c r="AW239">
+        <v>8</v>
+      </c>
+      <c r="AX239">
         <v>3</v>
       </c>
-      <c r="O239" t="s">
-        <v>100</v>
-      </c>
-      <c r="P239" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q239">
-        <v>3.6</v>
-      </c>
-      <c r="R239">
-        <v>1.91</v>
-      </c>
-      <c r="S239">
-        <v>3.6</v>
-      </c>
-      <c r="T239">
-        <v>1.57</v>
-      </c>
-      <c r="U239">
-        <v>2.25</v>
-      </c>
-      <c r="V239">
-        <v>3.75</v>
-      </c>
-      <c r="W239">
-        <v>1.25</v>
-      </c>
-      <c r="X239">
+      <c r="AY239">
+        <v>18</v>
+      </c>
+      <c r="AZ239">
+        <v>9</v>
+      </c>
+      <c r="BA239">
         <v>13</v>
       </c>
-      <c r="Y239">
-        <v>1.04</v>
-      </c>
-      <c r="Z239">
-        <v>2.7</v>
-      </c>
-      <c r="AA239">
-        <v>2.88</v>
-      </c>
-      <c r="AB239">
-        <v>2.8</v>
-      </c>
-      <c r="AC239">
-        <v>0</v>
-      </c>
-      <c r="AD239">
-        <v>0</v>
-      </c>
-      <c r="AE239">
-        <v>1.55</v>
-      </c>
-      <c r="AF239">
-        <v>2.3</v>
-      </c>
-      <c r="AG239">
-        <v>2.7</v>
-      </c>
-      <c r="AH239">
-        <v>1.44</v>
-      </c>
-      <c r="AI239">
-        <v>2.2</v>
-      </c>
-      <c r="AJ239">
-        <v>1.62</v>
-      </c>
-      <c r="AK239">
-        <v>0</v>
-      </c>
-      <c r="AL239">
-        <v>0</v>
-      </c>
-      <c r="AM239">
-        <v>0</v>
-      </c>
-      <c r="AN239">
-        <v>0.88</v>
-      </c>
-      <c r="AO239">
-        <v>0.57</v>
-      </c>
-      <c r="AP239">
-        <v>0.78</v>
-      </c>
-      <c r="AQ239">
-        <v>0.88</v>
-      </c>
-      <c r="AR239">
-        <v>1.49</v>
-      </c>
-      <c r="AS239">
-        <v>1.54</v>
-      </c>
-      <c r="AT239">
-        <v>3.03</v>
-      </c>
-      <c r="AU239">
-        <v>5</v>
-      </c>
-      <c r="AV239">
-        <v>8</v>
-      </c>
-      <c r="AW239">
-        <v>6</v>
-      </c>
-      <c r="AX239">
-        <v>8</v>
-      </c>
-      <c r="AY239">
-        <v>12</v>
-      </c>
-      <c r="AZ239">
-        <v>19</v>
-      </c>
-      <c r="BA239">
-        <v>4</v>
-      </c>
       <c r="BB239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC239">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD239">
         <v>0</v>
@@ -50897,7 +50894,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AQ241">
         <v>0.88</v>
@@ -51025,7 +51022,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51437,7 +51434,7 @@
         <v>100</v>
       </c>
       <c r="P244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q244">
         <v>2.4</v>
@@ -52055,7 +52052,7 @@
         <v>241</v>
       </c>
       <c r="P247" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q247">
         <v>2.2</v>
@@ -52261,7 +52258,7 @@
         <v>242</v>
       </c>
       <c r="P248" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q248">
         <v>2.63</v>
@@ -52418,212 +52415,6 @@
       </c>
       <c r="BP248">
         <v>1.2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:68">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
-      <c r="B249">
-        <v>7893362</v>
-      </c>
-      <c r="C249" t="s">
-        <v>68</v>
-      </c>
-      <c r="D249" t="s">
-        <v>69</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45789.85416666666</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249" t="s">
-        <v>95</v>
-      </c>
-      <c r="H249" t="s">
-        <v>75</v>
-      </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-      <c r="J249">
-        <v>0</v>
-      </c>
-      <c r="K249">
-        <v>2</v>
-      </c>
-      <c r="L249">
-        <v>3</v>
-      </c>
-      <c r="M249">
-        <v>0</v>
-      </c>
-      <c r="N249">
-        <v>3</v>
-      </c>
-      <c r="O249" t="s">
-        <v>243</v>
-      </c>
-      <c r="P249" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q249">
-        <v>1.83</v>
-      </c>
-      <c r="R249">
-        <v>2.25</v>
-      </c>
-      <c r="S249">
-        <v>10</v>
-      </c>
-      <c r="T249">
-        <v>1.44</v>
-      </c>
-      <c r="U249">
-        <v>2.63</v>
-      </c>
-      <c r="V249">
-        <v>3</v>
-      </c>
-      <c r="W249">
-        <v>1.36</v>
-      </c>
-      <c r="X249">
-        <v>9</v>
-      </c>
-      <c r="Y249">
-        <v>1.07</v>
-      </c>
-      <c r="Z249">
-        <v>1.29</v>
-      </c>
-      <c r="AA249">
-        <v>4.31</v>
-      </c>
-      <c r="AB249">
-        <v>8.4</v>
-      </c>
-      <c r="AC249">
-        <v>1.07</v>
-      </c>
-      <c r="AD249">
-        <v>8</v>
-      </c>
-      <c r="AE249">
-        <v>1.36</v>
-      </c>
-      <c r="AF249">
-        <v>2.9</v>
-      </c>
-      <c r="AG249">
-        <v>2.1</v>
-      </c>
-      <c r="AH249">
-        <v>1.7</v>
-      </c>
-      <c r="AI249">
-        <v>2.63</v>
-      </c>
-      <c r="AJ249">
-        <v>1.44</v>
-      </c>
-      <c r="AK249">
-        <v>1.06</v>
-      </c>
-      <c r="AL249">
-        <v>1.2</v>
-      </c>
-      <c r="AM249">
-        <v>3</v>
-      </c>
-      <c r="AN249">
-        <v>1.94</v>
-      </c>
-      <c r="AO249">
-        <v>1.63</v>
-      </c>
-      <c r="AP249">
-        <v>2</v>
-      </c>
-      <c r="AQ249">
-        <v>1.53</v>
-      </c>
-      <c r="AR249">
-        <v>1.88</v>
-      </c>
-      <c r="AS249">
-        <v>1.29</v>
-      </c>
-      <c r="AT249">
-        <v>3.17</v>
-      </c>
-      <c r="AU249">
-        <v>11</v>
-      </c>
-      <c r="AV249">
-        <v>2</v>
-      </c>
-      <c r="AW249">
-        <v>4</v>
-      </c>
-      <c r="AX249">
-        <v>3</v>
-      </c>
-      <c r="AY249">
-        <v>18</v>
-      </c>
-      <c r="AZ249">
-        <v>7</v>
-      </c>
-      <c r="BA249">
-        <v>3</v>
-      </c>
-      <c r="BB249">
-        <v>4</v>
-      </c>
-      <c r="BC249">
-        <v>7</v>
-      </c>
-      <c r="BD249">
-        <v>1.17</v>
-      </c>
-      <c r="BE249">
-        <v>9</v>
-      </c>
-      <c r="BF249">
-        <v>5.4</v>
-      </c>
-      <c r="BG249">
-        <v>1.37</v>
-      </c>
-      <c r="BH249">
-        <v>2.8</v>
-      </c>
-      <c r="BI249">
-        <v>1.62</v>
-      </c>
-      <c r="BJ249">
-        <v>2.14</v>
-      </c>
-      <c r="BK249">
-        <v>1.96</v>
-      </c>
-      <c r="BL249">
-        <v>1.73</v>
-      </c>
-      <c r="BM249">
-        <v>2.48</v>
-      </c>
-      <c r="BN249">
-        <v>1.47</v>
-      </c>
-      <c r="BO249">
-        <v>3.15</v>
-      </c>
-      <c r="BP249">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,10 +559,10 @@
     <t>['38', '55']</t>
   </si>
   <si>
-    <t>['33', '54']</t>
+    <t>['25']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['33', '54']</t>
   </si>
   <si>
     <t>['69', '88']</t>
@@ -613,10 +613,10 @@
     <t>['5', '45+3']</t>
   </si>
   <si>
-    <t>['45+1']</t>
+    <t>['58', '90+1']</t>
   </si>
   <si>
-    <t>['58', '90+1']</t>
+    <t>['45+1']</t>
   </si>
   <si>
     <t>['24', '48', '68']</t>
@@ -625,19 +625,19 @@
     <t>['16', '65']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['29']</t>
   </si>
   <si>
-    <t>['29']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['5', '12', '24', '31']</t>
+    <t>['42', '46', '55', '75']</t>
   </si>
   <si>
-    <t>['42', '46', '55', '75']</t>
+    <t>['5', '12', '24', '31']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -709,22 +709,22 @@
     <t>['24', '87']</t>
   </si>
   <si>
-    <t>['26', '27', '60', '65']</t>
+    <t>['1', '35', '63']</t>
+  </si>
+  <si>
+    <t>['18', '71', '82']</t>
   </si>
   <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['18', '71', '82']</t>
+    <t>['26', '27', '60', '65']</t>
   </si>
   <si>
-    <t>['1', '35', '63']</t>
+    <t>['13']</t>
   </si>
   <si>
     <t>['36', '62', '83']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['45+3']</t>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>['45+2', '69', '78']</t>
+  </si>
+  <si>
+    <t>['12', '43', '88']</t>
   </si>
   <si>
     <t>['18', '26', '48']</t>
@@ -916,10 +919,10 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['56', '81']</t>
+    <t>['13', '74']</t>
   </si>
   <si>
-    <t>['13', '74']</t>
+    <t>['56', '81']</t>
   </si>
   <si>
     <t>['38', '62', '76']</t>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP248"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1585,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1994,7 +1997,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2406,7 +2409,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2612,7 +2615,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3230,7 +3233,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5084,7 +5087,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5577,7 +5580,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5702,7 +5705,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5908,7 +5911,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6114,7 +6117,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6526,7 +6529,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6810,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6938,7 +6941,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9410,7 +9413,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10028,7 +10031,7 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10440,7 +10443,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10646,7 +10649,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10727,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR46">
         <v>2.39</v>
@@ -10852,7 +10855,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11058,7 +11061,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11676,7 +11679,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12294,7 +12297,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12578,7 +12581,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -13118,7 +13121,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>3.5</v>
@@ -13736,7 +13739,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14972,7 +14975,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16208,7 +16211,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17032,7 +17035,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -17238,7 +17241,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17319,7 +17322,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17650,7 +17653,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17856,7 +17859,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18062,7 +18065,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18346,7 +18349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ83">
         <v>0.89</v>
@@ -18680,7 +18683,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19504,7 +19507,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19710,7 +19713,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20122,7 +20125,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20946,7 +20949,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21152,7 +21155,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21976,7 +21979,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23418,7 +23421,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23624,7 +23627,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23702,7 +23705,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ109">
         <v>0.7</v>
@@ -24036,7 +24039,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24448,7 +24451,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24654,7 +24657,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24860,7 +24863,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25066,7 +25069,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25272,7 +25275,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26096,7 +26099,7 @@
         <v>175</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>4.33</v>
@@ -26302,7 +26305,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26508,7 +26511,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26714,7 +26717,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q124">
         <v>2.63</v>
@@ -27207,7 +27210,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>2.03</v>
@@ -27538,7 +27541,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27822,7 +27825,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -27908,7 +27911,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7820445</v>
+        <v>7820446</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27923,154 +27926,154 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H130" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P130" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="Q130">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R130">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S130">
+        <v>5.5</v>
+      </c>
+      <c r="T130">
+        <v>1.67</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
         <v>4.33</v>
       </c>
-      <c r="T130">
-        <v>1.57</v>
-      </c>
-      <c r="U130">
-        <v>2.25</v>
-      </c>
-      <c r="V130">
-        <v>3.75</v>
-      </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X130">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y130">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z130">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="AA130">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="AB130">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="AC130">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AD130">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="AE130">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AF130">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="AG130">
+        <v>2.88</v>
+      </c>
+      <c r="AH130">
+        <v>1.4</v>
+      </c>
+      <c r="AI130">
         <v>2.5</v>
       </c>
-      <c r="AH130">
+      <c r="AJ130">
         <v>1.5</v>
       </c>
-      <c r="AI130">
-        <v>2.2</v>
-      </c>
-      <c r="AJ130">
-        <v>1.62</v>
-      </c>
       <c r="AK130">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL130">
         <v>1.36</v>
       </c>
       <c r="AM130">
+        <v>1.77</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>1.75</v>
+      </c>
+      <c r="AP130">
+        <v>2</v>
+      </c>
+      <c r="AQ130">
+        <v>1</v>
+      </c>
+      <c r="AR130">
+        <v>1.36</v>
+      </c>
+      <c r="AS130">
+        <v>1.31</v>
+      </c>
+      <c r="AT130">
+        <v>2.67</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>2</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>18</v>
+      </c>
+      <c r="AZ130">
+        <v>7</v>
+      </c>
+      <c r="BA130">
+        <v>11</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>12</v>
+      </c>
+      <c r="BD130">
         <v>1.61</v>
-      </c>
-      <c r="AN130">
-        <v>0.75</v>
-      </c>
-      <c r="AO130">
-        <v>0.25</v>
-      </c>
-      <c r="AP130">
-        <v>1.38</v>
-      </c>
-      <c r="AQ130">
-        <v>0.88</v>
-      </c>
-      <c r="AR130">
-        <v>1.81</v>
-      </c>
-      <c r="AS130">
-        <v>1.5</v>
-      </c>
-      <c r="AT130">
-        <v>3.31</v>
-      </c>
-      <c r="AU130">
-        <v>5</v>
-      </c>
-      <c r="AV130">
-        <v>4</v>
-      </c>
-      <c r="AW130">
-        <v>10</v>
-      </c>
-      <c r="AX130">
-        <v>2</v>
-      </c>
-      <c r="AY130">
-        <v>17</v>
-      </c>
-      <c r="AZ130">
-        <v>6</v>
-      </c>
-      <c r="BA130">
-        <v>5</v>
-      </c>
-      <c r="BB130">
-        <v>3</v>
-      </c>
-      <c r="BC130">
-        <v>8</v>
-      </c>
-      <c r="BD130">
-        <v>1.63</v>
       </c>
       <c r="BE130">
         <v>6.4</v>
@@ -28079,34 +28082,34 @@
         <v>2.55</v>
       </c>
       <c r="BG130">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BH130">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BI130">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BJ130">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="BK130">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="BL130">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BM130">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="BN130">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BO130">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="BP130">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28114,7 +28117,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7820446</v>
+        <v>7820445</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28129,154 +28132,154 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H131" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="P131" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="Q131">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R131">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S131">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T131">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U131">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V131">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y131">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z131">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="AA131">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="AB131">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="AC131">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AD131">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE131">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AF131">
+        <v>2.37</v>
+      </c>
+      <c r="AG131">
+        <v>2.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.5</v>
+      </c>
+      <c r="AI131">
         <v>2.2</v>
       </c>
-      <c r="AG131">
-        <v>2.88</v>
-      </c>
-      <c r="AH131">
-        <v>1.4</v>
-      </c>
-      <c r="AI131">
-        <v>2.5</v>
-      </c>
       <c r="AJ131">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AK131">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL131">
         <v>1.36</v>
       </c>
       <c r="AM131">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AN131">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AO131">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR131">
-        <v>1.36</v>
+        <v>1.81</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AT131">
-        <v>2.67</v>
+        <v>3.31</v>
       </c>
       <c r="AU131">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW131">
+        <v>10</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>6</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
         <v>8</v>
       </c>
-      <c r="AX131">
-        <v>3</v>
-      </c>
-      <c r="AY131">
-        <v>18</v>
-      </c>
-      <c r="AZ131">
-        <v>7</v>
-      </c>
-      <c r="BA131">
-        <v>11</v>
-      </c>
-      <c r="BB131">
-        <v>1</v>
-      </c>
-      <c r="BC131">
-        <v>12</v>
-      </c>
       <c r="BD131">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BE131">
         <v>6.4</v>
@@ -28285,34 +28288,34 @@
         <v>2.55</v>
       </c>
       <c r="BG131">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BH131">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BI131">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="BJ131">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="BK131">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="BL131">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BM131">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="BN131">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO131">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="BP131">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28362,7 +28365,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28526,7 +28529,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7820448</v>
+        <v>7820449</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28541,55 +28544,55 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H133" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="P133" t="s">
         <v>100</v>
       </c>
       <c r="Q133">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R133">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T133">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U133">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V133">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W133">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X133">
         <v>13</v>
@@ -28598,31 +28601,31 @@
         <v>1.04</v>
       </c>
       <c r="Z133">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AA133">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AB133">
-        <v>3.69</v>
+        <v>4.5</v>
       </c>
       <c r="AC133">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AD133">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AE133">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF133">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AG133">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AH133">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI133">
         <v>2.2</v>
@@ -28631,100 +28634,100 @@
         <v>1.62</v>
       </c>
       <c r="AK133">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AL133">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AM133">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AN133">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AO133">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.88</v>
+        <v>0.63</v>
       </c>
       <c r="AQ133">
-        <v>0.14</v>
+        <v>1.56</v>
       </c>
       <c r="AR133">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="AU133">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV133">
         <v>3</v>
       </c>
       <c r="AW133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>19</v>
+      </c>
+      <c r="AZ133">
+        <v>6</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
         <v>8</v>
       </c>
-      <c r="AY133">
-        <v>11</v>
-      </c>
-      <c r="AZ133">
-        <v>13</v>
-      </c>
-      <c r="BA133">
-        <v>5</v>
-      </c>
-      <c r="BB133">
-        <v>5</v>
-      </c>
-      <c r="BC133">
-        <v>10</v>
-      </c>
       <c r="BD133">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="BE133">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF133">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="BG133">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="BH133">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="BI133">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BJ133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BK133">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="BL133">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BM133">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BN133">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BO133">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BP133">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28732,7 +28735,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7820449</v>
+        <v>7820448</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28747,55 +28750,55 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H134" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="P134" t="s">
         <v>100</v>
       </c>
       <c r="Q134">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S134">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T134">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U134">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W134">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X134">
         <v>13</v>
@@ -28804,31 +28807,31 @@
         <v>1.04</v>
       </c>
       <c r="Z134">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AA134">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AB134">
-        <v>4.5</v>
+        <v>3.69</v>
       </c>
       <c r="AC134">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AD134">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AE134">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AF134">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AG134">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AH134">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AI134">
         <v>2.2</v>
@@ -28837,100 +28840,100 @@
         <v>1.62</v>
       </c>
       <c r="AK134">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AL134">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AM134">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AO134">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AP134">
-        <v>0.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.56</v>
+        <v>0.14</v>
       </c>
       <c r="AR134">
-        <v>2.28</v>
+        <v>1.65</v>
       </c>
       <c r="AS134">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT134">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="AU134">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV134">
         <v>3</v>
       </c>
       <c r="AW134">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AX134">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY134">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC134">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD134">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="BE134">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF134">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BG134">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="BH134">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="BI134">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BJ134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BK134">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="BL134">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BM134">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BN134">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="BO134">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BP134">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28980,7 +28983,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29556,7 +29559,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7820454</v>
+        <v>7820453</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29571,10 +29574,10 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H138" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29586,175 +29589,175 @@
         <v>2</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O138" t="s">
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="Q138">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R138">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.5</v>
+      </c>
+      <c r="W138">
+        <v>1.29</v>
+      </c>
+      <c r="X138">
+        <v>11</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
         <v>1.62</v>
       </c>
-      <c r="U138">
+      <c r="AA138">
+        <v>3.6</v>
+      </c>
+      <c r="AB138">
+        <v>6</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.42</v>
+      </c>
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>2.3</v>
+      </c>
+      <c r="AH138">
+        <v>1.6</v>
+      </c>
+      <c r="AI138">
         <v>2.2</v>
       </c>
-      <c r="V138">
-        <v>4</v>
-      </c>
-      <c r="W138">
-        <v>1.22</v>
-      </c>
-      <c r="X138">
-        <v>13</v>
-      </c>
-      <c r="Y138">
-        <v>1.04</v>
-      </c>
-      <c r="Z138">
-        <v>1.91</v>
-      </c>
-      <c r="AA138">
-        <v>3.1</v>
-      </c>
-      <c r="AB138">
-        <v>4.75</v>
-      </c>
-      <c r="AC138">
-        <v>1.11</v>
-      </c>
-      <c r="AD138">
-        <v>6.25</v>
-      </c>
-      <c r="AE138">
-        <v>1.51</v>
-      </c>
-      <c r="AF138">
-        <v>2.35</v>
-      </c>
-      <c r="AG138">
-        <v>2.7</v>
-      </c>
-      <c r="AH138">
-        <v>1.44</v>
-      </c>
-      <c r="AI138">
-        <v>2.25</v>
-      </c>
       <c r="AJ138">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AK138">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AL138">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM138">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AN138">
         <v>3</v>
       </c>
       <c r="AO138">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP138">
+        <v>2</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>1.9</v>
+      </c>
+      <c r="AS138">
+        <v>1.47</v>
+      </c>
+      <c r="AT138">
+        <v>3.37</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
         <v>3</v>
       </c>
-      <c r="AQ138">
-        <v>0.5</v>
-      </c>
-      <c r="AR138">
-        <v>1.28</v>
-      </c>
-      <c r="AS138">
-        <v>1.07</v>
-      </c>
-      <c r="AT138">
-        <v>2.35</v>
-      </c>
-      <c r="AU138">
-        <v>6</v>
-      </c>
-      <c r="AV138">
-        <v>6</v>
-      </c>
       <c r="AW138">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX138">
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ138">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
         <v>4</v>
       </c>
-      <c r="BB138">
-        <v>3</v>
-      </c>
       <c r="BC138">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD138">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BE138">
         <v>6.75</v>
       </c>
       <c r="BF138">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BG138">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BH138">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BI138">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BJ138">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="BK138">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BL138">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BM138">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BN138">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO138">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BP138">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29762,7 +29765,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7820453</v>
+        <v>7820454</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29777,10 +29780,10 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -29792,175 +29795,175 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O139" t="s">
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="Q139">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S139">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U139">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W139">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X139">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y139">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z139">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AA139">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB139">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AC139">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AD139">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AE139">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AF139">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AG139">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH139">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI139">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ139">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK139">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AL139">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM139">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AN139">
         <v>3</v>
       </c>
       <c r="AO139">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AS139">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AT139">
-        <v>3.37</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
         <v>3</v>
-      </c>
-      <c r="AW139">
-        <v>10</v>
       </c>
       <c r="AX139">
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC139">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD139">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BE139">
         <v>6.75</v>
       </c>
       <c r="BF139">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BG139">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BH139">
+        <v>2.7</v>
+      </c>
+      <c r="BI139">
+        <v>1.66</v>
+      </c>
+      <c r="BJ139">
+        <v>2.07</v>
+      </c>
+      <c r="BK139">
+        <v>2.05</v>
+      </c>
+      <c r="BL139">
+        <v>1.67</v>
+      </c>
+      <c r="BM139">
         <v>2.55</v>
       </c>
-      <c r="BI139">
-        <v>1.73</v>
-      </c>
-      <c r="BJ139">
-        <v>1.97</v>
-      </c>
-      <c r="BK139">
-        <v>2.15</v>
-      </c>
-      <c r="BL139">
-        <v>1.61</v>
-      </c>
-      <c r="BM139">
-        <v>2.8</v>
-      </c>
       <c r="BN139">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="BO139">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="BP139">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29968,7 +29971,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7820455</v>
+        <v>7820456</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29983,10 +29986,10 @@
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29998,28 +30001,28 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="P140" t="s">
         <v>100</v>
       </c>
       <c r="Q140">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="R140">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="T140">
         <v>1.57</v>
@@ -30028,145 +30031,145 @@
         <v>2.25</v>
       </c>
       <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>11</v>
+      </c>
+      <c r="Y140">
+        <v>1.05</v>
+      </c>
+      <c r="Z140">
         <v>4</v>
       </c>
-      <c r="W140">
-        <v>1.22</v>
-      </c>
-      <c r="X140">
-        <v>13</v>
-      </c>
-      <c r="Y140">
-        <v>1.04</v>
-      </c>
-      <c r="Z140">
-        <v>1.75</v>
-      </c>
       <c r="AA140">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC140">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD140">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE140">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AF140">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AG140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH140">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI140">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ140">
+        <v>1.62</v>
+      </c>
+      <c r="AK140">
+        <v>1.51</v>
+      </c>
+      <c r="AL140">
+        <v>1.35</v>
+      </c>
+      <c r="AM140">
+        <v>1.38</v>
+      </c>
+      <c r="AN140">
         <v>1.5</v>
       </c>
-      <c r="AK140">
-        <v>1.17</v>
-      </c>
-      <c r="AL140">
-        <v>1.34</v>
-      </c>
-      <c r="AM140">
-        <v>1.93</v>
-      </c>
-      <c r="AN140">
-        <v>2.5</v>
-      </c>
       <c r="AO140">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR140">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AS140">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="AT140">
-        <v>2.96</v>
+        <v>4.02</v>
       </c>
       <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>8</v>
+      </c>
+      <c r="AW140">
         <v>6</v>
       </c>
-      <c r="AV140">
-        <v>2</v>
-      </c>
-      <c r="AW140">
-        <v>2</v>
-      </c>
       <c r="AX140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY140">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
+        <v>18</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
         <v>7</v>
       </c>
-      <c r="BA140">
-        <v>1</v>
-      </c>
-      <c r="BB140">
-        <v>4</v>
-      </c>
       <c r="BC140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD140">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE140">
         <v>6.4</v>
       </c>
       <c r="BF140">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="BG140">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BH140">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BI140">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="BJ140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BK140">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="BL140">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="BM140">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BN140">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BO140">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BP140">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30174,7 +30177,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7820456</v>
+        <v>7820455</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30189,10 +30192,10 @@
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -30204,28 +30207,28 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="P141" t="s">
         <v>100</v>
       </c>
       <c r="Q141">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S141">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="T141">
         <v>1.57</v>
@@ -30234,145 +30237,145 @@
         <v>2.25</v>
       </c>
       <c r="V141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X141">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y141">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z141">
+        <v>1.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.5</v>
+      </c>
+      <c r="AB141">
+        <v>5</v>
+      </c>
+      <c r="AC141">
+        <v>1.11</v>
+      </c>
+      <c r="AD141">
+        <v>6.25</v>
+      </c>
+      <c r="AE141">
+        <v>1.53</v>
+      </c>
+      <c r="AF141">
+        <v>2.3</v>
+      </c>
+      <c r="AG141">
+        <v>2.6</v>
+      </c>
+      <c r="AH141">
+        <v>1.48</v>
+      </c>
+      <c r="AI141">
+        <v>2.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.5</v>
+      </c>
+      <c r="AK141">
+        <v>1.17</v>
+      </c>
+      <c r="AL141">
+        <v>1.34</v>
+      </c>
+      <c r="AM141">
+        <v>1.93</v>
+      </c>
+      <c r="AN141">
+        <v>2.5</v>
+      </c>
+      <c r="AO141">
+        <v>1.75</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>1.33</v>
+      </c>
+      <c r="AR141">
+        <v>1.7</v>
+      </c>
+      <c r="AS141">
+        <v>1.26</v>
+      </c>
+      <c r="AT141">
+        <v>2.96</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>2</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
         <v>4</v>
       </c>
-      <c r="AA141">
-        <v>3.3</v>
-      </c>
-      <c r="AB141">
-        <v>2</v>
-      </c>
-      <c r="AC141">
-        <v>1.1</v>
-      </c>
-      <c r="AD141">
-        <v>6.5</v>
-      </c>
-      <c r="AE141">
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>1</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>5</v>
+      </c>
+      <c r="BD141">
         <v>1.5</v>
-      </c>
-      <c r="AF141">
-        <v>2.55</v>
-      </c>
-      <c r="AG141">
-        <v>2.5</v>
-      </c>
-      <c r="AH141">
-        <v>1.5</v>
-      </c>
-      <c r="AI141">
-        <v>2.2</v>
-      </c>
-      <c r="AJ141">
-        <v>1.62</v>
-      </c>
-      <c r="AK141">
-        <v>1.51</v>
-      </c>
-      <c r="AL141">
-        <v>1.35</v>
-      </c>
-      <c r="AM141">
-        <v>1.38</v>
-      </c>
-      <c r="AN141">
-        <v>1.5</v>
-      </c>
-      <c r="AO141">
-        <v>1.33</v>
-      </c>
-      <c r="AP141">
-        <v>1.13</v>
-      </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
-      <c r="AR141">
-        <v>1.98</v>
-      </c>
-      <c r="AS141">
-        <v>2.04</v>
-      </c>
-      <c r="AT141">
-        <v>4.02</v>
-      </c>
-      <c r="AU141">
-        <v>3</v>
-      </c>
-      <c r="AV141">
-        <v>8</v>
-      </c>
-      <c r="AW141">
-        <v>6</v>
-      </c>
-      <c r="AX141">
-        <v>8</v>
-      </c>
-      <c r="AY141">
-        <v>10</v>
-      </c>
-      <c r="AZ141">
-        <v>18</v>
-      </c>
-      <c r="BA141">
-        <v>2</v>
-      </c>
-      <c r="BB141">
-        <v>7</v>
-      </c>
-      <c r="BC141">
-        <v>9</v>
-      </c>
-      <c r="BD141">
-        <v>2.23</v>
       </c>
       <c r="BE141">
         <v>6.4</v>
       </c>
       <c r="BF141">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="BG141">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BH141">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BI141">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="BJ141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BK141">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="BL141">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BM141">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BN141">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BO141">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BP141">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30915,7 +30918,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.68</v>
@@ -31246,7 +31249,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31452,7 +31455,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31658,7 +31661,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31864,7 +31867,7 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32070,7 +32073,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32688,7 +32691,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32894,7 +32897,7 @@
         <v>191</v>
       </c>
       <c r="P154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33100,7 +33103,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33264,7 +33267,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7820477</v>
+        <v>7820470</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33279,10 +33282,10 @@
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33294,175 +33297,175 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="Q156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R156">
         <v>1.8</v>
       </c>
       <c r="S156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T156">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V156">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W156">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y156">
         <v>1.03</v>
       </c>
       <c r="Z156">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AA156">
+        <v>2.9</v>
+      </c>
+      <c r="AB156">
+        <v>2.55</v>
+      </c>
+      <c r="AC156">
+        <v>1.12</v>
+      </c>
+      <c r="AD156">
+        <v>5.25</v>
+      </c>
+      <c r="AE156">
+        <v>1.52</v>
+      </c>
+      <c r="AF156">
+        <v>2.45</v>
+      </c>
+      <c r="AG156">
+        <v>3.1</v>
+      </c>
+      <c r="AH156">
+        <v>1.36</v>
+      </c>
+      <c r="AI156">
+        <v>2.38</v>
+      </c>
+      <c r="AJ156">
+        <v>1.53</v>
+      </c>
+      <c r="AK156">
+        <v>1.49</v>
+      </c>
+      <c r="AL156">
+        <v>1.4</v>
+      </c>
+      <c r="AM156">
+        <v>1.35</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>1.6</v>
+      </c>
+      <c r="AP156">
+        <v>1.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.5</v>
+      </c>
+      <c r="AR156">
+        <v>1.34</v>
+      </c>
+      <c r="AS156">
+        <v>1.34</v>
+      </c>
+      <c r="AT156">
+        <v>2.68</v>
+      </c>
+      <c r="AU156">
         <v>3</v>
       </c>
-      <c r="AB156">
-        <v>3.4</v>
-      </c>
-      <c r="AC156">
-        <v>1.13</v>
-      </c>
-      <c r="AD156">
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>2</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
         <v>5</v>
-      </c>
-      <c r="AE156">
-        <v>1.6</v>
-      </c>
-      <c r="AF156">
-        <v>2.28</v>
-      </c>
-      <c r="AG156">
-        <v>3.4</v>
-      </c>
-      <c r="AH156">
-        <v>1.33</v>
-      </c>
-      <c r="AI156">
-        <v>2.5</v>
-      </c>
-      <c r="AJ156">
-        <v>1.5</v>
-      </c>
-      <c r="AK156">
-        <v>1.34</v>
-      </c>
-      <c r="AL156">
-        <v>1.41</v>
-      </c>
-      <c r="AM156">
-        <v>1.49</v>
-      </c>
-      <c r="AN156">
-        <v>2</v>
-      </c>
-      <c r="AO156">
-        <v>1</v>
-      </c>
-      <c r="AP156">
-        <v>1.89</v>
-      </c>
-      <c r="AQ156">
-        <v>0.89</v>
-      </c>
-      <c r="AR156">
-        <v>1.71</v>
-      </c>
-      <c r="AS156">
-        <v>1.33</v>
-      </c>
-      <c r="AT156">
-        <v>3.04</v>
-      </c>
-      <c r="AU156">
-        <v>4</v>
-      </c>
-      <c r="AV156">
-        <v>6</v>
-      </c>
-      <c r="AW156">
-        <v>6</v>
-      </c>
-      <c r="AX156">
-        <v>12</v>
-      </c>
-      <c r="AY156">
-        <v>11</v>
-      </c>
-      <c r="AZ156">
-        <v>20</v>
       </c>
       <c r="BA156">
         <v>3</v>
       </c>
       <c r="BB156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC156">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD156">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BE156">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF156">
+        <v>2.18</v>
+      </c>
+      <c r="BG156">
+        <v>1.55</v>
+      </c>
+      <c r="BH156">
+        <v>2.28</v>
+      </c>
+      <c r="BI156">
+        <v>1.85</v>
+      </c>
+      <c r="BJ156">
+        <v>1.85</v>
+      </c>
+      <c r="BK156">
         <v>2.43</v>
       </c>
-      <c r="BG156">
-        <v>1.41</v>
-      </c>
-      <c r="BH156">
-        <v>2.65</v>
-      </c>
-      <c r="BI156">
-        <v>1.68</v>
-      </c>
-      <c r="BJ156">
-        <v>2.04</v>
-      </c>
-      <c r="BK156">
-        <v>1.93</v>
-      </c>
       <c r="BL156">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="BM156">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BN156">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO156">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="BP156">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33470,7 +33473,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7820470</v>
+        <v>7820477</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33485,10 +33488,10 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H157" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -33500,175 +33503,175 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O157" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="Q157">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R157">
         <v>1.8</v>
       </c>
       <c r="S157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T157">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W157">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X157">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y157">
         <v>1.03</v>
       </c>
       <c r="Z157">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA157">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB157">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC157">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD157">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AE157">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AF157">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AG157">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH157">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI157">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ157">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK157">
+        <v>1.34</v>
+      </c>
+      <c r="AL157">
+        <v>1.41</v>
+      </c>
+      <c r="AM157">
         <v>1.49</v>
       </c>
-      <c r="AL157">
-        <v>1.4</v>
-      </c>
-      <c r="AM157">
-        <v>1.35</v>
-      </c>
       <c r="AN157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO157">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR157">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AS157">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="AU157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX157">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY157">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BA157">
         <v>3</v>
       </c>
       <c r="BB157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD157">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BE157">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF157">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="BG157">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BH157">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BI157">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ157">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BK157">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="BL157">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="BM157">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BN157">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO157">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP157">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -34336,7 +34339,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34748,7 +34751,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34826,7 +34829,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34954,7 +34957,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35778,7 +35781,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35942,7 +35945,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7820494</v>
+        <v>7820491</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35957,151 +35960,151 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="Q169">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.62</v>
+      </c>
+      <c r="U169">
+        <v>2.2</v>
+      </c>
+      <c r="V169">
         <v>4</v>
       </c>
-      <c r="T169">
+      <c r="W169">
+        <v>1.22</v>
+      </c>
+      <c r="X169">
+        <v>13</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>4.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.14</v>
+      </c>
+      <c r="AD169">
+        <v>6.21</v>
+      </c>
+      <c r="AE169">
+        <v>1.53</v>
+      </c>
+      <c r="AF169">
+        <v>2.3</v>
+      </c>
+      <c r="AG169">
+        <v>2.7</v>
+      </c>
+      <c r="AH169">
+        <v>1.44</v>
+      </c>
+      <c r="AI169">
+        <v>2.25</v>
+      </c>
+      <c r="AJ169">
+        <v>1.57</v>
+      </c>
+      <c r="AK169">
+        <v>1.22</v>
+      </c>
+      <c r="AL169">
+        <v>1.33</v>
+      </c>
+      <c r="AM169">
         <v>1.73</v>
       </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>4.5</v>
-      </c>
-      <c r="W169">
-        <v>1.18</v>
-      </c>
-      <c r="X169">
-        <v>17</v>
-      </c>
-      <c r="Y169">
-        <v>1.03</v>
-      </c>
-      <c r="Z169">
+      <c r="AN169">
         <v>3</v>
       </c>
-      <c r="AA169">
-        <v>2.6</v>
-      </c>
-      <c r="AB169">
+      <c r="AO169">
+        <v>0.8</v>
+      </c>
+      <c r="AP169">
         <v>3</v>
       </c>
-      <c r="AC169">
-        <v>1.17</v>
-      </c>
-      <c r="AD169">
-        <v>5.36</v>
-      </c>
-      <c r="AE169">
-        <v>1.67</v>
-      </c>
-      <c r="AF169">
-        <v>2.05</v>
-      </c>
-      <c r="AG169">
-        <v>3.4</v>
-      </c>
-      <c r="AH169">
-        <v>1.33</v>
-      </c>
-      <c r="AI169">
-        <v>2.38</v>
-      </c>
-      <c r="AJ169">
-        <v>1.53</v>
-      </c>
-      <c r="AK169">
-        <v>1.44</v>
-      </c>
-      <c r="AL169">
-        <v>1.38</v>
-      </c>
-      <c r="AM169">
-        <v>1.38</v>
-      </c>
-      <c r="AN169">
-        <v>0.8</v>
-      </c>
-      <c r="AO169">
-        <v>1.4</v>
-      </c>
-      <c r="AP169">
-        <v>1.13</v>
-      </c>
       <c r="AQ169">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AS169">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="AT169">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="AU169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX169">
+        <v>1</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>5</v>
+      </c>
+      <c r="BA169">
+        <v>10</v>
+      </c>
+      <c r="BB169">
         <v>3</v>
       </c>
-      <c r="AY169">
-        <v>10</v>
-      </c>
-      <c r="AZ169">
-        <v>10</v>
-      </c>
-      <c r="BA169">
-        <v>1</v>
-      </c>
-      <c r="BB169">
-        <v>5</v>
-      </c>
       <c r="BC169">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD169">
         <v>1.67</v>
@@ -36119,25 +36122,25 @@
         <v>2.92</v>
       </c>
       <c r="BI169">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BJ169">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BK169">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BL169">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BM169">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN169">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO169">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="BP169">
         <v>1.2</v>
@@ -36148,7 +36151,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7820491</v>
+        <v>7820494</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36163,151 +36166,151 @@
         <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="Q170">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R170">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.73</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>4.5</v>
+      </c>
+      <c r="W170">
+        <v>1.18</v>
+      </c>
+      <c r="X170">
+        <v>17</v>
+      </c>
+      <c r="Y170">
+        <v>1.03</v>
+      </c>
+      <c r="Z170">
+        <v>3</v>
+      </c>
+      <c r="AA170">
+        <v>2.6</v>
+      </c>
+      <c r="AB170">
+        <v>3</v>
+      </c>
+      <c r="AC170">
+        <v>1.17</v>
+      </c>
+      <c r="AD170">
+        <v>5.36</v>
+      </c>
+      <c r="AE170">
+        <v>1.67</v>
+      </c>
+      <c r="AF170">
+        <v>2.05</v>
+      </c>
+      <c r="AG170">
+        <v>3.4</v>
+      </c>
+      <c r="AH170">
+        <v>1.33</v>
+      </c>
+      <c r="AI170">
+        <v>2.38</v>
+      </c>
+      <c r="AJ170">
+        <v>1.53</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>1.38</v>
+      </c>
+      <c r="AM170">
+        <v>1.38</v>
+      </c>
+      <c r="AN170">
+        <v>0.8</v>
+      </c>
+      <c r="AO170">
+        <v>1.4</v>
+      </c>
+      <c r="AP170">
+        <v>1.13</v>
+      </c>
+      <c r="AQ170">
+        <v>1.33</v>
+      </c>
+      <c r="AR170">
+        <v>1.06</v>
+      </c>
+      <c r="AS170">
+        <v>1.18</v>
+      </c>
+      <c r="AT170">
+        <v>2.24</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>3</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
         <v>5</v>
       </c>
-      <c r="T170">
-        <v>1.62</v>
-      </c>
-      <c r="U170">
-        <v>2.2</v>
-      </c>
-      <c r="V170">
-        <v>4</v>
-      </c>
-      <c r="W170">
-        <v>1.22</v>
-      </c>
-      <c r="X170">
-        <v>13</v>
-      </c>
-      <c r="Y170">
-        <v>1.04</v>
-      </c>
-      <c r="Z170">
-        <v>2</v>
-      </c>
-      <c r="AA170">
-        <v>3</v>
-      </c>
-      <c r="AB170">
-        <v>4.5</v>
-      </c>
-      <c r="AC170">
-        <v>1.14</v>
-      </c>
-      <c r="AD170">
-        <v>6.21</v>
-      </c>
-      <c r="AE170">
-        <v>1.53</v>
-      </c>
-      <c r="AF170">
-        <v>2.3</v>
-      </c>
-      <c r="AG170">
-        <v>2.7</v>
-      </c>
-      <c r="AH170">
-        <v>1.44</v>
-      </c>
-      <c r="AI170">
-        <v>2.25</v>
-      </c>
-      <c r="AJ170">
-        <v>1.57</v>
-      </c>
-      <c r="AK170">
-        <v>1.22</v>
-      </c>
-      <c r="AL170">
-        <v>1.33</v>
-      </c>
-      <c r="AM170">
-        <v>1.73</v>
-      </c>
-      <c r="AN170">
-        <v>3</v>
-      </c>
-      <c r="AO170">
-        <v>0.8</v>
-      </c>
-      <c r="AP170">
-        <v>3</v>
-      </c>
-      <c r="AQ170">
-        <v>0.88</v>
-      </c>
-      <c r="AR170">
-        <v>1.32</v>
-      </c>
-      <c r="AS170">
-        <v>0.98</v>
-      </c>
-      <c r="AT170">
-        <v>2.3</v>
-      </c>
-      <c r="AU170">
-        <v>5</v>
-      </c>
-      <c r="AV170">
-        <v>4</v>
-      </c>
-      <c r="AW170">
-        <v>4</v>
-      </c>
-      <c r="AX170">
-        <v>1</v>
-      </c>
-      <c r="AY170">
-        <v>9</v>
-      </c>
-      <c r="AZ170">
-        <v>5</v>
-      </c>
-      <c r="BA170">
-        <v>10</v>
-      </c>
-      <c r="BB170">
-        <v>3</v>
-      </c>
       <c r="BC170">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD170">
         <v>1.67</v>
@@ -36325,25 +36328,25 @@
         <v>2.92</v>
       </c>
       <c r="BI170">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BJ170">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BK170">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BL170">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BM170">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN170">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO170">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="BP170">
         <v>1.2</v>
@@ -36396,7 +36399,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>2.38</v>
@@ -36972,7 +36975,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7820487</v>
+        <v>7820482</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36987,16 +36990,16 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H174" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -37005,25 +37008,25 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O174" t="s">
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="Q174">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R174">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T174">
         <v>1.57</v>
@@ -37038,139 +37041,139 @@
         <v>1.25</v>
       </c>
       <c r="X174">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y174">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z174">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AA174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB174">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC174">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD174">
+        <v>7</v>
+      </c>
+      <c r="AE174">
+        <v>1.48</v>
+      </c>
+      <c r="AF174">
+        <v>2.62</v>
+      </c>
+      <c r="AG174">
+        <v>2.4</v>
+      </c>
+      <c r="AH174">
+        <v>1.53</v>
+      </c>
+      <c r="AI174">
+        <v>2.2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.62</v>
+      </c>
+      <c r="AK174">
+        <v>1.29</v>
+      </c>
+      <c r="AL174">
+        <v>1.34</v>
+      </c>
+      <c r="AM174">
+        <v>1.68</v>
+      </c>
+      <c r="AN174">
+        <v>1.33</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174">
+        <v>0.57</v>
+      </c>
+      <c r="AR174">
+        <v>1.83</v>
+      </c>
+      <c r="AS174">
+        <v>1.36</v>
+      </c>
+      <c r="AT174">
+        <v>3.19</v>
+      </c>
+      <c r="AU174">
+        <v>2</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>10</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>8</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>1.58</v>
+      </c>
+      <c r="BE174">
         <v>6.5</v>
       </c>
-      <c r="AE174">
-        <v>1.5</v>
-      </c>
-      <c r="AF174">
+      <c r="BF174">
+        <v>2.63</v>
+      </c>
+      <c r="BG174">
+        <v>1.49</v>
+      </c>
+      <c r="BH174">
         <v>2.4</v>
       </c>
-      <c r="AG174">
-        <v>2.6</v>
-      </c>
-      <c r="AH174">
-        <v>1.48</v>
-      </c>
-      <c r="AI174">
-        <v>2.1</v>
-      </c>
-      <c r="AJ174">
-        <v>1.67</v>
-      </c>
-      <c r="AK174">
-        <v>1.35</v>
-      </c>
-      <c r="AL174">
-        <v>1.35</v>
-      </c>
-      <c r="AM174">
-        <v>1.55</v>
-      </c>
-      <c r="AN174">
-        <v>1.6</v>
-      </c>
-      <c r="AO174">
-        <v>1.6</v>
-      </c>
-      <c r="AP174">
-        <v>1.63</v>
-      </c>
-      <c r="AQ174">
-        <v>1.13</v>
-      </c>
-      <c r="AR174">
-        <v>2.03</v>
-      </c>
-      <c r="AS174">
-        <v>0.99</v>
-      </c>
-      <c r="AT174">
-        <v>3.02</v>
-      </c>
-      <c r="AU174">
-        <v>5</v>
-      </c>
-      <c r="AV174">
-        <v>10</v>
-      </c>
-      <c r="AW174">
-        <v>2</v>
-      </c>
-      <c r="AX174">
-        <v>2</v>
-      </c>
-      <c r="AY174">
-        <v>7</v>
-      </c>
-      <c r="AZ174">
-        <v>12</v>
-      </c>
-      <c r="BA174">
-        <v>2</v>
-      </c>
-      <c r="BB174">
-        <v>2</v>
-      </c>
-      <c r="BC174">
-        <v>4</v>
-      </c>
-      <c r="BD174">
-        <v>1.94</v>
-      </c>
-      <c r="BE174">
-        <v>6.4</v>
-      </c>
-      <c r="BF174">
-        <v>2.07</v>
-      </c>
-      <c r="BG174">
-        <v>1.44</v>
-      </c>
-      <c r="BH174">
-        <v>2.55</v>
-      </c>
       <c r="BI174">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BJ174">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="BK174">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BL174">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="BM174">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="BN174">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BO174">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BP174">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37178,7 +37181,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7820482</v>
+        <v>7820487</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37193,16 +37196,16 @@
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H175" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -37211,25 +37214,25 @@
         <v>1</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q175">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T175">
         <v>1.57</v>
@@ -37244,139 +37247,139 @@
         <v>1.25</v>
       </c>
       <c r="X175">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y175">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z175">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="AA175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB175">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC175">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD175">
+        <v>6.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.5</v>
+      </c>
+      <c r="AF175">
+        <v>2.4</v>
+      </c>
+      <c r="AG175">
+        <v>2.6</v>
+      </c>
+      <c r="AH175">
+        <v>1.48</v>
+      </c>
+      <c r="AI175">
+        <v>2.1</v>
+      </c>
+      <c r="AJ175">
+        <v>1.67</v>
+      </c>
+      <c r="AK175">
+        <v>1.35</v>
+      </c>
+      <c r="AL175">
+        <v>1.35</v>
+      </c>
+      <c r="AM175">
+        <v>1.55</v>
+      </c>
+      <c r="AN175">
+        <v>1.6</v>
+      </c>
+      <c r="AO175">
+        <v>1.6</v>
+      </c>
+      <c r="AP175">
+        <v>1.63</v>
+      </c>
+      <c r="AQ175">
+        <v>1.13</v>
+      </c>
+      <c r="AR175">
+        <v>2.03</v>
+      </c>
+      <c r="AS175">
+        <v>0.99</v>
+      </c>
+      <c r="AT175">
+        <v>3.02</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>10</v>
+      </c>
+      <c r="AW175">
+        <v>2</v>
+      </c>
+      <c r="AX175">
+        <v>2</v>
+      </c>
+      <c r="AY175">
         <v>7</v>
       </c>
-      <c r="AE175">
-        <v>1.48</v>
-      </c>
-      <c r="AF175">
-        <v>2.62</v>
-      </c>
-      <c r="AG175">
-        <v>2.4</v>
-      </c>
-      <c r="AH175">
-        <v>1.53</v>
-      </c>
-      <c r="AI175">
+      <c r="AZ175">
+        <v>12</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>4</v>
+      </c>
+      <c r="BD175">
+        <v>1.94</v>
+      </c>
+      <c r="BE175">
+        <v>6.4</v>
+      </c>
+      <c r="BF175">
+        <v>2.07</v>
+      </c>
+      <c r="BG175">
+        <v>1.44</v>
+      </c>
+      <c r="BH175">
+        <v>2.55</v>
+      </c>
+      <c r="BI175">
+        <v>1.75</v>
+      </c>
+      <c r="BJ175">
+        <v>1.95</v>
+      </c>
+      <c r="BK175">
         <v>2.2</v>
       </c>
-      <c r="AJ175">
-        <v>1.62</v>
-      </c>
-      <c r="AK175">
-        <v>1.29</v>
-      </c>
-      <c r="AL175">
-        <v>1.34</v>
-      </c>
-      <c r="AM175">
-        <v>1.68</v>
-      </c>
-      <c r="AN175">
-        <v>1.33</v>
-      </c>
-      <c r="AO175">
-        <v>1</v>
-      </c>
-      <c r="AP175">
-        <v>1.44</v>
-      </c>
-      <c r="AQ175">
-        <v>0.57</v>
-      </c>
-      <c r="AR175">
-        <v>1.83</v>
-      </c>
-      <c r="AS175">
+      <c r="BL175">
+        <v>1.58</v>
+      </c>
+      <c r="BM175">
+        <v>2.85</v>
+      </c>
+      <c r="BN175">
         <v>1.36</v>
       </c>
-      <c r="AT175">
-        <v>3.19</v>
-      </c>
-      <c r="AU175">
-        <v>2</v>
-      </c>
-      <c r="AV175">
-        <v>2</v>
-      </c>
-      <c r="AW175">
-        <v>8</v>
-      </c>
-      <c r="AX175">
-        <v>3</v>
-      </c>
-      <c r="AY175">
-        <v>10</v>
-      </c>
-      <c r="AZ175">
-        <v>5</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>2</v>
-      </c>
-      <c r="BC175">
-        <v>10</v>
-      </c>
-      <c r="BD175">
-        <v>1.58</v>
-      </c>
-      <c r="BE175">
-        <v>6.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.63</v>
-      </c>
-      <c r="BG175">
-        <v>1.49</v>
-      </c>
-      <c r="BH175">
-        <v>2.4</v>
-      </c>
-      <c r="BI175">
-        <v>1.8</v>
-      </c>
-      <c r="BJ175">
-        <v>1.89</v>
-      </c>
-      <c r="BK175">
-        <v>2.28</v>
-      </c>
-      <c r="BL175">
-        <v>1.54</v>
-      </c>
-      <c r="BM175">
-        <v>2.95</v>
-      </c>
-      <c r="BN175">
-        <v>1.33</v>
-      </c>
       <c r="BO175">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="BP175">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37507,7 +37510,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -37590,7 +37593,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7820483</v>
+        <v>7820480</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37605,19 +37608,19 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>4</v>
@@ -37632,7 +37635,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="Q177">
         <v>2.38</v>
@@ -37662,10 +37665,10 @@
         <v>1.06</v>
       </c>
       <c r="Z177">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA177">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB177">
         <v>5.5</v>
@@ -37680,7 +37683,7 @@
         <v>1.38</v>
       </c>
       <c r="AF177">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AG177">
         <v>2.15</v>
@@ -37698,67 +37701,67 @@
         <v>1.17</v>
       </c>
       <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>1.5</v>
+      </c>
+      <c r="AO177">
+        <v>0.6</v>
+      </c>
+      <c r="AP177">
+        <v>1.88</v>
+      </c>
+      <c r="AQ177">
+        <v>0.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.59</v>
+      </c>
+      <c r="AS177">
         <v>1.27</v>
       </c>
-      <c r="AM177">
-        <v>2.1</v>
-      </c>
-      <c r="AN177">
-        <v>1.83</v>
-      </c>
-      <c r="AO177">
-        <v>1.67</v>
-      </c>
-      <c r="AP177">
-        <v>2.3</v>
-      </c>
-      <c r="AQ177">
-        <v>1.22</v>
-      </c>
-      <c r="AR177">
-        <v>1.78</v>
-      </c>
-      <c r="AS177">
-        <v>1.35</v>
-      </c>
       <c r="AT177">
-        <v>3.13</v>
+        <v>2.86</v>
       </c>
       <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
         <v>9</v>
       </c>
-      <c r="AV177">
-        <v>5</v>
-      </c>
-      <c r="AW177">
-        <v>4</v>
-      </c>
       <c r="AX177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY177">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ177">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC177">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD177">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="BE177">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF177">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="BG177">
         <v>1.4</v>
@@ -37767,28 +37770,28 @@
         <v>2.7</v>
       </c>
       <c r="BI177">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="BJ177">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BK177">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="BL177">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BM177">
         <v>2.65</v>
       </c>
       <c r="BN177">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BO177">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BP177">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37796,7 +37799,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7820480</v>
+        <v>7820483</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37811,19 +37814,19 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H178" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L178">
         <v>4</v>
@@ -37838,7 +37841,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37868,10 +37871,10 @@
         <v>1.06</v>
       </c>
       <c r="Z178">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA178">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB178">
         <v>5.5</v>
@@ -37886,7 +37889,7 @@
         <v>1.38</v>
       </c>
       <c r="AF178">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG178">
         <v>2.15</v>
@@ -37904,67 +37907,67 @@
         <v>1.17</v>
       </c>
       <c r="AL178">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM178">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN178">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO178">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP178">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="AQ178">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="AR178">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AS178">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT178">
-        <v>2.86</v>
+        <v>3.13</v>
       </c>
       <c r="AU178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>15</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
         <v>3</v>
       </c>
-      <c r="AW178">
-        <v>9</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
-      <c r="AY178">
-        <v>17</v>
-      </c>
-      <c r="AZ178">
-        <v>6</v>
-      </c>
-      <c r="BA178">
-        <v>7</v>
-      </c>
-      <c r="BB178">
-        <v>0</v>
-      </c>
       <c r="BC178">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD178">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="BE178">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF178">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG178">
         <v>1.4</v>
@@ -37973,28 +37976,28 @@
         <v>2.7</v>
       </c>
       <c r="BI178">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="BJ178">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BK178">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BL178">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM178">
         <v>2.65</v>
       </c>
       <c r="BN178">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BO178">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BP178">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -38208,7 +38211,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7820489</v>
+        <v>7820484</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38223,190 +38226,190 @@
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H180" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
         <v>1</v>
       </c>
       <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>100</v>
+      </c>
+      <c r="P180" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q180">
+        <v>2.75</v>
+      </c>
+      <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
+        <v>4.75</v>
+      </c>
+      <c r="T180">
+        <v>1.57</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.25</v>
+      </c>
+      <c r="X180">
+        <v>11</v>
+      </c>
+      <c r="Y180">
+        <v>1.05</v>
+      </c>
+      <c r="Z180">
+        <v>2</v>
+      </c>
+      <c r="AA180">
+        <v>3.2</v>
+      </c>
+      <c r="AB180">
+        <v>4.2</v>
+      </c>
+      <c r="AC180">
+        <v>1.06</v>
+      </c>
+      <c r="AD180">
+        <v>6.75</v>
+      </c>
+      <c r="AE180">
+        <v>1.46</v>
+      </c>
+      <c r="AF180">
+        <v>2.71</v>
+      </c>
+      <c r="AG180">
+        <v>2.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.5</v>
+      </c>
+      <c r="AI180">
+        <v>2.1</v>
+      </c>
+      <c r="AJ180">
+        <v>1.67</v>
+      </c>
+      <c r="AK180">
+        <v>1.24</v>
+      </c>
+      <c r="AL180">
+        <v>1.32</v>
+      </c>
+      <c r="AM180">
+        <v>1.78</v>
+      </c>
+      <c r="AN180">
+        <v>2.4</v>
+      </c>
+      <c r="AO180">
+        <v>0.8</v>
+      </c>
+      <c r="AP180">
+        <v>1.75</v>
+      </c>
+      <c r="AQ180">
+        <v>1</v>
+      </c>
+      <c r="AR180">
+        <v>1.25</v>
+      </c>
+      <c r="AS180">
+        <v>1.39</v>
+      </c>
+      <c r="AT180">
+        <v>2.64</v>
+      </c>
+      <c r="AU180">
+        <v>10</v>
+      </c>
+      <c r="AV180">
         <v>3</v>
       </c>
-      <c r="M180">
-        <v>2</v>
-      </c>
-      <c r="N180">
-        <v>5</v>
-      </c>
-      <c r="O180" t="s">
-        <v>209</v>
-      </c>
-      <c r="P180" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q180">
-        <v>3.4</v>
-      </c>
-      <c r="R180">
-        <v>1.91</v>
-      </c>
-      <c r="S180">
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>3</v>
+      </c>
+      <c r="AY180">
+        <v>18</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>3</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.7</v>
+      </c>
+      <c r="BE180">
+        <v>6.4</v>
+      </c>
+      <c r="BF180">
+        <v>2.4</v>
+      </c>
+      <c r="BG180">
+        <v>1.48</v>
+      </c>
+      <c r="BH180">
+        <v>2.43</v>
+      </c>
+      <c r="BI180">
+        <v>1.8</v>
+      </c>
+      <c r="BJ180">
+        <v>1.89</v>
+      </c>
+      <c r="BK180">
+        <v>2.3</v>
+      </c>
+      <c r="BL180">
+        <v>1.53</v>
+      </c>
+      <c r="BM180">
+        <v>3</v>
+      </c>
+      <c r="BN180">
+        <v>1.32</v>
+      </c>
+      <c r="BO180">
         <v>4</v>
       </c>
-      <c r="T180">
-        <v>1.62</v>
-      </c>
-      <c r="U180">
-        <v>2.2</v>
-      </c>
-      <c r="V180">
-        <v>4</v>
-      </c>
-      <c r="W180">
-        <v>1.22</v>
-      </c>
-      <c r="X180">
-        <v>13</v>
-      </c>
-      <c r="Y180">
-        <v>1.04</v>
-      </c>
-      <c r="Z180">
-        <v>2.45</v>
-      </c>
-      <c r="AA180">
-        <v>3</v>
-      </c>
-      <c r="AB180">
-        <v>3.2</v>
-      </c>
-      <c r="AC180">
-        <v>1.11</v>
-      </c>
-      <c r="AD180">
-        <v>6.25</v>
-      </c>
-      <c r="AE180">
-        <v>1.53</v>
-      </c>
-      <c r="AF180">
-        <v>2.3</v>
-      </c>
-      <c r="AG180">
-        <v>2.7</v>
-      </c>
-      <c r="AH180">
-        <v>1.44</v>
-      </c>
-      <c r="AI180">
-        <v>2.2</v>
-      </c>
-      <c r="AJ180">
-        <v>1.62</v>
-      </c>
-      <c r="AK180">
-        <v>1.34</v>
-      </c>
-      <c r="AL180">
-        <v>1.36</v>
-      </c>
-      <c r="AM180">
-        <v>1.55</v>
-      </c>
-      <c r="AN180">
-        <v>0.6</v>
-      </c>
-      <c r="AO180">
-        <v>0.17</v>
-      </c>
-      <c r="AP180">
-        <v>1.5</v>
-      </c>
-      <c r="AQ180">
-        <v>0.4</v>
-      </c>
-      <c r="AR180">
-        <v>1.79</v>
-      </c>
-      <c r="AS180">
-        <v>1.05</v>
-      </c>
-      <c r="AT180">
-        <v>2.84</v>
-      </c>
-      <c r="AU180">
-        <v>5</v>
-      </c>
-      <c r="AV180">
-        <v>7</v>
-      </c>
-      <c r="AW180">
-        <v>10</v>
-      </c>
-      <c r="AX180">
-        <v>6</v>
-      </c>
-      <c r="AY180">
-        <v>16</v>
-      </c>
-      <c r="AZ180">
-        <v>16</v>
-      </c>
-      <c r="BA180">
-        <v>4</v>
-      </c>
-      <c r="BB180">
-        <v>5</v>
-      </c>
-      <c r="BC180">
-        <v>9</v>
-      </c>
-      <c r="BD180">
-        <v>1.82</v>
-      </c>
-      <c r="BE180">
-        <v>8</v>
-      </c>
-      <c r="BF180">
-        <v>2.33</v>
-      </c>
-      <c r="BG180">
-        <v>1.28</v>
-      </c>
-      <c r="BH180">
-        <v>3.25</v>
-      </c>
-      <c r="BI180">
-        <v>1.52</v>
-      </c>
-      <c r="BJ180">
-        <v>2.37</v>
-      </c>
-      <c r="BK180">
-        <v>1.8</v>
-      </c>
-      <c r="BL180">
-        <v>1.91</v>
-      </c>
-      <c r="BM180">
-        <v>2.38</v>
-      </c>
-      <c r="BN180">
-        <v>1.54</v>
-      </c>
-      <c r="BO180">
-        <v>3.12</v>
-      </c>
       <c r="BP180">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38414,7 +38417,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7820484</v>
+        <v>7820489</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38429,190 +38432,190 @@
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H181" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>1</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M181">
         <v>2</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O181" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q181">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S181">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T181">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U181">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W181">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X181">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y181">
+        <v>1.04</v>
+      </c>
+      <c r="Z181">
+        <v>2.45</v>
+      </c>
+      <c r="AA181">
+        <v>3</v>
+      </c>
+      <c r="AB181">
+        <v>3.2</v>
+      </c>
+      <c r="AC181">
+        <v>1.11</v>
+      </c>
+      <c r="AD181">
+        <v>6.25</v>
+      </c>
+      <c r="AE181">
+        <v>1.53</v>
+      </c>
+      <c r="AF181">
+        <v>2.3</v>
+      </c>
+      <c r="AG181">
+        <v>2.7</v>
+      </c>
+      <c r="AH181">
+        <v>1.44</v>
+      </c>
+      <c r="AI181">
+        <v>2.2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.62</v>
+      </c>
+      <c r="AK181">
+        <v>1.34</v>
+      </c>
+      <c r="AL181">
+        <v>1.36</v>
+      </c>
+      <c r="AM181">
+        <v>1.55</v>
+      </c>
+      <c r="AN181">
+        <v>0.6</v>
+      </c>
+      <c r="AO181">
+        <v>0.17</v>
+      </c>
+      <c r="AP181">
+        <v>1.5</v>
+      </c>
+      <c r="AQ181">
+        <v>0.4</v>
+      </c>
+      <c r="AR181">
+        <v>1.79</v>
+      </c>
+      <c r="AS181">
         <v>1.05</v>
       </c>
-      <c r="Z181">
-        <v>2</v>
-      </c>
-      <c r="AA181">
-        <v>3.2</v>
-      </c>
-      <c r="AB181">
-        <v>4.2</v>
-      </c>
-      <c r="AC181">
-        <v>1.06</v>
-      </c>
-      <c r="AD181">
-        <v>6.75</v>
-      </c>
-      <c r="AE181">
-        <v>1.46</v>
-      </c>
-      <c r="AF181">
-        <v>2.71</v>
-      </c>
-      <c r="AG181">
-        <v>2.5</v>
-      </c>
-      <c r="AH181">
-        <v>1.5</v>
-      </c>
-      <c r="AI181">
-        <v>2.1</v>
-      </c>
-      <c r="AJ181">
-        <v>1.67</v>
-      </c>
-      <c r="AK181">
-        <v>1.24</v>
-      </c>
-      <c r="AL181">
-        <v>1.32</v>
-      </c>
-      <c r="AM181">
-        <v>1.78</v>
-      </c>
-      <c r="AN181">
-        <v>2.4</v>
-      </c>
-      <c r="AO181">
-        <v>0.8</v>
-      </c>
-      <c r="AP181">
-        <v>1.75</v>
-      </c>
-      <c r="AQ181">
-        <v>1</v>
-      </c>
-      <c r="AR181">
-        <v>1.25</v>
-      </c>
-      <c r="AS181">
-        <v>1.39</v>
-      </c>
       <c r="AT181">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>7</v>
+      </c>
+      <c r="AW181">
         <v>10</v>
       </c>
-      <c r="AV181">
-        <v>3</v>
-      </c>
-      <c r="AW181">
-        <v>7</v>
-      </c>
       <c r="AX181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY181">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ181">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC181">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD181">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="BE181">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF181">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BG181">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="BH181">
-        <v>2.43</v>
+        <v>3.25</v>
       </c>
       <c r="BI181">
+        <v>1.52</v>
+      </c>
+      <c r="BJ181">
+        <v>2.37</v>
+      </c>
+      <c r="BK181">
         <v>1.8</v>
       </c>
-      <c r="BJ181">
-        <v>1.89</v>
-      </c>
-      <c r="BK181">
-        <v>2.3</v>
-      </c>
       <c r="BL181">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="BM181">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="BN181">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="BO181">
-        <v>4</v>
+        <v>3.12</v>
       </c>
       <c r="BP181">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38662,7 +38665,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39483,10 +39486,10 @@
         <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39692,7 +39695,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40310,7 +40313,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40388,7 +40391,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40516,7 +40519,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40722,7 +40725,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41092,7 +41095,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7820503</v>
+        <v>7820508</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41107,10 +41110,10 @@
         <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H194" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -41125,25 +41128,25 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" t="s">
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="Q194">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S194">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T194">
         <v>1.57</v>
@@ -41158,139 +41161,139 @@
         <v>1.25</v>
       </c>
       <c r="X194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y194">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z194">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB194">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="AC194">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD194">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE194">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF194">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AG194">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH194">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI194">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ194">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK194">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AL194">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM194">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AN194">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO194">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP194">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ194">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AR194">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AS194">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT194">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
         <v>4</v>
-      </c>
-      <c r="AV194">
-        <v>2</v>
       </c>
       <c r="AW194">
         <v>10</v>
       </c>
       <c r="AX194">
+        <v>6</v>
+      </c>
+      <c r="AY194">
+        <v>18</v>
+      </c>
+      <c r="AZ194">
+        <v>11</v>
+      </c>
+      <c r="BA194">
         <v>3</v>
       </c>
-      <c r="AY194">
-        <v>17</v>
-      </c>
-      <c r="AZ194">
+      <c r="BB194">
         <v>5</v>
       </c>
-      <c r="BA194">
-        <v>12</v>
-      </c>
-      <c r="BB194">
-        <v>1</v>
-      </c>
       <c r="BC194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD194">
+        <v>1.94</v>
+      </c>
+      <c r="BE194">
+        <v>6.75</v>
+      </c>
+      <c r="BF194">
+        <v>2.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.33</v>
+      </c>
+      <c r="BH194">
+        <v>2.95</v>
+      </c>
+      <c r="BI194">
+        <v>1.56</v>
+      </c>
+      <c r="BJ194">
+        <v>2.23</v>
+      </c>
+      <c r="BK194">
+        <v>1.91</v>
+      </c>
+      <c r="BL194">
+        <v>1.77</v>
+      </c>
+      <c r="BM194">
+        <v>2.4</v>
+      </c>
+      <c r="BN194">
+        <v>1.49</v>
+      </c>
+      <c r="BO194">
+        <v>3.05</v>
+      </c>
+      <c r="BP194">
         <v>1.3</v>
-      </c>
-      <c r="BE194">
-        <v>7.5</v>
-      </c>
-      <c r="BF194">
-        <v>3.9</v>
-      </c>
-      <c r="BG194">
-        <v>1.38</v>
-      </c>
-      <c r="BH194">
-        <v>2.7</v>
-      </c>
-      <c r="BI194">
-        <v>1.65</v>
-      </c>
-      <c r="BJ194">
-        <v>2.08</v>
-      </c>
-      <c r="BK194">
-        <v>2.02</v>
-      </c>
-      <c r="BL194">
-        <v>1.68</v>
-      </c>
-      <c r="BM194">
-        <v>2.55</v>
-      </c>
-      <c r="BN194">
-        <v>1.44</v>
-      </c>
-      <c r="BO194">
-        <v>3.3</v>
-      </c>
-      <c r="BP194">
-        <v>1.27</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41298,7 +41301,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7820508</v>
+        <v>7820503</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41313,10 +41316,10 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H195" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41331,25 +41334,25 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="s">
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="Q195">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R195">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T195">
         <v>1.57</v>
@@ -41364,139 +41367,139 @@
         <v>1.25</v>
       </c>
       <c r="X195">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y195">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z195">
+        <v>1.7</v>
+      </c>
+      <c r="AA195">
         <v>3.4</v>
       </c>
-      <c r="AA195">
-        <v>3.1</v>
-      </c>
       <c r="AB195">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC195">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD195">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE195">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AF195">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AG195">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH195">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI195">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ195">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK195">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AL195">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AM195">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN195">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AQ195">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AR195">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AS195">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW195">
         <v>10</v>
       </c>
       <c r="AX195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY195">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ195">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA195">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC195">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD195">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="BE195">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF195">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="BG195">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH195">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI195">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ195">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK195">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="BL195">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BM195">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BN195">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BO195">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BP195">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41752,7 +41755,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42164,7 +42167,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -43976,7 +43979,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7820514</v>
+        <v>7820515</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -43991,160 +43994,160 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="H208" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O208" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="P208" t="s">
         <v>100</v>
       </c>
       <c r="Q208">
+        <v>2.88</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>4.33</v>
+      </c>
+      <c r="T208">
+        <v>1.5</v>
+      </c>
+      <c r="U208">
+        <v>2.5</v>
+      </c>
+      <c r="V208">
+        <v>3.5</v>
+      </c>
+      <c r="W208">
+        <v>1.29</v>
+      </c>
+      <c r="X208">
+        <v>11</v>
+      </c>
+      <c r="Y208">
+        <v>1.05</v>
+      </c>
+      <c r="Z208">
         <v>2.1</v>
       </c>
-      <c r="R208">
-        <v>2.1</v>
-      </c>
-      <c r="S208">
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>3.4</v>
+      </c>
+      <c r="AC208">
+        <v>1.08</v>
+      </c>
+      <c r="AD208">
         <v>7.5</v>
       </c>
-      <c r="T208">
+      <c r="AE208">
         <v>1.44</v>
       </c>
-      <c r="U208">
-        <v>2.63</v>
-      </c>
-      <c r="V208">
-        <v>3.4</v>
-      </c>
-      <c r="W208">
+      <c r="AF208">
+        <v>2.75</v>
+      </c>
+      <c r="AG208">
+        <v>2.35</v>
+      </c>
+      <c r="AH208">
+        <v>1.57</v>
+      </c>
+      <c r="AI208">
+        <v>2.05</v>
+      </c>
+      <c r="AJ208">
+        <v>1.7</v>
+      </c>
+      <c r="AK208">
         <v>1.3</v>
       </c>
-      <c r="X208">
+      <c r="AL208">
+        <v>1.28</v>
+      </c>
+      <c r="AM208">
+        <v>1.67</v>
+      </c>
+      <c r="AN208">
+        <v>2</v>
+      </c>
+      <c r="AO208">
+        <v>0.83</v>
+      </c>
+      <c r="AP208">
+        <v>1.75</v>
+      </c>
+      <c r="AQ208">
+        <v>0.88</v>
+      </c>
+      <c r="AR208">
+        <v>1.47</v>
+      </c>
+      <c r="AS208">
+        <v>1.32</v>
+      </c>
+      <c r="AT208">
+        <v>2.79</v>
+      </c>
+      <c r="AU208">
+        <v>4</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+      <c r="AY208">
         <v>10</v>
       </c>
-      <c r="Y208">
-        <v>1.06</v>
-      </c>
-      <c r="Z208">
-        <v>1.5</v>
-      </c>
-      <c r="AA208">
-        <v>3.75</v>
-      </c>
-      <c r="AB208">
-        <v>8</v>
-      </c>
-      <c r="AC208">
-        <v>1.06</v>
-      </c>
-      <c r="AD208">
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>2</v>
+      </c>
+      <c r="BB208">
+        <v>3</v>
+      </c>
+      <c r="BC208">
+        <v>5</v>
+      </c>
+      <c r="BD208">
+        <v>1.62</v>
+      </c>
+      <c r="BE208">
         <v>8.5</v>
       </c>
-      <c r="AE208">
-        <v>1.38</v>
-      </c>
-      <c r="AF208">
-        <v>3</v>
-      </c>
-      <c r="AG208">
-        <v>2.15</v>
-      </c>
-      <c r="AH208">
-        <v>1.67</v>
-      </c>
-      <c r="AI208">
-        <v>2.25</v>
-      </c>
-      <c r="AJ208">
-        <v>1.57</v>
-      </c>
-      <c r="AK208">
-        <v>1.09</v>
-      </c>
-      <c r="AL208">
-        <v>1.18</v>
-      </c>
-      <c r="AM208">
+      <c r="BF208">
         <v>2.6</v>
-      </c>
-      <c r="AN208">
-        <v>2</v>
-      </c>
-      <c r="AO208">
-        <v>1.17</v>
-      </c>
-      <c r="AP208">
-        <v>2.3</v>
-      </c>
-      <c r="AQ208">
-        <v>1.25</v>
-      </c>
-      <c r="AR208">
-        <v>1.77</v>
-      </c>
-      <c r="AS208">
-        <v>1.4</v>
-      </c>
-      <c r="AT208">
-        <v>3.17</v>
-      </c>
-      <c r="AU208">
-        <v>7</v>
-      </c>
-      <c r="AV208">
-        <v>0</v>
-      </c>
-      <c r="AW208">
-        <v>4</v>
-      </c>
-      <c r="AX208">
-        <v>4</v>
-      </c>
-      <c r="AY208">
-        <v>12</v>
-      </c>
-      <c r="AZ208">
-        <v>4</v>
-      </c>
-      <c r="BA208">
-        <v>2</v>
-      </c>
-      <c r="BB208">
-        <v>2</v>
-      </c>
-      <c r="BC208">
-        <v>4</v>
-      </c>
-      <c r="BD208">
-        <v>1.12</v>
-      </c>
-      <c r="BE208">
-        <v>15</v>
-      </c>
-      <c r="BF208">
-        <v>5.8</v>
       </c>
       <c r="BG208">
         <v>1.26</v>
@@ -44165,16 +44168,16 @@
         <v>1.85</v>
       </c>
       <c r="BM208">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="BN208">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BO208">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="BP208">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44182,7 +44185,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7820515</v>
+        <v>7820514</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44197,160 +44200,160 @@
         <v>14</v>
       </c>
       <c r="G209" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H209" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
       <c r="N209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O209" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="P209" t="s">
         <v>100</v>
       </c>
       <c r="Q209">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
+        <v>2.63</v>
+      </c>
+      <c r="V209">
+        <v>3.4</v>
+      </c>
+      <c r="W209">
+        <v>1.3</v>
+      </c>
+      <c r="X209">
+        <v>10</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
         <v>1.5</v>
       </c>
-      <c r="U209">
-        <v>2.5</v>
-      </c>
-      <c r="V209">
-        <v>3.5</v>
-      </c>
-      <c r="W209">
-        <v>1.29</v>
-      </c>
-      <c r="X209">
-        <v>11</v>
-      </c>
-      <c r="Y209">
-        <v>1.05</v>
-      </c>
-      <c r="Z209">
-        <v>2.1</v>
-      </c>
       <c r="AA209">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB209">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AC209">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD209">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE209">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AF209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG209">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AH209">
+        <v>1.67</v>
+      </c>
+      <c r="AI209">
+        <v>2.25</v>
+      </c>
+      <c r="AJ209">
         <v>1.57</v>
       </c>
-      <c r="AI209">
-        <v>2.05</v>
-      </c>
-      <c r="AJ209">
-        <v>1.7</v>
-      </c>
       <c r="AK209">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AL209">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM209">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AN209">
         <v>2</v>
       </c>
       <c r="AO209">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP209">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="AQ209">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR209">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AS209">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT209">
-        <v>2.79</v>
+        <v>3.17</v>
       </c>
       <c r="AU209">
+        <v>7</v>
+      </c>
+      <c r="AV209">
+        <v>0</v>
+      </c>
+      <c r="AW209">
         <v>4</v>
       </c>
-      <c r="AV209">
-        <v>5</v>
-      </c>
-      <c r="AW209">
-        <v>5</v>
-      </c>
       <c r="AX209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY209">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ209">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA209">
         <v>2</v>
       </c>
       <c r="BB209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD209">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="BE209">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="BF209">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG209">
         <v>1.26</v>
@@ -44371,16 +44374,16 @@
         <v>1.85</v>
       </c>
       <c r="BM209">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="BN209">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BO209">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="BP209">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44636,7 +44639,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44842,7 +44845,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45048,7 +45051,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45332,7 +45335,7 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -46696,7 +46699,7 @@
         <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q221">
         <v>3.6</v>
@@ -46902,7 +46905,7 @@
         <v>188</v>
       </c>
       <c r="P222" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -47890,7 +47893,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7820545</v>
+        <v>7820540</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47905,10 +47908,10 @@
         <v>16</v>
       </c>
       <c r="G227" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H227" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I227">
         <v>2</v>
@@ -47920,10 +47923,10 @@
         <v>2</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <v>4</v>
@@ -47932,16 +47935,16 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q227">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T227">
         <v>1.53</v>
@@ -47962,37 +47965,37 @@
         <v>1.05</v>
       </c>
       <c r="Z227">
+        <v>1.75</v>
+      </c>
+      <c r="AA227">
+        <v>3.4</v>
+      </c>
+      <c r="AB227">
+        <v>5</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1.49</v>
+      </c>
+      <c r="AF227">
+        <v>2.55</v>
+      </c>
+      <c r="AG227">
+        <v>2.4</v>
+      </c>
+      <c r="AH227">
+        <v>1.53</v>
+      </c>
+      <c r="AI227">
         <v>2.25</v>
       </c>
-      <c r="AA227">
-        <v>3.25</v>
-      </c>
-      <c r="AB227">
-        <v>3.2</v>
-      </c>
-      <c r="AC227">
-        <v>0</v>
-      </c>
-      <c r="AD227">
-        <v>0</v>
-      </c>
-      <c r="AE227">
-        <v>1.53</v>
-      </c>
-      <c r="AF227">
-        <v>2.37</v>
-      </c>
-      <c r="AG227">
-        <v>2.5</v>
-      </c>
-      <c r="AH227">
-        <v>1.5</v>
-      </c>
-      <c r="AI227">
-        <v>2.1</v>
-      </c>
       <c r="AJ227">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -48004,52 +48007,52 @@
         <v>0</v>
       </c>
       <c r="AN227">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AR227">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="AS227">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT227">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>6</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>9</v>
+      </c>
+      <c r="AY227">
+        <v>11</v>
+      </c>
+      <c r="AZ227">
+        <v>18</v>
+      </c>
+      <c r="BA227">
+        <v>1</v>
+      </c>
+      <c r="BB227">
+        <v>6</v>
+      </c>
+      <c r="BC227">
         <v>7</v>
-      </c>
-      <c r="AV227">
-        <v>3</v>
-      </c>
-      <c r="AW227">
-        <v>8</v>
-      </c>
-      <c r="AX227">
-        <v>4</v>
-      </c>
-      <c r="AY227">
-        <v>18</v>
-      </c>
-      <c r="AZ227">
-        <v>7</v>
-      </c>
-      <c r="BA227">
-        <v>5</v>
-      </c>
-      <c r="BB227">
-        <v>4</v>
-      </c>
-      <c r="BC227">
-        <v>9</v>
       </c>
       <c r="BD227">
         <v>0</v>
@@ -48096,7 +48099,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7820542</v>
+        <v>7820541</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48111,43 +48114,43 @@
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H228" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O228" t="s">
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="Q228">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="R228">
         <v>1.95</v>
       </c>
       <c r="S228">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T228">
         <v>1.53</v>
@@ -48168,19 +48171,19 @@
         <v>1.05</v>
       </c>
       <c r="Z228">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AA228">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB228">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AC228">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AD228">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE228">
         <v>0</v>
@@ -48195,10 +48198,10 @@
         <v>1.53</v>
       </c>
       <c r="AI228">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ228">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -48210,43 +48213,43 @@
         <v>0</v>
       </c>
       <c r="AN228">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO228">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AP228">
         <v>1.88</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR228">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AS228">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT228">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="AU228">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW228">
         <v>4</v>
       </c>
       <c r="AX228">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AY228">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ228">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BA228">
         <v>5</v>
@@ -48302,7 +48305,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7820541</v>
+        <v>7820542</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48317,43 +48320,43 @@
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O229" t="s">
         <v>233</v>
       </c>
       <c r="P229" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="Q229">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="R229">
         <v>1.95</v>
       </c>
       <c r="S229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T229">
         <v>1.53</v>
@@ -48374,19 +48377,19 @@
         <v>1.05</v>
       </c>
       <c r="Z229">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AA229">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB229">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AC229">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AD229">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE229">
         <v>0</v>
@@ -48401,10 +48404,10 @@
         <v>1.53</v>
       </c>
       <c r="AI229">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ229">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -48416,43 +48419,43 @@
         <v>0</v>
       </c>
       <c r="AN229">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO229">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP229">
         <v>1.88</v>
       </c>
       <c r="AQ229">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AR229">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AS229">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT229">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="AU229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV229">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW229">
         <v>4</v>
       </c>
       <c r="AX229">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
         <v>13</v>
-      </c>
-      <c r="AZ229">
-        <v>23</v>
       </c>
       <c r="BA229">
         <v>5</v>
@@ -48508,7 +48511,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7820540</v>
+        <v>7820545</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48523,10 +48526,10 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H230" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -48538,10 +48541,10 @@
         <v>2</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230">
         <v>4</v>
@@ -48550,16 +48553,16 @@
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="Q230">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T230">
         <v>1.53</v>
@@ -48580,94 +48583,94 @@
         <v>1.05</v>
       </c>
       <c r="Z230">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA230">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB230">
+        <v>3.2</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>1.53</v>
+      </c>
+      <c r="AF230">
+        <v>2.37</v>
+      </c>
+      <c r="AG230">
+        <v>2.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.5</v>
+      </c>
+      <c r="AI230">
+        <v>2.1</v>
+      </c>
+      <c r="AJ230">
+        <v>1.67</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>2.13</v>
+      </c>
+      <c r="AO230">
+        <v>0.88</v>
+      </c>
+      <c r="AP230">
+        <v>2.3</v>
+      </c>
+      <c r="AQ230">
+        <v>0.7</v>
+      </c>
+      <c r="AR230">
+        <v>1.76</v>
+      </c>
+      <c r="AS230">
+        <v>1.4</v>
+      </c>
+      <c r="AT230">
+        <v>3.16</v>
+      </c>
+      <c r="AU230">
+        <v>7</v>
+      </c>
+      <c r="AV230">
+        <v>3</v>
+      </c>
+      <c r="AW230">
+        <v>8</v>
+      </c>
+      <c r="AX230">
+        <v>4</v>
+      </c>
+      <c r="AY230">
+        <v>18</v>
+      </c>
+      <c r="AZ230">
+        <v>7</v>
+      </c>
+      <c r="BA230">
         <v>5</v>
       </c>
-      <c r="AC230">
-        <v>0</v>
-      </c>
-      <c r="AD230">
-        <v>0</v>
-      </c>
-      <c r="AE230">
-        <v>1.49</v>
-      </c>
-      <c r="AF230">
-        <v>2.55</v>
-      </c>
-      <c r="AG230">
-        <v>2.4</v>
-      </c>
-      <c r="AH230">
-        <v>1.53</v>
-      </c>
-      <c r="AI230">
-        <v>2.25</v>
-      </c>
-      <c r="AJ230">
-        <v>1.57</v>
-      </c>
-      <c r="AK230">
-        <v>0</v>
-      </c>
-      <c r="AL230">
-        <v>0</v>
-      </c>
-      <c r="AM230">
-        <v>0</v>
-      </c>
-      <c r="AN230">
-        <v>1</v>
-      </c>
-      <c r="AO230">
-        <v>0.67</v>
-      </c>
-      <c r="AP230">
-        <v>1.25</v>
-      </c>
-      <c r="AQ230">
-        <v>0.57</v>
-      </c>
-      <c r="AR230">
-        <v>1.33</v>
-      </c>
-      <c r="AS230">
-        <v>1.3</v>
-      </c>
-      <c r="AT230">
-        <v>2.63</v>
-      </c>
-      <c r="AU230">
+      <c r="BB230">
         <v>4</v>
       </c>
-      <c r="AV230">
-        <v>6</v>
-      </c>
-      <c r="AW230">
-        <v>5</v>
-      </c>
-      <c r="AX230">
+      <c r="BC230">
         <v>9</v>
-      </c>
-      <c r="AY230">
-        <v>11</v>
-      </c>
-      <c r="AZ230">
-        <v>18</v>
-      </c>
-      <c r="BA230">
-        <v>1</v>
-      </c>
-      <c r="BB230">
-        <v>6</v>
-      </c>
-      <c r="BC230">
-        <v>7</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48756,7 +48759,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48920,7 +48923,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7820548</v>
+        <v>7820551</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48935,25 +48938,25 @@
         <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H232" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N232">
         <v>3</v>
@@ -48962,68 +48965,68 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="Q232">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R232">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T232">
+        <v>1.53</v>
+      </c>
+      <c r="U232">
+        <v>2.38</v>
+      </c>
+      <c r="V232">
+        <v>3.5</v>
+      </c>
+      <c r="W232">
+        <v>1.29</v>
+      </c>
+      <c r="X232">
+        <v>11</v>
+      </c>
+      <c r="Y232">
+        <v>1.05</v>
+      </c>
+      <c r="Z232">
+        <v>1.95</v>
+      </c>
+      <c r="AA232">
+        <v>3.1</v>
+      </c>
+      <c r="AB232">
+        <v>4.33</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1.5</v>
+      </c>
+      <c r="AF232">
+        <v>2.4</v>
+      </c>
+      <c r="AG232">
+        <v>2.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.5</v>
+      </c>
+      <c r="AI232">
+        <v>2.1</v>
+      </c>
+      <c r="AJ232">
         <v>1.67</v>
       </c>
-      <c r="U232">
-        <v>2.1</v>
-      </c>
-      <c r="V232">
-        <v>4.33</v>
-      </c>
-      <c r="W232">
-        <v>1.2</v>
-      </c>
-      <c r="X232">
-        <v>15</v>
-      </c>
-      <c r="Y232">
-        <v>1.03</v>
-      </c>
-      <c r="Z232">
-        <v>2.9</v>
-      </c>
-      <c r="AA232">
-        <v>2.63</v>
-      </c>
-      <c r="AB232">
-        <v>2.9</v>
-      </c>
-      <c r="AC232">
-        <v>0</v>
-      </c>
-      <c r="AD232">
-        <v>0</v>
-      </c>
-      <c r="AE232">
-        <v>1.65</v>
-      </c>
-      <c r="AF232">
-        <v>2.15</v>
-      </c>
-      <c r="AG232">
-        <v>3.1</v>
-      </c>
-      <c r="AH232">
-        <v>1.36</v>
-      </c>
-      <c r="AI232">
-        <v>2.25</v>
-      </c>
-      <c r="AJ232">
-        <v>1.57</v>
-      </c>
       <c r="AK232">
         <v>0</v>
       </c>
@@ -49034,52 +49037,52 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO232">
-        <v>1.14</v>
+        <v>0.13</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR232">
-        <v>1.13</v>
+        <v>2.12</v>
       </c>
       <c r="AS232">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AT232">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>8</v>
+      </c>
+      <c r="AW232">
+        <v>8</v>
+      </c>
+      <c r="AX232">
+        <v>3</v>
+      </c>
+      <c r="AY232">
+        <v>14</v>
+      </c>
+      <c r="AZ232">
+        <v>13</v>
+      </c>
+      <c r="BA232">
+        <v>4</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
         <v>6</v>
-      </c>
-      <c r="AV232">
-        <v>7</v>
-      </c>
-      <c r="AW232">
-        <v>3</v>
-      </c>
-      <c r="AX232">
-        <v>7</v>
-      </c>
-      <c r="AY232">
-        <v>10</v>
-      </c>
-      <c r="AZ232">
-        <v>15</v>
-      </c>
-      <c r="BA232">
-        <v>0</v>
-      </c>
-      <c r="BB232">
-        <v>3</v>
-      </c>
-      <c r="BC232">
-        <v>3</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49126,7 +49129,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7820550</v>
+        <v>7820548</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49141,10 +49144,10 @@
         <v>16</v>
       </c>
       <c r="G233" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H233" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -49156,28 +49159,28 @@
         <v>1</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O233" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P233" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="Q233">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="R233">
         <v>1.83</v>
       </c>
       <c r="S233">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T233">
         <v>1.67</v>
@@ -49198,13 +49201,13 @@
         <v>1.03</v>
       </c>
       <c r="Z233">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AA233">
         <v>2.63</v>
       </c>
       <c r="AB233">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC233">
         <v>0</v>
@@ -49216,7 +49219,7 @@
         <v>1.65</v>
       </c>
       <c r="AF233">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AG233">
         <v>3.1</v>
@@ -49240,52 +49243,52 @@
         <v>0</v>
       </c>
       <c r="AN233">
+        <v>1.29</v>
+      </c>
+      <c r="AO233">
         <v>1.14</v>
       </c>
-      <c r="AO233">
-        <v>1.71</v>
-      </c>
       <c r="AP233">
+        <v>1.5</v>
+      </c>
+      <c r="AQ233">
+        <v>1</v>
+      </c>
+      <c r="AR233">
         <v>1.13</v>
       </c>
-      <c r="AQ233">
-        <v>1.63</v>
-      </c>
-      <c r="AR233">
-        <v>1.8</v>
-      </c>
       <c r="AS233">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="AU233">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX233">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY233">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ233">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA233">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC233">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD233">
         <v>0</v>
@@ -49332,7 +49335,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7820551</v>
+        <v>7820550</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49347,94 +49350,94 @@
         <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H234" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>1</v>
       </c>
       <c r="M234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O234" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="P234" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="Q234">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S234">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="T234">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U234">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V234">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W234">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="X234">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y234">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z234">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="AA234">
+        <v>2.63</v>
+      </c>
+      <c r="AB234">
+        <v>2.7</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>1.65</v>
+      </c>
+      <c r="AF234">
+        <v>2.1</v>
+      </c>
+      <c r="AG234">
         <v>3.1</v>
       </c>
-      <c r="AB234">
-        <v>4.33</v>
-      </c>
-      <c r="AC234">
-        <v>0</v>
-      </c>
-      <c r="AD234">
-        <v>0</v>
-      </c>
-      <c r="AE234">
-        <v>1.5</v>
-      </c>
-      <c r="AF234">
-        <v>2.4</v>
-      </c>
-      <c r="AG234">
-        <v>2.5</v>
-      </c>
       <c r="AH234">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AI234">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ234">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK234">
         <v>0</v>
@@ -49446,52 +49449,52 @@
         <v>0</v>
       </c>
       <c r="AN234">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AO234">
-        <v>0.13</v>
+        <v>1.71</v>
       </c>
       <c r="AP234">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AQ234">
-        <v>0.4</v>
+        <v>1.63</v>
       </c>
       <c r="AR234">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="AS234">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AT234">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="AU234">
+        <v>2</v>
+      </c>
+      <c r="AV234">
+        <v>6</v>
+      </c>
+      <c r="AW234">
+        <v>4</v>
+      </c>
+      <c r="AX234">
         <v>5</v>
       </c>
-      <c r="AV234">
-        <v>8</v>
-      </c>
-      <c r="AW234">
-        <v>8</v>
-      </c>
-      <c r="AX234">
-        <v>3</v>
-      </c>
       <c r="AY234">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ234">
         <v>13</v>
       </c>
       <c r="BA234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB234">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC234">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD234">
         <v>0</v>
@@ -49786,7 +49789,7 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -49867,7 +49870,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR236">
         <v>1.81</v>
@@ -50156,7 +50159,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7820554</v>
+        <v>7820552</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50171,151 +50174,151 @@
         <v>16</v>
       </c>
       <c r="G238" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H238" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>113</v>
+      </c>
+      <c r="P238" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q238">
+        <v>3.4</v>
+      </c>
+      <c r="R238">
+        <v>1.83</v>
+      </c>
+      <c r="S238">
+        <v>4.33</v>
+      </c>
+      <c r="T238">
+        <v>1.67</v>
+      </c>
+      <c r="U238">
+        <v>2.1</v>
+      </c>
+      <c r="V238">
+        <v>4.33</v>
+      </c>
+      <c r="W238">
+        <v>1.2</v>
+      </c>
+      <c r="X238">
+        <v>15</v>
+      </c>
+      <c r="Y238">
+        <v>1.03</v>
+      </c>
+      <c r="Z238">
+        <v>2.4</v>
+      </c>
+      <c r="AA238">
         <v>3</v>
       </c>
-      <c r="N238">
+      <c r="AB238">
+        <v>3.2</v>
+      </c>
+      <c r="AC238">
+        <v>3.36</v>
+      </c>
+      <c r="AD238">
+        <v>1.33</v>
+      </c>
+      <c r="AE238">
+        <v>1.67</v>
+      </c>
+      <c r="AF238">
+        <v>2.05</v>
+      </c>
+      <c r="AG238">
+        <v>3.1</v>
+      </c>
+      <c r="AH238">
+        <v>1.36</v>
+      </c>
+      <c r="AI238">
+        <v>2.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.5</v>
+      </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
+      <c r="AN238">
+        <v>1.29</v>
+      </c>
+      <c r="AO238">
+        <v>1.43</v>
+      </c>
+      <c r="AP238">
+        <v>1.5</v>
+      </c>
+      <c r="AQ238">
+        <v>1.44</v>
+      </c>
+      <c r="AR238">
+        <v>1.5</v>
+      </c>
+      <c r="AS238">
+        <v>1.16</v>
+      </c>
+      <c r="AT238">
+        <v>2.66</v>
+      </c>
+      <c r="AU238">
+        <v>6</v>
+      </c>
+      <c r="AV238">
+        <v>6</v>
+      </c>
+      <c r="AW238">
+        <v>8</v>
+      </c>
+      <c r="AX238">
         <v>3</v>
       </c>
-      <c r="O238" t="s">
-        <v>100</v>
-      </c>
-      <c r="P238" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q238">
-        <v>3.6</v>
-      </c>
-      <c r="R238">
-        <v>1.91</v>
-      </c>
-      <c r="S238">
-        <v>3.6</v>
-      </c>
-      <c r="T238">
-        <v>1.57</v>
-      </c>
-      <c r="U238">
-        <v>2.25</v>
-      </c>
-      <c r="V238">
-        <v>3.75</v>
-      </c>
-      <c r="W238">
-        <v>1.25</v>
-      </c>
-      <c r="X238">
+      <c r="AY238">
+        <v>18</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
         <v>13</v>
       </c>
-      <c r="Y238">
-        <v>1.04</v>
-      </c>
-      <c r="Z238">
-        <v>2.7</v>
-      </c>
-      <c r="AA238">
-        <v>2.88</v>
-      </c>
-      <c r="AB238">
-        <v>2.8</v>
-      </c>
-      <c r="AC238">
-        <v>0</v>
-      </c>
-      <c r="AD238">
-        <v>0</v>
-      </c>
-      <c r="AE238">
-        <v>1.55</v>
-      </c>
-      <c r="AF238">
-        <v>2.3</v>
-      </c>
-      <c r="AG238">
-        <v>2.7</v>
-      </c>
-      <c r="AH238">
-        <v>1.44</v>
-      </c>
-      <c r="AI238">
-        <v>2.2</v>
-      </c>
-      <c r="AJ238">
-        <v>1.62</v>
-      </c>
-      <c r="AK238">
-        <v>0</v>
-      </c>
-      <c r="AL238">
-        <v>0</v>
-      </c>
-      <c r="AM238">
-        <v>0</v>
-      </c>
-      <c r="AN238">
-        <v>0.88</v>
-      </c>
-      <c r="AO238">
-        <v>0.57</v>
-      </c>
-      <c r="AP238">
-        <v>0.78</v>
-      </c>
-      <c r="AQ238">
-        <v>0.88</v>
-      </c>
-      <c r="AR238">
-        <v>1.49</v>
-      </c>
-      <c r="AS238">
-        <v>1.54</v>
-      </c>
-      <c r="AT238">
-        <v>3.03</v>
-      </c>
-      <c r="AU238">
-        <v>5</v>
-      </c>
-      <c r="AV238">
-        <v>8</v>
-      </c>
-      <c r="AW238">
-        <v>6</v>
-      </c>
-      <c r="AX238">
-        <v>8</v>
-      </c>
-      <c r="AY238">
-        <v>12</v>
-      </c>
-      <c r="AZ238">
-        <v>19</v>
-      </c>
-      <c r="BA238">
-        <v>4</v>
-      </c>
       <c r="BB238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC238">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD238">
         <v>0</v>
@@ -50362,7 +50365,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7820552</v>
+        <v>7820554</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50377,94 +50380,94 @@
         <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H239" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O239" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="Q239">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R239">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S239">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T239">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U239">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V239">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W239">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X239">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y239">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z239">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AA239">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AB239">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC239">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="AD239">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AE239">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AF239">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AG239">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH239">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI239">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ239">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AK239">
         <v>0</v>
@@ -50476,52 +50479,52 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="AO239">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ239">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AR239">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS239">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AT239">
-        <v>2.66</v>
+        <v>3.03</v>
       </c>
       <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>8</v>
+      </c>
+      <c r="AW239">
         <v>6</v>
       </c>
-      <c r="AV239">
+      <c r="AX239">
+        <v>8</v>
+      </c>
+      <c r="AY239">
+        <v>12</v>
+      </c>
+      <c r="AZ239">
+        <v>19</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>2</v>
+      </c>
+      <c r="BC239">
         <v>6</v>
-      </c>
-      <c r="AW239">
-        <v>8</v>
-      </c>
-      <c r="AX239">
-        <v>3</v>
-      </c>
-      <c r="AY239">
-        <v>18</v>
-      </c>
-      <c r="AZ239">
-        <v>9</v>
-      </c>
-      <c r="BA239">
-        <v>13</v>
-      </c>
-      <c r="BB239">
-        <v>3</v>
-      </c>
-      <c r="BC239">
-        <v>16</v>
       </c>
       <c r="BD239">
         <v>0</v>
@@ -50894,7 +50897,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ241">
         <v>0.88</v>
@@ -51022,7 +51025,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51434,7 +51437,7 @@
         <v>100</v>
       </c>
       <c r="P244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q244">
         <v>2.4</v>
@@ -52052,7 +52055,7 @@
         <v>241</v>
       </c>
       <c r="P247" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q247">
         <v>2.2</v>
@@ -52258,7 +52261,7 @@
         <v>242</v>
       </c>
       <c r="P248" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q248">
         <v>2.63</v>
@@ -52415,6 +52418,212 @@
       </c>
       <c r="BP248">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7893362</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45789.85416666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>95</v>
+      </c>
+      <c r="H249" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>243</v>
+      </c>
+      <c r="P249" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q249">
+        <v>1.83</v>
+      </c>
+      <c r="R249">
+        <v>2.25</v>
+      </c>
+      <c r="S249">
+        <v>10</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.63</v>
+      </c>
+      <c r="V249">
+        <v>3</v>
+      </c>
+      <c r="W249">
+        <v>1.36</v>
+      </c>
+      <c r="X249">
+        <v>9</v>
+      </c>
+      <c r="Y249">
+        <v>1.07</v>
+      </c>
+      <c r="Z249">
+        <v>1.29</v>
+      </c>
+      <c r="AA249">
+        <v>4.31</v>
+      </c>
+      <c r="AB249">
+        <v>8.4</v>
+      </c>
+      <c r="AC249">
+        <v>1.07</v>
+      </c>
+      <c r="AD249">
+        <v>8</v>
+      </c>
+      <c r="AE249">
+        <v>1.36</v>
+      </c>
+      <c r="AF249">
+        <v>2.9</v>
+      </c>
+      <c r="AG249">
+        <v>2.1</v>
+      </c>
+      <c r="AH249">
+        <v>1.7</v>
+      </c>
+      <c r="AI249">
+        <v>2.63</v>
+      </c>
+      <c r="AJ249">
+        <v>1.44</v>
+      </c>
+      <c r="AK249">
+        <v>1.06</v>
+      </c>
+      <c r="AL249">
+        <v>1.2</v>
+      </c>
+      <c r="AM249">
+        <v>3</v>
+      </c>
+      <c r="AN249">
+        <v>1.94</v>
+      </c>
+      <c r="AO249">
+        <v>1.63</v>
+      </c>
+      <c r="AP249">
+        <v>2</v>
+      </c>
+      <c r="AQ249">
+        <v>1.53</v>
+      </c>
+      <c r="AR249">
+        <v>1.88</v>
+      </c>
+      <c r="AS249">
+        <v>1.29</v>
+      </c>
+      <c r="AT249">
+        <v>3.17</v>
+      </c>
+      <c r="AU249">
+        <v>11</v>
+      </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
+      <c r="AW249">
+        <v>4</v>
+      </c>
+      <c r="AX249">
+        <v>3</v>
+      </c>
+      <c r="AY249">
+        <v>18</v>
+      </c>
+      <c r="AZ249">
+        <v>7</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>4</v>
+      </c>
+      <c r="BC249">
+        <v>7</v>
+      </c>
+      <c r="BD249">
+        <v>1.17</v>
+      </c>
+      <c r="BE249">
+        <v>9</v>
+      </c>
+      <c r="BF249">
+        <v>5.4</v>
+      </c>
+      <c r="BG249">
+        <v>1.37</v>
+      </c>
+      <c r="BH249">
+        <v>2.8</v>
+      </c>
+      <c r="BI249">
+        <v>1.62</v>
+      </c>
+      <c r="BJ249">
+        <v>2.14</v>
+      </c>
+      <c r="BK249">
+        <v>1.96</v>
+      </c>
+      <c r="BL249">
+        <v>1.73</v>
+      </c>
+      <c r="BM249">
+        <v>2.48</v>
+      </c>
+      <c r="BN249">
+        <v>1.47</v>
+      </c>
+      <c r="BO249">
+        <v>3.15</v>
+      </c>
+      <c r="BP249">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1326,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3108,7 +3108,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ19">
         <v>0.89</v>
@@ -8670,7 +8670,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -15262,7 +15262,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -24738,7 +24738,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR114">
         <v>1.64</v>
@@ -26798,7 +26798,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.45</v>
@@ -29679,7 +29679,7 @@
         <v>0.8</v>
       </c>
       <c r="AP138">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ138">
         <v>0.5</v>
@@ -33390,7 +33390,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -36271,7 +36271,7 @@
         <v>0.8</v>
       </c>
       <c r="AP170">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ170">
         <v>0.88</v>
@@ -40806,7 +40806,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
         <v>1.85</v>
@@ -43893,7 +43893,7 @@
         <v>0.14</v>
       </c>
       <c r="AP207">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ207">
         <v>0.4</v>
@@ -47398,7 +47398,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ224">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR224">
         <v>1.68</v>
@@ -49661,7 +49661,7 @@
         <v>1.29</v>
       </c>
       <c r="AP235">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ235">
         <v>1.13</v>
@@ -51309,7 +51309,7 @@
         <v>1.31</v>
       </c>
       <c r="AP243">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ243">
         <v>1.24</v>
@@ -52339,7 +52339,7 @@
         <v>1.5</v>
       </c>
       <c r="AP248">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ248">
         <v>1.41</v>
@@ -52624,6 +52624,212 @@
       </c>
       <c r="BP249">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7897822</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45795.79166666666</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>87</v>
+      </c>
+      <c r="H250" t="s">
+        <v>93</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>100</v>
+      </c>
+      <c r="P250" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q250">
+        <v>3.5</v>
+      </c>
+      <c r="R250">
+        <v>1.83</v>
+      </c>
+      <c r="S250">
+        <v>4</v>
+      </c>
+      <c r="T250">
+        <v>1.67</v>
+      </c>
+      <c r="U250">
+        <v>2.1</v>
+      </c>
+      <c r="V250">
+        <v>4.33</v>
+      </c>
+      <c r="W250">
+        <v>1.2</v>
+      </c>
+      <c r="X250">
+        <v>15</v>
+      </c>
+      <c r="Y250">
+        <v>1.03</v>
+      </c>
+      <c r="Z250">
+        <v>2.7</v>
+      </c>
+      <c r="AA250">
+        <v>2.7</v>
+      </c>
+      <c r="AB250">
+        <v>3.2</v>
+      </c>
+      <c r="AC250">
+        <v>1.15</v>
+      </c>
+      <c r="AD250">
+        <v>5.25</v>
+      </c>
+      <c r="AE250">
+        <v>1.67</v>
+      </c>
+      <c r="AF250">
+        <v>2.15</v>
+      </c>
+      <c r="AG250">
+        <v>3.1</v>
+      </c>
+      <c r="AH250">
+        <v>1.36</v>
+      </c>
+      <c r="AI250">
+        <v>2.25</v>
+      </c>
+      <c r="AJ250">
+        <v>1.57</v>
+      </c>
+      <c r="AK250">
+        <v>1.38</v>
+      </c>
+      <c r="AL250">
+        <v>1.38</v>
+      </c>
+      <c r="AM250">
+        <v>1.44</v>
+      </c>
+      <c r="AN250">
+        <v>2.24</v>
+      </c>
+      <c r="AO250">
+        <v>1.76</v>
+      </c>
+      <c r="AP250">
+        <v>2.11</v>
+      </c>
+      <c r="AQ250">
+        <v>1.83</v>
+      </c>
+      <c r="AR250">
+        <v>1.42</v>
+      </c>
+      <c r="AS250">
+        <v>1.5</v>
+      </c>
+      <c r="AT250">
+        <v>2.92</v>
+      </c>
+      <c r="AU250">
+        <v>8</v>
+      </c>
+      <c r="AV250">
+        <v>4</v>
+      </c>
+      <c r="AW250">
+        <v>9</v>
+      </c>
+      <c r="AX250">
+        <v>4</v>
+      </c>
+      <c r="AY250">
+        <v>19</v>
+      </c>
+      <c r="AZ250">
+        <v>8</v>
+      </c>
+      <c r="BA250">
+        <v>7</v>
+      </c>
+      <c r="BB250">
+        <v>4</v>
+      </c>
+      <c r="BC250">
+        <v>11</v>
+      </c>
+      <c r="BD250">
+        <v>1.63</v>
+      </c>
+      <c r="BE250">
+        <v>6.5</v>
+      </c>
+      <c r="BF250">
+        <v>2.55</v>
+      </c>
+      <c r="BG250">
+        <v>1.47</v>
+      </c>
+      <c r="BH250">
+        <v>2.43</v>
+      </c>
+      <c r="BI250">
+        <v>1.82</v>
+      </c>
+      <c r="BJ250">
+        <v>1.86</v>
+      </c>
+      <c r="BK250">
+        <v>2.3</v>
+      </c>
+      <c r="BL250">
+        <v>1.54</v>
+      </c>
+      <c r="BM250">
+        <v>2.95</v>
+      </c>
+      <c r="BN250">
+        <v>1.33</v>
+      </c>
+      <c r="BO250">
+        <v>3.95</v>
+      </c>
+      <c r="BP250">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1326,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6198,7 +6198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ31">
         <v>1.44</v>
@@ -10109,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -12172,7 +12172,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -15259,7 +15259,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -19588,7 +19588,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -21648,7 +21648,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
         <v>1.77</v>
@@ -22469,7 +22469,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -24529,7 +24529,7 @@
         <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ113">
         <v>0.4</v>
@@ -29061,7 +29061,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -29270,7 +29270,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.23</v>
@@ -35862,7 +35862,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ168">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>1.54</v>
@@ -37713,7 +37713,7 @@
         <v>1.67</v>
       </c>
       <c r="AP177">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ177">
         <v>1.22</v>
@@ -43278,7 +43278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ204">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR204">
         <v>1.17</v>
@@ -44305,7 +44305,7 @@
         <v>1.17</v>
       </c>
       <c r="AP209">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ209">
         <v>1.11</v>
@@ -48013,7 +48013,7 @@
         <v>0.88</v>
       </c>
       <c r="AP227">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ227">
         <v>0.7</v>
@@ -49252,7 +49252,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ233">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
         <v>1.8</v>
@@ -51103,7 +51103,7 @@
         <v>1.69</v>
       </c>
       <c r="AP242">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ242">
         <v>1.59</v>
@@ -52133,7 +52133,7 @@
         <v>1.13</v>
       </c>
       <c r="AP247">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ247">
         <v>1.06</v>
@@ -52830,6 +52830,212 @@
       </c>
       <c r="BP250">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7897821</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45796.79166666666</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>98</v>
+      </c>
+      <c r="H251" t="s">
+        <v>79</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>179</v>
+      </c>
+      <c r="P251" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q251">
+        <v>2.6</v>
+      </c>
+      <c r="R251">
+        <v>1.91</v>
+      </c>
+      <c r="S251">
+        <v>5.5</v>
+      </c>
+      <c r="T251">
+        <v>1.57</v>
+      </c>
+      <c r="U251">
+        <v>2.25</v>
+      </c>
+      <c r="V251">
+        <v>3.75</v>
+      </c>
+      <c r="W251">
+        <v>1.25</v>
+      </c>
+      <c r="X251">
+        <v>13</v>
+      </c>
+      <c r="Y251">
+        <v>1.04</v>
+      </c>
+      <c r="Z251">
+        <v>1.9</v>
+      </c>
+      <c r="AA251">
+        <v>2.9</v>
+      </c>
+      <c r="AB251">
+        <v>5.25</v>
+      </c>
+      <c r="AC251">
+        <v>1.08</v>
+      </c>
+      <c r="AD251">
+        <v>6.1</v>
+      </c>
+      <c r="AE251">
+        <v>1.59</v>
+      </c>
+      <c r="AF251">
+        <v>2.35</v>
+      </c>
+      <c r="AG251">
+        <v>2.88</v>
+      </c>
+      <c r="AH251">
+        <v>1.4</v>
+      </c>
+      <c r="AI251">
+        <v>2.38</v>
+      </c>
+      <c r="AJ251">
+        <v>1.53</v>
+      </c>
+      <c r="AK251">
+        <v>1.21</v>
+      </c>
+      <c r="AL251">
+        <v>1.36</v>
+      </c>
+      <c r="AM251">
+        <v>1.87</v>
+      </c>
+      <c r="AN251">
+        <v>2.12</v>
+      </c>
+      <c r="AO251">
+        <v>1.76</v>
+      </c>
+      <c r="AP251">
+        <v>2.06</v>
+      </c>
+      <c r="AQ251">
+        <v>1.72</v>
+      </c>
+      <c r="AR251">
+        <v>1.67</v>
+      </c>
+      <c r="AS251">
+        <v>1.29</v>
+      </c>
+      <c r="AT251">
+        <v>2.96</v>
+      </c>
+      <c r="AU251">
+        <v>4</v>
+      </c>
+      <c r="AV251">
+        <v>3</v>
+      </c>
+      <c r="AW251">
+        <v>7</v>
+      </c>
+      <c r="AX251">
+        <v>3</v>
+      </c>
+      <c r="AY251">
+        <v>13</v>
+      </c>
+      <c r="AZ251">
+        <v>8</v>
+      </c>
+      <c r="BA251">
+        <v>4</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>4</v>
+      </c>
+      <c r="BD251">
+        <v>1.38</v>
+      </c>
+      <c r="BE251">
+        <v>7</v>
+      </c>
+      <c r="BF251">
+        <v>3.4</v>
+      </c>
+      <c r="BG251">
+        <v>1.41</v>
+      </c>
+      <c r="BH251">
+        <v>2.68</v>
+      </c>
+      <c r="BI251">
+        <v>1.71</v>
+      </c>
+      <c r="BJ251">
+        <v>2.07</v>
+      </c>
+      <c r="BK251">
+        <v>2.14</v>
+      </c>
+      <c r="BL251">
+        <v>1.66</v>
+      </c>
+      <c r="BM251">
+        <v>2.73</v>
+      </c>
+      <c r="BN251">
+        <v>1.4</v>
+      </c>
+      <c r="BO251">
+        <v>3.68</v>
+      </c>
+      <c r="BP251">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1326,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -5992,7 +5992,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -12584,7 +12584,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -14023,7 +14023,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -19382,7 +19382,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.23</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -22881,7 +22881,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -25562,7 +25562,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.5</v>
@@ -26592,7 +26592,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.76</v>
@@ -30709,7 +30709,7 @@
         <v>2</v>
       </c>
       <c r="AP143">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ143">
         <v>1.22</v>
@@ -37098,7 +37098,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>2.03</v>
@@ -37507,7 +37507,7 @@
         <v>1.4</v>
       </c>
       <c r="AP176">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ176">
         <v>1.11</v>
@@ -43069,7 +43069,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ203">
         <v>0.7</v>
@@ -47810,7 +47810,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ226">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR226">
         <v>1.76</v>
@@ -49664,7 +49664,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ235">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR235">
         <v>1.57</v>
@@ -51721,7 +51721,7 @@
         <v>1.25</v>
       </c>
       <c r="AP245">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ245">
         <v>1.24</v>
@@ -51927,7 +51927,7 @@
         <v>1.69</v>
       </c>
       <c r="AP246">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ246">
         <v>1.59</v>
@@ -53036,6 +53036,212 @@
       </c>
       <c r="BP251">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7897820</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45796.89583333334</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>83</v>
+      </c>
+      <c r="H252" t="s">
+        <v>76</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>100</v>
+      </c>
+      <c r="P252" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q252">
+        <v>2.88</v>
+      </c>
+      <c r="R252">
+        <v>1.91</v>
+      </c>
+      <c r="S252">
+        <v>4.75</v>
+      </c>
+      <c r="T252">
+        <v>1.57</v>
+      </c>
+      <c r="U252">
+        <v>2.25</v>
+      </c>
+      <c r="V252">
+        <v>3.75</v>
+      </c>
+      <c r="W252">
+        <v>1.25</v>
+      </c>
+      <c r="X252">
+        <v>13</v>
+      </c>
+      <c r="Y252">
+        <v>1.04</v>
+      </c>
+      <c r="Z252">
+        <v>2.15</v>
+      </c>
+      <c r="AA252">
+        <v>3</v>
+      </c>
+      <c r="AB252">
+        <v>3.75</v>
+      </c>
+      <c r="AC252">
+        <v>1.07</v>
+      </c>
+      <c r="AD252">
+        <v>6.3</v>
+      </c>
+      <c r="AE252">
+        <v>1.53</v>
+      </c>
+      <c r="AF252">
+        <v>2.3</v>
+      </c>
+      <c r="AG252">
+        <v>2.7</v>
+      </c>
+      <c r="AH252">
+        <v>1.44</v>
+      </c>
+      <c r="AI252">
+        <v>2.2</v>
+      </c>
+      <c r="AJ252">
+        <v>1.62</v>
+      </c>
+      <c r="AK252">
+        <v>1.26</v>
+      </c>
+      <c r="AL252">
+        <v>1.32</v>
+      </c>
+      <c r="AM252">
+        <v>1.75</v>
+      </c>
+      <c r="AN252">
+        <v>2</v>
+      </c>
+      <c r="AO252">
+        <v>1.88</v>
+      </c>
+      <c r="AP252">
+        <v>1.89</v>
+      </c>
+      <c r="AQ252">
+        <v>1.94</v>
+      </c>
+      <c r="AR252">
+        <v>1.54</v>
+      </c>
+      <c r="AS252">
+        <v>1.5</v>
+      </c>
+      <c r="AT252">
+        <v>3.04</v>
+      </c>
+      <c r="AU252">
+        <v>2</v>
+      </c>
+      <c r="AV252">
+        <v>6</v>
+      </c>
+      <c r="AW252">
+        <v>6</v>
+      </c>
+      <c r="AX252">
+        <v>8</v>
+      </c>
+      <c r="AY252">
+        <v>11</v>
+      </c>
+      <c r="AZ252">
+        <v>17</v>
+      </c>
+      <c r="BA252">
+        <v>7</v>
+      </c>
+      <c r="BB252">
+        <v>6</v>
+      </c>
+      <c r="BC252">
+        <v>13</v>
+      </c>
+      <c r="BD252">
+        <v>1.58</v>
+      </c>
+      <c r="BE252">
+        <v>6.75</v>
+      </c>
+      <c r="BF252">
+        <v>2.55</v>
+      </c>
+      <c r="BG252">
+        <v>1.42</v>
+      </c>
+      <c r="BH252">
+        <v>2.63</v>
+      </c>
+      <c r="BI252">
+        <v>1.7</v>
+      </c>
+      <c r="BJ252">
+        <v>2</v>
+      </c>
+      <c r="BK252">
+        <v>2.1</v>
+      </c>
+      <c r="BL252">
+        <v>1.63</v>
+      </c>
+      <c r="BM252">
+        <v>2.7</v>
+      </c>
+      <c r="BN252">
+        <v>1.4</v>
+      </c>
+      <c r="BO252">
+        <v>3.55</v>
+      </c>
+      <c r="BP252">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,10 +559,10 @@
     <t>['38', '55']</t>
   </si>
   <si>
-    <t>['33', '54']</t>
+    <t>['25']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['33', '54']</t>
   </si>
   <si>
     <t>['69', '88']</t>
@@ -613,31 +613,31 @@
     <t>['5', '45+3']</t>
   </si>
   <si>
+    <t>['58', '90+1']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['58', '90+1']</t>
+    <t>['24', '48', '68']</t>
   </si>
   <si>
     <t>['16', '65']</t>
   </si>
   <si>
-    <t>['24', '48', '68']</t>
+    <t>['29']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['5', '12', '24', '31']</t>
+    <t>['42', '46', '55', '75']</t>
   </si>
   <si>
-    <t>['42', '46', '55', '75']</t>
+    <t>['5', '12', '24', '31']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -709,9 +709,6 @@
     <t>['24', '87']</t>
   </si>
   <si>
-    <t>['26', '27', '60', '65']</t>
-  </si>
-  <si>
     <t>['1', '35', '63']</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['26', '27', '60', '65']</t>
   </si>
   <si>
     <t>['36', '62', '83']</t>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>['12', '43', '88']</t>
+  </si>
+  <si>
+    <t>['90+12']</t>
   </si>
   <si>
     <t>['18', '26', '48']</t>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1588,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>3.75</v>
@@ -1997,7 +2000,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2409,7 +2412,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2615,7 +2618,7 @@
         <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3233,7 +3236,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -5087,7 +5090,7 @@
         <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>2.95</v>
@@ -5705,7 +5708,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>2.63</v>
@@ -5786,7 +5789,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5911,7 +5914,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6117,7 +6120,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6529,7 +6532,7 @@
         <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6813,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6941,7 +6944,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -9413,7 +9416,7 @@
         <v>124</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -10112,7 +10115,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10237,7 +10240,7 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10443,7 +10446,7 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10649,7 +10652,7 @@
         <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10855,7 +10858,7 @@
         <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>3.3</v>
@@ -11061,7 +11064,7 @@
         <v>104</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3.15</v>
@@ -11679,7 +11682,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -12297,7 +12300,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12581,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12915,7 +12918,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13739,7 +13742,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>3.9</v>
@@ -14975,7 +14978,7 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -16086,7 +16089,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -16211,7 +16214,7 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>4.5</v>
@@ -17035,7 +17038,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17241,7 +17244,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17653,7 +17656,7 @@
         <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17859,7 +17862,7 @@
         <v>150</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>2.75</v>
@@ -18065,7 +18068,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18349,7 +18352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ83">
         <v>0.89</v>
@@ -18683,7 +18686,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>2.75</v>
@@ -19507,7 +19510,7 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19713,7 +19716,7 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -20206,7 +20209,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
         <v>1.29</v>
@@ -20331,7 +20334,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20949,7 +20952,7 @@
         <v>161</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>2.1</v>
@@ -21155,7 +21158,7 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>6.5</v>
@@ -21979,7 +21982,7 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -23421,7 +23424,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23627,7 +23630,7 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23705,7 +23708,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109">
         <v>0.7</v>
@@ -24039,7 +24042,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24245,7 +24248,7 @@
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>3.6</v>
@@ -24657,7 +24660,7 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3.25</v>
@@ -24863,7 +24866,7 @@
         <v>153</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>3.5</v>
@@ -25069,7 +25072,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25275,7 +25278,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -26099,7 +26102,7 @@
         <v>175</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>4.33</v>
@@ -26305,7 +26308,7 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -26511,7 +26514,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -26717,7 +26720,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q124">
         <v>2.63</v>
@@ -27541,7 +27544,7 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27825,7 +27828,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -28365,7 +28368,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>2.75</v>
@@ -28983,7 +28986,7 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29559,7 +29562,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7820454</v>
+        <v>7820453</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29574,10 +29577,10 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H138" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29589,175 +29592,175 @@
         <v>2</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O138" t="s">
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="Q138">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R138">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.5</v>
+      </c>
+      <c r="W138">
+        <v>1.29</v>
+      </c>
+      <c r="X138">
+        <v>11</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
         <v>1.62</v>
       </c>
-      <c r="U138">
+      <c r="AA138">
+        <v>3.6</v>
+      </c>
+      <c r="AB138">
+        <v>6</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.42</v>
+      </c>
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>2.3</v>
+      </c>
+      <c r="AH138">
+        <v>1.6</v>
+      </c>
+      <c r="AI138">
         <v>2.2</v>
       </c>
-      <c r="V138">
-        <v>4</v>
-      </c>
-      <c r="W138">
-        <v>1.22</v>
-      </c>
-      <c r="X138">
-        <v>13</v>
-      </c>
-      <c r="Y138">
-        <v>1.04</v>
-      </c>
-      <c r="Z138">
-        <v>1.91</v>
-      </c>
-      <c r="AA138">
-        <v>3.1</v>
-      </c>
-      <c r="AB138">
-        <v>4.75</v>
-      </c>
-      <c r="AC138">
-        <v>1.11</v>
-      </c>
-      <c r="AD138">
-        <v>6.25</v>
-      </c>
-      <c r="AE138">
-        <v>1.51</v>
-      </c>
-      <c r="AF138">
-        <v>2.35</v>
-      </c>
-      <c r="AG138">
-        <v>2.7</v>
-      </c>
-      <c r="AH138">
-        <v>1.44</v>
-      </c>
-      <c r="AI138">
-        <v>2.25</v>
-      </c>
       <c r="AJ138">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AK138">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AL138">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM138">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AN138">
         <v>3</v>
       </c>
       <c r="AO138">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP138">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR138">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AS138">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="AT138">
-        <v>2.35</v>
+        <v>3.37</v>
       </c>
       <c r="AU138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV138">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW138">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX138">
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ138">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
         <v>4</v>
       </c>
-      <c r="BB138">
-        <v>3</v>
-      </c>
       <c r="BC138">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD138">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BE138">
         <v>6.75</v>
       </c>
       <c r="BF138">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BG138">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BH138">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BI138">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BJ138">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="BK138">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BL138">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BM138">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BN138">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO138">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BP138">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29765,7 +29768,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7820453</v>
+        <v>7820454</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29780,10 +29783,10 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -29795,175 +29798,175 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O139" t="s">
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="Q139">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S139">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U139">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W139">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X139">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y139">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z139">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AA139">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB139">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AC139">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AD139">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AE139">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AF139">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AG139">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH139">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI139">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ139">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK139">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AL139">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM139">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AN139">
         <v>3</v>
       </c>
       <c r="AO139">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AS139">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AT139">
-        <v>3.37</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
         <v>3</v>
-      </c>
-      <c r="AW139">
-        <v>10</v>
       </c>
       <c r="AX139">
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC139">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD139">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BE139">
         <v>6.75</v>
       </c>
       <c r="BF139">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BG139">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BH139">
+        <v>2.7</v>
+      </c>
+      <c r="BI139">
+        <v>1.66</v>
+      </c>
+      <c r="BJ139">
+        <v>2.07</v>
+      </c>
+      <c r="BK139">
+        <v>2.05</v>
+      </c>
+      <c r="BL139">
+        <v>1.67</v>
+      </c>
+      <c r="BM139">
         <v>2.55</v>
       </c>
-      <c r="BI139">
-        <v>1.73</v>
-      </c>
-      <c r="BJ139">
-        <v>1.97</v>
-      </c>
-      <c r="BK139">
-        <v>2.15</v>
-      </c>
-      <c r="BL139">
-        <v>1.61</v>
-      </c>
-      <c r="BM139">
-        <v>2.8</v>
-      </c>
       <c r="BN139">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="BO139">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="BP139">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29971,7 +29974,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7820455</v>
+        <v>7820456</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29986,10 +29989,10 @@
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -30001,28 +30004,28 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="P140" t="s">
         <v>100</v>
       </c>
       <c r="Q140">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="R140">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="T140">
         <v>1.57</v>
@@ -30031,145 +30034,145 @@
         <v>2.25</v>
       </c>
       <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>11</v>
+      </c>
+      <c r="Y140">
+        <v>1.05</v>
+      </c>
+      <c r="Z140">
         <v>4</v>
       </c>
-      <c r="W140">
-        <v>1.22</v>
-      </c>
-      <c r="X140">
-        <v>13</v>
-      </c>
-      <c r="Y140">
-        <v>1.04</v>
-      </c>
-      <c r="Z140">
-        <v>1.75</v>
-      </c>
       <c r="AA140">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC140">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD140">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE140">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AF140">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AG140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH140">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI140">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ140">
+        <v>1.62</v>
+      </c>
+      <c r="AK140">
+        <v>1.51</v>
+      </c>
+      <c r="AL140">
+        <v>1.35</v>
+      </c>
+      <c r="AM140">
+        <v>1.38</v>
+      </c>
+      <c r="AN140">
         <v>1.5</v>
       </c>
-      <c r="AK140">
-        <v>1.17</v>
-      </c>
-      <c r="AL140">
-        <v>1.34</v>
-      </c>
-      <c r="AM140">
-        <v>1.93</v>
-      </c>
-      <c r="AN140">
-        <v>2.5</v>
-      </c>
       <c r="AO140">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR140">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AS140">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="AT140">
-        <v>2.96</v>
+        <v>4.02</v>
       </c>
       <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>8</v>
+      </c>
+      <c r="AW140">
         <v>6</v>
       </c>
-      <c r="AV140">
-        <v>2</v>
-      </c>
-      <c r="AW140">
-        <v>2</v>
-      </c>
       <c r="AX140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY140">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
+        <v>18</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
         <v>7</v>
       </c>
-      <c r="BA140">
-        <v>1</v>
-      </c>
-      <c r="BB140">
-        <v>4</v>
-      </c>
       <c r="BC140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD140">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE140">
         <v>6.4</v>
       </c>
       <c r="BF140">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="BG140">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BH140">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BI140">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="BJ140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BK140">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="BL140">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="BM140">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BN140">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BO140">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BP140">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30177,7 +30180,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7820456</v>
+        <v>7820455</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30192,10 +30195,10 @@
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -30207,28 +30210,28 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="P141" t="s">
         <v>100</v>
       </c>
       <c r="Q141">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S141">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="T141">
         <v>1.57</v>
@@ -30237,145 +30240,145 @@
         <v>2.25</v>
       </c>
       <c r="V141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X141">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y141">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z141">
+        <v>1.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.5</v>
+      </c>
+      <c r="AB141">
+        <v>5</v>
+      </c>
+      <c r="AC141">
+        <v>1.11</v>
+      </c>
+      <c r="AD141">
+        <v>6.25</v>
+      </c>
+      <c r="AE141">
+        <v>1.53</v>
+      </c>
+      <c r="AF141">
+        <v>2.3</v>
+      </c>
+      <c r="AG141">
+        <v>2.6</v>
+      </c>
+      <c r="AH141">
+        <v>1.48</v>
+      </c>
+      <c r="AI141">
+        <v>2.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.5</v>
+      </c>
+      <c r="AK141">
+        <v>1.17</v>
+      </c>
+      <c r="AL141">
+        <v>1.34</v>
+      </c>
+      <c r="AM141">
+        <v>1.93</v>
+      </c>
+      <c r="AN141">
+        <v>2.5</v>
+      </c>
+      <c r="AO141">
+        <v>1.75</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>1.33</v>
+      </c>
+      <c r="AR141">
+        <v>1.7</v>
+      </c>
+      <c r="AS141">
+        <v>1.26</v>
+      </c>
+      <c r="AT141">
+        <v>2.96</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>2</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
         <v>4</v>
       </c>
-      <c r="AA141">
-        <v>3.3</v>
-      </c>
-      <c r="AB141">
-        <v>2</v>
-      </c>
-      <c r="AC141">
-        <v>1.1</v>
-      </c>
-      <c r="AD141">
-        <v>6.5</v>
-      </c>
-      <c r="AE141">
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>1</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>5</v>
+      </c>
+      <c r="BD141">
         <v>1.5</v>
-      </c>
-      <c r="AF141">
-        <v>2.55</v>
-      </c>
-      <c r="AG141">
-        <v>2.5</v>
-      </c>
-      <c r="AH141">
-        <v>1.5</v>
-      </c>
-      <c r="AI141">
-        <v>2.2</v>
-      </c>
-      <c r="AJ141">
-        <v>1.62</v>
-      </c>
-      <c r="AK141">
-        <v>1.51</v>
-      </c>
-      <c r="AL141">
-        <v>1.35</v>
-      </c>
-      <c r="AM141">
-        <v>1.38</v>
-      </c>
-      <c r="AN141">
-        <v>1.5</v>
-      </c>
-      <c r="AO141">
-        <v>1.33</v>
-      </c>
-      <c r="AP141">
-        <v>1.13</v>
-      </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
-      <c r="AR141">
-        <v>1.98</v>
-      </c>
-      <c r="AS141">
-        <v>2.04</v>
-      </c>
-      <c r="AT141">
-        <v>4.02</v>
-      </c>
-      <c r="AU141">
-        <v>3</v>
-      </c>
-      <c r="AV141">
-        <v>8</v>
-      </c>
-      <c r="AW141">
-        <v>6</v>
-      </c>
-      <c r="AX141">
-        <v>8</v>
-      </c>
-      <c r="AY141">
-        <v>10</v>
-      </c>
-      <c r="AZ141">
-        <v>18</v>
-      </c>
-      <c r="BA141">
-        <v>2</v>
-      </c>
-      <c r="BB141">
-        <v>7</v>
-      </c>
-      <c r="BC141">
-        <v>9</v>
-      </c>
-      <c r="BD141">
-        <v>2.23</v>
       </c>
       <c r="BE141">
         <v>6.4</v>
       </c>
       <c r="BF141">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="BG141">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BH141">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BI141">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="BJ141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BK141">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="BL141">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BM141">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BN141">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BO141">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BP141">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -31249,7 +31252,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31455,7 +31458,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31661,7 +31664,7 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31742,7 +31745,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
         <v>1.46</v>
@@ -31867,7 +31870,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32073,7 +32076,7 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32691,7 +32694,7 @@
         <v>190</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32897,7 +32900,7 @@
         <v>191</v>
       </c>
       <c r="P154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33103,7 +33106,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33267,7 +33270,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7820470</v>
+        <v>7820477</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33282,10 +33285,10 @@
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H156" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33297,175 +33300,175 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="Q156">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R156">
         <v>1.8</v>
       </c>
       <c r="S156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T156">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U156">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W156">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X156">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y156">
         <v>1.03</v>
       </c>
       <c r="Z156">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA156">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB156">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC156">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD156">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AE156">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AF156">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AG156">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH156">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI156">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ156">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK156">
+        <v>1.34</v>
+      </c>
+      <c r="AL156">
+        <v>1.41</v>
+      </c>
+      <c r="AM156">
         <v>1.49</v>
       </c>
-      <c r="AL156">
-        <v>1.4</v>
-      </c>
-      <c r="AM156">
-        <v>1.35</v>
-      </c>
       <c r="AN156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO156">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ156">
-        <v>1.67</v>
+        <v>0.89</v>
       </c>
       <c r="AR156">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AS156">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT156">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="AU156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW156">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX156">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ156">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BA156">
         <v>3</v>
       </c>
       <c r="BB156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD156">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BE156">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF156">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="BG156">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BH156">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BI156">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ156">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BK156">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="BL156">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="BM156">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BN156">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO156">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP156">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33473,7 +33476,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7820477</v>
+        <v>7820470</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33488,10 +33491,10 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H157" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -33503,175 +33506,175 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="Q157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R157">
         <v>1.8</v>
       </c>
       <c r="S157">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T157">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V157">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W157">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X157">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y157">
         <v>1.03</v>
       </c>
       <c r="Z157">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AA157">
+        <v>2.9</v>
+      </c>
+      <c r="AB157">
+        <v>2.55</v>
+      </c>
+      <c r="AC157">
+        <v>1.12</v>
+      </c>
+      <c r="AD157">
+        <v>5.25</v>
+      </c>
+      <c r="AE157">
+        <v>1.52</v>
+      </c>
+      <c r="AF157">
+        <v>2.45</v>
+      </c>
+      <c r="AG157">
+        <v>3.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.36</v>
+      </c>
+      <c r="AI157">
+        <v>2.38</v>
+      </c>
+      <c r="AJ157">
+        <v>1.53</v>
+      </c>
+      <c r="AK157">
+        <v>1.49</v>
+      </c>
+      <c r="AL157">
+        <v>1.4</v>
+      </c>
+      <c r="AM157">
+        <v>1.35</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
+        <v>1.6</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>1.67</v>
+      </c>
+      <c r="AR157">
+        <v>1.34</v>
+      </c>
+      <c r="AS157">
+        <v>1.34</v>
+      </c>
+      <c r="AT157">
+        <v>2.68</v>
+      </c>
+      <c r="AU157">
         <v>3</v>
       </c>
-      <c r="AB157">
-        <v>3.4</v>
-      </c>
-      <c r="AC157">
-        <v>1.13</v>
-      </c>
-      <c r="AD157">
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>15</v>
+      </c>
+      <c r="AZ157">
         <v>5</v>
-      </c>
-      <c r="AE157">
-        <v>1.6</v>
-      </c>
-      <c r="AF157">
-        <v>2.28</v>
-      </c>
-      <c r="AG157">
-        <v>3.4</v>
-      </c>
-      <c r="AH157">
-        <v>1.33</v>
-      </c>
-      <c r="AI157">
-        <v>2.5</v>
-      </c>
-      <c r="AJ157">
-        <v>1.5</v>
-      </c>
-      <c r="AK157">
-        <v>1.34</v>
-      </c>
-      <c r="AL157">
-        <v>1.41</v>
-      </c>
-      <c r="AM157">
-        <v>1.49</v>
-      </c>
-      <c r="AN157">
-        <v>2</v>
-      </c>
-      <c r="AO157">
-        <v>1</v>
-      </c>
-      <c r="AP157">
-        <v>1.89</v>
-      </c>
-      <c r="AQ157">
-        <v>0.89</v>
-      </c>
-      <c r="AR157">
-        <v>1.71</v>
-      </c>
-      <c r="AS157">
-        <v>1.33</v>
-      </c>
-      <c r="AT157">
-        <v>3.04</v>
-      </c>
-      <c r="AU157">
-        <v>4</v>
-      </c>
-      <c r="AV157">
-        <v>6</v>
-      </c>
-      <c r="AW157">
-        <v>6</v>
-      </c>
-      <c r="AX157">
-        <v>12</v>
-      </c>
-      <c r="AY157">
-        <v>11</v>
-      </c>
-      <c r="AZ157">
-        <v>20</v>
       </c>
       <c r="BA157">
         <v>3</v>
       </c>
       <c r="BB157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC157">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD157">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BE157">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF157">
+        <v>2.18</v>
+      </c>
+      <c r="BG157">
+        <v>1.55</v>
+      </c>
+      <c r="BH157">
+        <v>2.28</v>
+      </c>
+      <c r="BI157">
+        <v>1.85</v>
+      </c>
+      <c r="BJ157">
+        <v>1.85</v>
+      </c>
+      <c r="BK157">
         <v>2.43</v>
       </c>
-      <c r="BG157">
-        <v>1.41</v>
-      </c>
-      <c r="BH157">
-        <v>2.65</v>
-      </c>
-      <c r="BI157">
-        <v>1.68</v>
-      </c>
-      <c r="BJ157">
-        <v>2.04</v>
-      </c>
-      <c r="BK157">
-        <v>1.93</v>
-      </c>
       <c r="BL157">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="BM157">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BN157">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO157">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="BP157">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33679,7 +33682,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7820475</v>
+        <v>7820474</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33694,43 +33697,43 @@
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H158" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M158">
         <v>1</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="P158" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S158">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T158">
         <v>1.67</v>
@@ -33739,10 +33742,10 @@
         <v>2.1</v>
       </c>
       <c r="V158">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W158">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X158">
         <v>15</v>
@@ -33751,31 +33754,31 @@
         <v>1.03</v>
       </c>
       <c r="Z158">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA158">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB158">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AC158">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD158">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AE158">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AF158">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AG158">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AH158">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AI158">
         <v>2.5</v>
@@ -33784,76 +33787,76 @@
         <v>1.5</v>
       </c>
       <c r="AK158">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AL158">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AM158">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AN158">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AO158">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="AQ158">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AS158">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AT158">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU158">
+        <v>2</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>3</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>5</v>
+      </c>
+      <c r="AZ158">
         <v>7</v>
       </c>
-      <c r="AV158">
-        <v>3</v>
-      </c>
-      <c r="AW158">
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>1</v>
+      </c>
+      <c r="BC158">
         <v>5</v>
       </c>
-      <c r="AX158">
-        <v>5</v>
-      </c>
-      <c r="AY158">
-        <v>14</v>
-      </c>
-      <c r="AZ158">
-        <v>9</v>
-      </c>
-      <c r="BA158">
-        <v>3</v>
-      </c>
-      <c r="BB158">
-        <v>3</v>
-      </c>
-      <c r="BC158">
-        <v>6</v>
-      </c>
       <c r="BD158">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="BE158">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF158">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="BG158">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="BH158">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="BI158">
         <v>1.7</v>
@@ -33862,22 +33865,22 @@
         <v>2.05</v>
       </c>
       <c r="BK158">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BL158">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BM158">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BN158">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BO158">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP158">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33885,7 +33888,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7820474</v>
+        <v>7820475</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33900,43 +33903,43 @@
         <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H159" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>1</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M159">
         <v>1</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R159">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T159">
         <v>1.67</v>
@@ -33945,10 +33948,10 @@
         <v>2.1</v>
       </c>
       <c r="V159">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W159">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X159">
         <v>15</v>
@@ -33957,31 +33960,31 @@
         <v>1.03</v>
       </c>
       <c r="Z159">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA159">
+        <v>3</v>
+      </c>
+      <c r="AB159">
+        <v>3.9</v>
+      </c>
+      <c r="AC159">
+        <v>1.12</v>
+      </c>
+      <c r="AD159">
+        <v>5.25</v>
+      </c>
+      <c r="AE159">
+        <v>1.65</v>
+      </c>
+      <c r="AF159">
+        <v>2.1</v>
+      </c>
+      <c r="AG159">
         <v>3.1</v>
       </c>
-      <c r="AB159">
-        <v>4.5</v>
-      </c>
-      <c r="AC159">
-        <v>1.11</v>
-      </c>
-      <c r="AD159">
-        <v>5.5</v>
-      </c>
-      <c r="AE159">
-        <v>1.6</v>
-      </c>
-      <c r="AF159">
-        <v>2.15</v>
-      </c>
-      <c r="AG159">
-        <v>2.88</v>
-      </c>
       <c r="AH159">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI159">
         <v>2.5</v>
@@ -33990,76 +33993,76 @@
         <v>1.5</v>
       </c>
       <c r="AK159">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AL159">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AM159">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
         <v>0.8</v>
       </c>
-      <c r="AO159">
-        <v>1.6</v>
-      </c>
       <c r="AP159">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR159">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AS159">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="AT159">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU159">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>14</v>
+      </c>
+      <c r="AZ159">
+        <v>9</v>
+      </c>
+      <c r="BA159">
         <v>3</v>
       </c>
-      <c r="AX159">
+      <c r="BB159">
         <v>3</v>
       </c>
-      <c r="AY159">
-        <v>5</v>
-      </c>
-      <c r="AZ159">
-        <v>7</v>
-      </c>
-      <c r="BA159">
-        <v>4</v>
-      </c>
-      <c r="BB159">
-        <v>1</v>
-      </c>
       <c r="BC159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD159">
+        <v>1.58</v>
+      </c>
+      <c r="BE159">
+        <v>6.75</v>
+      </c>
+      <c r="BF159">
+        <v>2.6</v>
+      </c>
+      <c r="BG159">
         <v>1.43</v>
       </c>
-      <c r="BE159">
-        <v>7</v>
-      </c>
-      <c r="BF159">
-        <v>3.15</v>
-      </c>
-      <c r="BG159">
-        <v>1.35</v>
-      </c>
       <c r="BH159">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="BI159">
         <v>1.7</v>
@@ -34068,22 +34071,22 @@
         <v>2.05</v>
       </c>
       <c r="BK159">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BL159">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BM159">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BN159">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BO159">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BP159">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34339,7 +34342,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -34751,7 +34754,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>2.1</v>
@@ -34829,7 +34832,7 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -34957,7 +34960,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>3.75</v>
@@ -35781,7 +35784,7 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35945,7 +35948,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7820494</v>
+        <v>7820491</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35960,151 +35963,151 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="Q169">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.62</v>
+      </c>
+      <c r="U169">
+        <v>2.2</v>
+      </c>
+      <c r="V169">
         <v>4</v>
       </c>
-      <c r="T169">
+      <c r="W169">
+        <v>1.22</v>
+      </c>
+      <c r="X169">
+        <v>13</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>4.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.14</v>
+      </c>
+      <c r="AD169">
+        <v>6.21</v>
+      </c>
+      <c r="AE169">
+        <v>1.53</v>
+      </c>
+      <c r="AF169">
+        <v>2.3</v>
+      </c>
+      <c r="AG169">
+        <v>2.7</v>
+      </c>
+      <c r="AH169">
+        <v>1.44</v>
+      </c>
+      <c r="AI169">
+        <v>2.25</v>
+      </c>
+      <c r="AJ169">
+        <v>1.57</v>
+      </c>
+      <c r="AK169">
+        <v>1.22</v>
+      </c>
+      <c r="AL169">
+        <v>1.33</v>
+      </c>
+      <c r="AM169">
         <v>1.73</v>
       </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>4.5</v>
-      </c>
-      <c r="W169">
-        <v>1.18</v>
-      </c>
-      <c r="X169">
-        <v>17</v>
-      </c>
-      <c r="Y169">
-        <v>1.03</v>
-      </c>
-      <c r="Z169">
+      <c r="AN169">
         <v>3</v>
       </c>
-      <c r="AA169">
-        <v>2.6</v>
-      </c>
-      <c r="AB169">
+      <c r="AO169">
+        <v>0.8</v>
+      </c>
+      <c r="AP169">
+        <v>2.67</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.32</v>
+      </c>
+      <c r="AS169">
+        <v>0.98</v>
+      </c>
+      <c r="AT169">
+        <v>2.3</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>1</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>5</v>
+      </c>
+      <c r="BA169">
+        <v>10</v>
+      </c>
+      <c r="BB169">
         <v>3</v>
       </c>
-      <c r="AC169">
-        <v>1.17</v>
-      </c>
-      <c r="AD169">
-        <v>5.36</v>
-      </c>
-      <c r="AE169">
-        <v>1.67</v>
-      </c>
-      <c r="AF169">
-        <v>2.05</v>
-      </c>
-      <c r="AG169">
-        <v>3.4</v>
-      </c>
-      <c r="AH169">
-        <v>1.33</v>
-      </c>
-      <c r="AI169">
-        <v>2.38</v>
-      </c>
-      <c r="AJ169">
-        <v>1.53</v>
-      </c>
-      <c r="AK169">
-        <v>1.44</v>
-      </c>
-      <c r="AL169">
-        <v>1.38</v>
-      </c>
-      <c r="AM169">
-        <v>1.38</v>
-      </c>
-      <c r="AN169">
-        <v>0.8</v>
-      </c>
-      <c r="AO169">
-        <v>1.4</v>
-      </c>
-      <c r="AP169">
-        <v>1.13</v>
-      </c>
-      <c r="AQ169">
-        <v>1.33</v>
-      </c>
-      <c r="AR169">
-        <v>1.06</v>
-      </c>
-      <c r="AS169">
-        <v>1.18</v>
-      </c>
-      <c r="AT169">
-        <v>2.24</v>
-      </c>
-      <c r="AU169">
-        <v>2</v>
-      </c>
-      <c r="AV169">
-        <v>6</v>
-      </c>
-      <c r="AW169">
-        <v>6</v>
-      </c>
-      <c r="AX169">
-        <v>3</v>
-      </c>
-      <c r="AY169">
-        <v>10</v>
-      </c>
-      <c r="AZ169">
-        <v>10</v>
-      </c>
-      <c r="BA169">
-        <v>1</v>
-      </c>
-      <c r="BB169">
-        <v>5</v>
-      </c>
       <c r="BC169">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD169">
         <v>1.67</v>
@@ -36122,25 +36125,25 @@
         <v>2.92</v>
       </c>
       <c r="BI169">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BJ169">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BK169">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BL169">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BM169">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN169">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO169">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="BP169">
         <v>1.2</v>
@@ -36151,7 +36154,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7820491</v>
+        <v>7820494</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36166,151 +36169,151 @@
         <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="Q170">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R170">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.73</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>4.5</v>
+      </c>
+      <c r="W170">
+        <v>1.18</v>
+      </c>
+      <c r="X170">
+        <v>17</v>
+      </c>
+      <c r="Y170">
+        <v>1.03</v>
+      </c>
+      <c r="Z170">
+        <v>3</v>
+      </c>
+      <c r="AA170">
+        <v>2.6</v>
+      </c>
+      <c r="AB170">
+        <v>3</v>
+      </c>
+      <c r="AC170">
+        <v>1.17</v>
+      </c>
+      <c r="AD170">
+        <v>5.36</v>
+      </c>
+      <c r="AE170">
+        <v>1.67</v>
+      </c>
+      <c r="AF170">
+        <v>2.05</v>
+      </c>
+      <c r="AG170">
+        <v>3.4</v>
+      </c>
+      <c r="AH170">
+        <v>1.33</v>
+      </c>
+      <c r="AI170">
+        <v>2.38</v>
+      </c>
+      <c r="AJ170">
+        <v>1.53</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>1.38</v>
+      </c>
+      <c r="AM170">
+        <v>1.38</v>
+      </c>
+      <c r="AN170">
+        <v>0.8</v>
+      </c>
+      <c r="AO170">
+        <v>1.4</v>
+      </c>
+      <c r="AP170">
+        <v>1.13</v>
+      </c>
+      <c r="AQ170">
+        <v>1.33</v>
+      </c>
+      <c r="AR170">
+        <v>1.06</v>
+      </c>
+      <c r="AS170">
+        <v>1.18</v>
+      </c>
+      <c r="AT170">
+        <v>2.24</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>3</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
         <v>5</v>
       </c>
-      <c r="T170">
-        <v>1.62</v>
-      </c>
-      <c r="U170">
-        <v>2.2</v>
-      </c>
-      <c r="V170">
-        <v>4</v>
-      </c>
-      <c r="W170">
-        <v>1.22</v>
-      </c>
-      <c r="X170">
-        <v>13</v>
-      </c>
-      <c r="Y170">
-        <v>1.04</v>
-      </c>
-      <c r="Z170">
-        <v>2</v>
-      </c>
-      <c r="AA170">
-        <v>3</v>
-      </c>
-      <c r="AB170">
-        <v>4.5</v>
-      </c>
-      <c r="AC170">
-        <v>1.14</v>
-      </c>
-      <c r="AD170">
-        <v>6.21</v>
-      </c>
-      <c r="AE170">
-        <v>1.53</v>
-      </c>
-      <c r="AF170">
-        <v>2.3</v>
-      </c>
-      <c r="AG170">
-        <v>2.7</v>
-      </c>
-      <c r="AH170">
-        <v>1.44</v>
-      </c>
-      <c r="AI170">
-        <v>2.25</v>
-      </c>
-      <c r="AJ170">
-        <v>1.57</v>
-      </c>
-      <c r="AK170">
-        <v>1.22</v>
-      </c>
-      <c r="AL170">
-        <v>1.33</v>
-      </c>
-      <c r="AM170">
-        <v>1.73</v>
-      </c>
-      <c r="AN170">
-        <v>3</v>
-      </c>
-      <c r="AO170">
-        <v>0.8</v>
-      </c>
-      <c r="AP170">
-        <v>2.67</v>
-      </c>
-      <c r="AQ170">
-        <v>0.88</v>
-      </c>
-      <c r="AR170">
-        <v>1.32</v>
-      </c>
-      <c r="AS170">
-        <v>0.98</v>
-      </c>
-      <c r="AT170">
-        <v>2.3</v>
-      </c>
-      <c r="AU170">
-        <v>5</v>
-      </c>
-      <c r="AV170">
-        <v>4</v>
-      </c>
-      <c r="AW170">
-        <v>4</v>
-      </c>
-      <c r="AX170">
-        <v>1</v>
-      </c>
-      <c r="AY170">
-        <v>9</v>
-      </c>
-      <c r="AZ170">
-        <v>5</v>
-      </c>
-      <c r="BA170">
-        <v>10</v>
-      </c>
-      <c r="BB170">
-        <v>3</v>
-      </c>
       <c r="BC170">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD170">
         <v>1.67</v>
@@ -36328,25 +36331,25 @@
         <v>2.92</v>
       </c>
       <c r="BI170">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BJ170">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BK170">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BL170">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BM170">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN170">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO170">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="BP170">
         <v>1.2</v>
@@ -36357,7 +36360,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7820493</v>
+        <v>7820481</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36372,49 +36375,49 @@
         <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H171" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N171">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O171" t="s">
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q171">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R171">
         <v>1.95</v>
       </c>
       <c r="S171">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T171">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U171">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V171">
         <v>3.75</v>
@@ -36423,100 +36426,100 @@
         <v>1.25</v>
       </c>
       <c r="X171">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y171">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z171">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AA171">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB171">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC171">
         <v>1.11</v>
       </c>
       <c r="AD171">
-        <v>7.2</v>
+        <v>6.87</v>
       </c>
       <c r="AE171">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AF171">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AG171">
+        <v>2.6</v>
+      </c>
+      <c r="AH171">
+        <v>1.48</v>
+      </c>
+      <c r="AI171">
         <v>2.5</v>
       </c>
-      <c r="AH171">
+      <c r="AJ171">
         <v>1.5</v>
       </c>
-      <c r="AI171">
-        <v>2.2</v>
-      </c>
-      <c r="AJ171">
+      <c r="AK171">
+        <v>1.13</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>2.15</v>
+      </c>
+      <c r="AN171">
+        <v>2.6</v>
+      </c>
+      <c r="AO171">
+        <v>0.6</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+      <c r="AQ171">
+        <v>0.88</v>
+      </c>
+      <c r="AR171">
         <v>1.62</v>
       </c>
-      <c r="AK171">
-        <v>1.18</v>
-      </c>
-      <c r="AL171">
-        <v>1.28</v>
-      </c>
-      <c r="AM171">
-        <v>1.85</v>
-      </c>
-      <c r="AN171">
-        <v>0.4</v>
-      </c>
-      <c r="AO171">
-        <v>0.67</v>
-      </c>
-      <c r="AP171">
-        <v>0.63</v>
-      </c>
-      <c r="AQ171">
-        <v>0.5</v>
-      </c>
-      <c r="AR171">
-        <v>2.19</v>
-      </c>
       <c r="AS171">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AT171">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="AU171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV171">
+        <v>8</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
         <v>3</v>
       </c>
-      <c r="AW171">
-        <v>9</v>
-      </c>
-      <c r="AX171">
-        <v>17</v>
-      </c>
       <c r="AY171">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ171">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BA171">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB171">
         <v>5</v>
       </c>
       <c r="BC171">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD171">
         <v>1.44</v>
@@ -36528,34 +36531,34 @@
         <v>3.1</v>
       </c>
       <c r="BG171">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="BH171">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="BI171">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="BJ171">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BK171">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BL171">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BM171">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="BN171">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BO171">
-        <v>3.14</v>
+        <v>3.58</v>
       </c>
       <c r="BP171">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -36563,7 +36566,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7820481</v>
+        <v>7820493</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36578,49 +36581,49 @@
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H172" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N172">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O172" t="s">
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="Q172">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R172">
         <v>1.95</v>
       </c>
       <c r="S172">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T172">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U172">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V172">
         <v>3.75</v>
@@ -36629,100 +36632,100 @@
         <v>1.25</v>
       </c>
       <c r="X172">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y172">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z172">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AA172">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AB172">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="AC172">
         <v>1.11</v>
       </c>
       <c r="AD172">
-        <v>6.87</v>
+        <v>7.2</v>
       </c>
       <c r="AE172">
+        <v>1.49</v>
+      </c>
+      <c r="AF172">
+        <v>2.55</v>
+      </c>
+      <c r="AG172">
+        <v>2.5</v>
+      </c>
+      <c r="AH172">
         <v>1.5</v>
       </c>
-      <c r="AF172">
-        <v>2.4</v>
-      </c>
-      <c r="AG172">
-        <v>2.6</v>
-      </c>
-      <c r="AH172">
-        <v>1.48</v>
-      </c>
       <c r="AI172">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ172">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AK172">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AL172">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM172">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AN172">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AO172">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>0.63</v>
       </c>
       <c r="AQ172">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
-        <v>1.62</v>
+        <v>2.19</v>
       </c>
       <c r="AS172">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="AT172">
-        <v>2.98</v>
+        <v>3.33</v>
       </c>
       <c r="AU172">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV172">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX172">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AY172">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ172">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA172">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB172">
         <v>5</v>
       </c>
       <c r="BC172">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD172">
         <v>1.44</v>
@@ -36734,34 +36737,34 @@
         <v>3.1</v>
       </c>
       <c r="BG172">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="BH172">
-        <v>2.92</v>
+        <v>3.34</v>
       </c>
       <c r="BI172">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="BJ172">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BK172">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="BL172">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BM172">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="BN172">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BO172">
-        <v>3.58</v>
+        <v>3.14</v>
       </c>
       <c r="BP172">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36975,7 +36978,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7820487</v>
+        <v>7820482</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36990,16 +36993,16 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H174" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -37008,25 +37011,25 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O174" t="s">
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q174">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R174">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T174">
         <v>1.57</v>
@@ -37041,139 +37044,139 @@
         <v>1.25</v>
       </c>
       <c r="X174">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y174">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z174">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AA174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB174">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC174">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD174">
+        <v>7</v>
+      </c>
+      <c r="AE174">
+        <v>1.48</v>
+      </c>
+      <c r="AF174">
+        <v>2.62</v>
+      </c>
+      <c r="AG174">
+        <v>2.4</v>
+      </c>
+      <c r="AH174">
+        <v>1.53</v>
+      </c>
+      <c r="AI174">
+        <v>2.2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.62</v>
+      </c>
+      <c r="AK174">
+        <v>1.29</v>
+      </c>
+      <c r="AL174">
+        <v>1.34</v>
+      </c>
+      <c r="AM174">
+        <v>1.68</v>
+      </c>
+      <c r="AN174">
+        <v>1.33</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174">
+        <v>0.57</v>
+      </c>
+      <c r="AR174">
+        <v>1.83</v>
+      </c>
+      <c r="AS174">
+        <v>1.36</v>
+      </c>
+      <c r="AT174">
+        <v>3.19</v>
+      </c>
+      <c r="AU174">
+        <v>2</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>10</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>8</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>1.58</v>
+      </c>
+      <c r="BE174">
         <v>6.5</v>
       </c>
-      <c r="AE174">
-        <v>1.5</v>
-      </c>
-      <c r="AF174">
+      <c r="BF174">
+        <v>2.63</v>
+      </c>
+      <c r="BG174">
+        <v>1.49</v>
+      </c>
+      <c r="BH174">
         <v>2.4</v>
       </c>
-      <c r="AG174">
-        <v>2.6</v>
-      </c>
-      <c r="AH174">
-        <v>1.48</v>
-      </c>
-      <c r="AI174">
-        <v>2.1</v>
-      </c>
-      <c r="AJ174">
-        <v>1.67</v>
-      </c>
-      <c r="AK174">
-        <v>1.35</v>
-      </c>
-      <c r="AL174">
-        <v>1.35</v>
-      </c>
-      <c r="AM174">
-        <v>1.55</v>
-      </c>
-      <c r="AN174">
-        <v>1.6</v>
-      </c>
-      <c r="AO174">
-        <v>1.6</v>
-      </c>
-      <c r="AP174">
-        <v>1.63</v>
-      </c>
-      <c r="AQ174">
+      <c r="BI174">
+        <v>1.8</v>
+      </c>
+      <c r="BJ174">
+        <v>1.89</v>
+      </c>
+      <c r="BK174">
+        <v>2.28</v>
+      </c>
+      <c r="BL174">
+        <v>1.54</v>
+      </c>
+      <c r="BM174">
+        <v>2.95</v>
+      </c>
+      <c r="BN174">
         <v>1.33</v>
       </c>
-      <c r="AR174">
-        <v>2.03</v>
-      </c>
-      <c r="AS174">
-        <v>0.99</v>
-      </c>
-      <c r="AT174">
-        <v>3.02</v>
-      </c>
-      <c r="AU174">
-        <v>5</v>
-      </c>
-      <c r="AV174">
-        <v>10</v>
-      </c>
-      <c r="AW174">
-        <v>2</v>
-      </c>
-      <c r="AX174">
-        <v>2</v>
-      </c>
-      <c r="AY174">
-        <v>7</v>
-      </c>
-      <c r="AZ174">
-        <v>12</v>
-      </c>
-      <c r="BA174">
-        <v>2</v>
-      </c>
-      <c r="BB174">
-        <v>2</v>
-      </c>
-      <c r="BC174">
-        <v>4</v>
-      </c>
-      <c r="BD174">
-        <v>1.94</v>
-      </c>
-      <c r="BE174">
-        <v>6.4</v>
-      </c>
-      <c r="BF174">
-        <v>2.07</v>
-      </c>
-      <c r="BG174">
-        <v>1.44</v>
-      </c>
-      <c r="BH174">
-        <v>2.55</v>
-      </c>
-      <c r="BI174">
-        <v>1.75</v>
-      </c>
-      <c r="BJ174">
-        <v>1.95</v>
-      </c>
-      <c r="BK174">
-        <v>2.2</v>
-      </c>
-      <c r="BL174">
-        <v>1.58</v>
-      </c>
-      <c r="BM174">
-        <v>2.85</v>
-      </c>
-      <c r="BN174">
-        <v>1.36</v>
-      </c>
       <c r="BO174">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BP174">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37181,7 +37184,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7820482</v>
+        <v>7820487</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37196,16 +37199,16 @@
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H175" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -37214,25 +37217,25 @@
         <v>1</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="Q175">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T175">
         <v>1.57</v>
@@ -37247,139 +37250,139 @@
         <v>1.25</v>
       </c>
       <c r="X175">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y175">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z175">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="AA175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB175">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC175">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD175">
+        <v>6.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.5</v>
+      </c>
+      <c r="AF175">
+        <v>2.4</v>
+      </c>
+      <c r="AG175">
+        <v>2.6</v>
+      </c>
+      <c r="AH175">
+        <v>1.48</v>
+      </c>
+      <c r="AI175">
+        <v>2.1</v>
+      </c>
+      <c r="AJ175">
+        <v>1.67</v>
+      </c>
+      <c r="AK175">
+        <v>1.35</v>
+      </c>
+      <c r="AL175">
+        <v>1.35</v>
+      </c>
+      <c r="AM175">
+        <v>1.55</v>
+      </c>
+      <c r="AN175">
+        <v>1.6</v>
+      </c>
+      <c r="AO175">
+        <v>1.6</v>
+      </c>
+      <c r="AP175">
+        <v>1.63</v>
+      </c>
+      <c r="AQ175">
+        <v>1.33</v>
+      </c>
+      <c r="AR175">
+        <v>2.03</v>
+      </c>
+      <c r="AS175">
+        <v>0.99</v>
+      </c>
+      <c r="AT175">
+        <v>3.02</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>10</v>
+      </c>
+      <c r="AW175">
+        <v>2</v>
+      </c>
+      <c r="AX175">
+        <v>2</v>
+      </c>
+      <c r="AY175">
         <v>7</v>
       </c>
-      <c r="AE175">
-        <v>1.48</v>
-      </c>
-      <c r="AF175">
-        <v>2.62</v>
-      </c>
-      <c r="AG175">
-        <v>2.4</v>
-      </c>
-      <c r="AH175">
-        <v>1.53</v>
-      </c>
-      <c r="AI175">
+      <c r="AZ175">
+        <v>12</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>4</v>
+      </c>
+      <c r="BD175">
+        <v>1.94</v>
+      </c>
+      <c r="BE175">
+        <v>6.4</v>
+      </c>
+      <c r="BF175">
+        <v>2.07</v>
+      </c>
+      <c r="BG175">
+        <v>1.44</v>
+      </c>
+      <c r="BH175">
+        <v>2.55</v>
+      </c>
+      <c r="BI175">
+        <v>1.75</v>
+      </c>
+      <c r="BJ175">
+        <v>1.95</v>
+      </c>
+      <c r="BK175">
         <v>2.2</v>
       </c>
-      <c r="AJ175">
-        <v>1.62</v>
-      </c>
-      <c r="AK175">
-        <v>1.29</v>
-      </c>
-      <c r="AL175">
-        <v>1.34</v>
-      </c>
-      <c r="AM175">
-        <v>1.68</v>
-      </c>
-      <c r="AN175">
-        <v>1.33</v>
-      </c>
-      <c r="AO175">
-        <v>1</v>
-      </c>
-      <c r="AP175">
-        <v>1.44</v>
-      </c>
-      <c r="AQ175">
-        <v>0.57</v>
-      </c>
-      <c r="AR175">
-        <v>1.83</v>
-      </c>
-      <c r="AS175">
+      <c r="BL175">
+        <v>1.58</v>
+      </c>
+      <c r="BM175">
+        <v>2.85</v>
+      </c>
+      <c r="BN175">
         <v>1.36</v>
       </c>
-      <c r="AT175">
-        <v>3.19</v>
-      </c>
-      <c r="AU175">
-        <v>2</v>
-      </c>
-      <c r="AV175">
-        <v>2</v>
-      </c>
-      <c r="AW175">
-        <v>8</v>
-      </c>
-      <c r="AX175">
-        <v>3</v>
-      </c>
-      <c r="AY175">
-        <v>10</v>
-      </c>
-      <c r="AZ175">
-        <v>5</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>2</v>
-      </c>
-      <c r="BC175">
-        <v>10</v>
-      </c>
-      <c r="BD175">
-        <v>1.58</v>
-      </c>
-      <c r="BE175">
-        <v>6.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.63</v>
-      </c>
-      <c r="BG175">
-        <v>1.49</v>
-      </c>
-      <c r="BH175">
-        <v>2.4</v>
-      </c>
-      <c r="BI175">
-        <v>1.8</v>
-      </c>
-      <c r="BJ175">
-        <v>1.89</v>
-      </c>
-      <c r="BK175">
-        <v>2.28</v>
-      </c>
-      <c r="BL175">
-        <v>1.54</v>
-      </c>
-      <c r="BM175">
-        <v>2.95</v>
-      </c>
-      <c r="BN175">
-        <v>1.33</v>
-      </c>
       <c r="BO175">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="BP175">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37593,7 +37596,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7820483</v>
+        <v>7820480</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37608,19 +37611,19 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>4</v>
@@ -37635,7 +37638,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="Q177">
         <v>2.38</v>
@@ -37665,10 +37668,10 @@
         <v>1.06</v>
       </c>
       <c r="Z177">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA177">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB177">
         <v>5.5</v>
@@ -37683,7 +37686,7 @@
         <v>1.38</v>
       </c>
       <c r="AF177">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AG177">
         <v>2.15</v>
@@ -37701,67 +37704,67 @@
         <v>1.17</v>
       </c>
       <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>1.5</v>
+      </c>
+      <c r="AO177">
+        <v>0.6</v>
+      </c>
+      <c r="AP177">
+        <v>1.88</v>
+      </c>
+      <c r="AQ177">
+        <v>0.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.59</v>
+      </c>
+      <c r="AS177">
         <v>1.27</v>
       </c>
-      <c r="AM177">
-        <v>2.1</v>
-      </c>
-      <c r="AN177">
-        <v>1.83</v>
-      </c>
-      <c r="AO177">
-        <v>1.67</v>
-      </c>
-      <c r="AP177">
-        <v>2.18</v>
-      </c>
-      <c r="AQ177">
-        <v>1.22</v>
-      </c>
-      <c r="AR177">
-        <v>1.78</v>
-      </c>
-      <c r="AS177">
-        <v>1.35</v>
-      </c>
       <c r="AT177">
-        <v>3.13</v>
+        <v>2.86</v>
       </c>
       <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
         <v>9</v>
       </c>
-      <c r="AV177">
-        <v>5</v>
-      </c>
-      <c r="AW177">
-        <v>4</v>
-      </c>
       <c r="AX177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY177">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ177">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC177">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD177">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="BE177">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF177">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="BG177">
         <v>1.4</v>
@@ -37770,28 +37773,28 @@
         <v>2.7</v>
       </c>
       <c r="BI177">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="BJ177">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BK177">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="BL177">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BM177">
         <v>2.65</v>
       </c>
       <c r="BN177">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BO177">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BP177">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37799,7 +37802,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7820480</v>
+        <v>7820483</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37814,19 +37817,19 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H178" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L178">
         <v>4</v>
@@ -37841,7 +37844,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37871,10 +37874,10 @@
         <v>1.06</v>
       </c>
       <c r="Z178">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA178">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB178">
         <v>5.5</v>
@@ -37889,7 +37892,7 @@
         <v>1.38</v>
       </c>
       <c r="AF178">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG178">
         <v>2.15</v>
@@ -37907,67 +37910,67 @@
         <v>1.17</v>
       </c>
       <c r="AL178">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM178">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN178">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO178">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP178">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="AQ178">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="AR178">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AS178">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT178">
-        <v>2.86</v>
+        <v>3.13</v>
       </c>
       <c r="AU178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>15</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
         <v>3</v>
       </c>
-      <c r="AW178">
-        <v>9</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
-      <c r="AY178">
-        <v>17</v>
-      </c>
-      <c r="AZ178">
-        <v>6</v>
-      </c>
-      <c r="BA178">
-        <v>7</v>
-      </c>
-      <c r="BB178">
-        <v>0</v>
-      </c>
       <c r="BC178">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD178">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="BE178">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF178">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG178">
         <v>1.4</v>
@@ -37976,28 +37979,28 @@
         <v>2.7</v>
       </c>
       <c r="BI178">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="BJ178">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BK178">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BL178">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM178">
         <v>2.65</v>
       </c>
       <c r="BN178">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BO178">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BP178">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -38128,7 +38131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38253,7 +38256,7 @@
         <v>100</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q180">
         <v>2.75</v>
@@ -38459,7 +38462,7 @@
         <v>209</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>3.4</v>
@@ -38665,7 +38668,7 @@
         <v>108</v>
       </c>
       <c r="P182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39486,10 +39489,10 @@
         <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39695,7 +39698,7 @@
         <v>211</v>
       </c>
       <c r="P187" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -40313,7 +40316,7 @@
         <v>151</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q190">
         <v>2.2</v>
@@ -40391,7 +40394,7 @@
         <v>1.17</v>
       </c>
       <c r="AP190">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40519,7 +40522,7 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40725,7 +40728,7 @@
         <v>125</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>3.4</v>
@@ -41095,7 +41098,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7820503</v>
+        <v>7820508</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41110,10 +41113,10 @@
         <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H194" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -41128,25 +41131,25 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" t="s">
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="Q194">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S194">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T194">
         <v>1.57</v>
@@ -41161,139 +41164,139 @@
         <v>1.25</v>
       </c>
       <c r="X194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y194">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z194">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB194">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="AC194">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD194">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE194">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF194">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AG194">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH194">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI194">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ194">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK194">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AL194">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM194">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AN194">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO194">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP194">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ194">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AR194">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AS194">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT194">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
         <v>4</v>
-      </c>
-      <c r="AV194">
-        <v>2</v>
       </c>
       <c r="AW194">
         <v>10</v>
       </c>
       <c r="AX194">
+        <v>6</v>
+      </c>
+      <c r="AY194">
+        <v>18</v>
+      </c>
+      <c r="AZ194">
+        <v>11</v>
+      </c>
+      <c r="BA194">
         <v>3</v>
       </c>
-      <c r="AY194">
-        <v>17</v>
-      </c>
-      <c r="AZ194">
+      <c r="BB194">
         <v>5</v>
       </c>
-      <c r="BA194">
-        <v>12</v>
-      </c>
-      <c r="BB194">
-        <v>1</v>
-      </c>
       <c r="BC194">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD194">
+        <v>1.94</v>
+      </c>
+      <c r="BE194">
+        <v>6.75</v>
+      </c>
+      <c r="BF194">
+        <v>2.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.33</v>
+      </c>
+      <c r="BH194">
+        <v>2.95</v>
+      </c>
+      <c r="BI194">
+        <v>1.56</v>
+      </c>
+      <c r="BJ194">
+        <v>2.23</v>
+      </c>
+      <c r="BK194">
+        <v>1.91</v>
+      </c>
+      <c r="BL194">
+        <v>1.77</v>
+      </c>
+      <c r="BM194">
+        <v>2.4</v>
+      </c>
+      <c r="BN194">
+        <v>1.49</v>
+      </c>
+      <c r="BO194">
+        <v>3.05</v>
+      </c>
+      <c r="BP194">
         <v>1.3</v>
-      </c>
-      <c r="BE194">
-        <v>7.5</v>
-      </c>
-      <c r="BF194">
-        <v>3.9</v>
-      </c>
-      <c r="BG194">
-        <v>1.38</v>
-      </c>
-      <c r="BH194">
-        <v>2.7</v>
-      </c>
-      <c r="BI194">
-        <v>1.65</v>
-      </c>
-      <c r="BJ194">
-        <v>2.08</v>
-      </c>
-      <c r="BK194">
-        <v>2.02</v>
-      </c>
-      <c r="BL194">
-        <v>1.68</v>
-      </c>
-      <c r="BM194">
-        <v>2.55</v>
-      </c>
-      <c r="BN194">
-        <v>1.44</v>
-      </c>
-      <c r="BO194">
-        <v>3.3</v>
-      </c>
-      <c r="BP194">
-        <v>1.27</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41301,7 +41304,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7820508</v>
+        <v>7820503</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41316,10 +41319,10 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H195" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41334,25 +41337,25 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="s">
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="Q195">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R195">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T195">
         <v>1.57</v>
@@ -41367,139 +41370,139 @@
         <v>1.25</v>
       </c>
       <c r="X195">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y195">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z195">
+        <v>1.7</v>
+      </c>
+      <c r="AA195">
         <v>3.4</v>
       </c>
-      <c r="AA195">
-        <v>3.1</v>
-      </c>
       <c r="AB195">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC195">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD195">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE195">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AF195">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AG195">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH195">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI195">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ195">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK195">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AL195">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AM195">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN195">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AQ195">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AR195">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AS195">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW195">
         <v>10</v>
       </c>
       <c r="AX195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY195">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ195">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA195">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC195">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD195">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="BE195">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF195">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="BG195">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH195">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI195">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ195">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK195">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="BL195">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BM195">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BN195">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BO195">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BP195">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41755,7 +41758,7 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q197">
         <v>4.75</v>
@@ -42167,7 +42170,7 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>3.1</v>
@@ -43690,7 +43693,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR206">
         <v>1.83</v>
@@ -43979,7 +43982,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7820515</v>
+        <v>7820514</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -43994,160 +43997,160 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H208" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
       <c r="N208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O208" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="P208" t="s">
         <v>100</v>
       </c>
       <c r="Q208">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="T208">
+        <v>1.44</v>
+      </c>
+      <c r="U208">
+        <v>2.63</v>
+      </c>
+      <c r="V208">
+        <v>3.4</v>
+      </c>
+      <c r="W208">
+        <v>1.3</v>
+      </c>
+      <c r="X208">
+        <v>10</v>
+      </c>
+      <c r="Y208">
+        <v>1.06</v>
+      </c>
+      <c r="Z208">
         <v>1.5</v>
       </c>
-      <c r="U208">
-        <v>2.5</v>
-      </c>
-      <c r="V208">
-        <v>3.5</v>
-      </c>
-      <c r="W208">
-        <v>1.29</v>
-      </c>
-      <c r="X208">
-        <v>11</v>
-      </c>
-      <c r="Y208">
-        <v>1.05</v>
-      </c>
-      <c r="Z208">
-        <v>2.1</v>
-      </c>
       <c r="AA208">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB208">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AC208">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD208">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE208">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AF208">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AG208">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AH208">
+        <v>1.67</v>
+      </c>
+      <c r="AI208">
+        <v>2.25</v>
+      </c>
+      <c r="AJ208">
         <v>1.57</v>
       </c>
-      <c r="AI208">
-        <v>2.05</v>
-      </c>
-      <c r="AJ208">
-        <v>1.7</v>
-      </c>
       <c r="AK208">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AL208">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM208">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AN208">
         <v>2</v>
       </c>
       <c r="AO208">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP208">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="AQ208">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR208">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AS208">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT208">
-        <v>2.79</v>
+        <v>3.17</v>
       </c>
       <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
+      <c r="AW208">
         <v>4</v>
       </c>
-      <c r="AV208">
-        <v>5</v>
-      </c>
-      <c r="AW208">
-        <v>5</v>
-      </c>
       <c r="AX208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY208">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ208">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA208">
         <v>2</v>
       </c>
       <c r="BB208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD208">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="BE208">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="BF208">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG208">
         <v>1.26</v>
@@ -44168,16 +44171,16 @@
         <v>1.85</v>
       </c>
       <c r="BM208">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="BN208">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BO208">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="BP208">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44185,7 +44188,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7820514</v>
+        <v>7820515</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44200,160 +44203,160 @@
         <v>14</v>
       </c>
       <c r="G209" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="H209" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O209" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="P209" t="s">
         <v>100</v>
       </c>
       <c r="Q209">
+        <v>2.88</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>4.33</v>
+      </c>
+      <c r="T209">
+        <v>1.5</v>
+      </c>
+      <c r="U209">
+        <v>2.5</v>
+      </c>
+      <c r="V209">
+        <v>3.5</v>
+      </c>
+      <c r="W209">
+        <v>1.29</v>
+      </c>
+      <c r="X209">
+        <v>11</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
         <v>2.1</v>
       </c>
-      <c r="R209">
-        <v>2.1</v>
-      </c>
-      <c r="S209">
+      <c r="AA209">
+        <v>3.4</v>
+      </c>
+      <c r="AB209">
+        <v>3.4</v>
+      </c>
+      <c r="AC209">
+        <v>1.08</v>
+      </c>
+      <c r="AD209">
         <v>7.5</v>
       </c>
-      <c r="T209">
+      <c r="AE209">
         <v>1.44</v>
       </c>
-      <c r="U209">
-        <v>2.63</v>
-      </c>
-      <c r="V209">
-        <v>3.4</v>
-      </c>
-      <c r="W209">
+      <c r="AF209">
+        <v>2.75</v>
+      </c>
+      <c r="AG209">
+        <v>2.35</v>
+      </c>
+      <c r="AH209">
+        <v>1.57</v>
+      </c>
+      <c r="AI209">
+        <v>2.05</v>
+      </c>
+      <c r="AJ209">
+        <v>1.7</v>
+      </c>
+      <c r="AK209">
         <v>1.3</v>
       </c>
-      <c r="X209">
+      <c r="AL209">
+        <v>1.28</v>
+      </c>
+      <c r="AM209">
+        <v>1.67</v>
+      </c>
+      <c r="AN209">
+        <v>2</v>
+      </c>
+      <c r="AO209">
+        <v>0.83</v>
+      </c>
+      <c r="AP209">
+        <v>1.75</v>
+      </c>
+      <c r="AQ209">
+        <v>0.88</v>
+      </c>
+      <c r="AR209">
+        <v>1.47</v>
+      </c>
+      <c r="AS209">
+        <v>1.32</v>
+      </c>
+      <c r="AT209">
+        <v>2.79</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>5</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
         <v>10</v>
       </c>
-      <c r="Y209">
-        <v>1.06</v>
-      </c>
-      <c r="Z209">
-        <v>1.5</v>
-      </c>
-      <c r="AA209">
-        <v>3.75</v>
-      </c>
-      <c r="AB209">
-        <v>8</v>
-      </c>
-      <c r="AC209">
-        <v>1.06</v>
-      </c>
-      <c r="AD209">
+      <c r="AZ209">
+        <v>7</v>
+      </c>
+      <c r="BA209">
+        <v>2</v>
+      </c>
+      <c r="BB209">
+        <v>3</v>
+      </c>
+      <c r="BC209">
+        <v>5</v>
+      </c>
+      <c r="BD209">
+        <v>1.62</v>
+      </c>
+      <c r="BE209">
         <v>8.5</v>
       </c>
-      <c r="AE209">
-        <v>1.38</v>
-      </c>
-      <c r="AF209">
-        <v>3</v>
-      </c>
-      <c r="AG209">
-        <v>2.15</v>
-      </c>
-      <c r="AH209">
-        <v>1.67</v>
-      </c>
-      <c r="AI209">
-        <v>2.25</v>
-      </c>
-      <c r="AJ209">
-        <v>1.57</v>
-      </c>
-      <c r="AK209">
-        <v>1.09</v>
-      </c>
-      <c r="AL209">
-        <v>1.18</v>
-      </c>
-      <c r="AM209">
+      <c r="BF209">
         <v>2.6</v>
-      </c>
-      <c r="AN209">
-        <v>2</v>
-      </c>
-      <c r="AO209">
-        <v>1.17</v>
-      </c>
-      <c r="AP209">
-        <v>2.18</v>
-      </c>
-      <c r="AQ209">
-        <v>1.11</v>
-      </c>
-      <c r="AR209">
-        <v>1.77</v>
-      </c>
-      <c r="AS209">
-        <v>1.4</v>
-      </c>
-      <c r="AT209">
-        <v>3.17</v>
-      </c>
-      <c r="AU209">
-        <v>7</v>
-      </c>
-      <c r="AV209">
-        <v>0</v>
-      </c>
-      <c r="AW209">
-        <v>4</v>
-      </c>
-      <c r="AX209">
-        <v>4</v>
-      </c>
-      <c r="AY209">
-        <v>12</v>
-      </c>
-      <c r="AZ209">
-        <v>4</v>
-      </c>
-      <c r="BA209">
-        <v>2</v>
-      </c>
-      <c r="BB209">
-        <v>2</v>
-      </c>
-      <c r="BC209">
-        <v>4</v>
-      </c>
-      <c r="BD209">
-        <v>1.12</v>
-      </c>
-      <c r="BE209">
-        <v>15</v>
-      </c>
-      <c r="BF209">
-        <v>5.8</v>
       </c>
       <c r="BG209">
         <v>1.26</v>
@@ -44374,16 +44377,16 @@
         <v>1.85</v>
       </c>
       <c r="BM209">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="BN209">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BO209">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="BP209">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -44639,7 +44642,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44845,7 +44848,7 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45051,7 +45054,7 @@
         <v>102</v>
       </c>
       <c r="P213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45335,7 +45338,7 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -46451,7 +46454,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>7820529</v>
+        <v>7820525</v>
       </c>
       <c r="C220" t="s">
         <v>68</v>
@@ -46466,10 +46469,10 @@
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H220" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -46481,79 +46484,79 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O220" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="P220" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="Q220">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T220">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U220">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V220">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W220">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X220">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y220">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z220">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="AA220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB220">
+        <v>4.2</v>
+      </c>
+      <c r="AC220">
+        <v>3.59</v>
+      </c>
+      <c r="AD220">
+        <v>1.28</v>
+      </c>
+      <c r="AE220">
+        <v>1.5</v>
+      </c>
+      <c r="AF220">
+        <v>2.37</v>
+      </c>
+      <c r="AG220">
         <v>2.3</v>
       </c>
-      <c r="AC220">
-        <v>0</v>
-      </c>
-      <c r="AD220">
-        <v>0</v>
-      </c>
-      <c r="AE220">
-        <v>1.93</v>
-      </c>
-      <c r="AF220">
-        <v>1.89</v>
-      </c>
-      <c r="AG220">
-        <v>2</v>
-      </c>
       <c r="AH220">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AI220">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AJ220">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -46565,52 +46568,52 @@
         <v>0</v>
       </c>
       <c r="AN220">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO220">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AP220">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ220">
         <v>1.44</v>
       </c>
       <c r="AR220">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AS220">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT220">
-        <v>3.23</v>
+        <v>3.48</v>
       </c>
       <c r="AU220">
+        <v>5</v>
+      </c>
+      <c r="AV220">
+        <v>2</v>
+      </c>
+      <c r="AW220">
+        <v>13</v>
+      </c>
+      <c r="AX220">
         <v>8</v>
       </c>
-      <c r="AV220">
+      <c r="AY220">
+        <v>26</v>
+      </c>
+      <c r="AZ220">
+        <v>15</v>
+      </c>
+      <c r="BA220">
         <v>6</v>
       </c>
-      <c r="AW220">
-        <v>10</v>
-      </c>
-      <c r="AX220">
-        <v>4</v>
-      </c>
-      <c r="AY220">
-        <v>21</v>
-      </c>
-      <c r="AZ220">
-        <v>12</v>
-      </c>
-      <c r="BA220">
+      <c r="BB220">
         <v>5</v>
       </c>
-      <c r="BB220">
-        <v>3</v>
-      </c>
       <c r="BC220">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD220">
         <v>0</v>
@@ -46657,7 +46660,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7820525</v>
+        <v>7820529</v>
       </c>
       <c r="C221" t="s">
         <v>68</v>
@@ -46672,10 +46675,10 @@
         <v>15</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H221" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -46687,80 +46690,80 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O221" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="P221" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="Q221">
+        <v>3.6</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>3.1</v>
+      </c>
+      <c r="T221">
+        <v>1.44</v>
+      </c>
+      <c r="U221">
         <v>2.63</v>
       </c>
-      <c r="R221">
-        <v>2</v>
-      </c>
-      <c r="S221">
-        <v>4.75</v>
-      </c>
-      <c r="T221">
-        <v>1.5</v>
-      </c>
-      <c r="U221">
-        <v>2.5</v>
-      </c>
       <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>9</v>
+      </c>
+      <c r="Y221">
+        <v>1.07</v>
+      </c>
+      <c r="Z221">
+        <v>2.9</v>
+      </c>
+      <c r="AA221">
         <v>3.5</v>
       </c>
-      <c r="W221">
-        <v>1.29</v>
-      </c>
-      <c r="X221">
-        <v>11</v>
-      </c>
-      <c r="Y221">
-        <v>1.05</v>
-      </c>
-      <c r="Z221">
+      <c r="AB221">
+        <v>2.3</v>
+      </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>1.93</v>
+      </c>
+      <c r="AF221">
+        <v>1.89</v>
+      </c>
+      <c r="AG221">
+        <v>2</v>
+      </c>
+      <c r="AH221">
+        <v>1.8</v>
+      </c>
+      <c r="AI221">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221">
         <v>1.95</v>
       </c>
-      <c r="AA221">
-        <v>3.4</v>
-      </c>
-      <c r="AB221">
-        <v>4.2</v>
-      </c>
-      <c r="AC221">
-        <v>3.59</v>
-      </c>
-      <c r="AD221">
-        <v>1.28</v>
-      </c>
-      <c r="AE221">
-        <v>1.5</v>
-      </c>
-      <c r="AF221">
-        <v>2.37</v>
-      </c>
-      <c r="AG221">
-        <v>2.3</v>
-      </c>
-      <c r="AH221">
-        <v>1.6</v>
-      </c>
-      <c r="AI221">
-        <v>2.05</v>
-      </c>
-      <c r="AJ221">
-        <v>1.7</v>
-      </c>
       <c r="AK221">
         <v>0</v>
       </c>
@@ -46771,52 +46774,52 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO221">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AQ221">
         <v>1.44</v>
       </c>
       <c r="AR221">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="AS221">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="AU221">
+        <v>8</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>10</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>21</v>
+      </c>
+      <c r="AZ221">
+        <v>12</v>
+      </c>
+      <c r="BA221">
         <v>5</v>
       </c>
-      <c r="AV221">
-        <v>2</v>
-      </c>
-      <c r="AW221">
-        <v>13</v>
-      </c>
-      <c r="AX221">
+      <c r="BB221">
+        <v>3</v>
+      </c>
+      <c r="BC221">
         <v>8</v>
-      </c>
-      <c r="AY221">
-        <v>26</v>
-      </c>
-      <c r="AZ221">
-        <v>15</v>
-      </c>
-      <c r="BA221">
-        <v>6</v>
-      </c>
-      <c r="BB221">
-        <v>5</v>
-      </c>
-      <c r="BC221">
-        <v>11</v>
       </c>
       <c r="BD221">
         <v>0</v>
@@ -46863,7 +46866,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7820532</v>
+        <v>7820530</v>
       </c>
       <c r="C222" t="s">
         <v>68</v>
@@ -46878,10 +46881,10 @@
         <v>15</v>
       </c>
       <c r="G222" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H222" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -46896,31 +46899,31 @@
         <v>1</v>
       </c>
       <c r="M222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O222" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="P222" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="Q222">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R222">
         <v>1.95</v>
       </c>
       <c r="S222">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T222">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U222">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V222">
         <v>3.75</v>
@@ -46929,19 +46932,19 @@
         <v>1.25</v>
       </c>
       <c r="X222">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y222">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z222">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AA222">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB222">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AC222">
         <v>0</v>
@@ -46950,22 +46953,22 @@
         <v>0</v>
       </c>
       <c r="AE222">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AF222">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AG222">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AH222">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AI222">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AJ222">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AK222">
         <v>0</v>
@@ -46977,52 +46980,52 @@
         <v>0</v>
       </c>
       <c r="AN222">
-        <v>0.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO222">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AP222">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR222">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AS222">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT222">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AU222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>11</v>
+      </c>
+      <c r="AX222">
         <v>3</v>
       </c>
-      <c r="AW222">
-        <v>4</v>
-      </c>
-      <c r="AX222">
+      <c r="AY222">
+        <v>16</v>
+      </c>
+      <c r="AZ222">
         <v>7</v>
       </c>
-      <c r="AY222">
-        <v>7</v>
-      </c>
-      <c r="AZ222">
-        <v>11</v>
-      </c>
       <c r="BA222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD222">
         <v>0</v>
@@ -47069,7 +47072,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7820530</v>
+        <v>7820532</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47084,10 +47087,10 @@
         <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H223" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -47102,31 +47105,31 @@
         <v>1</v>
       </c>
       <c r="M223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="Q223">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R223">
         <v>1.95</v>
       </c>
       <c r="S223">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T223">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U223">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V223">
         <v>3.75</v>
@@ -47135,100 +47138,100 @@
         <v>1.25</v>
       </c>
       <c r="X223">
+        <v>13</v>
+      </c>
+      <c r="Y223">
+        <v>1.04</v>
+      </c>
+      <c r="Z223">
+        <v>1.91</v>
+      </c>
+      <c r="AA223">
+        <v>3.1</v>
+      </c>
+      <c r="AB223">
+        <v>4.33</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>1.52</v>
+      </c>
+      <c r="AF223">
+        <v>2.35</v>
+      </c>
+      <c r="AG223">
+        <v>2.7</v>
+      </c>
+      <c r="AH223">
+        <v>1.44</v>
+      </c>
+      <c r="AI223">
+        <v>2.25</v>
+      </c>
+      <c r="AJ223">
+        <v>1.57</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0.57</v>
+      </c>
+      <c r="AO223">
+        <v>0.57</v>
+      </c>
+      <c r="AP223">
+        <v>0.88</v>
+      </c>
+      <c r="AQ223">
+        <v>0.5</v>
+      </c>
+      <c r="AR223">
+        <v>1.47</v>
+      </c>
+      <c r="AS223">
+        <v>1.25</v>
+      </c>
+      <c r="AT223">
+        <v>2.72</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>7</v>
+      </c>
+      <c r="AY223">
+        <v>7</v>
+      </c>
+      <c r="AZ223">
         <v>11</v>
       </c>
-      <c r="Y223">
-        <v>1.05</v>
-      </c>
-      <c r="Z223">
-        <v>2.15</v>
-      </c>
-      <c r="AA223">
-        <v>3.25</v>
-      </c>
-      <c r="AB223">
-        <v>3.5</v>
-      </c>
-      <c r="AC223">
-        <v>0</v>
-      </c>
-      <c r="AD223">
-        <v>0</v>
-      </c>
-      <c r="AE223">
-        <v>1.55</v>
-      </c>
-      <c r="AF223">
-        <v>2.25</v>
-      </c>
-      <c r="AG223">
-        <v>2.4</v>
-      </c>
-      <c r="AH223">
-        <v>1.53</v>
-      </c>
-      <c r="AI223">
-        <v>2.05</v>
-      </c>
-      <c r="AJ223">
-        <v>1.7</v>
-      </c>
-      <c r="AK223">
-        <v>0</v>
-      </c>
-      <c r="AL223">
-        <v>0</v>
-      </c>
-      <c r="AM223">
-        <v>0</v>
-      </c>
-      <c r="AN223">
-        <v>1.75</v>
-      </c>
-      <c r="AO223">
-        <v>1.29</v>
-      </c>
-      <c r="AP223">
-        <v>1.56</v>
-      </c>
-      <c r="AQ223">
-        <v>1.33</v>
-      </c>
-      <c r="AR223">
-        <v>1.77</v>
-      </c>
-      <c r="AS223">
-        <v>1.21</v>
-      </c>
-      <c r="AT223">
-        <v>2.98</v>
-      </c>
-      <c r="AU223">
+      <c r="BA223">
+        <v>1</v>
+      </c>
+      <c r="BB223">
         <v>3</v>
       </c>
-      <c r="AV223">
+      <c r="BC223">
         <v>4</v>
-      </c>
-      <c r="AW223">
-        <v>11</v>
-      </c>
-      <c r="AX223">
-        <v>3</v>
-      </c>
-      <c r="AY223">
-        <v>16</v>
-      </c>
-      <c r="AZ223">
-        <v>7</v>
-      </c>
-      <c r="BA223">
-        <v>3</v>
-      </c>
-      <c r="BB223">
-        <v>2</v>
-      </c>
-      <c r="BC223">
-        <v>5</v>
       </c>
       <c r="BD223">
         <v>0</v>
@@ -47893,7 +47896,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7820545</v>
+        <v>7820540</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47908,10 +47911,10 @@
         <v>16</v>
       </c>
       <c r="G227" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H227" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I227">
         <v>2</v>
@@ -47923,10 +47926,10 @@
         <v>2</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <v>4</v>
@@ -47935,16 +47938,16 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q227">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T227">
         <v>1.53</v>
@@ -47965,37 +47968,37 @@
         <v>1.05</v>
       </c>
       <c r="Z227">
+        <v>1.75</v>
+      </c>
+      <c r="AA227">
+        <v>3.4</v>
+      </c>
+      <c r="AB227">
+        <v>5</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1.49</v>
+      </c>
+      <c r="AF227">
+        <v>2.55</v>
+      </c>
+      <c r="AG227">
+        <v>2.4</v>
+      </c>
+      <c r="AH227">
+        <v>1.53</v>
+      </c>
+      <c r="AI227">
         <v>2.25</v>
       </c>
-      <c r="AA227">
-        <v>3.25</v>
-      </c>
-      <c r="AB227">
-        <v>3.2</v>
-      </c>
-      <c r="AC227">
-        <v>0</v>
-      </c>
-      <c r="AD227">
-        <v>0</v>
-      </c>
-      <c r="AE227">
-        <v>1.53</v>
-      </c>
-      <c r="AF227">
-        <v>2.37</v>
-      </c>
-      <c r="AG227">
-        <v>2.5</v>
-      </c>
-      <c r="AH227">
-        <v>1.5</v>
-      </c>
-      <c r="AI227">
-        <v>2.1</v>
-      </c>
       <c r="AJ227">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -48007,52 +48010,52 @@
         <v>0</v>
       </c>
       <c r="AN227">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AR227">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="AS227">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT227">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>6</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>9</v>
+      </c>
+      <c r="AY227">
+        <v>11</v>
+      </c>
+      <c r="AZ227">
+        <v>18</v>
+      </c>
+      <c r="BA227">
+        <v>1</v>
+      </c>
+      <c r="BB227">
+        <v>6</v>
+      </c>
+      <c r="BC227">
         <v>7</v>
-      </c>
-      <c r="AV227">
-        <v>3</v>
-      </c>
-      <c r="AW227">
-        <v>8</v>
-      </c>
-      <c r="AX227">
-        <v>4</v>
-      </c>
-      <c r="AY227">
-        <v>18</v>
-      </c>
-      <c r="AZ227">
-        <v>7</v>
-      </c>
-      <c r="BA227">
-        <v>5</v>
-      </c>
-      <c r="BB227">
-        <v>4</v>
-      </c>
-      <c r="BC227">
-        <v>9</v>
       </c>
       <c r="BD227">
         <v>0</v>
@@ -48099,7 +48102,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7820540</v>
+        <v>7820541</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48114,43 +48117,43 @@
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H228" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L228">
         <v>3</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O228" t="s">
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="Q228">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="T228">
         <v>1.53</v>
@@ -48171,13 +48174,13 @@
         <v>1.05</v>
       </c>
       <c r="Z228">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="AA228">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB228">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="AC228">
         <v>0</v>
@@ -48186,10 +48189,10 @@
         <v>0</v>
       </c>
       <c r="AE228">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AF228">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AG228">
         <v>2.4</v>
@@ -48198,67 +48201,67 @@
         <v>1.53</v>
       </c>
       <c r="AI228">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ228">
+        <v>1.67</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>1.71</v>
+      </c>
+      <c r="AO228">
+        <v>1.38</v>
+      </c>
+      <c r="AP228">
+        <v>1.88</v>
+      </c>
+      <c r="AQ228">
+        <v>1.22</v>
+      </c>
+      <c r="AR228">
         <v>1.57</v>
       </c>
-      <c r="AK228">
-        <v>0</v>
-      </c>
-      <c r="AL228">
-        <v>0</v>
-      </c>
-      <c r="AM228">
-        <v>0</v>
-      </c>
-      <c r="AN228">
-        <v>1</v>
-      </c>
-      <c r="AO228">
-        <v>0.67</v>
-      </c>
-      <c r="AP228">
-        <v>1.25</v>
-      </c>
-      <c r="AQ228">
-        <v>0.57</v>
-      </c>
-      <c r="AR228">
-        <v>1.33</v>
-      </c>
       <c r="AS228">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT228">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU228">
+        <v>7</v>
+      </c>
+      <c r="AV228">
+        <v>7</v>
+      </c>
+      <c r="AW228">
         <v>4</v>
       </c>
-      <c r="AV228">
-        <v>6</v>
-      </c>
-      <c r="AW228">
+      <c r="AX228">
+        <v>12</v>
+      </c>
+      <c r="AY228">
+        <v>13</v>
+      </c>
+      <c r="AZ228">
+        <v>23</v>
+      </c>
+      <c r="BA228">
         <v>5</v>
       </c>
-      <c r="AX228">
-        <v>9</v>
-      </c>
-      <c r="AY228">
-        <v>11</v>
-      </c>
-      <c r="AZ228">
-        <v>18</v>
-      </c>
-      <c r="BA228">
-        <v>1</v>
-      </c>
       <c r="BB228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC228">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD228">
         <v>0</v>
@@ -48305,7 +48308,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7820541</v>
+        <v>7820542</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48320,43 +48323,43 @@
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O229" t="s">
         <v>233</v>
       </c>
       <c r="P229" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="Q229">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="R229">
         <v>1.95</v>
       </c>
       <c r="S229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T229">
         <v>1.53</v>
@@ -48377,19 +48380,19 @@
         <v>1.05</v>
       </c>
       <c r="Z229">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AA229">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB229">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AC229">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AD229">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE229">
         <v>0</v>
@@ -48404,10 +48407,10 @@
         <v>1.53</v>
       </c>
       <c r="AI229">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ229">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -48419,43 +48422,43 @@
         <v>0</v>
       </c>
       <c r="AN229">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO229">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP229">
         <v>1.88</v>
       </c>
       <c r="AQ229">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AR229">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AS229">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT229">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="AU229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV229">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW229">
         <v>4</v>
       </c>
       <c r="AX229">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY229">
+        <v>9</v>
+      </c>
+      <c r="AZ229">
         <v>13</v>
-      </c>
-      <c r="AZ229">
-        <v>23</v>
       </c>
       <c r="BA229">
         <v>5</v>
@@ -48511,7 +48514,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7820542</v>
+        <v>7820545</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48526,28 +48529,28 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H230" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
       <c r="K230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M230">
         <v>0</v>
       </c>
       <c r="N230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O230" t="s">
         <v>234</v>
@@ -48556,13 +48559,13 @@
         <v>100</v>
       </c>
       <c r="Q230">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R230">
         <v>1.95</v>
       </c>
       <c r="S230">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T230">
         <v>1.53</v>
@@ -48583,37 +48586,37 @@
         <v>1.05</v>
       </c>
       <c r="Z230">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="AA230">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB230">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="AC230">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AD230">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE230">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF230">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AG230">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH230">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AI230">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ230">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -48625,52 +48628,52 @@
         <v>0</v>
       </c>
       <c r="AN230">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO230">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
       <c r="AP230">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR230">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AS230">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT230">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="AU230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV230">
+        <v>3</v>
+      </c>
+      <c r="AW230">
+        <v>8</v>
+      </c>
+      <c r="AX230">
         <v>4</v>
       </c>
-      <c r="AW230">
-        <v>4</v>
-      </c>
-      <c r="AX230">
-        <v>8</v>
-      </c>
       <c r="AY230">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ230">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA230">
         <v>5</v>
       </c>
       <c r="BB230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC230">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48759,7 +48762,7 @@
         <v>156</v>
       </c>
       <c r="P231" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48923,7 +48926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7820548</v>
+        <v>7820550</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48938,10 +48941,10 @@
         <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H232" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -48953,28 +48956,28 @@
         <v>1</v>
       </c>
       <c r="L232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O232" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P232" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="Q232">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="R232">
         <v>1.83</v>
       </c>
       <c r="S232">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T232">
         <v>1.67</v>
@@ -48995,13 +48998,13 @@
         <v>1.03</v>
       </c>
       <c r="Z232">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AA232">
         <v>2.63</v>
       </c>
       <c r="AB232">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC232">
         <v>0</v>
@@ -49013,7 +49016,7 @@
         <v>1.65</v>
       </c>
       <c r="AF232">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AG232">
         <v>3.1</v>
@@ -49037,52 +49040,52 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AO232">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR232">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="AS232">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="AT232">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="AU232">
+        <v>2</v>
+      </c>
+      <c r="AV232">
         <v>6</v>
       </c>
-      <c r="AV232">
+      <c r="AW232">
+        <v>4</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
         <v>7</v>
       </c>
-      <c r="AW232">
-        <v>3</v>
-      </c>
-      <c r="AX232">
-        <v>7</v>
-      </c>
-      <c r="AY232">
-        <v>10</v>
-      </c>
       <c r="AZ232">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA232">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB232">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC232">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49129,7 +49132,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7820550</v>
+        <v>7820548</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49144,10 +49147,10 @@
         <v>16</v>
       </c>
       <c r="G233" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H233" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -49159,28 +49162,28 @@
         <v>1</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O233" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="Q233">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="R233">
         <v>1.83</v>
       </c>
       <c r="S233">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T233">
         <v>1.67</v>
@@ -49201,13 +49204,13 @@
         <v>1.03</v>
       </c>
       <c r="Z233">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AA233">
         <v>2.63</v>
       </c>
       <c r="AB233">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC233">
         <v>0</v>
@@ -49219,7 +49222,7 @@
         <v>1.65</v>
       </c>
       <c r="AF233">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AG233">
         <v>3.1</v>
@@ -49243,52 +49246,52 @@
         <v>0</v>
       </c>
       <c r="AN233">
+        <v>1.29</v>
+      </c>
+      <c r="AO233">
         <v>1.14</v>
       </c>
-      <c r="AO233">
-        <v>1.71</v>
-      </c>
       <c r="AP233">
+        <v>1.5</v>
+      </c>
+      <c r="AQ233">
+        <v>1</v>
+      </c>
+      <c r="AR233">
         <v>1.13</v>
       </c>
-      <c r="AQ233">
-        <v>1.56</v>
-      </c>
-      <c r="AR233">
-        <v>1.8</v>
-      </c>
       <c r="AS233">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="AU233">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX233">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY233">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ233">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA233">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC233">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD233">
         <v>0</v>
@@ -49377,7 +49380,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49747,7 +49750,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7820547</v>
+        <v>7820543</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -49762,10 +49765,10 @@
         <v>16</v>
       </c>
       <c r="G236" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H236" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -49777,19 +49780,19 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236">
         <v>1</v>
       </c>
       <c r="O236" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="Q236">
         <v>2.25</v>
@@ -49819,25 +49822,25 @@
         <v>1.05</v>
       </c>
       <c r="Z236">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA236">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB236">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC236">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="AD236">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AE236">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AF236">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AG236">
         <v>2.5</v>
@@ -49846,10 +49849,10 @@
         <v>1.5</v>
       </c>
       <c r="AI236">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AJ236">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AK236">
         <v>0</v>
@@ -49861,25 +49864,25 @@
         <v>0</v>
       </c>
       <c r="AN236">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO236">
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ236">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AR236">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS236">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT236">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="AU236">
         <v>5</v>
@@ -49888,25 +49891,25 @@
         <v>3</v>
       </c>
       <c r="AW236">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX236">
         <v>7</v>
       </c>
       <c r="AY236">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ236">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA236">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD236">
         <v>0</v>
@@ -49953,7 +49956,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>7820543</v>
+        <v>7820547</v>
       </c>
       <c r="C237" t="s">
         <v>68</v>
@@ -49968,10 +49971,10 @@
         <v>16</v>
       </c>
       <c r="G237" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H237" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -49983,19 +49986,19 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N237">
         <v>1</v>
       </c>
       <c r="O237" t="s">
+        <v>113</v>
+      </c>
+      <c r="P237" t="s">
         <v>100</v>
-      </c>
-      <c r="P237" t="s">
-        <v>262</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50025,25 +50028,25 @@
         <v>1.05</v>
       </c>
       <c r="Z237">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA237">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB237">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC237">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AD237">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE237">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AF237">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AG237">
         <v>2.5</v>
@@ -50052,40 +50055,40 @@
         <v>1.5</v>
       </c>
       <c r="AI237">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AJ237">
+        <v>1.44</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AN237">
+        <v>1.29</v>
+      </c>
+      <c r="AO237">
+        <v>1</v>
+      </c>
+      <c r="AP237">
         <v>1.5</v>
       </c>
-      <c r="AK237">
-        <v>0</v>
-      </c>
-      <c r="AL237">
-        <v>0</v>
-      </c>
-      <c r="AM237">
-        <v>0</v>
-      </c>
-      <c r="AN237">
-        <v>2.14</v>
-      </c>
-      <c r="AO237">
-        <v>1</v>
-      </c>
-      <c r="AP237">
-        <v>2</v>
-      </c>
       <c r="AQ237">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AR237">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS237">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT237">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="AU237">
         <v>5</v>
@@ -50094,25 +50097,25 @@
         <v>3</v>
       </c>
       <c r="AW237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX237">
         <v>7</v>
       </c>
       <c r="AY237">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ237">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA237">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC237">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD237">
         <v>0</v>
@@ -50282,7 +50285,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ238">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -50407,7 +50410,7 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q239">
         <v>3.6</v>
@@ -50897,7 +50900,7 @@
         <v>1</v>
       </c>
       <c r="AP241">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ241">
         <v>0.88</v>
@@ -51025,7 +51028,7 @@
         <v>239</v>
       </c>
       <c r="P242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q242">
         <v>2.95</v>
@@ -51437,7 +51440,7 @@
         <v>100</v>
       </c>
       <c r="P244" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q244">
         <v>2.4</v>
@@ -51518,7 +51521,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ244">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR244">
         <v>1.6</v>
@@ -52055,7 +52058,7 @@
         <v>241</v>
       </c>
       <c r="P247" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q247">
         <v>2.2</v>
@@ -52261,7 +52264,7 @@
         <v>242</v>
       </c>
       <c r="P248" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q248">
         <v>2.63</v>
@@ -52545,7 +52548,7 @@
         <v>1.63</v>
       </c>
       <c r="AP249">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ249">
         <v>1.53</v>
@@ -52879,7 +52882,7 @@
         <v>179</v>
       </c>
       <c r="P251" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q251">
         <v>2.6</v>
@@ -53085,7 +53088,7 @@
         <v>100</v>
       </c>
       <c r="P252" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q252">
         <v>2.88</v>
@@ -53242,6 +53245,212 @@
       </c>
       <c r="BP252">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7899164</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45797.85416666666</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>95</v>
+      </c>
+      <c r="H253" t="s">
+        <v>82</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>244</v>
+      </c>
+      <c r="P253" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q253">
+        <v>2.1</v>
+      </c>
+      <c r="R253">
+        <v>2.1</v>
+      </c>
+      <c r="S253">
+        <v>8</v>
+      </c>
+      <c r="T253">
+        <v>1.5</v>
+      </c>
+      <c r="U253">
+        <v>2.5</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.3</v>
+      </c>
+      <c r="X253">
+        <v>10</v>
+      </c>
+      <c r="Y253">
+        <v>1.06</v>
+      </c>
+      <c r="Z253">
+        <v>1.53</v>
+      </c>
+      <c r="AA253">
+        <v>3.75</v>
+      </c>
+      <c r="AB253">
+        <v>7</v>
+      </c>
+      <c r="AC253">
+        <v>1.08</v>
+      </c>
+      <c r="AD253">
+        <v>7.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.45</v>
+      </c>
+      <c r="AF253">
+        <v>2.7</v>
+      </c>
+      <c r="AG253">
+        <v>2.35</v>
+      </c>
+      <c r="AH253">
+        <v>1.57</v>
+      </c>
+      <c r="AI253">
+        <v>2.5</v>
+      </c>
+      <c r="AJ253">
+        <v>1.5</v>
+      </c>
+      <c r="AK253">
+        <v>1.1</v>
+      </c>
+      <c r="AL253">
+        <v>1.2</v>
+      </c>
+      <c r="AM253">
+        <v>2.45</v>
+      </c>
+      <c r="AN253">
+        <v>2</v>
+      </c>
+      <c r="AO253">
+        <v>1.53</v>
+      </c>
+      <c r="AP253">
+        <v>1.94</v>
+      </c>
+      <c r="AQ253">
+        <v>1.5</v>
+      </c>
+      <c r="AR253">
+        <v>1.9</v>
+      </c>
+      <c r="AS253">
+        <v>1.27</v>
+      </c>
+      <c r="AT253">
+        <v>3.17</v>
+      </c>
+      <c r="AU253">
+        <v>6</v>
+      </c>
+      <c r="AV253">
+        <v>4</v>
+      </c>
+      <c r="AW253">
+        <v>16</v>
+      </c>
+      <c r="AX253">
+        <v>4</v>
+      </c>
+      <c r="AY253">
+        <v>24</v>
+      </c>
+      <c r="AZ253">
+        <v>8</v>
+      </c>
+      <c r="BA253">
+        <v>3</v>
+      </c>
+      <c r="BB253">
+        <v>2</v>
+      </c>
+      <c r="BC253">
+        <v>5</v>
+      </c>
+      <c r="BD253">
+        <v>1.3</v>
+      </c>
+      <c r="BE253">
+        <v>7.5</v>
+      </c>
+      <c r="BF253">
+        <v>3.8</v>
+      </c>
+      <c r="BG253">
+        <v>1.49</v>
+      </c>
+      <c r="BH253">
+        <v>2.4</v>
+      </c>
+      <c r="BI253">
+        <v>1.79</v>
+      </c>
+      <c r="BJ253">
+        <v>1.9</v>
+      </c>
+      <c r="BK253">
+        <v>2.25</v>
+      </c>
+      <c r="BL253">
+        <v>1.55</v>
+      </c>
+      <c r="BM253">
+        <v>2.9</v>
+      </c>
+      <c r="BN253">
+        <v>1.34</v>
+      </c>
+      <c r="BO253">
+        <v>3.9</v>
+      </c>
+      <c r="BP253">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -613,10 +613,10 @@
     <t>['5', '45+3']</t>
   </si>
   <si>
-    <t>['58', '90+1']</t>
+    <t>['45+1']</t>
   </si>
   <si>
-    <t>['45+1']</t>
+    <t>['58', '90+1']</t>
   </si>
   <si>
     <t>['24', '48', '68']</t>
@@ -625,19 +625,19 @@
     <t>['16', '65']</t>
   </si>
   <si>
-    <t>['29']</t>
+    <t>['61']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['29']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['42', '46', '55', '75']</t>
+    <t>['5', '12', '24', '31']</t>
   </si>
   <si>
-    <t>['5', '12', '24', '31']</t>
+    <t>['42', '46', '55', '75']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -700,25 +700,25 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['51', '53']</t>
+  </si>
+  <si>
     <t>['43', '81']</t>
   </si>
   <si>
-    <t>['51', '53']</t>
+    <t>['24', '87']</t>
   </si>
   <si>
-    <t>['24', '87']</t>
+    <t>['26', '27', '60', '65']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['1', '35', '63']</t>
   </si>
   <si>
     <t>['18', '71', '82']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
-    <t>['26', '27', '60', '65']</t>
   </si>
   <si>
     <t>['36', '62', '83']</t>
@@ -886,10 +886,10 @@
     <t>['80', '90+1']</t>
   </si>
   <si>
-    <t>['11', '31']</t>
+    <t>['27', '68']</t>
   </si>
   <si>
-    <t>['27', '68']</t>
+    <t>['11', '31']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -26884,7 +26884,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7820441</v>
+        <v>7820440</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26899,10 +26899,10 @@
         <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -26914,175 +26914,175 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P125" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="Q125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R125">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T125">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X125">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y125">
         <v>1.03</v>
       </c>
       <c r="Z125">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AA125">
+        <v>2.7</v>
+      </c>
+      <c r="AB125">
+        <v>3.1</v>
+      </c>
+      <c r="AC125">
+        <v>1.14</v>
+      </c>
+      <c r="AD125">
+        <v>5.6</v>
+      </c>
+      <c r="AE125">
+        <v>1.73</v>
+      </c>
+      <c r="AF125">
+        <v>1.98</v>
+      </c>
+      <c r="AG125">
+        <v>3.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.3</v>
+      </c>
+      <c r="AI125">
+        <v>2.5</v>
+      </c>
+      <c r="AJ125">
+        <v>1.5</v>
+      </c>
+      <c r="AK125">
+        <v>1.36</v>
+      </c>
+      <c r="AL125">
+        <v>1.43</v>
+      </c>
+      <c r="AM125">
+        <v>1.44</v>
+      </c>
+      <c r="AN125">
+        <v>1.25</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>1.63</v>
+      </c>
+      <c r="AQ125">
+        <v>0.89</v>
+      </c>
+      <c r="AR125">
+        <v>1.05</v>
+      </c>
+      <c r="AS125">
+        <v>1.2</v>
+      </c>
+      <c r="AT125">
+        <v>2.25</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>16</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>6</v>
+      </c>
+      <c r="BD125">
+        <v>1.67</v>
+      </c>
+      <c r="BE125">
+        <v>6.4</v>
+      </c>
+      <c r="BF125">
+        <v>2.48</v>
+      </c>
+      <c r="BG125">
+        <v>1.43</v>
+      </c>
+      <c r="BH125">
         <v>2.63</v>
       </c>
-      <c r="AB125">
-        <v>3.84</v>
-      </c>
-      <c r="AC125">
-        <v>1.07</v>
-      </c>
-      <c r="AD125">
-        <v>9</v>
-      </c>
-      <c r="AE125">
-        <v>1.55</v>
-      </c>
-      <c r="AF125">
-        <v>2.25</v>
-      </c>
-      <c r="AG125">
-        <v>2.88</v>
-      </c>
-      <c r="AH125">
-        <v>1.4</v>
-      </c>
-      <c r="AI125">
-        <v>2.25</v>
-      </c>
-      <c r="AJ125">
-        <v>1.57</v>
-      </c>
-      <c r="AK125">
-        <v>1.28</v>
-      </c>
-      <c r="AL125">
-        <v>1.39</v>
-      </c>
-      <c r="AM125">
-        <v>1.6</v>
-      </c>
-      <c r="AN125">
-        <v>1.67</v>
-      </c>
-      <c r="AO125">
-        <v>1.67</v>
-      </c>
-      <c r="AP125">
-        <v>1.13</v>
-      </c>
-      <c r="AQ125">
-        <v>1.11</v>
-      </c>
-      <c r="AR125">
-        <v>2.03</v>
-      </c>
-      <c r="AS125">
-        <v>1.21</v>
-      </c>
-      <c r="AT125">
-        <v>3.24</v>
-      </c>
-      <c r="AU125">
-        <v>4</v>
-      </c>
-      <c r="AV125">
-        <v>12</v>
-      </c>
-      <c r="AW125">
-        <v>13</v>
-      </c>
-      <c r="AX125">
-        <v>11</v>
-      </c>
-      <c r="AY125">
-        <v>23</v>
-      </c>
-      <c r="AZ125">
-        <v>27</v>
-      </c>
-      <c r="BA125">
-        <v>4</v>
-      </c>
-      <c r="BB125">
-        <v>5</v>
-      </c>
-      <c r="BC125">
-        <v>9</v>
-      </c>
-      <c r="BD125">
-        <v>1.7</v>
-      </c>
-      <c r="BE125">
-        <v>6.5</v>
-      </c>
-      <c r="BF125">
-        <v>2.4</v>
-      </c>
-      <c r="BG125">
-        <v>1.39</v>
-      </c>
-      <c r="BH125">
-        <v>2.77</v>
-      </c>
       <c r="BI125">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="BJ125">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="BK125">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="BL125">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="BM125">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="BN125">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BO125">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP125">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -27090,7 +27090,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7820440</v>
+        <v>7820441</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -27105,10 +27105,10 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H126" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -27120,175 +27120,175 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="Q126">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S126">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T126">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V126">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W126">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y126">
         <v>1.03</v>
       </c>
       <c r="Z126">
+        <v>2.32</v>
+      </c>
+      <c r="AA126">
+        <v>2.63</v>
+      </c>
+      <c r="AB126">
+        <v>3.84</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.55</v>
+      </c>
+      <c r="AF126">
+        <v>2.25</v>
+      </c>
+      <c r="AG126">
+        <v>2.88</v>
+      </c>
+      <c r="AH126">
+        <v>1.4</v>
+      </c>
+      <c r="AI126">
+        <v>2.25</v>
+      </c>
+      <c r="AJ126">
+        <v>1.57</v>
+      </c>
+      <c r="AK126">
+        <v>1.28</v>
+      </c>
+      <c r="AL126">
+        <v>1.39</v>
+      </c>
+      <c r="AM126">
+        <v>1.6</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>1.67</v>
+      </c>
+      <c r="AP126">
+        <v>1.13</v>
+      </c>
+      <c r="AQ126">
+        <v>1.11</v>
+      </c>
+      <c r="AR126">
+        <v>2.03</v>
+      </c>
+      <c r="AS126">
+        <v>1.21</v>
+      </c>
+      <c r="AT126">
+        <v>3.24</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>12</v>
+      </c>
+      <c r="AW126">
+        <v>13</v>
+      </c>
+      <c r="AX126">
+        <v>11</v>
+      </c>
+      <c r="AY126">
+        <v>23</v>
+      </c>
+      <c r="AZ126">
+        <v>27</v>
+      </c>
+      <c r="BA126">
+        <v>4</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>1.7</v>
+      </c>
+      <c r="BE126">
+        <v>6.5</v>
+      </c>
+      <c r="BF126">
+        <v>2.4</v>
+      </c>
+      <c r="BG126">
+        <v>1.39</v>
+      </c>
+      <c r="BH126">
+        <v>2.77</v>
+      </c>
+      <c r="BI126">
+        <v>1.68</v>
+      </c>
+      <c r="BJ126">
+        <v>2.11</v>
+      </c>
+      <c r="BK126">
+        <v>2.11</v>
+      </c>
+      <c r="BL126">
+        <v>1.68</v>
+      </c>
+      <c r="BM126">
         <v>2.7</v>
       </c>
-      <c r="AA126">
-        <v>2.7</v>
-      </c>
-      <c r="AB126">
-        <v>3.1</v>
-      </c>
-      <c r="AC126">
-        <v>1.14</v>
-      </c>
-      <c r="AD126">
-        <v>5.6</v>
-      </c>
-      <c r="AE126">
-        <v>1.73</v>
-      </c>
-      <c r="AF126">
-        <v>1.98</v>
-      </c>
-      <c r="AG126">
-        <v>3.5</v>
-      </c>
-      <c r="AH126">
-        <v>1.3</v>
-      </c>
-      <c r="AI126">
-        <v>2.5</v>
-      </c>
-      <c r="AJ126">
-        <v>1.5</v>
-      </c>
-      <c r="AK126">
-        <v>1.36</v>
-      </c>
-      <c r="AL126">
-        <v>1.43</v>
-      </c>
-      <c r="AM126">
-        <v>1.44</v>
-      </c>
-      <c r="AN126">
-        <v>1.25</v>
-      </c>
-      <c r="AO126">
-        <v>1</v>
-      </c>
-      <c r="AP126">
-        <v>1.63</v>
-      </c>
-      <c r="AQ126">
-        <v>0.89</v>
-      </c>
-      <c r="AR126">
-        <v>1.05</v>
-      </c>
-      <c r="AS126">
-        <v>1.2</v>
-      </c>
-      <c r="AT126">
-        <v>2.25</v>
-      </c>
-      <c r="AU126">
-        <v>5</v>
-      </c>
-      <c r="AV126">
-        <v>6</v>
-      </c>
-      <c r="AW126">
-        <v>4</v>
-      </c>
-      <c r="AX126">
-        <v>7</v>
-      </c>
-      <c r="AY126">
-        <v>9</v>
-      </c>
-      <c r="AZ126">
-        <v>16</v>
-      </c>
-      <c r="BA126">
-        <v>2</v>
-      </c>
-      <c r="BB126">
-        <v>4</v>
-      </c>
-      <c r="BC126">
-        <v>6</v>
-      </c>
-      <c r="BD126">
-        <v>1.67</v>
-      </c>
-      <c r="BE126">
-        <v>6.4</v>
-      </c>
-      <c r="BF126">
-        <v>2.48</v>
-      </c>
-      <c r="BG126">
-        <v>1.43</v>
-      </c>
-      <c r="BH126">
-        <v>2.63</v>
-      </c>
-      <c r="BI126">
-        <v>1.74</v>
-      </c>
-      <c r="BJ126">
-        <v>2.02</v>
-      </c>
-      <c r="BK126">
-        <v>2.22</v>
-      </c>
-      <c r="BL126">
-        <v>1.62</v>
-      </c>
-      <c r="BM126">
-        <v>2.85</v>
-      </c>
       <c r="BN126">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO126">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP126">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -29604,7 +29604,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q138">
         <v>2.3</v>
@@ -31622,7 +31622,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7820463</v>
+        <v>7820464</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31637,190 +31637,190 @@
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H148" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148">
         <v>2</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148">
         <v>2</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O148" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P148" t="s">
         <v>290</v>
       </c>
       <c r="Q148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R148">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S148">
         <v>4</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="U148">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V148">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="W148">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="X148">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y148">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Z148">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="AA148">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="AB148">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="AC148">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AD148">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AE148">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AF148">
-        <v>1.96</v>
+        <v>2.55</v>
       </c>
       <c r="AG148">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH148">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AI148">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AJ148">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AK148">
+        <v>1.34</v>
+      </c>
+      <c r="AL148">
         <v>1.37</v>
       </c>
-      <c r="AL148">
-        <v>1.46</v>
-      </c>
       <c r="AM148">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AN148">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AO148">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AT148">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="AU148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
         <v>7</v>
       </c>
-      <c r="AW148">
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
         <v>9</v>
       </c>
-      <c r="AX148">
-        <v>6</v>
-      </c>
-      <c r="AY148">
-        <v>19</v>
-      </c>
-      <c r="AZ148">
-        <v>13</v>
-      </c>
       <c r="BA148">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC148">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD148">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BE148">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF148">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BG148">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="BH148">
-        <v>2.37</v>
+        <v>3.34</v>
       </c>
       <c r="BI148">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="BJ148">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="BK148">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="BL148">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="BM148">
-        <v>3.32</v>
+        <v>2.34</v>
       </c>
       <c r="BN148">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="BO148">
-        <v>4.6</v>
+        <v>3.08</v>
       </c>
       <c r="BP148">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31828,7 +31828,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7820464</v>
+        <v>7820463</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31843,190 +31843,190 @@
         <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H149" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149">
         <v>2</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>2</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P149" t="s">
         <v>291</v>
       </c>
       <c r="Q149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R149">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S149">
         <v>4</v>
       </c>
       <c r="T149">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="U149">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V149">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="W149">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="X149">
+        <v>19</v>
+      </c>
+      <c r="Y149">
+        <v>1.02</v>
+      </c>
+      <c r="Z149">
+        <v>2.74</v>
+      </c>
+      <c r="AA149">
+        <v>2.57</v>
+      </c>
+      <c r="AB149">
+        <v>3.14</v>
+      </c>
+      <c r="AC149">
+        <v>1.18</v>
+      </c>
+      <c r="AD149">
+        <v>4.75</v>
+      </c>
+      <c r="AE149">
+        <v>1.8</v>
+      </c>
+      <c r="AF149">
+        <v>1.96</v>
+      </c>
+      <c r="AG149">
+        <v>3.6</v>
+      </c>
+      <c r="AH149">
+        <v>1.29</v>
+      </c>
+      <c r="AI149">
+        <v>2.63</v>
+      </c>
+      <c r="AJ149">
+        <v>1.44</v>
+      </c>
+      <c r="AK149">
+        <v>1.37</v>
+      </c>
+      <c r="AL149">
+        <v>1.46</v>
+      </c>
+      <c r="AM149">
+        <v>1.41</v>
+      </c>
+      <c r="AN149">
+        <v>0.8</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>0.78</v>
+      </c>
+      <c r="AQ149">
+        <v>1.4</v>
+      </c>
+      <c r="AR149">
+        <v>1.46</v>
+      </c>
+      <c r="AS149">
+        <v>1</v>
+      </c>
+      <c r="AT149">
+        <v>2.46</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>19</v>
+      </c>
+      <c r="AZ149">
         <v>13</v>
       </c>
-      <c r="Y149">
-        <v>1.04</v>
-      </c>
-      <c r="Z149">
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>5</v>
+      </c>
+      <c r="BD149">
+        <v>1.82</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
         <v>2.4</v>
       </c>
-      <c r="AA149">
-        <v>2.81</v>
-      </c>
-      <c r="AB149">
-        <v>3.35</v>
-      </c>
-      <c r="AC149">
-        <v>1.1</v>
-      </c>
-      <c r="AD149">
-        <v>6.5</v>
-      </c>
-      <c r="AE149">
-        <v>1.5</v>
-      </c>
-      <c r="AF149">
-        <v>2.55</v>
-      </c>
-      <c r="AG149">
-        <v>2.5</v>
-      </c>
-      <c r="AH149">
-        <v>1.5</v>
-      </c>
-      <c r="AI149">
-        <v>2.1</v>
-      </c>
-      <c r="AJ149">
-        <v>1.67</v>
-      </c>
-      <c r="AK149">
-        <v>1.34</v>
-      </c>
-      <c r="AL149">
-        <v>1.37</v>
-      </c>
-      <c r="AM149">
+      <c r="BG149">
         <v>1.55</v>
       </c>
-      <c r="AN149">
-        <v>0.75</v>
-      </c>
-      <c r="AO149">
-        <v>0.25</v>
-      </c>
-      <c r="AP149">
-        <v>1.5</v>
-      </c>
-      <c r="AQ149">
-        <v>0.88</v>
-      </c>
-      <c r="AR149">
-        <v>1.84</v>
-      </c>
-      <c r="AS149">
-        <v>0.96</v>
-      </c>
-      <c r="AT149">
-        <v>2.8</v>
-      </c>
-      <c r="AU149">
-        <v>4</v>
-      </c>
-      <c r="AV149">
-        <v>3</v>
-      </c>
-      <c r="AW149">
-        <v>7</v>
-      </c>
-      <c r="AX149">
-        <v>4</v>
-      </c>
-      <c r="AY149">
-        <v>14</v>
-      </c>
-      <c r="AZ149">
-        <v>9</v>
-      </c>
-      <c r="BA149">
-        <v>7</v>
-      </c>
-      <c r="BB149">
-        <v>1</v>
-      </c>
-      <c r="BC149">
-        <v>8</v>
-      </c>
-      <c r="BD149">
-        <v>1.85</v>
-      </c>
-      <c r="BE149">
-        <v>8.4</v>
-      </c>
-      <c r="BF149">
-        <v>2.35</v>
-      </c>
-      <c r="BG149">
-        <v>1.24</v>
-      </c>
       <c r="BH149">
-        <v>3.34</v>
+        <v>2.37</v>
       </c>
       <c r="BI149">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="BJ149">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BK149">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="BL149">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="BM149">
-        <v>2.34</v>
+        <v>3.32</v>
       </c>
       <c r="BN149">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BO149">
-        <v>3.08</v>
+        <v>4.6</v>
       </c>
       <c r="BP149">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -33270,7 +33270,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7820477</v>
+        <v>7820470</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33285,10 +33285,10 @@
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33300,175 +33300,175 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="Q156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R156">
         <v>1.8</v>
       </c>
       <c r="S156">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T156">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V156">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W156">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y156">
         <v>1.03</v>
       </c>
       <c r="Z156">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AA156">
+        <v>2.9</v>
+      </c>
+      <c r="AB156">
+        <v>2.55</v>
+      </c>
+      <c r="AC156">
+        <v>1.12</v>
+      </c>
+      <c r="AD156">
+        <v>5.25</v>
+      </c>
+      <c r="AE156">
+        <v>1.52</v>
+      </c>
+      <c r="AF156">
+        <v>2.45</v>
+      </c>
+      <c r="AG156">
+        <v>3.1</v>
+      </c>
+      <c r="AH156">
+        <v>1.36</v>
+      </c>
+      <c r="AI156">
+        <v>2.38</v>
+      </c>
+      <c r="AJ156">
+        <v>1.53</v>
+      </c>
+      <c r="AK156">
+        <v>1.49</v>
+      </c>
+      <c r="AL156">
+        <v>1.4</v>
+      </c>
+      <c r="AM156">
+        <v>1.35</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>1.6</v>
+      </c>
+      <c r="AP156">
+        <v>1.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.67</v>
+      </c>
+      <c r="AR156">
+        <v>1.34</v>
+      </c>
+      <c r="AS156">
+        <v>1.34</v>
+      </c>
+      <c r="AT156">
+        <v>2.68</v>
+      </c>
+      <c r="AU156">
         <v>3</v>
       </c>
-      <c r="AB156">
-        <v>3.4</v>
-      </c>
-      <c r="AC156">
-        <v>1.13</v>
-      </c>
-      <c r="AD156">
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>2</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
         <v>5</v>
-      </c>
-      <c r="AE156">
-        <v>1.6</v>
-      </c>
-      <c r="AF156">
-        <v>2.28</v>
-      </c>
-      <c r="AG156">
-        <v>3.4</v>
-      </c>
-      <c r="AH156">
-        <v>1.33</v>
-      </c>
-      <c r="AI156">
-        <v>2.5</v>
-      </c>
-      <c r="AJ156">
-        <v>1.5</v>
-      </c>
-      <c r="AK156">
-        <v>1.34</v>
-      </c>
-      <c r="AL156">
-        <v>1.41</v>
-      </c>
-      <c r="AM156">
-        <v>1.49</v>
-      </c>
-      <c r="AN156">
-        <v>2</v>
-      </c>
-      <c r="AO156">
-        <v>1</v>
-      </c>
-      <c r="AP156">
-        <v>1.89</v>
-      </c>
-      <c r="AQ156">
-        <v>0.89</v>
-      </c>
-      <c r="AR156">
-        <v>1.71</v>
-      </c>
-      <c r="AS156">
-        <v>1.33</v>
-      </c>
-      <c r="AT156">
-        <v>3.04</v>
-      </c>
-      <c r="AU156">
-        <v>4</v>
-      </c>
-      <c r="AV156">
-        <v>6</v>
-      </c>
-      <c r="AW156">
-        <v>6</v>
-      </c>
-      <c r="AX156">
-        <v>12</v>
-      </c>
-      <c r="AY156">
-        <v>11</v>
-      </c>
-      <c r="AZ156">
-        <v>20</v>
       </c>
       <c r="BA156">
         <v>3</v>
       </c>
       <c r="BB156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC156">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD156">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BE156">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF156">
+        <v>2.18</v>
+      </c>
+      <c r="BG156">
+        <v>1.55</v>
+      </c>
+      <c r="BH156">
+        <v>2.28</v>
+      </c>
+      <c r="BI156">
+        <v>1.85</v>
+      </c>
+      <c r="BJ156">
+        <v>1.85</v>
+      </c>
+      <c r="BK156">
         <v>2.43</v>
       </c>
-      <c r="BG156">
-        <v>1.41</v>
-      </c>
-      <c r="BH156">
-        <v>2.65</v>
-      </c>
-      <c r="BI156">
-        <v>1.68</v>
-      </c>
-      <c r="BJ156">
-        <v>2.04</v>
-      </c>
-      <c r="BK156">
-        <v>1.93</v>
-      </c>
       <c r="BL156">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="BM156">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BN156">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO156">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="BP156">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33476,7 +33476,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7820470</v>
+        <v>7820477</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33491,10 +33491,10 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H157" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -33506,175 +33506,175 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O157" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="Q157">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R157">
         <v>1.8</v>
       </c>
       <c r="S157">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T157">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W157">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X157">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y157">
         <v>1.03</v>
       </c>
       <c r="Z157">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA157">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB157">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC157">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD157">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AE157">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AF157">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AG157">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH157">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI157">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ157">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK157">
+        <v>1.34</v>
+      </c>
+      <c r="AL157">
+        <v>1.41</v>
+      </c>
+      <c r="AM157">
         <v>1.49</v>
       </c>
-      <c r="AL157">
-        <v>1.4</v>
-      </c>
-      <c r="AM157">
-        <v>1.35</v>
-      </c>
       <c r="AN157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO157">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>0.89</v>
       </c>
       <c r="AR157">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AS157">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="AU157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX157">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY157">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ157">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BA157">
         <v>3</v>
       </c>
       <c r="BB157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD157">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BE157">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF157">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="BG157">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BH157">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BI157">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ157">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BK157">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="BL157">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="BM157">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BN157">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO157">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP157">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -35948,7 +35948,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7820491</v>
+        <v>7820494</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35963,151 +35963,151 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O169" t="s">
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="Q169">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R169">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.73</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>4.5</v>
+      </c>
+      <c r="W169">
+        <v>1.18</v>
+      </c>
+      <c r="X169">
+        <v>17</v>
+      </c>
+      <c r="Y169">
+        <v>1.03</v>
+      </c>
+      <c r="Z169">
+        <v>3</v>
+      </c>
+      <c r="AA169">
+        <v>2.6</v>
+      </c>
+      <c r="AB169">
+        <v>3</v>
+      </c>
+      <c r="AC169">
+        <v>1.17</v>
+      </c>
+      <c r="AD169">
+        <v>5.36</v>
+      </c>
+      <c r="AE169">
+        <v>1.67</v>
+      </c>
+      <c r="AF169">
+        <v>2.05</v>
+      </c>
+      <c r="AG169">
+        <v>3.4</v>
+      </c>
+      <c r="AH169">
+        <v>1.33</v>
+      </c>
+      <c r="AI169">
+        <v>2.38</v>
+      </c>
+      <c r="AJ169">
+        <v>1.53</v>
+      </c>
+      <c r="AK169">
+        <v>1.44</v>
+      </c>
+      <c r="AL169">
+        <v>1.38</v>
+      </c>
+      <c r="AM169">
+        <v>1.38</v>
+      </c>
+      <c r="AN169">
+        <v>0.8</v>
+      </c>
+      <c r="AO169">
+        <v>1.4</v>
+      </c>
+      <c r="AP169">
+        <v>1.13</v>
+      </c>
+      <c r="AQ169">
+        <v>1.33</v>
+      </c>
+      <c r="AR169">
+        <v>1.06</v>
+      </c>
+      <c r="AS169">
+        <v>1.18</v>
+      </c>
+      <c r="AT169">
+        <v>2.24</v>
+      </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>10</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
         <v>5</v>
       </c>
-      <c r="T169">
-        <v>1.62</v>
-      </c>
-      <c r="U169">
-        <v>2.2</v>
-      </c>
-      <c r="V169">
-        <v>4</v>
-      </c>
-      <c r="W169">
-        <v>1.22</v>
-      </c>
-      <c r="X169">
-        <v>13</v>
-      </c>
-      <c r="Y169">
-        <v>1.04</v>
-      </c>
-      <c r="Z169">
-        <v>2</v>
-      </c>
-      <c r="AA169">
-        <v>3</v>
-      </c>
-      <c r="AB169">
-        <v>4.5</v>
-      </c>
-      <c r="AC169">
-        <v>1.14</v>
-      </c>
-      <c r="AD169">
-        <v>6.21</v>
-      </c>
-      <c r="AE169">
-        <v>1.53</v>
-      </c>
-      <c r="AF169">
-        <v>2.3</v>
-      </c>
-      <c r="AG169">
-        <v>2.7</v>
-      </c>
-      <c r="AH169">
-        <v>1.44</v>
-      </c>
-      <c r="AI169">
-        <v>2.25</v>
-      </c>
-      <c r="AJ169">
-        <v>1.57</v>
-      </c>
-      <c r="AK169">
-        <v>1.22</v>
-      </c>
-      <c r="AL169">
-        <v>1.33</v>
-      </c>
-      <c r="AM169">
-        <v>1.73</v>
-      </c>
-      <c r="AN169">
-        <v>3</v>
-      </c>
-      <c r="AO169">
-        <v>0.8</v>
-      </c>
-      <c r="AP169">
-        <v>2.67</v>
-      </c>
-      <c r="AQ169">
-        <v>0.88</v>
-      </c>
-      <c r="AR169">
-        <v>1.32</v>
-      </c>
-      <c r="AS169">
-        <v>0.98</v>
-      </c>
-      <c r="AT169">
-        <v>2.3</v>
-      </c>
-      <c r="AU169">
-        <v>5</v>
-      </c>
-      <c r="AV169">
-        <v>4</v>
-      </c>
-      <c r="AW169">
-        <v>4</v>
-      </c>
-      <c r="AX169">
-        <v>1</v>
-      </c>
-      <c r="AY169">
-        <v>9</v>
-      </c>
-      <c r="AZ169">
-        <v>5</v>
-      </c>
-      <c r="BA169">
-        <v>10</v>
-      </c>
-      <c r="BB169">
-        <v>3</v>
-      </c>
       <c r="BC169">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD169">
         <v>1.67</v>
@@ -36125,25 +36125,25 @@
         <v>2.92</v>
       </c>
       <c r="BI169">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BJ169">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BK169">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BL169">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BM169">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN169">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO169">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="BP169">
         <v>1.2</v>
@@ -36154,7 +36154,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7820494</v>
+        <v>7820491</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36169,151 +36169,151 @@
         <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H170" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O170" t="s">
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="Q170">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S170">
+        <v>5</v>
+      </c>
+      <c r="T170">
+        <v>1.62</v>
+      </c>
+      <c r="U170">
+        <v>2.2</v>
+      </c>
+      <c r="V170">
         <v>4</v>
       </c>
-      <c r="T170">
+      <c r="W170">
+        <v>1.22</v>
+      </c>
+      <c r="X170">
+        <v>13</v>
+      </c>
+      <c r="Y170">
+        <v>1.04</v>
+      </c>
+      <c r="Z170">
+        <v>2</v>
+      </c>
+      <c r="AA170">
+        <v>3</v>
+      </c>
+      <c r="AB170">
+        <v>4.5</v>
+      </c>
+      <c r="AC170">
+        <v>1.14</v>
+      </c>
+      <c r="AD170">
+        <v>6.21</v>
+      </c>
+      <c r="AE170">
+        <v>1.53</v>
+      </c>
+      <c r="AF170">
+        <v>2.3</v>
+      </c>
+      <c r="AG170">
+        <v>2.7</v>
+      </c>
+      <c r="AH170">
+        <v>1.44</v>
+      </c>
+      <c r="AI170">
+        <v>2.25</v>
+      </c>
+      <c r="AJ170">
+        <v>1.57</v>
+      </c>
+      <c r="AK170">
+        <v>1.22</v>
+      </c>
+      <c r="AL170">
+        <v>1.33</v>
+      </c>
+      <c r="AM170">
         <v>1.73</v>
       </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>4.5</v>
-      </c>
-      <c r="W170">
-        <v>1.18</v>
-      </c>
-      <c r="X170">
-        <v>17</v>
-      </c>
-      <c r="Y170">
-        <v>1.03</v>
-      </c>
-      <c r="Z170">
+      <c r="AN170">
         <v>3</v>
       </c>
-      <c r="AA170">
-        <v>2.6</v>
-      </c>
-      <c r="AB170">
+      <c r="AO170">
+        <v>0.8</v>
+      </c>
+      <c r="AP170">
+        <v>2.67</v>
+      </c>
+      <c r="AQ170">
+        <v>0.88</v>
+      </c>
+      <c r="AR170">
+        <v>1.32</v>
+      </c>
+      <c r="AS170">
+        <v>0.98</v>
+      </c>
+      <c r="AT170">
+        <v>2.3</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>1</v>
+      </c>
+      <c r="AY170">
+        <v>9</v>
+      </c>
+      <c r="AZ170">
+        <v>5</v>
+      </c>
+      <c r="BA170">
+        <v>10</v>
+      </c>
+      <c r="BB170">
         <v>3</v>
       </c>
-      <c r="AC170">
-        <v>1.17</v>
-      </c>
-      <c r="AD170">
-        <v>5.36</v>
-      </c>
-      <c r="AE170">
-        <v>1.67</v>
-      </c>
-      <c r="AF170">
-        <v>2.05</v>
-      </c>
-      <c r="AG170">
-        <v>3.4</v>
-      </c>
-      <c r="AH170">
-        <v>1.33</v>
-      </c>
-      <c r="AI170">
-        <v>2.38</v>
-      </c>
-      <c r="AJ170">
-        <v>1.53</v>
-      </c>
-      <c r="AK170">
-        <v>1.44</v>
-      </c>
-      <c r="AL170">
-        <v>1.38</v>
-      </c>
-      <c r="AM170">
-        <v>1.38</v>
-      </c>
-      <c r="AN170">
-        <v>0.8</v>
-      </c>
-      <c r="AO170">
-        <v>1.4</v>
-      </c>
-      <c r="AP170">
-        <v>1.13</v>
-      </c>
-      <c r="AQ170">
-        <v>1.33</v>
-      </c>
-      <c r="AR170">
-        <v>1.06</v>
-      </c>
-      <c r="AS170">
-        <v>1.18</v>
-      </c>
-      <c r="AT170">
-        <v>2.24</v>
-      </c>
-      <c r="AU170">
-        <v>2</v>
-      </c>
-      <c r="AV170">
-        <v>6</v>
-      </c>
-      <c r="AW170">
-        <v>6</v>
-      </c>
-      <c r="AX170">
-        <v>3</v>
-      </c>
-      <c r="AY170">
-        <v>10</v>
-      </c>
-      <c r="AZ170">
-        <v>10</v>
-      </c>
-      <c r="BA170">
-        <v>1</v>
-      </c>
-      <c r="BB170">
-        <v>5</v>
-      </c>
       <c r="BC170">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD170">
         <v>1.67</v>
@@ -36331,25 +36331,25 @@
         <v>2.92</v>
       </c>
       <c r="BI170">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BJ170">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BK170">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BL170">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BM170">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN170">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO170">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="BP170">
         <v>1.2</v>
@@ -36978,7 +36978,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7820482</v>
+        <v>7820487</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36993,16 +36993,16 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H174" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -37011,25 +37011,25 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O174" t="s">
         <v>203</v>
       </c>
       <c r="P174" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="Q174">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S174">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T174">
         <v>1.57</v>
@@ -37044,139 +37044,139 @@
         <v>1.25</v>
       </c>
       <c r="X174">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y174">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z174">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="AA174">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB174">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC174">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD174">
+        <v>6.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.5</v>
+      </c>
+      <c r="AF174">
+        <v>2.4</v>
+      </c>
+      <c r="AG174">
+        <v>2.6</v>
+      </c>
+      <c r="AH174">
+        <v>1.48</v>
+      </c>
+      <c r="AI174">
+        <v>2.1</v>
+      </c>
+      <c r="AJ174">
+        <v>1.67</v>
+      </c>
+      <c r="AK174">
+        <v>1.35</v>
+      </c>
+      <c r="AL174">
+        <v>1.35</v>
+      </c>
+      <c r="AM174">
+        <v>1.55</v>
+      </c>
+      <c r="AN174">
+        <v>1.6</v>
+      </c>
+      <c r="AO174">
+        <v>1.6</v>
+      </c>
+      <c r="AP174">
+        <v>1.63</v>
+      </c>
+      <c r="AQ174">
+        <v>1.33</v>
+      </c>
+      <c r="AR174">
+        <v>2.03</v>
+      </c>
+      <c r="AS174">
+        <v>0.99</v>
+      </c>
+      <c r="AT174">
+        <v>3.02</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>10</v>
+      </c>
+      <c r="AW174">
+        <v>2</v>
+      </c>
+      <c r="AX174">
+        <v>2</v>
+      </c>
+      <c r="AY174">
         <v>7</v>
       </c>
-      <c r="AE174">
-        <v>1.48</v>
-      </c>
-      <c r="AF174">
-        <v>2.62</v>
-      </c>
-      <c r="AG174">
-        <v>2.4</v>
-      </c>
-      <c r="AH174">
-        <v>1.53</v>
-      </c>
-      <c r="AI174">
+      <c r="AZ174">
+        <v>12</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>4</v>
+      </c>
+      <c r="BD174">
+        <v>1.94</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>2.07</v>
+      </c>
+      <c r="BG174">
+        <v>1.44</v>
+      </c>
+      <c r="BH174">
+        <v>2.55</v>
+      </c>
+      <c r="BI174">
+        <v>1.75</v>
+      </c>
+      <c r="BJ174">
+        <v>1.95</v>
+      </c>
+      <c r="BK174">
         <v>2.2</v>
       </c>
-      <c r="AJ174">
-        <v>1.62</v>
-      </c>
-      <c r="AK174">
-        <v>1.29</v>
-      </c>
-      <c r="AL174">
-        <v>1.34</v>
-      </c>
-      <c r="AM174">
-        <v>1.68</v>
-      </c>
-      <c r="AN174">
-        <v>1.33</v>
-      </c>
-      <c r="AO174">
-        <v>1</v>
-      </c>
-      <c r="AP174">
-        <v>1.44</v>
-      </c>
-      <c r="AQ174">
-        <v>0.57</v>
-      </c>
-      <c r="AR174">
-        <v>1.83</v>
-      </c>
-      <c r="AS174">
+      <c r="BL174">
+        <v>1.58</v>
+      </c>
+      <c r="BM174">
+        <v>2.85</v>
+      </c>
+      <c r="BN174">
         <v>1.36</v>
       </c>
-      <c r="AT174">
-        <v>3.19</v>
-      </c>
-      <c r="AU174">
-        <v>2</v>
-      </c>
-      <c r="AV174">
-        <v>2</v>
-      </c>
-      <c r="AW174">
-        <v>8</v>
-      </c>
-      <c r="AX174">
-        <v>3</v>
-      </c>
-      <c r="AY174">
-        <v>10</v>
-      </c>
-      <c r="AZ174">
-        <v>5</v>
-      </c>
-      <c r="BA174">
-        <v>8</v>
-      </c>
-      <c r="BB174">
-        <v>2</v>
-      </c>
-      <c r="BC174">
-        <v>10</v>
-      </c>
-      <c r="BD174">
-        <v>1.58</v>
-      </c>
-      <c r="BE174">
-        <v>6.5</v>
-      </c>
-      <c r="BF174">
-        <v>2.63</v>
-      </c>
-      <c r="BG174">
-        <v>1.49</v>
-      </c>
-      <c r="BH174">
-        <v>2.4</v>
-      </c>
-      <c r="BI174">
-        <v>1.8</v>
-      </c>
-      <c r="BJ174">
-        <v>1.89</v>
-      </c>
-      <c r="BK174">
-        <v>2.28</v>
-      </c>
-      <c r="BL174">
-        <v>1.54</v>
-      </c>
-      <c r="BM174">
-        <v>2.95</v>
-      </c>
-      <c r="BN174">
-        <v>1.33</v>
-      </c>
       <c r="BO174">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="BP174">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37184,7 +37184,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7820487</v>
+        <v>7820482</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37199,16 +37199,16 @@
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H175" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -37217,25 +37217,25 @@
         <v>1</v>
       </c>
       <c r="M175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>301</v>
+        <v>100</v>
       </c>
       <c r="Q175">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R175">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T175">
         <v>1.57</v>
@@ -37250,139 +37250,139 @@
         <v>1.25</v>
       </c>
       <c r="X175">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y175">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z175">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AA175">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB175">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC175">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD175">
+        <v>7</v>
+      </c>
+      <c r="AE175">
+        <v>1.48</v>
+      </c>
+      <c r="AF175">
+        <v>2.62</v>
+      </c>
+      <c r="AG175">
+        <v>2.4</v>
+      </c>
+      <c r="AH175">
+        <v>1.53</v>
+      </c>
+      <c r="AI175">
+        <v>2.2</v>
+      </c>
+      <c r="AJ175">
+        <v>1.62</v>
+      </c>
+      <c r="AK175">
+        <v>1.29</v>
+      </c>
+      <c r="AL175">
+        <v>1.34</v>
+      </c>
+      <c r="AM175">
+        <v>1.68</v>
+      </c>
+      <c r="AN175">
+        <v>1.33</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.44</v>
+      </c>
+      <c r="AQ175">
+        <v>0.57</v>
+      </c>
+      <c r="AR175">
+        <v>1.83</v>
+      </c>
+      <c r="AS175">
+        <v>1.36</v>
+      </c>
+      <c r="AT175">
+        <v>3.19</v>
+      </c>
+      <c r="AU175">
+        <v>2</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>10</v>
+      </c>
+      <c r="AZ175">
+        <v>5</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>10</v>
+      </c>
+      <c r="BD175">
+        <v>1.58</v>
+      </c>
+      <c r="BE175">
         <v>6.5</v>
       </c>
-      <c r="AE175">
-        <v>1.5</v>
-      </c>
-      <c r="AF175">
+      <c r="BF175">
+        <v>2.63</v>
+      </c>
+      <c r="BG175">
+        <v>1.49</v>
+      </c>
+      <c r="BH175">
         <v>2.4</v>
       </c>
-      <c r="AG175">
-        <v>2.6</v>
-      </c>
-      <c r="AH175">
-        <v>1.48</v>
-      </c>
-      <c r="AI175">
-        <v>2.1</v>
-      </c>
-      <c r="AJ175">
-        <v>1.67</v>
-      </c>
-      <c r="AK175">
-        <v>1.35</v>
-      </c>
-      <c r="AL175">
-        <v>1.35</v>
-      </c>
-      <c r="AM175">
-        <v>1.55</v>
-      </c>
-      <c r="AN175">
-        <v>1.6</v>
-      </c>
-      <c r="AO175">
-        <v>1.6</v>
-      </c>
-      <c r="AP175">
-        <v>1.63</v>
-      </c>
-      <c r="AQ175">
+      <c r="BI175">
+        <v>1.8</v>
+      </c>
+      <c r="BJ175">
+        <v>1.89</v>
+      </c>
+      <c r="BK175">
+        <v>2.28</v>
+      </c>
+      <c r="BL175">
+        <v>1.54</v>
+      </c>
+      <c r="BM175">
+        <v>2.95</v>
+      </c>
+      <c r="BN175">
         <v>1.33</v>
       </c>
-      <c r="AR175">
-        <v>2.03</v>
-      </c>
-      <c r="AS175">
-        <v>0.99</v>
-      </c>
-      <c r="AT175">
-        <v>3.02</v>
-      </c>
-      <c r="AU175">
-        <v>5</v>
-      </c>
-      <c r="AV175">
-        <v>10</v>
-      </c>
-      <c r="AW175">
-        <v>2</v>
-      </c>
-      <c r="AX175">
-        <v>2</v>
-      </c>
-      <c r="AY175">
-        <v>7</v>
-      </c>
-      <c r="AZ175">
-        <v>12</v>
-      </c>
-      <c r="BA175">
-        <v>2</v>
-      </c>
-      <c r="BB175">
-        <v>2</v>
-      </c>
-      <c r="BC175">
-        <v>4</v>
-      </c>
-      <c r="BD175">
-        <v>1.94</v>
-      </c>
-      <c r="BE175">
-        <v>6.4</v>
-      </c>
-      <c r="BF175">
-        <v>2.07</v>
-      </c>
-      <c r="BG175">
-        <v>1.44</v>
-      </c>
-      <c r="BH175">
-        <v>2.55</v>
-      </c>
-      <c r="BI175">
-        <v>1.75</v>
-      </c>
-      <c r="BJ175">
-        <v>1.95</v>
-      </c>
-      <c r="BK175">
-        <v>2.2</v>
-      </c>
-      <c r="BL175">
-        <v>1.58</v>
-      </c>
-      <c r="BM175">
-        <v>2.85</v>
-      </c>
-      <c r="BN175">
-        <v>1.36</v>
-      </c>
       <c r="BO175">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BP175">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37596,7 +37596,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7820480</v>
+        <v>7820483</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37611,19 +37611,19 @@
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L177">
         <v>4</v>
@@ -37638,7 +37638,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="Q177">
         <v>2.38</v>
@@ -37668,10 +37668,10 @@
         <v>1.06</v>
       </c>
       <c r="Z177">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA177">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB177">
         <v>5.5</v>
@@ -37686,7 +37686,7 @@
         <v>1.38</v>
       </c>
       <c r="AF177">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG177">
         <v>2.15</v>
@@ -37704,67 +37704,67 @@
         <v>1.17</v>
       </c>
       <c r="AL177">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM177">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN177">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO177">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP177">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="AQ177">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AS177">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT177">
-        <v>2.86</v>
+        <v>3.13</v>
       </c>
       <c r="AU177">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>4</v>
+      </c>
+      <c r="AY177">
+        <v>15</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
         <v>3</v>
       </c>
-      <c r="AW177">
-        <v>9</v>
-      </c>
-      <c r="AX177">
-        <v>3</v>
-      </c>
-      <c r="AY177">
-        <v>17</v>
-      </c>
-      <c r="AZ177">
-        <v>6</v>
-      </c>
-      <c r="BA177">
-        <v>7</v>
-      </c>
-      <c r="BB177">
-        <v>0</v>
-      </c>
       <c r="BC177">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD177">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="BE177">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF177">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BG177">
         <v>1.4</v>
@@ -37773,28 +37773,28 @@
         <v>2.7</v>
       </c>
       <c r="BI177">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="BJ177">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BK177">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BL177">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM177">
         <v>2.65</v>
       </c>
       <c r="BN177">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BO177">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BP177">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37802,7 +37802,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7820483</v>
+        <v>7820480</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37817,19 +37817,19 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L178">
         <v>4</v>
@@ -37844,7 +37844,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37874,10 +37874,10 @@
         <v>1.06</v>
       </c>
       <c r="Z178">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA178">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB178">
         <v>5.5</v>
@@ -37892,7 +37892,7 @@
         <v>1.38</v>
       </c>
       <c r="AF178">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AG178">
         <v>2.15</v>
@@ -37910,67 +37910,67 @@
         <v>1.17</v>
       </c>
       <c r="AL178">
+        <v>1.28</v>
+      </c>
+      <c r="AM178">
+        <v>2.05</v>
+      </c>
+      <c r="AN178">
+        <v>1.5</v>
+      </c>
+      <c r="AO178">
+        <v>0.6</v>
+      </c>
+      <c r="AP178">
+        <v>1.88</v>
+      </c>
+      <c r="AQ178">
+        <v>0.5</v>
+      </c>
+      <c r="AR178">
+        <v>1.59</v>
+      </c>
+      <c r="AS178">
         <v>1.27</v>
       </c>
-      <c r="AM178">
-        <v>2.1</v>
-      </c>
-      <c r="AN178">
-        <v>1.83</v>
-      </c>
-      <c r="AO178">
-        <v>1.67</v>
-      </c>
-      <c r="AP178">
-        <v>2.18</v>
-      </c>
-      <c r="AQ178">
-        <v>1.22</v>
-      </c>
-      <c r="AR178">
-        <v>1.78</v>
-      </c>
-      <c r="AS178">
-        <v>1.35</v>
-      </c>
       <c r="AT178">
-        <v>3.13</v>
+        <v>2.86</v>
       </c>
       <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
         <v>9</v>
       </c>
-      <c r="AV178">
-        <v>5</v>
-      </c>
-      <c r="AW178">
-        <v>4</v>
-      </c>
       <c r="AX178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY178">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ178">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC178">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD178">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="BE178">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF178">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="BG178">
         <v>1.4</v>
@@ -37979,28 +37979,28 @@
         <v>2.7</v>
       </c>
       <c r="BI178">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="BJ178">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BK178">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="BL178">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BM178">
         <v>2.65</v>
       </c>
       <c r="BN178">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BO178">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BP178">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -39489,7 +39489,7 @@
         <v>4</v>
       </c>
       <c r="O186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P186" t="s">
         <v>304</v>
@@ -44642,7 +44642,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -45424,7 +45424,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7820538</v>
+        <v>7820534</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45439,10 +45439,10 @@
         <v>15</v>
       </c>
       <c r="G215" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -45457,31 +45457,31 @@
         <v>1</v>
       </c>
       <c r="M215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O215" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P215" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="Q215">
+        <v>2.6</v>
+      </c>
+      <c r="R215">
+        <v>1.95</v>
+      </c>
+      <c r="S215">
+        <v>5.5</v>
+      </c>
+      <c r="T215">
+        <v>1.57</v>
+      </c>
+      <c r="U215">
         <v>2.25</v>
-      </c>
-      <c r="R215">
-        <v>2</v>
-      </c>
-      <c r="S215">
-        <v>7</v>
-      </c>
-      <c r="T215">
-        <v>1.53</v>
-      </c>
-      <c r="U215">
-        <v>2.38</v>
       </c>
       <c r="V215">
         <v>3.75</v>
@@ -45496,13 +45496,13 @@
         <v>1.05</v>
       </c>
       <c r="Z215">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB215">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -45523,10 +45523,10 @@
         <v>1.5</v>
       </c>
       <c r="AI215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AJ215">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -45538,52 +45538,52 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AO215">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP215">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ215">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="AR215">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS215">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AT215">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU215">
+        <v>7</v>
+      </c>
+      <c r="AV215">
         <v>4</v>
       </c>
-      <c r="AV215">
+      <c r="AW215">
+        <v>8</v>
+      </c>
+      <c r="AX215">
         <v>3</v>
       </c>
-      <c r="AW215">
-        <v>9</v>
-      </c>
-      <c r="AX215">
-        <v>5</v>
-      </c>
       <c r="AY215">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA215">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB215">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC215">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD215">
         <v>0</v>
@@ -45630,7 +45630,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7820534</v>
+        <v>7820538</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45645,10 +45645,10 @@
         <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H216" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -45663,31 +45663,31 @@
         <v>1</v>
       </c>
       <c r="M216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O216" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P216" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="Q216">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T216">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U216">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V216">
         <v>3.75</v>
@@ -45702,13 +45702,13 @@
         <v>1.05</v>
       </c>
       <c r="Z216">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AA216">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB216">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -45729,10 +45729,10 @@
         <v>1.5</v>
       </c>
       <c r="AI216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AJ216">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -45744,52 +45744,52 @@
         <v>0</v>
       </c>
       <c r="AN216">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AO216">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP216">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AQ216">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="AR216">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS216">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT216">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU216">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX216">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY216">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA216">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BB216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC216">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BD216">
         <v>0</v>
@@ -47278,7 +47278,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>7820528</v>
+        <v>7820533</v>
       </c>
       <c r="C224" t="s">
         <v>68</v>
@@ -47293,16 +47293,16 @@
         <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H224" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -47311,52 +47311,52 @@
         <v>2</v>
       </c>
       <c r="M224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O224" t="s">
         <v>228</v>
       </c>
       <c r="P224" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
       </c>
       <c r="R224">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T224">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U224">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V224">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W224">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X224">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y224">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z224">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AA224">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AB224">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AC224">
         <v>0</v>
@@ -47365,22 +47365,22 @@
         <v>0</v>
       </c>
       <c r="AE224">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AF224">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AG224">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AH224">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI224">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ224">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AK224">
         <v>0</v>
@@ -47392,52 +47392,52 @@
         <v>0</v>
       </c>
       <c r="AN224">
+        <v>1.43</v>
+      </c>
+      <c r="AO224">
         <v>1.14</v>
       </c>
-      <c r="AO224">
-        <v>1.71</v>
-      </c>
       <c r="AP224">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AQ224">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR224">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="AS224">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="AT224">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="AU224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV224">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW224">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX224">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY224">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ224">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="BA224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC224">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD224">
         <v>0</v>
@@ -47484,7 +47484,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>7820533</v>
+        <v>7820528</v>
       </c>
       <c r="C225" t="s">
         <v>68</v>
@@ -47499,16 +47499,16 @@
         <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H225" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225">
         <v>1</v>
@@ -47517,133 +47517,133 @@
         <v>2</v>
       </c>
       <c r="M225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O225" t="s">
         <v>229</v>
       </c>
       <c r="P225" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q225">
         <v>3.5</v>
       </c>
       <c r="R225">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S225">
+        <v>3.75</v>
+      </c>
+      <c r="T225">
+        <v>1.62</v>
+      </c>
+      <c r="U225">
+        <v>2.2</v>
+      </c>
+      <c r="V225">
         <v>4</v>
       </c>
-      <c r="T225">
+      <c r="W225">
+        <v>1.22</v>
+      </c>
+      <c r="X225">
+        <v>13</v>
+      </c>
+      <c r="Y225">
+        <v>1.04</v>
+      </c>
+      <c r="Z225">
+        <v>2.69</v>
+      </c>
+      <c r="AA225">
+        <v>2.72</v>
+      </c>
+      <c r="AB225">
+        <v>3.02</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>1.57</v>
+      </c>
+      <c r="AF225">
+        <v>2.3</v>
+      </c>
+      <c r="AG225">
+        <v>2.88</v>
+      </c>
+      <c r="AH225">
+        <v>1.4</v>
+      </c>
+      <c r="AI225">
+        <v>2.25</v>
+      </c>
+      <c r="AJ225">
+        <v>1.57</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>1.14</v>
+      </c>
+      <c r="AO225">
+        <v>1.71</v>
+      </c>
+      <c r="AP225">
+        <v>1.38</v>
+      </c>
+      <c r="AQ225">
         <v>1.67</v>
       </c>
-      <c r="U225">
-        <v>2.1</v>
-      </c>
-      <c r="V225">
-        <v>4.33</v>
-      </c>
-      <c r="W225">
-        <v>1.2</v>
-      </c>
-      <c r="X225">
-        <v>15</v>
-      </c>
-      <c r="Y225">
-        <v>1.03</v>
-      </c>
-      <c r="Z225">
-        <v>2.5</v>
-      </c>
-      <c r="AA225">
+      <c r="AR225">
+        <v>1.68</v>
+      </c>
+      <c r="AS225">
+        <v>1.28</v>
+      </c>
+      <c r="AT225">
+        <v>2.96</v>
+      </c>
+      <c r="AU225">
+        <v>4</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>2</v>
+      </c>
+      <c r="AX225">
         <v>3</v>
       </c>
-      <c r="AB225">
-        <v>3.1</v>
-      </c>
-      <c r="AC225">
-        <v>0</v>
-      </c>
-      <c r="AD225">
-        <v>0</v>
-      </c>
-      <c r="AE225">
-        <v>1.61</v>
-      </c>
-      <c r="AF225">
-        <v>2.15</v>
-      </c>
-      <c r="AG225">
-        <v>3.1</v>
-      </c>
-      <c r="AH225">
-        <v>1.36</v>
-      </c>
-      <c r="AI225">
-        <v>2.38</v>
-      </c>
-      <c r="AJ225">
-        <v>1.53</v>
-      </c>
-      <c r="AK225">
-        <v>0</v>
-      </c>
-      <c r="AL225">
-        <v>0</v>
-      </c>
-      <c r="AM225">
-        <v>0</v>
-      </c>
-      <c r="AN225">
-        <v>1.43</v>
-      </c>
-      <c r="AO225">
-        <v>1.14</v>
-      </c>
-      <c r="AP225">
-        <v>1.63</v>
-      </c>
-      <c r="AQ225">
-        <v>1</v>
-      </c>
-      <c r="AR225">
-        <v>1.26</v>
-      </c>
-      <c r="AS225">
-        <v>1.61</v>
-      </c>
-      <c r="AT225">
-        <v>2.87</v>
-      </c>
-      <c r="AU225">
-        <v>5</v>
-      </c>
-      <c r="AV225">
-        <v>6</v>
-      </c>
-      <c r="AW225">
-        <v>5</v>
-      </c>
-      <c r="AX225">
-        <v>9</v>
-      </c>
       <c r="AY225">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ225">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BA225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC225">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD225">
         <v>0</v>
@@ -47896,7 +47896,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7820540</v>
+        <v>7820545</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47911,10 +47911,10 @@
         <v>16</v>
       </c>
       <c r="G227" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H227" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I227">
         <v>2</v>
@@ -47926,10 +47926,10 @@
         <v>2</v>
       </c>
       <c r="L227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <v>4</v>
@@ -47938,16 +47938,16 @@
         <v>231</v>
       </c>
       <c r="P227" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="Q227">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T227">
         <v>1.53</v>
@@ -47968,94 +47968,94 @@
         <v>1.05</v>
       </c>
       <c r="Z227">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA227">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB227">
+        <v>3.2</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>1.53</v>
+      </c>
+      <c r="AF227">
+        <v>2.37</v>
+      </c>
+      <c r="AG227">
+        <v>2.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.5</v>
+      </c>
+      <c r="AI227">
+        <v>2.1</v>
+      </c>
+      <c r="AJ227">
+        <v>1.67</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>2.13</v>
+      </c>
+      <c r="AO227">
+        <v>0.88</v>
+      </c>
+      <c r="AP227">
+        <v>2.18</v>
+      </c>
+      <c r="AQ227">
+        <v>0.7</v>
+      </c>
+      <c r="AR227">
+        <v>1.76</v>
+      </c>
+      <c r="AS227">
+        <v>1.4</v>
+      </c>
+      <c r="AT227">
+        <v>3.16</v>
+      </c>
+      <c r="AU227">
+        <v>7</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>8</v>
+      </c>
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>18</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
         <v>5</v>
       </c>
-      <c r="AC227">
-        <v>0</v>
-      </c>
-      <c r="AD227">
-        <v>0</v>
-      </c>
-      <c r="AE227">
-        <v>1.49</v>
-      </c>
-      <c r="AF227">
-        <v>2.55</v>
-      </c>
-      <c r="AG227">
-        <v>2.4</v>
-      </c>
-      <c r="AH227">
-        <v>1.53</v>
-      </c>
-      <c r="AI227">
-        <v>2.25</v>
-      </c>
-      <c r="AJ227">
-        <v>1.57</v>
-      </c>
-      <c r="AK227">
-        <v>0</v>
-      </c>
-      <c r="AL227">
-        <v>0</v>
-      </c>
-      <c r="AM227">
-        <v>0</v>
-      </c>
-      <c r="AN227">
-        <v>1</v>
-      </c>
-      <c r="AO227">
-        <v>0.67</v>
-      </c>
-      <c r="AP227">
-        <v>1.25</v>
-      </c>
-      <c r="AQ227">
-        <v>0.57</v>
-      </c>
-      <c r="AR227">
-        <v>1.33</v>
-      </c>
-      <c r="AS227">
-        <v>1.3</v>
-      </c>
-      <c r="AT227">
-        <v>2.63</v>
-      </c>
-      <c r="AU227">
+      <c r="BB227">
         <v>4</v>
       </c>
-      <c r="AV227">
-        <v>6</v>
-      </c>
-      <c r="AW227">
-        <v>5</v>
-      </c>
-      <c r="AX227">
+      <c r="BC227">
         <v>9</v>
-      </c>
-      <c r="AY227">
-        <v>11</v>
-      </c>
-      <c r="AZ227">
-        <v>18</v>
-      </c>
-      <c r="BA227">
-        <v>1</v>
-      </c>
-      <c r="BB227">
-        <v>6</v>
-      </c>
-      <c r="BC227">
-        <v>7</v>
       </c>
       <c r="BD227">
         <v>0</v>
@@ -48102,7 +48102,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7820541</v>
+        <v>7820542</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48117,43 +48117,43 @@
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H228" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O228" t="s">
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="Q228">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="R228">
         <v>1.95</v>
       </c>
       <c r="S228">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T228">
         <v>1.53</v>
@@ -48174,19 +48174,19 @@
         <v>1.05</v>
       </c>
       <c r="Z228">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AA228">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB228">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AC228">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AD228">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE228">
         <v>0</v>
@@ -48201,10 +48201,10 @@
         <v>1.53</v>
       </c>
       <c r="AI228">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ228">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -48216,43 +48216,43 @@
         <v>0</v>
       </c>
       <c r="AN228">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
         <v>1.88</v>
       </c>
       <c r="AQ228">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AR228">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AS228">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT228">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="AU228">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW228">
         <v>4</v>
       </c>
       <c r="AX228">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY228">
+        <v>9</v>
+      </c>
+      <c r="AZ228">
         <v>13</v>
-      </c>
-      <c r="AZ228">
-        <v>23</v>
       </c>
       <c r="BA228">
         <v>5</v>
@@ -48308,7 +48308,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7820542</v>
+        <v>7820540</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48323,43 +48323,43 @@
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H229" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O229" t="s">
         <v>233</v>
       </c>
       <c r="P229" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q229">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T229">
         <v>1.53</v>
@@ -48380,25 +48380,25 @@
         <v>1.05</v>
       </c>
       <c r="Z229">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA229">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB229">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC229">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AD229">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE229">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF229">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG229">
         <v>2.4</v>
@@ -48407,10 +48407,10 @@
         <v>1.53</v>
       </c>
       <c r="AI229">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AJ229">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -48422,52 +48422,52 @@
         <v>0</v>
       </c>
       <c r="AN229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO229">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP229">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR229">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AS229">
         <v>1.3</v>
       </c>
       <c r="AT229">
-        <v>3.09</v>
+        <v>2.63</v>
       </c>
       <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>6</v>
+      </c>
+      <c r="AW229">
         <v>5</v>
       </c>
-      <c r="AV229">
-        <v>4</v>
-      </c>
-      <c r="AW229">
-        <v>4</v>
-      </c>
       <c r="AX229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY229">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ229">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB229">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC229">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD229">
         <v>0</v>
@@ -48514,7 +48514,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7820545</v>
+        <v>7820541</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48529,43 +48529,43 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H230" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O230" t="s">
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="Q230">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="R230">
         <v>1.95</v>
       </c>
       <c r="S230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T230">
         <v>1.53</v>
@@ -48586,13 +48586,13 @@
         <v>1.05</v>
       </c>
       <c r="Z230">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="AA230">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB230">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC230">
         <v>0</v>
@@ -48601,16 +48601,16 @@
         <v>0</v>
       </c>
       <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>2.4</v>
+      </c>
+      <c r="AH230">
         <v>1.53</v>
-      </c>
-      <c r="AF230">
-        <v>2.37</v>
-      </c>
-      <c r="AG230">
-        <v>2.5</v>
-      </c>
-      <c r="AH230">
-        <v>1.5</v>
       </c>
       <c r="AI230">
         <v>2.1</v>
@@ -48628,52 +48628,52 @@
         <v>0</v>
       </c>
       <c r="AN230">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AO230">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AP230">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AQ230">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="AR230">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT230">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="AU230">
         <v>7</v>
       </c>
       <c r="AV230">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW230">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX230">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY230">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ230">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BA230">
         <v>5</v>
       </c>
       <c r="BB230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC230">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48926,7 +48926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7820550</v>
+        <v>7820548</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48941,10 +48941,10 @@
         <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H232" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -48956,28 +48956,28 @@
         <v>1</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O232" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="Q232">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="R232">
         <v>1.83</v>
       </c>
       <c r="S232">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T232">
         <v>1.67</v>
@@ -48998,13 +48998,13 @@
         <v>1.03</v>
       </c>
       <c r="Z232">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AA232">
         <v>2.63</v>
       </c>
       <c r="AB232">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC232">
         <v>0</v>
@@ -49016,7 +49016,7 @@
         <v>1.65</v>
       </c>
       <c r="AF232">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AG232">
         <v>3.1</v>
@@ -49040,52 +49040,52 @@
         <v>0</v>
       </c>
       <c r="AN232">
+        <v>1.29</v>
+      </c>
+      <c r="AO232">
         <v>1.14</v>
       </c>
-      <c r="AO232">
-        <v>1.71</v>
-      </c>
       <c r="AP232">
+        <v>1.5</v>
+      </c>
+      <c r="AQ232">
+        <v>1</v>
+      </c>
+      <c r="AR232">
         <v>1.13</v>
       </c>
-      <c r="AQ232">
-        <v>1.56</v>
-      </c>
-      <c r="AR232">
-        <v>1.8</v>
-      </c>
       <c r="AS232">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AT232">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="AU232">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX232">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ232">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC232">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49132,7 +49132,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7820548</v>
+        <v>7820550</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49147,10 +49147,10 @@
         <v>16</v>
       </c>
       <c r="G233" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H233" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -49162,28 +49162,28 @@
         <v>1</v>
       </c>
       <c r="L233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O233" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P233" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="Q233">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="R233">
         <v>1.83</v>
       </c>
       <c r="S233">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T233">
         <v>1.67</v>
@@ -49204,13 +49204,13 @@
         <v>1.03</v>
       </c>
       <c r="Z233">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AA233">
         <v>2.63</v>
       </c>
       <c r="AB233">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC233">
         <v>0</v>
@@ -49222,7 +49222,7 @@
         <v>1.65</v>
       </c>
       <c r="AF233">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AG233">
         <v>3.1</v>
@@ -49246,52 +49246,52 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AO233">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AP233">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AQ233">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="AS233">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="AT233">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="AU233">
+        <v>2</v>
+      </c>
+      <c r="AV233">
         <v>6</v>
       </c>
-      <c r="AV233">
+      <c r="AW233">
+        <v>4</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
         <v>7</v>
       </c>
-      <c r="AW233">
-        <v>3</v>
-      </c>
-      <c r="AX233">
-        <v>7</v>
-      </c>
-      <c r="AY233">
-        <v>10</v>
-      </c>
       <c r="AZ233">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA233">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB233">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC233">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD233">
         <v>0</v>
@@ -53294,7 +53294,7 @@
         <v>244</v>
       </c>
       <c r="P253" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q253">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -3111,7 +3111,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>1</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -15265,7 +15265,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -20824,7 +20824,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ95">
         <v>0.4</v>
@@ -24741,7 +24741,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR114">
         <v>1.64</v>
@@ -26801,7 +26801,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
         <v>1.45</v>
@@ -30506,7 +30506,7 @@
         <v>0.75</v>
       </c>
       <c r="AP142">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -33393,7 +33393,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR156">
         <v>1.34</v>
@@ -34626,7 +34626,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -40188,7 +40188,7 @@
         <v>0.4</v>
       </c>
       <c r="AP189">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ189">
         <v>0.29</v>
@@ -40809,7 +40809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ192">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR192">
         <v>1.85</v>
@@ -45956,7 +45956,7 @@
         <v>1.57</v>
       </c>
       <c r="AP217">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ217">
         <v>1.33</v>
@@ -47607,7 +47607,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ225">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR225">
         <v>1.68</v>
@@ -51930,7 +51930,7 @@
         <v>1.69</v>
       </c>
       <c r="AP246">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ246">
         <v>1.59</v>
@@ -52342,7 +52342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP248">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ248">
         <v>1.41</v>
@@ -52757,7 +52757,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ250">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AR250">
         <v>1.42</v>
@@ -53169,7 +53169,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ252">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR252">
         <v>1.54</v>
@@ -53450,6 +53450,212 @@
         <v>3.9</v>
       </c>
       <c r="BP253">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7902653</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>76</v>
+      </c>
+      <c r="H254" t="s">
+        <v>93</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254" t="s">
+        <v>100</v>
+      </c>
+      <c r="P254" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q254">
+        <v>2.65</v>
+      </c>
+      <c r="R254">
+        <v>1.87</v>
+      </c>
+      <c r="S254">
+        <v>4.6</v>
+      </c>
+      <c r="T254">
+        <v>1.55</v>
+      </c>
+      <c r="U254">
+        <v>2.25</v>
+      </c>
+      <c r="V254">
+        <v>3.6</v>
+      </c>
+      <c r="W254">
+        <v>1.25</v>
+      </c>
+      <c r="X254">
+        <v>10.5</v>
+      </c>
+      <c r="Y254">
+        <v>1.04</v>
+      </c>
+      <c r="Z254">
+        <v>1.9</v>
+      </c>
+      <c r="AA254">
+        <v>2.8</v>
+      </c>
+      <c r="AB254">
+        <v>3.49</v>
+      </c>
+      <c r="AC254">
+        <v>1.11</v>
+      </c>
+      <c r="AD254">
+        <v>6.25</v>
+      </c>
+      <c r="AE254">
+        <v>1.52</v>
+      </c>
+      <c r="AF254">
+        <v>2.35</v>
+      </c>
+      <c r="AG254">
+        <v>2.3</v>
+      </c>
+      <c r="AH254">
+        <v>1.53</v>
+      </c>
+      <c r="AI254">
+        <v>2.25</v>
+      </c>
+      <c r="AJ254">
+        <v>1.57</v>
+      </c>
+      <c r="AK254">
+        <v>1.22</v>
+      </c>
+      <c r="AL254">
+        <v>1.36</v>
+      </c>
+      <c r="AM254">
+        <v>1.77</v>
+      </c>
+      <c r="AN254">
+        <v>1.94</v>
+      </c>
+      <c r="AO254">
+        <v>1.83</v>
+      </c>
+      <c r="AP254">
+        <v>1.89</v>
+      </c>
+      <c r="AQ254">
+        <v>1.79</v>
+      </c>
+      <c r="AR254">
+        <v>1.51</v>
+      </c>
+      <c r="AS254">
+        <v>1.48</v>
+      </c>
+      <c r="AT254">
+        <v>2.99</v>
+      </c>
+      <c r="AU254">
+        <v>4</v>
+      </c>
+      <c r="AV254">
+        <v>7</v>
+      </c>
+      <c r="AW254">
+        <v>6</v>
+      </c>
+      <c r="AX254">
+        <v>3</v>
+      </c>
+      <c r="AY254">
+        <v>14</v>
+      </c>
+      <c r="AZ254">
+        <v>10</v>
+      </c>
+      <c r="BA254">
+        <v>7</v>
+      </c>
+      <c r="BB254">
+        <v>9</v>
+      </c>
+      <c r="BC254">
+        <v>16</v>
+      </c>
+      <c r="BD254">
+        <v>1.42</v>
+      </c>
+      <c r="BE254">
+        <v>6.75</v>
+      </c>
+      <c r="BF254">
+        <v>3.15</v>
+      </c>
+      <c r="BG254">
+        <v>1.48</v>
+      </c>
+      <c r="BH254">
+        <v>2.43</v>
+      </c>
+      <c r="BI254">
+        <v>1.85</v>
+      </c>
+      <c r="BJ254">
+        <v>1.85</v>
+      </c>
+      <c r="BK254">
+        <v>2.28</v>
+      </c>
+      <c r="BL254">
+        <v>1.54</v>
+      </c>
+      <c r="BM254">
+        <v>2.9</v>
+      </c>
+      <c r="BN254">
+        <v>1.34</v>
+      </c>
+      <c r="BO254">
+        <v>3.9</v>
+      </c>
+      <c r="BP254">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,10 +559,10 @@
     <t>['38', '55']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['33', '54']</t>
   </si>
   <si>
-    <t>['33', '54']</t>
+    <t>['25']</t>
   </si>
   <si>
     <t>['69', '88']</t>
@@ -613,16 +613,16 @@
     <t>['5', '45+3']</t>
   </si>
   <si>
+    <t>['58', '90+1']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['58', '90+1']</t>
+    <t>['16', '65']</t>
   </si>
   <si>
     <t>['24', '48', '68']</t>
-  </si>
-  <si>
-    <t>['16', '65']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -712,19 +712,19 @@
     <t>['26', '27', '60', '65']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['1', '35', '63']</t>
   </si>
   <si>
     <t>['18', '71', '82']</t>
   </si>
   <si>
-    <t>['36', '62', '83']</t>
+    <t>['88']</t>
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['36', '62', '83']</t>
   </si>
   <si>
     <t>['45+3']</t>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP254"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -5789,7 +5789,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -10115,7 +10115,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -16086,10 +16086,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -20209,7 +20209,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR92">
         <v>1.29</v>
@@ -25150,7 +25150,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ116">
         <v>1.44</v>
@@ -26592,7 +26592,7 @@
         <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26720,7 +26720,7 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q124">
         <v>2.63</v>
@@ -29562,7 +29562,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7820453</v>
+        <v>7820454</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29577,10 +29577,10 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H138" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29592,175 +29592,175 @@
         <v>2</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138">
         <v>1</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O138" t="s">
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="Q138">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S138">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T138">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U138">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V138">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W138">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X138">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y138">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z138">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AA138">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB138">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AC138">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AD138">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AE138">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AF138">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AG138">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH138">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI138">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ138">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK138">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AL138">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM138">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AN138">
         <v>3</v>
       </c>
       <c r="AO138">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AS138">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AT138">
-        <v>3.37</v>
+        <v>2.35</v>
       </c>
       <c r="AU138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
         <v>3</v>
-      </c>
-      <c r="AW138">
-        <v>10</v>
       </c>
       <c r="AX138">
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AZ138">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA138">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC138">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD138">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BE138">
         <v>6.75</v>
       </c>
       <c r="BF138">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BG138">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BH138">
+        <v>2.7</v>
+      </c>
+      <c r="BI138">
+        <v>1.66</v>
+      </c>
+      <c r="BJ138">
+        <v>2.07</v>
+      </c>
+      <c r="BK138">
+        <v>2.05</v>
+      </c>
+      <c r="BL138">
+        <v>1.67</v>
+      </c>
+      <c r="BM138">
         <v>2.55</v>
       </c>
-      <c r="BI138">
-        <v>1.73</v>
-      </c>
-      <c r="BJ138">
-        <v>1.97</v>
-      </c>
-      <c r="BK138">
-        <v>2.15</v>
-      </c>
-      <c r="BL138">
-        <v>1.61</v>
-      </c>
-      <c r="BM138">
-        <v>2.8</v>
-      </c>
       <c r="BN138">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="BO138">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="BP138">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29768,7 +29768,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7820454</v>
+        <v>7820453</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29783,10 +29783,10 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -29798,175 +29798,175 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O139" t="s">
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="Q139">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R139">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S139">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T139">
+        <v>1.5</v>
+      </c>
+      <c r="U139">
+        <v>2.5</v>
+      </c>
+      <c r="V139">
+        <v>3.5</v>
+      </c>
+      <c r="W139">
+        <v>1.29</v>
+      </c>
+      <c r="X139">
+        <v>11</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
         <v>1.62</v>
       </c>
-      <c r="U139">
+      <c r="AA139">
+        <v>3.6</v>
+      </c>
+      <c r="AB139">
+        <v>6</v>
+      </c>
+      <c r="AC139">
+        <v>1.07</v>
+      </c>
+      <c r="AD139">
+        <v>8</v>
+      </c>
+      <c r="AE139">
+        <v>1.42</v>
+      </c>
+      <c r="AF139">
+        <v>2.8</v>
+      </c>
+      <c r="AG139">
+        <v>2.3</v>
+      </c>
+      <c r="AH139">
+        <v>1.6</v>
+      </c>
+      <c r="AI139">
         <v>2.2</v>
       </c>
-      <c r="V139">
-        <v>4</v>
-      </c>
-      <c r="W139">
-        <v>1.22</v>
-      </c>
-      <c r="X139">
-        <v>13</v>
-      </c>
-      <c r="Y139">
-        <v>1.04</v>
-      </c>
-      <c r="Z139">
-        <v>1.91</v>
-      </c>
-      <c r="AA139">
-        <v>3.1</v>
-      </c>
-      <c r="AB139">
-        <v>4.75</v>
-      </c>
-      <c r="AC139">
-        <v>1.11</v>
-      </c>
-      <c r="AD139">
-        <v>6.25</v>
-      </c>
-      <c r="AE139">
-        <v>1.51</v>
-      </c>
-      <c r="AF139">
-        <v>2.35</v>
-      </c>
-      <c r="AG139">
-        <v>2.7</v>
-      </c>
-      <c r="AH139">
-        <v>1.44</v>
-      </c>
-      <c r="AI139">
-        <v>2.25</v>
-      </c>
       <c r="AJ139">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AK139">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AL139">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM139">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AN139">
         <v>3</v>
       </c>
       <c r="AO139">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP139">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR139">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AS139">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="AT139">
-        <v>2.35</v>
+        <v>3.37</v>
       </c>
       <c r="AU139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW139">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX139">
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AZ139">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA139">
+        <v>9</v>
+      </c>
+      <c r="BB139">
         <v>4</v>
       </c>
-      <c r="BB139">
-        <v>3</v>
-      </c>
       <c r="BC139">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD139">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BE139">
         <v>6.75</v>
       </c>
       <c r="BF139">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BG139">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BH139">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BI139">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BJ139">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="BK139">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BL139">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BM139">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BN139">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO139">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BP139">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -31951,7 +31951,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ149">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32900,7 +32900,7 @@
         <v>191</v>
       </c>
       <c r="P154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q154">
         <v>3.75</v>
@@ -33270,7 +33270,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7820470</v>
+        <v>7820477</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33285,10 +33285,10 @@
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H156" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33300,175 +33300,175 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="P156" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="Q156">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R156">
         <v>1.8</v>
       </c>
       <c r="S156">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T156">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U156">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W156">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X156">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y156">
         <v>1.03</v>
       </c>
       <c r="Z156">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA156">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB156">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC156">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD156">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AE156">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AF156">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="AG156">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH156">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI156">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ156">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK156">
+        <v>1.34</v>
+      </c>
+      <c r="AL156">
+        <v>1.41</v>
+      </c>
+      <c r="AM156">
         <v>1.49</v>
       </c>
-      <c r="AL156">
-        <v>1.4</v>
-      </c>
-      <c r="AM156">
-        <v>1.35</v>
-      </c>
       <c r="AN156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO156">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AQ156">
-        <v>1.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR156">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AS156">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT156">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="AU156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW156">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX156">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY156">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ156">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BA156">
         <v>3</v>
       </c>
       <c r="BB156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD156">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BE156">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF156">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="BG156">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BH156">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BI156">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ156">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BK156">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="BL156">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="BM156">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BN156">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO156">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP156">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33476,7 +33476,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7820477</v>
+        <v>7820470</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33491,10 +33491,10 @@
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H157" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -33506,175 +33506,175 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="Q157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R157">
         <v>1.8</v>
       </c>
       <c r="S157">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T157">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V157">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W157">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X157">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y157">
         <v>1.03</v>
       </c>
       <c r="Z157">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AA157">
+        <v>2.9</v>
+      </c>
+      <c r="AB157">
+        <v>2.55</v>
+      </c>
+      <c r="AC157">
+        <v>1.12</v>
+      </c>
+      <c r="AD157">
+        <v>5.25</v>
+      </c>
+      <c r="AE157">
+        <v>1.52</v>
+      </c>
+      <c r="AF157">
+        <v>2.45</v>
+      </c>
+      <c r="AG157">
+        <v>3.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.36</v>
+      </c>
+      <c r="AI157">
+        <v>2.38</v>
+      </c>
+      <c r="AJ157">
+        <v>1.53</v>
+      </c>
+      <c r="AK157">
+        <v>1.49</v>
+      </c>
+      <c r="AL157">
+        <v>1.4</v>
+      </c>
+      <c r="AM157">
+        <v>1.35</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
+        <v>1.6</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>1.6</v>
+      </c>
+      <c r="AR157">
+        <v>1.34</v>
+      </c>
+      <c r="AS157">
+        <v>1.34</v>
+      </c>
+      <c r="AT157">
+        <v>2.68</v>
+      </c>
+      <c r="AU157">
         <v>3</v>
       </c>
-      <c r="AB157">
-        <v>3.4</v>
-      </c>
-      <c r="AC157">
-        <v>1.13</v>
-      </c>
-      <c r="AD157">
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>15</v>
+      </c>
+      <c r="AZ157">
         <v>5</v>
-      </c>
-      <c r="AE157">
-        <v>1.6</v>
-      </c>
-      <c r="AF157">
-        <v>2.28</v>
-      </c>
-      <c r="AG157">
-        <v>3.4</v>
-      </c>
-      <c r="AH157">
-        <v>1.33</v>
-      </c>
-      <c r="AI157">
-        <v>2.5</v>
-      </c>
-      <c r="AJ157">
-        <v>1.5</v>
-      </c>
-      <c r="AK157">
-        <v>1.34</v>
-      </c>
-      <c r="AL157">
-        <v>1.41</v>
-      </c>
-      <c r="AM157">
-        <v>1.49</v>
-      </c>
-      <c r="AN157">
-        <v>2</v>
-      </c>
-      <c r="AO157">
-        <v>1</v>
-      </c>
-      <c r="AP157">
-        <v>1.89</v>
-      </c>
-      <c r="AQ157">
-        <v>0.89</v>
-      </c>
-      <c r="AR157">
-        <v>1.71</v>
-      </c>
-      <c r="AS157">
-        <v>1.33</v>
-      </c>
-      <c r="AT157">
-        <v>3.04</v>
-      </c>
-      <c r="AU157">
-        <v>4</v>
-      </c>
-      <c r="AV157">
-        <v>6</v>
-      </c>
-      <c r="AW157">
-        <v>6</v>
-      </c>
-      <c r="AX157">
-        <v>12</v>
-      </c>
-      <c r="AY157">
-        <v>11</v>
-      </c>
-      <c r="AZ157">
-        <v>20</v>
       </c>
       <c r="BA157">
         <v>3</v>
       </c>
       <c r="BB157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC157">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD157">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BE157">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF157">
+        <v>2.18</v>
+      </c>
+      <c r="BG157">
+        <v>1.55</v>
+      </c>
+      <c r="BH157">
+        <v>2.28</v>
+      </c>
+      <c r="BI157">
+        <v>1.85</v>
+      </c>
+      <c r="BJ157">
+        <v>1.85</v>
+      </c>
+      <c r="BK157">
         <v>2.43</v>
       </c>
-      <c r="BG157">
-        <v>1.41</v>
-      </c>
-      <c r="BH157">
-        <v>2.65</v>
-      </c>
-      <c r="BI157">
-        <v>1.68</v>
-      </c>
-      <c r="BJ157">
-        <v>2.04</v>
-      </c>
-      <c r="BK157">
-        <v>1.93</v>
-      </c>
       <c r="BL157">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="BM157">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BN157">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO157">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="BP157">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33682,7 +33682,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7820474</v>
+        <v>7820475</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33697,43 +33697,43 @@
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H158" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M158">
         <v>1</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R158">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T158">
         <v>1.67</v>
@@ -33742,10 +33742,10 @@
         <v>2.1</v>
       </c>
       <c r="V158">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W158">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X158">
         <v>15</v>
@@ -33754,31 +33754,31 @@
         <v>1.03</v>
       </c>
       <c r="Z158">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA158">
+        <v>3</v>
+      </c>
+      <c r="AB158">
+        <v>3.9</v>
+      </c>
+      <c r="AC158">
+        <v>1.12</v>
+      </c>
+      <c r="AD158">
+        <v>5.25</v>
+      </c>
+      <c r="AE158">
+        <v>1.65</v>
+      </c>
+      <c r="AF158">
+        <v>2.1</v>
+      </c>
+      <c r="AG158">
         <v>3.1</v>
       </c>
-      <c r="AB158">
-        <v>4.5</v>
-      </c>
-      <c r="AC158">
-        <v>1.11</v>
-      </c>
-      <c r="AD158">
-        <v>5.5</v>
-      </c>
-      <c r="AE158">
-        <v>1.6</v>
-      </c>
-      <c r="AF158">
-        <v>2.15</v>
-      </c>
-      <c r="AG158">
-        <v>2.88</v>
-      </c>
       <c r="AH158">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI158">
         <v>2.5</v>
@@ -33787,76 +33787,76 @@
         <v>1.5</v>
       </c>
       <c r="AK158">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AL158">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AM158">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AN158">
+        <v>1.2</v>
+      </c>
+      <c r="AO158">
         <v>0.8</v>
       </c>
-      <c r="AO158">
-        <v>1.6</v>
-      </c>
       <c r="AP158">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR158">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AS158">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="AT158">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU158">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>14</v>
+      </c>
+      <c r="AZ158">
+        <v>9</v>
+      </c>
+      <c r="BA158">
         <v>3</v>
       </c>
-      <c r="AX158">
+      <c r="BB158">
         <v>3</v>
       </c>
-      <c r="AY158">
-        <v>5</v>
-      </c>
-      <c r="AZ158">
-        <v>7</v>
-      </c>
-      <c r="BA158">
-        <v>4</v>
-      </c>
-      <c r="BB158">
-        <v>1</v>
-      </c>
       <c r="BC158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD158">
+        <v>1.58</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>2.6</v>
+      </c>
+      <c r="BG158">
         <v>1.43</v>
       </c>
-      <c r="BE158">
-        <v>7</v>
-      </c>
-      <c r="BF158">
-        <v>3.15</v>
-      </c>
-      <c r="BG158">
-        <v>1.35</v>
-      </c>
       <c r="BH158">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="BI158">
         <v>1.7</v>
@@ -33865,22 +33865,22 @@
         <v>2.05</v>
       </c>
       <c r="BK158">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BL158">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BM158">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BN158">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BO158">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BP158">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33888,7 +33888,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7820475</v>
+        <v>7820474</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33903,43 +33903,43 @@
         <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H159" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
         <v>1</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M159">
         <v>1</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="P159" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S159">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T159">
         <v>1.67</v>
@@ -33948,10 +33948,10 @@
         <v>2.1</v>
       </c>
       <c r="V159">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W159">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X159">
         <v>15</v>
@@ -33960,31 +33960,31 @@
         <v>1.03</v>
       </c>
       <c r="Z159">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB159">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AC159">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD159">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AE159">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AF159">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AG159">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AH159">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AI159">
         <v>2.5</v>
@@ -33993,76 +33993,76 @@
         <v>1.5</v>
       </c>
       <c r="AK159">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AL159">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AM159">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AN159">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AO159">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP159">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="AQ159">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AT159">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU159">
+        <v>2</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>3</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>5</v>
+      </c>
+      <c r="AZ159">
         <v>7</v>
       </c>
-      <c r="AV159">
-        <v>3</v>
-      </c>
-      <c r="AW159">
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
         <v>5</v>
       </c>
-      <c r="AX159">
-        <v>5</v>
-      </c>
-      <c r="AY159">
-        <v>14</v>
-      </c>
-      <c r="AZ159">
-        <v>9</v>
-      </c>
-      <c r="BA159">
-        <v>3</v>
-      </c>
-      <c r="BB159">
-        <v>3</v>
-      </c>
-      <c r="BC159">
-        <v>6</v>
-      </c>
       <c r="BD159">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="BE159">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF159">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="BG159">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="BH159">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="BI159">
         <v>1.7</v>
@@ -34071,22 +34071,22 @@
         <v>2.05</v>
       </c>
       <c r="BK159">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BL159">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BM159">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BN159">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BO159">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP159">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -35948,7 +35948,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7820494</v>
+        <v>7820491</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35963,151 +35963,151 @@
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="Q169">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.62</v>
+      </c>
+      <c r="U169">
+        <v>2.2</v>
+      </c>
+      <c r="V169">
         <v>4</v>
       </c>
-      <c r="T169">
+      <c r="W169">
+        <v>1.22</v>
+      </c>
+      <c r="X169">
+        <v>13</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>4.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.14</v>
+      </c>
+      <c r="AD169">
+        <v>6.21</v>
+      </c>
+      <c r="AE169">
+        <v>1.53</v>
+      </c>
+      <c r="AF169">
+        <v>2.3</v>
+      </c>
+      <c r="AG169">
+        <v>2.7</v>
+      </c>
+      <c r="AH169">
+        <v>1.44</v>
+      </c>
+      <c r="AI169">
+        <v>2.25</v>
+      </c>
+      <c r="AJ169">
+        <v>1.57</v>
+      </c>
+      <c r="AK169">
+        <v>1.22</v>
+      </c>
+      <c r="AL169">
+        <v>1.33</v>
+      </c>
+      <c r="AM169">
         <v>1.73</v>
       </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>4.5</v>
-      </c>
-      <c r="W169">
-        <v>1.18</v>
-      </c>
-      <c r="X169">
-        <v>17</v>
-      </c>
-      <c r="Y169">
-        <v>1.03</v>
-      </c>
-      <c r="Z169">
+      <c r="AN169">
         <v>3</v>
       </c>
-      <c r="AA169">
-        <v>2.6</v>
-      </c>
-      <c r="AB169">
+      <c r="AO169">
+        <v>0.8</v>
+      </c>
+      <c r="AP169">
+        <v>2.67</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.32</v>
+      </c>
+      <c r="AS169">
+        <v>0.98</v>
+      </c>
+      <c r="AT169">
+        <v>2.3</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>1</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>5</v>
+      </c>
+      <c r="BA169">
+        <v>10</v>
+      </c>
+      <c r="BB169">
         <v>3</v>
       </c>
-      <c r="AC169">
-        <v>1.17</v>
-      </c>
-      <c r="AD169">
-        <v>5.36</v>
-      </c>
-      <c r="AE169">
-        <v>1.67</v>
-      </c>
-      <c r="AF169">
-        <v>2.05</v>
-      </c>
-      <c r="AG169">
-        <v>3.4</v>
-      </c>
-      <c r="AH169">
-        <v>1.33</v>
-      </c>
-      <c r="AI169">
-        <v>2.38</v>
-      </c>
-      <c r="AJ169">
-        <v>1.53</v>
-      </c>
-      <c r="AK169">
-        <v>1.44</v>
-      </c>
-      <c r="AL169">
-        <v>1.38</v>
-      </c>
-      <c r="AM169">
-        <v>1.38</v>
-      </c>
-      <c r="AN169">
-        <v>0.8</v>
-      </c>
-      <c r="AO169">
-        <v>1.4</v>
-      </c>
-      <c r="AP169">
-        <v>1.13</v>
-      </c>
-      <c r="AQ169">
-        <v>1.33</v>
-      </c>
-      <c r="AR169">
-        <v>1.06</v>
-      </c>
-      <c r="AS169">
-        <v>1.18</v>
-      </c>
-      <c r="AT169">
-        <v>2.24</v>
-      </c>
-      <c r="AU169">
-        <v>2</v>
-      </c>
-      <c r="AV169">
-        <v>6</v>
-      </c>
-      <c r="AW169">
-        <v>6</v>
-      </c>
-      <c r="AX169">
-        <v>3</v>
-      </c>
-      <c r="AY169">
-        <v>10</v>
-      </c>
-      <c r="AZ169">
-        <v>10</v>
-      </c>
-      <c r="BA169">
-        <v>1</v>
-      </c>
-      <c r="BB169">
-        <v>5</v>
-      </c>
       <c r="BC169">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD169">
         <v>1.67</v>
@@ -36125,25 +36125,25 @@
         <v>2.92</v>
       </c>
       <c r="BI169">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BJ169">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BK169">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="BL169">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BM169">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="BN169">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BO169">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="BP169">
         <v>1.2</v>
@@ -36154,7 +36154,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7820491</v>
+        <v>7820494</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36169,151 +36169,151 @@
         <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="Q170">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R170">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.73</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>4.5</v>
+      </c>
+      <c r="W170">
+        <v>1.18</v>
+      </c>
+      <c r="X170">
+        <v>17</v>
+      </c>
+      <c r="Y170">
+        <v>1.03</v>
+      </c>
+      <c r="Z170">
+        <v>3</v>
+      </c>
+      <c r="AA170">
+        <v>2.6</v>
+      </c>
+      <c r="AB170">
+        <v>3</v>
+      </c>
+      <c r="AC170">
+        <v>1.17</v>
+      </c>
+      <c r="AD170">
+        <v>5.36</v>
+      </c>
+      <c r="AE170">
+        <v>1.67</v>
+      </c>
+      <c r="AF170">
+        <v>2.05</v>
+      </c>
+      <c r="AG170">
+        <v>3.4</v>
+      </c>
+      <c r="AH170">
+        <v>1.33</v>
+      </c>
+      <c r="AI170">
+        <v>2.38</v>
+      </c>
+      <c r="AJ170">
+        <v>1.53</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>1.38</v>
+      </c>
+      <c r="AM170">
+        <v>1.38</v>
+      </c>
+      <c r="AN170">
+        <v>0.8</v>
+      </c>
+      <c r="AO170">
+        <v>1.4</v>
+      </c>
+      <c r="AP170">
+        <v>1.13</v>
+      </c>
+      <c r="AQ170">
+        <v>1.33</v>
+      </c>
+      <c r="AR170">
+        <v>1.06</v>
+      </c>
+      <c r="AS170">
+        <v>1.18</v>
+      </c>
+      <c r="AT170">
+        <v>2.24</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>3</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
         <v>5</v>
       </c>
-      <c r="T170">
-        <v>1.62</v>
-      </c>
-      <c r="U170">
-        <v>2.2</v>
-      </c>
-      <c r="V170">
-        <v>4</v>
-      </c>
-      <c r="W170">
-        <v>1.22</v>
-      </c>
-      <c r="X170">
-        <v>13</v>
-      </c>
-      <c r="Y170">
-        <v>1.04</v>
-      </c>
-      <c r="Z170">
-        <v>2</v>
-      </c>
-      <c r="AA170">
-        <v>3</v>
-      </c>
-      <c r="AB170">
-        <v>4.5</v>
-      </c>
-      <c r="AC170">
-        <v>1.14</v>
-      </c>
-      <c r="AD170">
-        <v>6.21</v>
-      </c>
-      <c r="AE170">
-        <v>1.53</v>
-      </c>
-      <c r="AF170">
-        <v>2.3</v>
-      </c>
-      <c r="AG170">
-        <v>2.7</v>
-      </c>
-      <c r="AH170">
-        <v>1.44</v>
-      </c>
-      <c r="AI170">
-        <v>2.25</v>
-      </c>
-      <c r="AJ170">
-        <v>1.57</v>
-      </c>
-      <c r="AK170">
-        <v>1.22</v>
-      </c>
-      <c r="AL170">
-        <v>1.33</v>
-      </c>
-      <c r="AM170">
-        <v>1.73</v>
-      </c>
-      <c r="AN170">
-        <v>3</v>
-      </c>
-      <c r="AO170">
-        <v>0.8</v>
-      </c>
-      <c r="AP170">
-        <v>2.67</v>
-      </c>
-      <c r="AQ170">
-        <v>0.88</v>
-      </c>
-      <c r="AR170">
-        <v>1.32</v>
-      </c>
-      <c r="AS170">
-        <v>0.98</v>
-      </c>
-      <c r="AT170">
-        <v>2.3</v>
-      </c>
-      <c r="AU170">
-        <v>5</v>
-      </c>
-      <c r="AV170">
-        <v>4</v>
-      </c>
-      <c r="AW170">
-        <v>4</v>
-      </c>
-      <c r="AX170">
-        <v>1</v>
-      </c>
-      <c r="AY170">
-        <v>9</v>
-      </c>
-      <c r="AZ170">
-        <v>5</v>
-      </c>
-      <c r="BA170">
-        <v>10</v>
-      </c>
-      <c r="BB170">
-        <v>3</v>
-      </c>
       <c r="BC170">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD170">
         <v>1.67</v>
@@ -36331,25 +36331,25 @@
         <v>2.92</v>
       </c>
       <c r="BI170">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BJ170">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BK170">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BL170">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="BM170">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="BN170">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BO170">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="BP170">
         <v>1.2</v>
@@ -36360,7 +36360,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7820481</v>
+        <v>7820493</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36375,49 +36375,49 @@
         <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N171">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O171" t="s">
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q171">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R171">
         <v>1.95</v>
       </c>
       <c r="S171">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T171">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U171">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V171">
         <v>3.75</v>
@@ -36426,100 +36426,100 @@
         <v>1.25</v>
       </c>
       <c r="X171">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y171">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z171">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AA171">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AB171">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="AC171">
         <v>1.11</v>
       </c>
       <c r="AD171">
-        <v>6.87</v>
+        <v>7.2</v>
       </c>
       <c r="AE171">
+        <v>1.49</v>
+      </c>
+      <c r="AF171">
+        <v>2.55</v>
+      </c>
+      <c r="AG171">
+        <v>2.5</v>
+      </c>
+      <c r="AH171">
         <v>1.5</v>
       </c>
-      <c r="AF171">
-        <v>2.4</v>
-      </c>
-      <c r="AG171">
-        <v>2.6</v>
-      </c>
-      <c r="AH171">
-        <v>1.48</v>
-      </c>
       <c r="AI171">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AJ171">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AK171">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AL171">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM171">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AN171">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AO171">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>0.63</v>
       </c>
       <c r="AQ171">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
-        <v>1.62</v>
+        <v>2.19</v>
       </c>
       <c r="AS171">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="AT171">
-        <v>2.98</v>
+        <v>3.33</v>
       </c>
       <c r="AU171">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV171">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX171">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AY171">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ171">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA171">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB171">
         <v>5</v>
       </c>
       <c r="BC171">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD171">
         <v>1.44</v>
@@ -36531,34 +36531,34 @@
         <v>3.1</v>
       </c>
       <c r="BG171">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="BH171">
-        <v>2.92</v>
+        <v>3.34</v>
       </c>
       <c r="BI171">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="BJ171">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BK171">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="BL171">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BM171">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="BN171">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BO171">
-        <v>3.58</v>
+        <v>3.14</v>
       </c>
       <c r="BP171">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -36566,7 +36566,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7820493</v>
+        <v>7820481</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36581,49 +36581,49 @@
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H172" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O172" t="s">
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q172">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R172">
         <v>1.95</v>
       </c>
       <c r="S172">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T172">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U172">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V172">
         <v>3.75</v>
@@ -36632,100 +36632,100 @@
         <v>1.25</v>
       </c>
       <c r="X172">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y172">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z172">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AA172">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB172">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC172">
         <v>1.11</v>
       </c>
       <c r="AD172">
-        <v>7.2</v>
+        <v>6.87</v>
       </c>
       <c r="AE172">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AF172">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AG172">
+        <v>2.6</v>
+      </c>
+      <c r="AH172">
+        <v>1.48</v>
+      </c>
+      <c r="AI172">
         <v>2.5</v>
       </c>
-      <c r="AH172">
+      <c r="AJ172">
         <v>1.5</v>
       </c>
-      <c r="AI172">
-        <v>2.2</v>
-      </c>
-      <c r="AJ172">
+      <c r="AK172">
+        <v>1.13</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>2.15</v>
+      </c>
+      <c r="AN172">
+        <v>2.6</v>
+      </c>
+      <c r="AO172">
+        <v>0.6</v>
+      </c>
+      <c r="AP172">
+        <v>2</v>
+      </c>
+      <c r="AQ172">
+        <v>0.88</v>
+      </c>
+      <c r="AR172">
         <v>1.62</v>
       </c>
-      <c r="AK172">
-        <v>1.18</v>
-      </c>
-      <c r="AL172">
-        <v>1.28</v>
-      </c>
-      <c r="AM172">
-        <v>1.85</v>
-      </c>
-      <c r="AN172">
-        <v>0.4</v>
-      </c>
-      <c r="AO172">
-        <v>0.67</v>
-      </c>
-      <c r="AP172">
-        <v>0.63</v>
-      </c>
-      <c r="AQ172">
-        <v>0.5</v>
-      </c>
-      <c r="AR172">
-        <v>2.19</v>
-      </c>
       <c r="AS172">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AT172">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="AU172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV172">
+        <v>8</v>
+      </c>
+      <c r="AW172">
+        <v>8</v>
+      </c>
+      <c r="AX172">
         <v>3</v>
       </c>
-      <c r="AW172">
-        <v>9</v>
-      </c>
-      <c r="AX172">
-        <v>17</v>
-      </c>
       <c r="AY172">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ172">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BA172">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB172">
         <v>5</v>
       </c>
       <c r="BC172">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD172">
         <v>1.44</v>
@@ -36737,34 +36737,34 @@
         <v>3.1</v>
       </c>
       <c r="BG172">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="BH172">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="BI172">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="BJ172">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BK172">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BL172">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BM172">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="BN172">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BO172">
-        <v>3.14</v>
+        <v>3.58</v>
       </c>
       <c r="BP172">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -38131,7 +38131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -39158,7 +39158,7 @@
         <v>0.67</v>
       </c>
       <c r="AP184">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -41098,7 +41098,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7820508</v>
+        <v>7820503</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41113,10 +41113,10 @@
         <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H194" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -41131,25 +41131,25 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" t="s">
         <v>100</v>
       </c>
       <c r="P194" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="Q194">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="R194">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T194">
         <v>1.57</v>
@@ -41164,139 +41164,139 @@
         <v>1.25</v>
       </c>
       <c r="X194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y194">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z194">
+        <v>1.7</v>
+      </c>
+      <c r="AA194">
         <v>3.4</v>
       </c>
-      <c r="AA194">
-        <v>3.1</v>
-      </c>
       <c r="AB194">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="AC194">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD194">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE194">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AF194">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AG194">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH194">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI194">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ194">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK194">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AL194">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AM194">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN194">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP194">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AQ194">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AR194">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AS194">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AT194">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW194">
         <v>10</v>
       </c>
       <c r="AX194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY194">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ194">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA194">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC194">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD194">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="BE194">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF194">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="BG194">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH194">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI194">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ194">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK194">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="BL194">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BM194">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BN194">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BO194">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BP194">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41304,7 +41304,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7820503</v>
+        <v>7820508</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41319,10 +41319,10 @@
         <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H195" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41337,25 +41337,25 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" t="s">
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>278</v>
+        <v>100</v>
       </c>
       <c r="Q195">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S195">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T195">
         <v>1.57</v>
@@ -41370,139 +41370,139 @@
         <v>1.25</v>
       </c>
       <c r="X195">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y195">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z195">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="AA195">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB195">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="AC195">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD195">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE195">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AF195">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AG195">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH195">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI195">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ195">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK195">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AL195">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM195">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AN195">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO195">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ195">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AR195">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AS195">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AT195">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
         <v>4</v>
-      </c>
-      <c r="AV195">
-        <v>2</v>
       </c>
       <c r="AW195">
         <v>10</v>
       </c>
       <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>18</v>
+      </c>
+      <c r="AZ195">
+        <v>11</v>
+      </c>
+      <c r="BA195">
         <v>3</v>
       </c>
-      <c r="AY195">
-        <v>17</v>
-      </c>
-      <c r="AZ195">
+      <c r="BB195">
         <v>5</v>
       </c>
-      <c r="BA195">
-        <v>12</v>
-      </c>
-      <c r="BB195">
-        <v>1</v>
-      </c>
       <c r="BC195">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD195">
+        <v>1.94</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>2.05</v>
+      </c>
+      <c r="BG195">
+        <v>1.33</v>
+      </c>
+      <c r="BH195">
+        <v>2.95</v>
+      </c>
+      <c r="BI195">
+        <v>1.56</v>
+      </c>
+      <c r="BJ195">
+        <v>2.23</v>
+      </c>
+      <c r="BK195">
+        <v>1.91</v>
+      </c>
+      <c r="BL195">
+        <v>1.77</v>
+      </c>
+      <c r="BM195">
+        <v>2.4</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
+        <v>3.05</v>
+      </c>
+      <c r="BP195">
         <v>1.3</v>
-      </c>
-      <c r="BE195">
-        <v>7.5</v>
-      </c>
-      <c r="BF195">
-        <v>3.9</v>
-      </c>
-      <c r="BG195">
-        <v>1.38</v>
-      </c>
-      <c r="BH195">
-        <v>2.7</v>
-      </c>
-      <c r="BI195">
-        <v>1.65</v>
-      </c>
-      <c r="BJ195">
-        <v>2.08</v>
-      </c>
-      <c r="BK195">
-        <v>2.02</v>
-      </c>
-      <c r="BL195">
-        <v>1.68</v>
-      </c>
-      <c r="BM195">
-        <v>2.55</v>
-      </c>
-      <c r="BN195">
-        <v>1.44</v>
-      </c>
-      <c r="BO195">
-        <v>3.3</v>
-      </c>
-      <c r="BP195">
-        <v>1.27</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -43693,7 +43693,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR206">
         <v>1.83</v>
@@ -44642,7 +44642,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q211">
         <v>3.25</v>
@@ -44926,7 +44926,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ212">
         <v>1.56</v>
@@ -45424,7 +45424,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7820534</v>
+        <v>7820538</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45439,10 +45439,10 @@
         <v>15</v>
       </c>
       <c r="G215" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H215" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -45457,31 +45457,31 @@
         <v>1</v>
       </c>
       <c r="M215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O215" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P215" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="Q215">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T215">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U215">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V215">
         <v>3.75</v>
@@ -45496,13 +45496,13 @@
         <v>1.05</v>
       </c>
       <c r="Z215">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AA215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB215">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AC215">
         <v>0</v>
@@ -45523,10 +45523,10 @@
         <v>1.5</v>
       </c>
       <c r="AI215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AJ215">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -45538,52 +45538,52 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>2.17</v>
+        <v>1.43</v>
       </c>
       <c r="AO215">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AQ215">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="AR215">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS215">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT215">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU215">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY215">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA215">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BB215">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC215">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BD215">
         <v>0</v>
@@ -45630,7 +45630,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7820538</v>
+        <v>7820534</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45645,10 +45645,10 @@
         <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -45663,31 +45663,31 @@
         <v>1</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O216" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P216" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="Q216">
+        <v>2.6</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>5.5</v>
+      </c>
+      <c r="T216">
+        <v>1.57</v>
+      </c>
+      <c r="U216">
         <v>2.25</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>7</v>
-      </c>
-      <c r="T216">
-        <v>1.53</v>
-      </c>
-      <c r="U216">
-        <v>2.38</v>
       </c>
       <c r="V216">
         <v>3.75</v>
@@ -45702,13 +45702,13 @@
         <v>1.05</v>
       </c>
       <c r="Z216">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA216">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB216">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AC216">
         <v>0</v>
@@ -45729,10 +45729,10 @@
         <v>1.5</v>
       </c>
       <c r="AI216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AJ216">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -45744,52 +45744,52 @@
         <v>0</v>
       </c>
       <c r="AN216">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AO216">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP216">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AQ216">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="AR216">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS216">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AT216">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU216">
+        <v>7</v>
+      </c>
+      <c r="AV216">
         <v>4</v>
       </c>
-      <c r="AV216">
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
         <v>3</v>
       </c>
-      <c r="AW216">
-        <v>9</v>
-      </c>
-      <c r="AX216">
-        <v>5</v>
-      </c>
       <c r="AY216">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA216">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC216">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD216">
         <v>0</v>
@@ -48102,7 +48102,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7820542</v>
+        <v>7820540</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48117,43 +48117,43 @@
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H228" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O228" t="s">
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q228">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T228">
         <v>1.53</v>
@@ -48174,25 +48174,25 @@
         <v>1.05</v>
       </c>
       <c r="Z228">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA228">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB228">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC228">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AD228">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AE228">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF228">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG228">
         <v>2.4</v>
@@ -48201,10 +48201,10 @@
         <v>1.53</v>
       </c>
       <c r="AI228">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AJ228">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AK228">
         <v>0</v>
@@ -48216,52 +48216,52 @@
         <v>0</v>
       </c>
       <c r="AN228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO228">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP228">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AR228">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AS228">
         <v>1.3</v>
       </c>
       <c r="AT228">
-        <v>3.09</v>
+        <v>2.63</v>
       </c>
       <c r="AU228">
+        <v>4</v>
+      </c>
+      <c r="AV228">
+        <v>6</v>
+      </c>
+      <c r="AW228">
         <v>5</v>
       </c>
-      <c r="AV228">
-        <v>4</v>
-      </c>
-      <c r="AW228">
-        <v>4</v>
-      </c>
       <c r="AX228">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY228">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ228">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC228">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD228">
         <v>0</v>
@@ -48308,7 +48308,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7820540</v>
+        <v>7820541</v>
       </c>
       <c r="C229" t="s">
         <v>68</v>
@@ -48323,43 +48323,43 @@
         <v>16</v>
       </c>
       <c r="G229" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H229" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L229">
         <v>3</v>
       </c>
       <c r="M229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O229" t="s">
         <v>233</v>
       </c>
       <c r="P229" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="Q229">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="T229">
         <v>1.53</v>
@@ -48380,13 +48380,13 @@
         <v>1.05</v>
       </c>
       <c r="Z229">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="AA229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB229">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="AC229">
         <v>0</v>
@@ -48395,10 +48395,10 @@
         <v>0</v>
       </c>
       <c r="AE229">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AF229">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AG229">
         <v>2.4</v>
@@ -48407,67 +48407,67 @@
         <v>1.53</v>
       </c>
       <c r="AI229">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ229">
+        <v>1.67</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>1.71</v>
+      </c>
+      <c r="AO229">
+        <v>1.38</v>
+      </c>
+      <c r="AP229">
+        <v>1.88</v>
+      </c>
+      <c r="AQ229">
+        <v>1.22</v>
+      </c>
+      <c r="AR229">
         <v>1.57</v>
       </c>
-      <c r="AK229">
-        <v>0</v>
-      </c>
-      <c r="AL229">
-        <v>0</v>
-      </c>
-      <c r="AM229">
-        <v>0</v>
-      </c>
-      <c r="AN229">
-        <v>1</v>
-      </c>
-      <c r="AO229">
-        <v>0.67</v>
-      </c>
-      <c r="AP229">
-        <v>1.25</v>
-      </c>
-      <c r="AQ229">
-        <v>0.57</v>
-      </c>
-      <c r="AR229">
-        <v>1.33</v>
-      </c>
       <c r="AS229">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU229">
+        <v>7</v>
+      </c>
+      <c r="AV229">
+        <v>7</v>
+      </c>
+      <c r="AW229">
         <v>4</v>
       </c>
-      <c r="AV229">
-        <v>6</v>
-      </c>
-      <c r="AW229">
+      <c r="AX229">
+        <v>12</v>
+      </c>
+      <c r="AY229">
+        <v>13</v>
+      </c>
+      <c r="AZ229">
+        <v>23</v>
+      </c>
+      <c r="BA229">
         <v>5</v>
       </c>
-      <c r="AX229">
-        <v>9</v>
-      </c>
-      <c r="AY229">
-        <v>11</v>
-      </c>
-      <c r="AZ229">
-        <v>18</v>
-      </c>
-      <c r="BA229">
-        <v>1</v>
-      </c>
       <c r="BB229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC229">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD229">
         <v>0</v>
@@ -48514,7 +48514,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7820541</v>
+        <v>7820542</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48529,43 +48529,43 @@
         <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H230" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O230" t="s">
         <v>234</v>
       </c>
       <c r="P230" t="s">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="Q230">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="R230">
         <v>1.95</v>
       </c>
       <c r="S230">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T230">
         <v>1.53</v>
@@ -48586,19 +48586,19 @@
         <v>1.05</v>
       </c>
       <c r="Z230">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AA230">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB230">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AC230">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AD230">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE230">
         <v>0</v>
@@ -48613,10 +48613,10 @@
         <v>1.53</v>
       </c>
       <c r="AI230">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ230">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -48628,43 +48628,43 @@
         <v>0</v>
       </c>
       <c r="AN230">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO230">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP230">
         <v>1.88</v>
       </c>
       <c r="AQ230">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AR230">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AS230">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT230">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="AU230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV230">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW230">
         <v>4</v>
       </c>
       <c r="AX230">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY230">
+        <v>9</v>
+      </c>
+      <c r="AZ230">
         <v>13</v>
-      </c>
-      <c r="AZ230">
-        <v>23</v>
       </c>
       <c r="BA230">
         <v>5</v>
@@ -48926,7 +48926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7820548</v>
+        <v>7820551</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48941,25 +48941,25 @@
         <v>16</v>
       </c>
       <c r="G232" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H232" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N232">
         <v>3</v>
@@ -48968,68 +48968,68 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="Q232">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R232">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T232">
+        <v>1.53</v>
+      </c>
+      <c r="U232">
+        <v>2.38</v>
+      </c>
+      <c r="V232">
+        <v>3.5</v>
+      </c>
+      <c r="W232">
+        <v>1.29</v>
+      </c>
+      <c r="X232">
+        <v>11</v>
+      </c>
+      <c r="Y232">
+        <v>1.05</v>
+      </c>
+      <c r="Z232">
+        <v>1.95</v>
+      </c>
+      <c r="AA232">
+        <v>3.1</v>
+      </c>
+      <c r="AB232">
+        <v>4.33</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>1.5</v>
+      </c>
+      <c r="AF232">
+        <v>2.4</v>
+      </c>
+      <c r="AG232">
+        <v>2.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.5</v>
+      </c>
+      <c r="AI232">
+        <v>2.1</v>
+      </c>
+      <c r="AJ232">
         <v>1.67</v>
       </c>
-      <c r="U232">
-        <v>2.1</v>
-      </c>
-      <c r="V232">
-        <v>4.33</v>
-      </c>
-      <c r="W232">
-        <v>1.2</v>
-      </c>
-      <c r="X232">
-        <v>15</v>
-      </c>
-      <c r="Y232">
-        <v>1.03</v>
-      </c>
-      <c r="Z232">
-        <v>2.9</v>
-      </c>
-      <c r="AA232">
-        <v>2.63</v>
-      </c>
-      <c r="AB232">
-        <v>2.9</v>
-      </c>
-      <c r="AC232">
-        <v>0</v>
-      </c>
-      <c r="AD232">
-        <v>0</v>
-      </c>
-      <c r="AE232">
-        <v>1.65</v>
-      </c>
-      <c r="AF232">
-        <v>2.15</v>
-      </c>
-      <c r="AG232">
-        <v>3.1</v>
-      </c>
-      <c r="AH232">
-        <v>1.36</v>
-      </c>
-      <c r="AI232">
-        <v>2.25</v>
-      </c>
-      <c r="AJ232">
-        <v>1.57</v>
-      </c>
       <c r="AK232">
         <v>0</v>
       </c>
@@ -49040,52 +49040,52 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO232">
-        <v>1.14</v>
+        <v>0.13</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR232">
-        <v>1.13</v>
+        <v>2.12</v>
       </c>
       <c r="AS232">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AT232">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>8</v>
+      </c>
+      <c r="AW232">
+        <v>8</v>
+      </c>
+      <c r="AX232">
+        <v>3</v>
+      </c>
+      <c r="AY232">
+        <v>14</v>
+      </c>
+      <c r="AZ232">
+        <v>13</v>
+      </c>
+      <c r="BA232">
+        <v>4</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
         <v>6</v>
-      </c>
-      <c r="AV232">
-        <v>7</v>
-      </c>
-      <c r="AW232">
-        <v>3</v>
-      </c>
-      <c r="AX232">
-        <v>7</v>
-      </c>
-      <c r="AY232">
-        <v>10</v>
-      </c>
-      <c r="AZ232">
-        <v>15</v>
-      </c>
-      <c r="BA232">
-        <v>0</v>
-      </c>
-      <c r="BB232">
-        <v>3</v>
-      </c>
-      <c r="BC232">
-        <v>3</v>
       </c>
       <c r="BD232">
         <v>0</v>
@@ -49338,7 +49338,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7820551</v>
+        <v>7820548</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49353,25 +49353,25 @@
         <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H234" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N234">
         <v>3</v>
@@ -49380,124 +49380,124 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="Q234">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S234">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T234">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U234">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V234">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W234">
+        <v>1.2</v>
+      </c>
+      <c r="X234">
+        <v>15</v>
+      </c>
+      <c r="Y234">
+        <v>1.03</v>
+      </c>
+      <c r="Z234">
+        <v>2.9</v>
+      </c>
+      <c r="AA234">
+        <v>2.63</v>
+      </c>
+      <c r="AB234">
+        <v>2.9</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>1.65</v>
+      </c>
+      <c r="AF234">
+        <v>2.15</v>
+      </c>
+      <c r="AG234">
+        <v>3.1</v>
+      </c>
+      <c r="AH234">
+        <v>1.36</v>
+      </c>
+      <c r="AI234">
+        <v>2.25</v>
+      </c>
+      <c r="AJ234">
+        <v>1.57</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>0</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
         <v>1.29</v>
       </c>
-      <c r="X234">
-        <v>11</v>
-      </c>
-      <c r="Y234">
-        <v>1.05</v>
-      </c>
-      <c r="Z234">
-        <v>1.95</v>
-      </c>
-      <c r="AA234">
-        <v>3.1</v>
-      </c>
-      <c r="AB234">
-        <v>4.33</v>
-      </c>
-      <c r="AC234">
-        <v>0</v>
-      </c>
-      <c r="AD234">
-        <v>0</v>
-      </c>
-      <c r="AE234">
+      <c r="AO234">
+        <v>1.14</v>
+      </c>
+      <c r="AP234">
         <v>1.5</v>
       </c>
-      <c r="AF234">
-        <v>2.4</v>
-      </c>
-      <c r="AG234">
-        <v>2.5</v>
-      </c>
-      <c r="AH234">
-        <v>1.5</v>
-      </c>
-      <c r="AI234">
-        <v>2.1</v>
-      </c>
-      <c r="AJ234">
-        <v>1.67</v>
-      </c>
-      <c r="AK234">
-        <v>0</v>
-      </c>
-      <c r="AL234">
-        <v>0</v>
-      </c>
-      <c r="AM234">
-        <v>0</v>
-      </c>
-      <c r="AN234">
-        <v>0.71</v>
-      </c>
-      <c r="AO234">
-        <v>0.13</v>
-      </c>
-      <c r="AP234">
-        <v>0.63</v>
-      </c>
       <c r="AQ234">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR234">
-        <v>2.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS234">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AT234">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="AU234">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV234">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW234">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX234">
+        <v>7</v>
+      </c>
+      <c r="AY234">
+        <v>10</v>
+      </c>
+      <c r="AZ234">
+        <v>15</v>
+      </c>
+      <c r="BA234">
+        <v>0</v>
+      </c>
+      <c r="BB234">
         <v>3</v>
       </c>
-      <c r="AY234">
-        <v>14</v>
-      </c>
-      <c r="AZ234">
-        <v>13</v>
-      </c>
-      <c r="BA234">
-        <v>4</v>
-      </c>
-      <c r="BB234">
-        <v>2</v>
-      </c>
       <c r="BC234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD234">
         <v>0</v>
@@ -50285,7 +50285,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ238">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -51106,7 +51106,7 @@
         <v>1.69</v>
       </c>
       <c r="AP242">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ242">
         <v>1.59</v>
@@ -51521,7 +51521,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ244">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR244">
         <v>1.6</v>
@@ -52963,7 +52963,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ251">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR251">
         <v>1.67</v>
@@ -53375,7 +53375,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR253">
         <v>1.9</v>
@@ -53657,6 +53657,212 @@
       </c>
       <c r="BP254">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7903383</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>79</v>
+      </c>
+      <c r="H255" t="s">
+        <v>82</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
+        <v>100</v>
+      </c>
+      <c r="P255" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q255">
+        <v>3.75</v>
+      </c>
+      <c r="R255">
+        <v>1.8</v>
+      </c>
+      <c r="S255">
+        <v>4</v>
+      </c>
+      <c r="T255">
+        <v>1.73</v>
+      </c>
+      <c r="U255">
+        <v>2</v>
+      </c>
+      <c r="V255">
+        <v>4.5</v>
+      </c>
+      <c r="W255">
+        <v>1.18</v>
+      </c>
+      <c r="X255">
+        <v>17</v>
+      </c>
+      <c r="Y255">
+        <v>1.03</v>
+      </c>
+      <c r="Z255">
+        <v>2.7</v>
+      </c>
+      <c r="AA255">
+        <v>2.88</v>
+      </c>
+      <c r="AB255">
+        <v>3</v>
+      </c>
+      <c r="AC255">
+        <v>1.15</v>
+      </c>
+      <c r="AD255">
+        <v>5.25</v>
+      </c>
+      <c r="AE255">
+        <v>1.7</v>
+      </c>
+      <c r="AF255">
+        <v>2</v>
+      </c>
+      <c r="AG255">
+        <v>3.4</v>
+      </c>
+      <c r="AH255">
+        <v>1.33</v>
+      </c>
+      <c r="AI255">
+        <v>2.5</v>
+      </c>
+      <c r="AJ255">
+        <v>1.5</v>
+      </c>
+      <c r="AK255">
+        <v>1.3</v>
+      </c>
+      <c r="AL255">
+        <v>1.42</v>
+      </c>
+      <c r="AM255">
+        <v>1.53</v>
+      </c>
+      <c r="AN255">
+        <v>1.72</v>
+      </c>
+      <c r="AO255">
+        <v>1.5</v>
+      </c>
+      <c r="AP255">
+        <v>1.63</v>
+      </c>
+      <c r="AQ255">
+        <v>1.58</v>
+      </c>
+      <c r="AR255">
+        <v>1.27</v>
+      </c>
+      <c r="AS255">
+        <v>1.25</v>
+      </c>
+      <c r="AT255">
+        <v>2.52</v>
+      </c>
+      <c r="AU255">
+        <v>-1</v>
+      </c>
+      <c r="AV255">
+        <v>-1</v>
+      </c>
+      <c r="AW255">
+        <v>-1</v>
+      </c>
+      <c r="AX255">
+        <v>-1</v>
+      </c>
+      <c r="AY255">
+        <v>-1</v>
+      </c>
+      <c r="AZ255">
+        <v>-1</v>
+      </c>
+      <c r="BA255">
+        <v>5</v>
+      </c>
+      <c r="BB255">
+        <v>3</v>
+      </c>
+      <c r="BC255">
+        <v>8</v>
+      </c>
+      <c r="BD255">
+        <v>1.64</v>
+      </c>
+      <c r="BE255">
+        <v>6.45</v>
+      </c>
+      <c r="BF255">
+        <v>3.04</v>
+      </c>
+      <c r="BG255">
+        <v>1.45</v>
+      </c>
+      <c r="BH255">
+        <v>2.48</v>
+      </c>
+      <c r="BI255">
+        <v>1.85</v>
+      </c>
+      <c r="BJ255">
+        <v>1.85</v>
+      </c>
+      <c r="BK255">
+        <v>2.38</v>
+      </c>
+      <c r="BL255">
+        <v>1.49</v>
+      </c>
+      <c r="BM255">
+        <v>3.2</v>
+      </c>
+      <c r="BN255">
+        <v>1.26</v>
+      </c>
+      <c r="BO255">
+        <v>4.65</v>
+      </c>
+      <c r="BP255">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -53799,22 +53799,22 @@
         <v>2.52</v>
       </c>
       <c r="AU255">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV255">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW255">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX255">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY255">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ255">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA255">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5789,7 +5789,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>0.7</v>
@@ -10115,7 +10115,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ43">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>1.44</v>
@@ -16089,7 +16089,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.21</v>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ84">
         <v>0.14</v>
@@ -20209,7 +20209,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.29</v>
@@ -21648,7 +21648,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ99">
         <v>1.56</v>
@@ -30300,7 +30300,7 @@
         <v>1.75</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ141">
         <v>1.33</v>
@@ -31951,7 +31951,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ149">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -36686,7 +36686,7 @@
         <v>0.6</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -38131,7 +38131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -42866,7 +42866,7 @@
         <v>1.43</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202">
         <v>1.22</v>
@@ -43693,7 +43693,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR206">
         <v>1.83</v>
@@ -49870,7 +49870,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ236">
         <v>1.11</v>
@@ -50285,7 +50285,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ238">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -51521,7 +51521,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ244">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR244">
         <v>1.6</v>
@@ -52342,7 +52342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP248">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AQ248">
         <v>1.41</v>
@@ -52757,7 +52757,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ250">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AR250">
         <v>1.42</v>
@@ -53375,7 +53375,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR253">
         <v>1.9</v>
@@ -53581,7 +53581,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ254">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AR254">
         <v>1.51</v>
@@ -53787,7 +53787,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ255">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR255">
         <v>1.27</v>
@@ -53862,6 +53862,212 @@
         <v>4.65</v>
       </c>
       <c r="BP255">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7905546</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>93</v>
+      </c>
+      <c r="H256" t="s">
+        <v>82</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>100</v>
+      </c>
+      <c r="P256" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q256">
+        <v>3.2</v>
+      </c>
+      <c r="R256">
+        <v>1.78</v>
+      </c>
+      <c r="S256">
+        <v>4</v>
+      </c>
+      <c r="T256">
+        <v>1.65</v>
+      </c>
+      <c r="U256">
+        <v>2.05</v>
+      </c>
+      <c r="V256">
+        <v>4.2</v>
+      </c>
+      <c r="W256">
+        <v>1.2</v>
+      </c>
+      <c r="X256">
+        <v>13</v>
+      </c>
+      <c r="Y256">
+        <v>1.02</v>
+      </c>
+      <c r="Z256">
+        <v>2.4</v>
+      </c>
+      <c r="AA256">
+        <v>2.8</v>
+      </c>
+      <c r="AB256">
+        <v>3.2</v>
+      </c>
+      <c r="AC256">
+        <v>1.15</v>
+      </c>
+      <c r="AD256">
+        <v>4.75</v>
+      </c>
+      <c r="AE256">
+        <v>1.73</v>
+      </c>
+      <c r="AF256">
+        <v>2</v>
+      </c>
+      <c r="AG256">
+        <v>3.2</v>
+      </c>
+      <c r="AH256">
+        <v>1.3</v>
+      </c>
+      <c r="AI256">
+        <v>2.5</v>
+      </c>
+      <c r="AJ256">
+        <v>1.47</v>
+      </c>
+      <c r="AK256">
+        <v>1.32</v>
+      </c>
+      <c r="AL256">
+        <v>1.41</v>
+      </c>
+      <c r="AM256">
+        <v>1.53</v>
+      </c>
+      <c r="AN256">
+        <v>1.79</v>
+      </c>
+      <c r="AO256">
+        <v>1.58</v>
+      </c>
+      <c r="AP256">
+        <v>1.7</v>
+      </c>
+      <c r="AQ256">
+        <v>1.65</v>
+      </c>
+      <c r="AR256">
+        <v>1.48</v>
+      </c>
+      <c r="AS256">
+        <v>1.25</v>
+      </c>
+      <c r="AT256">
+        <v>2.73</v>
+      </c>
+      <c r="AU256">
+        <v>4</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>7</v>
+      </c>
+      <c r="AX256">
+        <v>9</v>
+      </c>
+      <c r="AY256">
+        <v>14</v>
+      </c>
+      <c r="AZ256">
+        <v>14</v>
+      </c>
+      <c r="BA256">
+        <v>1</v>
+      </c>
+      <c r="BB256">
+        <v>3</v>
+      </c>
+      <c r="BC256">
+        <v>4</v>
+      </c>
+      <c r="BD256">
+        <v>1.8</v>
+      </c>
+      <c r="BE256">
+        <v>6.1</v>
+      </c>
+      <c r="BF256">
+        <v>2.23</v>
+      </c>
+      <c r="BG256">
+        <v>1.68</v>
+      </c>
+      <c r="BH256">
+        <v>2.04</v>
+      </c>
+      <c r="BI256">
+        <v>2.1</v>
+      </c>
+      <c r="BJ256">
+        <v>1.64</v>
+      </c>
+      <c r="BK256">
+        <v>2.75</v>
+      </c>
+      <c r="BL256">
+        <v>1.38</v>
+      </c>
+      <c r="BM256">
+        <v>3.7</v>
+      </c>
+      <c r="BN256">
+        <v>1.21</v>
+      </c>
+      <c r="BO256">
+        <v>5.1</v>
+      </c>
+      <c r="BP256">
         <v>1.12</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Argentina Primera División_2025.xlsx
@@ -1693,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -2105,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4">
         <v>9</v>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="AZ5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2517,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA6">
         <v>8</v>
@@ -2723,10 +2723,10 @@
         <v>7</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA8">
         <v>4</v>
@@ -3135,10 +3135,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA9">
         <v>11</v>
@@ -3341,10 +3341,10 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3547,10 +3547,10 @@
         <v>6</v>
       </c>
       <c r="AY11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3753,10 +3753,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3959,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -4168,7 +4168,7 @@
         <v>5</v>
       </c>
       <c r="AZ14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -4371,10 +4371,10 @@
         <v>7</v>
       </c>
       <c r="AY15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4577,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
         <v>9</v>
@@ -4783,10 +4783,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4989,10 +4989,10 @@
         <v>12</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA18">
         <v>2</v>
@@ -5198,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="AZ19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -5401,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ20">
         <v>8</v>
@@ -5607,10 +5607,10 @@
         <v>7</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23">
         <v>4</v>
@@ -6431,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ25">
         <v>5</v>
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
         <v>7</v>
@@ -6843,10 +6843,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -7049,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ28">
         <v>10</v>
@@ -7255,10 +7255,10 @@
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA29">
         <v>7</v>
@@ -7461,7 +7461,7 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
         <v>9</v>
@@ -7667,10 +7667,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7873,10 +7873,10 @@
         <v>5</v>
       </c>
       <c r="AY32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA32">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>9</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -8285,10 +8285,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA34">
         <v>1</v>
@@ -8491,10 +8491,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8697,10 +8697,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>7</v>
@@ -8903,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="AY37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9315,10 +9315,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9521,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="AY40">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ40">
         <v>8</v>
@@ -9727,10 +9727,10 @@
         <v>8</v>
       </c>
       <c r="AY41">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA41">
         <v>3</v>
@@ -9936,7 +9936,7 @@
         <v>10</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA42">
         <v>2</v>
@@ -10139,7 +10139,7 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ43">
         <v>6</v>
@@ -10345,7 +10345,7 @@
         <v>6</v>
       </c>
       <c r="AY44">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
         <v>12</v>
@@ -10551,10 +10551,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA45">
         <v>12</v>
@@ -10757,10 +10757,10 @@
         <v>1</v>
       </c>
       <c r="AY46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -10963,7 +10963,7 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
         <v>11</v>
@@ -11169,10 +11169,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11375,10 +11375,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA50">
         <v>3</v>
@@ -11787,10 +11787,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -11993,10 +11993,10 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -12199,10 +12199,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA53">
         <v>6</v>
@@ -12405,10 +12405,10 @@
         <v>6</v>
       </c>
       <c r="AY54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA54">
         <v>4</v>
@@ -12611,7 +12611,7 @@
         <v>5</v>
       </c>
       <c r="AY55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ55">
         <v>9</v>
@@ -12817,10 +12817,10 @@
         <v>10</v>
       </c>
       <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
         <v>13</v>
-      </c>
-      <c r="AZ56">
-        <v>15</v>
       </c>
       <c r="BA56">
         <v>8</v>
@@ -13023,10 +13023,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA57">
         <v>8</v>
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="AY58">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ58">
         <v>4</v>
@@ -13438,7 +13438,7 @@
         <v>10</v>
       </c>
       <c r="AZ59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13641,10 +13641,10 @@
         <v>2</v>
       </c>
       <c r="AY60">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA60">
         <v>10</v>
@@ -13850,7 +13850,7 @@
         <v>7</v>
       </c>
       <c r="AZ61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA61">
         <v>2</v>
@@ -14053,7 +14053,7 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
         <v>8</v>
@@ -14259,10 +14259,10 @@
         <v>9</v>
       </c>
       <c r="AY63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14465,7 +14465,7 @@
         <v>3</v>
       </c>
       <c r="AY64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ64">
         <v>7</v>
@@ -14674,7 +14674,7 @@
         <v>7</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -15083,10 +15083,10 @@
         <v>8</v>
       </c>
       <c r="AY67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -15495,10 +15495,10 @@
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>1</v>
@@ -15701,10 +15701,10 @@
         <v>10</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -15907,10 +15907,10 @@
         <v>6</v>
       </c>
       <c r="AY71">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA71">
         <v>13</v>
@@ -16113,10 +16113,10 @@
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -16319,10 +16319,10 @@
         <v>8</v>
       </c>
       <c r="AY73">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16528,7 +16528,7 @@
         <v>6</v>
       </c>
       <c r="AZ74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA74">
         <v>8</v>
@@ -16731,10 +16731,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA75">
         <v>3</v>
@@ -16937,10 +16937,10 @@
         <v>9</v>
       </c>
       <c r="AY76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -17143,7 +17143,7 @@
         <v>7</v>
       </c>
       <c r="AY77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ77">
         <v>12</v>
@@ -17349,7 +17349,7 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ78">
         <v>7</v>
@@ -17555,10 +17555,10 @@
         <v>8</v>
       </c>
       <c r="AY79">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ79">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA79">
         <v>9</v>
@@ -17761,10 +17761,10 @@
         <v>12</v>
       </c>
       <c r="AY80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ80">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17967,10 +17967,10 @@
         <v>6</v>
       </c>
       <c r="AY81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ81">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA81">
         <v>7</v>
@@ -18173,10 +18173,10 @@
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA82">
         <v>13</v>
@@ -18379,7 +18379,7 @@
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ83">
         <v>9</v>
@@ -18585,10 +18585,10 @@
         <v>9</v>
       </c>
       <c r="AY84">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ84">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA84">
         <v>6</v>
@@ -18791,10 +18791,10 @@
         <v>5</v>
       </c>
       <c r="AY85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18997,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="AY86">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ86">
         <v>5</v>
@@ -19203,10 +19203,10 @@
         <v>8</v>
       </c>
       <c r="AY87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA87">
         <v>2</v>
@@ -19409,10 +19409,10 @@
         <v>3</v>
       </c>
       <c r="AY88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA88">
         <v>9</v>
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="AY89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ89">
         <v>4</v>
@@ -19821,10 +19821,10 @@
         <v>3</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>7</v>
@@ -20027,10 +20027,10 @@
         <v>10</v>
       </c>
       <c r="AY91">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ91">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA91">
         <v>3</v>
@@ -20233,10 +20233,10 @@
         <v>6</v>
       </c>
       <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
         <v>9</v>
-      </c>
-      <c r="AZ92">
-        <v>10</v>
       </c>
       <c r="BA92">
         <v>3</v>
@@ -20439,7 +20439,7 @@
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ93">
         <v>8</v>
@@ -20645,10 +20645,10 @@
         <v>4</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA94">
         <v>7</v>
@@ -20851,7 +20851,7 @@
         <v>1</v>
       </c>
       <c r="AY95">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ95">
         <v>3</v>
@@ -21057,10 +21057,10 @@
         <v>4</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA96">
         <v>4</v>
@@ -21263,10 +21263,10 @@
         <v>6</v>
       </c>
       <c r="AY97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ97">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA97">
         <v>6</v>
@@ -21469,10 +21469,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA98">
         <v>3</v>
@@ -21675,10 +21675,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21884,7 +21884,7 @@
         <v>12</v>
       </c>
       <c r="AZ100">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA100">
         <v>3</v>
@@ -22087,10 +22087,10 @@
         <v>4</v>
       </c>
       <c r="AY101">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22296,7 +22296,7 @@
         <v>11</v>
       </c>
       <c r="AZ102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA102">
         <v>3</v>
@@ -22499,10 +22499,10 @@
         <v>4</v>
       </c>
       <c r="AY103">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA103">
         <v>10</v>
@@ -22705,10 +22705,10 @@
         <v>1</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -22911,10 +22911,10 @@
         <v>8</v>
       </c>
       <c r="AY105">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ105">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA105">
         <v>5</v>
@@ -23323,10 +23323,10 @@
         <v>7</v>
       </c>
       <c r="AY107">
+        <v>12</v>
+      </c>
+      <c r="AZ107">
         <v>13</v>
-      </c>
-      <c r="AZ107">
-        <v>16</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23529,10 +23529,10 @@
         <v>7</v>
       </c>
       <c r="AY108">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ108">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA108">
         <v>6</v>
@@ -23735,10 +23735,10 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ109">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA109">
         <v>7</v>
@@ -23941,7 +23941,7 @@
         <v>6</v>
       </c>
       <c r="AY110">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ110">
         <v>6</v>
@@ -24147,10 +24147,10 @@
         <v>2</v>
       </c>
       <c r="AY111">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AZ111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA111">
         <v>8</v>
@@ -24356,7 +24356,7 @@
         <v>5</v>
       </c>
       <c r="AZ112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA112">
         <v>4</v>
@@ -24559,10 +24559,10 @@
         <v>2</v>
       </c>
       <c r="AY113">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA113">
         <v>7</v>
@@ -24765,7 +24765,7 @@
         <v>6</v>
       </c>
       <c r="AY114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ114">
         <v>13</v>
@@ -24974,7 +24974,7 @@
         <v>7</v>
       </c>
       <c r="AZ115">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA115">
         <v>2</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="AY116">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ116">
         <v>9</v>
@@ -25383,10 +25383,10 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ117">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA117">
         <v>7</v>
@@ -25592,7 +25592,7 @@
         <v>4</v>
       </c>
       <c r="AZ118">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA118">
         <v>4</v>
@@ -25798,7 +25798,7 @@
         <v>2</v>
       </c>
       <c r="AZ119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA119">
         <v>3</v>
@@ -26001,10 +26001,10 @@
         <v>6</v>
       </c>
       <c r="AY120">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA120">
         <v>5</v>
@@ -26207,10 +26207,10 @@
         <v>4</v>
       </c>
       <c r="AY121">
+        <v>11</v>
+      </c>
+      <c r="AZ121">
         <v>12</v>
-      </c>
-      <c r="AZ121">
-        <v>13</v>
       </c>
       <c r="BA121">
         <v>2</v>
@@ -26413,10 +26413,10 @@
         <v>2</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -26619,10 +26619,10 @@
         <v>4</v>
       </c>
       <c r="AY123">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA123">
         <v>3</v>
@@ -26825,10 +26825,10 @@
         <v>7</v>
       </c>
       <c r="AY124">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ124">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -27034,7 +27034,7 @@
         <v>9</v>
       </c>
       <c r="AZ125">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA125">
         <v>2</v>
@@ -27237,10 +27237,10 @@
         <v>11</v>
       </c>
       <c r="AY126">
+        <v>17</v>
+      </c>
+      <c r="AZ126">
         <v>23</v>
-      </c>
-      <c r="AZ126">
-        <v>27</v>
       </c>
       <c r="BA126">
         <v>4</v>
@@ -27443,10 +27443,10 @@
         <v>7</v>
       </c>
       <c r="AY127">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AZ127">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA127">
         <v>6</v>
@@ -27649,10 +27649,10 @@
         <v>7</v>
       </c>
       <c r="AY128">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ128">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -27855,10 +27855,10 @@
         <v>2</v>
       </c>
       <c r="AY129">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA129">
         <v>9</v>
@@ -28061,7 +28061,7 @@
         <v>2</v>
       </c>
       <c r="AY130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ130">
         <v>6</v>
@@ -28267,10 +28267,10 @@
         <v>3</v>
       </c>
       <c r="AY131">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ131">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA131">
         <v>11</v>
@@ -28473,7 +28473,7 @@
         <v>2</v>
       </c>
       <c r="AY132">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ132">
         <v>4</v>
@@ -28682,7 +28682,7 @@
         <v>11</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA133">
         <v>5</v>
@@ -28885,10 +28885,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA134">
         <v>6</v>
@@ -29094,7 +29094,7 @@
         <v>9</v>
       </c>
       <c r="AZ135">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA135">
         <v>10</v>
@@ -29300,7 +29300,7 @@
         <v>7</v>
       </c>
       <c r="AZ136">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA136">
         <v>3</v>
@@ -29503,10 +29503,10 @@
         <v>14</v>
       </c>
       <c r="AY137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ137">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA137">
         <v>5</v>
@@ -29709,10 +29709,10 @@
         <v>5</v>
       </c>
       <c r="AY138">
+        <v>9</v>
+      </c>
+      <c r="AZ138">
         <v>11</v>
-      </c>
-      <c r="AZ138">
-        <v>12</v>
       </c>
       <c r="BA138">
         <v>4</v>
@@ -29915,10 +29915,10 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA139">
         <v>9</v>
@@ -30121,10 +30121,10 @@
         <v>8</v>
       </c>
       <c r="AY140">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ140">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA140">
         <v>2</v>
@@ -30330,7 +30330,7 @@
         <v>8</v>
       </c>
       <c r="AZ141">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA141">
         <v>1</v>
@@ -30533,7 +30533,7 @@
         <v>2</v>
       </c>
       <c r="AY142">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ142">
         <v>9</v>
@@ -30739,10 +30739,10 @@
         <v>6</v>
       </c>
       <c r="AY143">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA143">
         <v>3</v>
@@ -30945,7 +30945,7 @@
         <v>1</v>
       </c>
       <c r="AY144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ144">
         <v>4</v>
@@ -31151,10 +31151,10 @@
         <v>2</v>
       </c>
       <c r="AY145">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31357,10 +31357,10 @@
         <v>10</v>
       </c>
       <c r="AY146">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ146">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA146">
         <v>5</v>
@@ -31769,10 +31769,10 @@
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ148">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA148">
         <v>7</v>
@@ -31975,7 +31975,7 @@
         <v>6</v>
       </c>
       <c r="AY149">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ149">
         <v>13</v>
@@ -32181,7 +32181,7 @@
         <v>4</v>
       </c>
       <c r="AY150">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AZ150">
         <v>6</v>
@@ -32387,10 +32387,10 @@
         <v>2</v>
       </c>
       <c r="AY151">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ151">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA151">
         <v>0</v>
@@ -32593,10 +32593,10 @@
         <v>11</v>
       </c>
       <c r="AY152">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ152">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA152">
         <v>5</v>
@@ -32799,10 +32799,10 @@
         <v>12</v>
       </c>
       <c r="AY153">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ153">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA153">
         <v>4</v>
@@ -33005,10 +33005,10 @@
         <v>5</v>
       </c>
       <c r="AY154">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA154">
         <v>2</v>
@@ -33214,7 +33214,7 @@
         <v>8</v>
       </c>
       <c r="AZ155">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA155">
         <v>0</v>
@@ -33417,10 +33417,10 @@
         <v>12</v>
       </c>
       <c r="AY156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ156">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA156">
         <v>3</v>
@@ -33623,7 +33623,7 @@
         <v>2</v>
       </c>
       <c r="AY157">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ157">
         <v>5</v>
@@ -33829,10 +33829,10 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ158">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA158">
         <v>3</v>
@@ -34241,7 +34241,7 @@
         <v>3</v>
       </c>
       <c r="AY160">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ160">
         <v>5</v>
@@ -34447,10 +34447,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ161">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA161">
         <v>2</v>
@@ -34653,10 +34653,10 @@
         <v>3</v>
       </c>
       <c r="AY162">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ162">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA162">
         <v>3</v>
@@ -34859,10 +34859,10 @@
         <v>4</v>
       </c>
       <c r="AY163">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ163">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA163">
         <v>4</v>
@@ -35065,10 +35065,10 @@
         <v>7</v>
       </c>
       <c r="AY164">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ164">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA164">
         <v>5</v>
@@ -35271,10 +35271,10 @@
         <v>6</v>
       </c>
       <c r="AY165">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AZ165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA165">
         <v>8</v>
@@ -35480,7 +35480,7 @@
         <v>8</v>
       </c>
       <c r="AZ166">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA166">
         <v>3</v>
@@ -35683,10 +35683,10 @@
         <v>4</v>
       </c>
       <c r="AY167">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ167">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA167">
         <v>9</v>
@@ -35889,7 +35889,7 @@
         <v>2</v>
       </c>
       <c r="AY168">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ168">
         <v>5</v>
@@ -36301,10 +36301,10 @@
         <v>3</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA170">
         <v>1</v>
@@ -36507,10 +36507,10 @@
         <v>17</v>
       </c>
       <c r="AY171">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ171">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA171">
         <v>9</v>
@@ -36713,10 +36713,10 @@
         <v>3</v>
       </c>
       <c r="AY172">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ172">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA172">
         <v>5</v>
@@ -36919,10 +36919,10 @@
         <v>5</v>
       </c>
       <c r="AY173">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ173">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA173">
         <v>4</v>
@@ -37537,10 +37537,10 @@
         <v>8</v>
       </c>
       <c r="AY176">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ176">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA176">
         <v>6</v>
@@ -37743,10 +37743,10 @@
         <v>4</v>
       </c>
       <c r="AY177">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ177">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA177">
         <v>2</v>
@@ -37949,7 +37949,7 @@
         <v>3</v>
       </c>
       <c r="AY178">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ178">
         <v>6</v>
@@ -38158,7 +38158,7 @@
         <v>8</v>
       </c>
       <c r="AZ179">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA179">
         <v>1</v>
@@ -38361,10 +38361,10 @@
         <v>3</v>
       </c>
       <c r="AY180">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38567,10 +38567,10 @@
         <v>6</v>
       </c>
       <c r="AY181">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ181">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA181">
         <v>4</v>
@@ -38773,10 +38773,10 @@
         <v>2</v>
       </c>
       <c r="AY182">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA182">
         <v>5</v>
@@ -38979,10 +38979,10 @@
         <v>3</v>
       </c>
       <c r="AY183">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ183">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA183">
         <v>7</v>
@@ -39394,7 +39394,7 @@
         <v>4</v>
       </c>
       <c r="AZ185">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA185">
         <v>2</v>
@@ -39597,10 +39597,10 @@
         <v>5</v>
       </c>
       <c r="AY186">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ186">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA186">
         <v>4</v>
@@ -39803,10 +39803,10 @@
         <v>5</v>
       </c>
       <c r="AY187">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ187">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA187">
         <v>3</v>
@@ -40009,10 +40009,10 @@
         <v>3</v>
       </c>
       <c r="AY188">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA188">
         <v>4</v>
@@ -40215,7 +40215,7 @@
         <v>3</v>
       </c>
       <c r="AY189">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ189">
         <v>7</v>
@@ -40421,10 +40421,10 @@
         <v>5</v>
       </c>
       <c r="AY190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ190">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA190">
         <v>5</v>
@@ -40627,10 +40627,10 @@
         <v>9</v>
       </c>
       <c r="AY191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ191">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA191">
         <v>4</v>
@@ -40836,7 +40836,7 @@
         <v>8</v>
       </c>
       <c r="AZ192">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA192">
         <v>5</v>
@@ -41042,7 +41042,7 @@
         <v>14</v>
       </c>
       <c r="AZ193">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BA193">
         <v>2</v>
@@ -41245,7 +41245,7 @@
         <v>3</v>
       </c>
       <c r="AY194">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ194">
         <v>5</v>
@@ -41451,10 +41451,10 @@
         <v>6</v>
       </c>
       <c r="AY195">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ195">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA195">
         <v>3</v>
@@ -41657,10 +41657,10 @@
         <v>6</v>
       </c>
       <c r="AY196">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ196">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA196">
         <v>5</v>
@@ -41866,7 +41866,7 @@
         <v>10</v>
       </c>
       <c r="AZ197">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA197">
         <v>2</v>
@@ -42069,10 +42069,10 @@
         <v>7</v>
       </c>
       <c r="AY198">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ198">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA198">
         <v>9</v>
@@ -42275,10 +42275,10 @@
         <v>3</v>
       </c>
       <c r="AY199">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ199">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA199">
         <v>5</v>
@@ -42481,10 +42481,10 @@
         <v>7</v>
       </c>
       <c r="AY200">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ200">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA200">
         <v>10</v>
@@ -42687,7 +42687,7 @@
         <v>5</v>
       </c>
       <c r="AY201">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ201">
         <v>7</v>
@@ -42893,7 +42893,7 @@
         <v>5</v>
       </c>
       <c r="AY202">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ202">
         <v>9</v>
@@ -43099,10 +43099,10 @@
         <v>8</v>
       </c>
       <c r="AY203">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ203">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA203">
         <v>2</v>
@@ -43305,7 +43305,7 @@
         <v>2</v>
       </c>
       <c r="AY204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ204">
         <v>6</v>
@@ -43511,7 +43511,7 @@
         <v>3</v>
       </c>
       <c r="AY205">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ205">
         <v>7</v>
@@ -43717,10 +43717,10 @@
         <v>6</v>
       </c>
       <c r="AY206">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ206">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA206">
         <v>7</v>
@@ -43923,10 +43923,10 @@
         <v>14</v>
       </c>
       <c r="AY207">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ207">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA207">
         <v>2</v>
@@ -44129,7 +44129,7 @@
         <v>4</v>
       </c>
       <c r="AY208">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ208">
         <v>4</v>
@@ -44335,7 +44335,7 @@
         <v>2</v>
       </c>
       <c r="AY209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ209">
         <v>7</v>
@@ -44541,10 +44541,10 @@
         <v>16</v>
       </c>
       <c r="AY210">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ210">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BA210">
         <v>3</v>
@@ -44747,10 +44747,10 @@
         <v>10</v>
       </c>
       <c r="AY211">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ211">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA211">
         <v>2</v>
@@ -45159,10 +45159,10 @@
         <v>8</v>
       </c>
       <c r="AY213">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ213">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA213">
         <v>2</v>
@@ -45365,10 +45365,10 @@
         <v>6</v>
       </c>
       <c r="AY214">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ214">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA214">
         <v>4</v>
@@ -45571,10 +45571,10 @@
         <v>5</v>
       </c>
       <c r="AY215">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA215">
         <v>5</v>
@@ -45777,10 +45777,10 @@
         <v>3</v>
       </c>
       <c r="AY216">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA216">
         <v>13</v>
@@ -45983,10 +45983,10 @@
         <v>7</v>
       </c>
       <c r="AY217">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ217">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA217">
         <v>9</v>
@@ -46189,10 +46189,10 @@
         <v>3</v>
       </c>
       <c r="AY218">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ218">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA218">
         <v>5</v>
@@ -46601,10 +46601,10 @@
         <v>8</v>
       </c>
       <c r="AY220">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AZ220">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA220">
         <v>6</v>
@@ -46807,10 +46807,10 @@
         <v>4</v>
       </c>
       <c r="AY221">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ221">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA221">
         <v>5</v>
@@ -47013,7 +47013,7 @@
         <v>3</v>
       </c>
       <c r="AY222">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ222">
         <v>7</v>
@@ -47219,10 +47219,10 @@
         <v>7</v>
       </c>
       <c r="AY223">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ223">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA223">
         <v>1</v>
@@ -47425,10 +47425,10 @@
         <v>9</v>
       </c>
       <c r="AY224">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ224">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA224">
         <v>5</v>
@@ -47631,7 +47631,7 @@
         <v>3</v>
       </c>
       <c r="AY225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ225">
         <v>3</v>
@@ -47840,7 +47840,7 @@
         <v>8</v>
       </c>
       <c r="AZ226">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA226">
         <v>3</v>
@@ -48043,7 +48043,7 @@
         <v>4</v>
       </c>
       <c r="AY227">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ227">
         <v>7</v>
@@ -48249,10 +48249,10 @@
         <v>9</v>
       </c>
       <c r="AY228">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ228">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA228">
         <v>1</v>
@@ -48455,10 +48455,10 @@
         <v>12</v>
       </c>
       <c r="AY229">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ229">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA229">
         <v>5</v>
@@ -48664,7 +48664,7 @@
         <v>9</v>
       </c>
       <c r="AZ230">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA230">
         <v>5</v>
@@ -48867,7 +48867,7 @@
         <v>4</v>
       </c>
       <c r="AY231">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ231">
         <v>6</v>
@@ -49073,10 +49073,10 @@
         <v>3</v>
       </c>
       <c r="AY232">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ232">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA232">
         <v>4</v>
@@ -49279,10 +49279,10 @@
         <v>5</v>
       </c>
       <c r="AY233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ233">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA233">
         <v>5</v>
@@ -49485,10 +49485,10 @@
         <v>7</v>
       </c>
       <c r="AY234">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ234">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA234">
         <v>0</v>
@@ -49694,7 +49694,7 @@
         <v>15</v>
       </c>
       <c r="AZ235">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA235">
         <v>1</v>
@@ -49897,10 +49897,10 @@
         <v>7</v>
       </c>
       <c r="AY236">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ236">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA236">
         <v>7</v>
@@ -50103,10 +50103,10 @@
         <v>7</v>
       </c>
       <c r="AY237">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ237">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA237">
         <v>5</v>
@@ -50309,7 +50309,7 @@
         <v>3</v>
       </c>
       <c r="AY238">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ238">
         <v>9</v>
@@ -50515,10 +50515,10 @@
         <v>8</v>
       </c>
       <c r="AY239">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ239">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA239">
         <v>4</v>
@@ -50721,10 +50721,10 @@
         <v>5</v>
       </c>
       <c r="AY240">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ240">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA240">
         <v>4</v>
@@ -51136,7 +51136,7 @@
         <v>6</v>
       </c>
       <c r="AZ242">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA242">
         <v>3</v>
@@ -51342,7 +51342,7 @@
         <v>17</v>
       </c>
       <c r="AZ243">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA243">
         <v>2</v>
@@ -51548,7 +51548,7 @@
         <v>8</v>
       </c>
       <c r="AZ244">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA244">
         <v>9</v>
@@ -51751,10 +51751,10 @@
         <v>14</v>
       </c>
       <c r="AY245">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ245">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA245">
         <v>4</v>
@@ -51957,10 +51957,10 @@
         <v>7</v>
       </c>
       <c r="AY246">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ246">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA246">
         <v>7</v>
@@ -52163,10 +52163,10 @@
         <v>5</v>
       </c>
       <c r="AY247">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ247">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA247">
         <v>4</v>
@@ -52369,7 +52369,7 @@
         <v>5</v>
       </c>
       <c r="AY248">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ248">
         <v>9</v>
@@ -52575,10 +52575,10 @@
         <v>3</v>
       </c>
       <c r="AY249">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ249">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA249">
         <v>3</v>
@@ -52781,7 +52781,7 @@
         <v>4</v>
       </c>
       <c r="AY250">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ250">
         <v>8</v>
@@ -52987,10 +52987,10 @@
         <v>3</v>
       </c>
       <c r="AY251">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ251">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA251">
         <v>4</v>
@@ -53193,10 +53193,10 @@
         <v>8</v>
       </c>
       <c r="AY252">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ252">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA252">
         <v>7</v>
@@ -53399,7 +53399,7 @@
         <v>4</v>
       </c>
       <c r="AY253">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ253">
         <v>8</v>
@@ -53605,7 +53605,7 @@
         <v>3</v>
       </c>
       <c r="AY254">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ254">
         <v>10</v>
@@ -53811,7 +53811,7 @@
         <v>5</v>
       </c>
       <c r="AY255">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ255">
         <v>9</v>
@@ -54011,16 +54011,16 @@
         <v>4</v>
       </c>
       <c r="AW256">
+        <v>3</v>
+      </c>
+      <c r="AX256">
+        <v>8</v>
+      </c>
+      <c r="AY256">
         <v>7</v>
       </c>
-      <c r="AX256">
-        <v>9</v>
-      </c>
-      <c r="AY256">
-        <v>14</v>
-      </c>
       <c r="AZ256">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA256">
         <v>1</v>
